--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="4" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model1!$M$1:$M$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model1!$M$1:$M$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'model1&amp;2'!$A$1:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model1&amp;CCI'!$M$1:$M$168</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model1&amp;KDJ'!$R$1:$R$169</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model1&amp;RSI'!$R$1:$R$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model1&amp;CCI'!$M$1:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model1&amp;KDJ'!$R$1:$R$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model1&amp;RSI'!$R$1:$R$18</definedName>
     <definedName name="金额" localSheetId="0">OFFSET(model1!I1,0,0,COUNTA(model1!I:I)-1)</definedName>
     <definedName name="金额" localSheetId="4">OFFSET('model1&amp;2'!J1,0,0,COUNTA('model1&amp;2'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model1&amp;CCI'!I1,0,0,COUNTA('model1&amp;CCI'!I:I)-1)</definedName>
@@ -1972,14 +1972,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2311,6 +2310,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2777,11 +2777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634880384"/>
-        <c:axId val="634881920"/>
+        <c:axId val="428926848"/>
+        <c:axId val="500089984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="634880384"/>
+        <c:axId val="428926848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,14 +2824,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634881920"/>
+        <c:crossAx val="500089984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="634881920"/>
+        <c:axId val="500089984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2882,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634880384"/>
+        <c:crossAx val="428926848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2896,6 +2896,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3469,11 +3470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637169664"/>
-        <c:axId val="637171200"/>
+        <c:axId val="520579712"/>
+        <c:axId val="558764416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637169664"/>
+        <c:axId val="520579712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,14 +3517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637171200"/>
+        <c:crossAx val="558764416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637171200"/>
+        <c:axId val="558764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637169664"/>
+        <c:crossAx val="520579712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4161,11 +4162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669318144"/>
-        <c:axId val="703697664"/>
+        <c:axId val="674002432"/>
+        <c:axId val="674003968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669318144"/>
+        <c:axId val="674002432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,14 +4209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="703697664"/>
+        <c:crossAx val="674003968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="703697664"/>
+        <c:axId val="674003968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +4267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669318144"/>
+        <c:crossAx val="674002432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4853,11 +4854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="702260736"/>
-        <c:axId val="702262272"/>
+        <c:axId val="675760000"/>
+        <c:axId val="675761536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="702260736"/>
+        <c:axId val="675760000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,14 +4901,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702262272"/>
+        <c:crossAx val="675761536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="702262272"/>
+        <c:axId val="675761536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4958,7 +4959,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702260736"/>
+        <c:crossAx val="675760000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5079,7 +5080,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5546,11 +5546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="702442112"/>
-        <c:axId val="702443904"/>
+        <c:axId val="570596736"/>
+        <c:axId val="570598528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="702442112"/>
+        <c:axId val="570596736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,14 +5593,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702443904"/>
+        <c:crossAx val="570598528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="702443904"/>
+        <c:axId val="570598528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,7 +5651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702442112"/>
+        <c:crossAx val="570596736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5665,7 +5665,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5744,8 +5743,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5781,8 +5780,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5818,8 +5817,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5855,8 +5854,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5892,8 +5891,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22287,10 +22286,10 @@
             <v>5555987.6610887097</v>
           </cell>
           <cell r="N312">
-            <v>0</v>
+            <v>0.69499999284744263</v>
           </cell>
           <cell r="O312">
-            <v>0</v>
+            <v>0.67799997329711914</v>
           </cell>
           <cell r="P312">
             <v>0.6993333101272583</v>
@@ -22309,6 +22308,801 @@
           </cell>
           <cell r="U312">
             <v>-112.42427728939072</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="A313">
+            <v>44844</v>
+          </cell>
+          <cell r="B313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="C313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="D313">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E313">
+            <v>0.67900002002716064</v>
+          </cell>
+          <cell r="F313">
+            <v>2245002</v>
+          </cell>
+          <cell r="G313">
+            <v>1540.2440185546875</v>
+          </cell>
+          <cell r="H313">
+            <v>311</v>
+          </cell>
+          <cell r="I313">
+            <v>5545341.4049437298</v>
+          </cell>
+          <cell r="N313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="O313">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P313">
+            <v>0.6839999953905741</v>
+          </cell>
+          <cell r="Q313">
+            <v>0.71971427826654344</v>
+          </cell>
+          <cell r="R313">
+            <v>-3.5714282875969339E-2</v>
+          </cell>
+          <cell r="S313">
+            <v>1.4149665021571991E-2</v>
+          </cell>
+          <cell r="T313">
+            <v>2.1224497532357987E-4</v>
+          </cell>
+          <cell r="U313">
+            <v>-168.26915606139005</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="A314">
+            <v>44845</v>
+          </cell>
+          <cell r="B314">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="C314">
+            <v>0.68599998950958252</v>
+          </cell>
+          <cell r="D314">
+            <v>0.68000000715255737</v>
+          </cell>
+          <cell r="E314">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="F314">
+            <v>1981100</v>
+          </cell>
+          <cell r="G314">
+            <v>1354.720947265625</v>
+          </cell>
+          <cell r="H314">
+            <v>312</v>
+          </cell>
+          <cell r="I314">
+            <v>5533917.554286859</v>
+          </cell>
+          <cell r="N314">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="O314">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P314">
+            <v>0.68333333730697632</v>
+          </cell>
+          <cell r="Q314">
+            <v>0.71419046890167959</v>
+          </cell>
+          <cell r="R314">
+            <v>-3.0857131594703269E-2</v>
+          </cell>
+          <cell r="S314">
+            <v>1.3095242636544371E-2</v>
+          </cell>
+          <cell r="T314">
+            <v>1.9642863954816555E-4</v>
+          </cell>
+          <cell r="U314">
+            <v>-157.09079727723159</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="A315">
+            <v>44846</v>
+          </cell>
+          <cell r="B315">
+            <v>0.68199998140335083</v>
+          </cell>
+          <cell r="C315">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="D315">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E315">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="F315">
+            <v>3683321</v>
+          </cell>
+          <cell r="G315">
+            <v>2556.885009765625</v>
+          </cell>
+          <cell r="H315">
+            <v>313</v>
+          </cell>
+          <cell r="I315">
+            <v>5528005.1052316297</v>
+          </cell>
+          <cell r="N315">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="O315">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P315">
+            <v>0.6940000057220459</v>
+          </cell>
+          <cell r="Q315">
+            <v>0.71069046996888663</v>
+          </cell>
+          <cell r="R315">
+            <v>-1.669046424684073E-2</v>
+          </cell>
+          <cell r="S315">
+            <v>1.2119049117678693E-2</v>
+          </cell>
+          <cell r="T315">
+            <v>1.8178573676518039E-4</v>
+          </cell>
+          <cell r="U315">
+            <v>-91.813937351974118</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="A316">
+            <v>44847</v>
+          </cell>
+          <cell r="B316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="C316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="D316">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="E316">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="F316">
+            <v>2085700</v>
+          </cell>
+          <cell r="G316">
+            <v>1470.1500244140625</v>
+          </cell>
+          <cell r="H316">
+            <v>314</v>
+          </cell>
+          <cell r="I316">
+            <v>5517042.3501194268</v>
+          </cell>
+          <cell r="N316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="O316">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P316">
+            <v>0.70866668224334717</v>
+          </cell>
+          <cell r="Q316">
+            <v>0.70897618645713456</v>
+          </cell>
+          <cell r="R316">
+            <v>-3.0950421378739268E-4</v>
+          </cell>
+          <cell r="S316">
+            <v>1.0792514499352868E-2</v>
+          </cell>
+          <cell r="T316">
+            <v>1.61887717490293E-4</v>
+          </cell>
+          <cell r="U316">
+            <v>-1.9118449415778005</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="A317">
+            <v>44848</v>
+          </cell>
+          <cell r="B317">
+            <v>0.70099997520446777</v>
+          </cell>
+          <cell r="C317">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D317">
+            <v>0.70099997520446777</v>
+          </cell>
+          <cell r="E317">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="F317">
+            <v>2803100</v>
+          </cell>
+          <cell r="G317">
+            <v>2006.97998046875</v>
+          </cell>
+          <cell r="H317">
+            <v>315</v>
+          </cell>
+          <cell r="I317">
+            <v>5508426.6601190474</v>
+          </cell>
+          <cell r="N317">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="O317">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P317">
+            <v>0.71799999475479126</v>
+          </cell>
+          <cell r="Q317">
+            <v>0.70821428157034383</v>
+          </cell>
+          <cell r="R317">
+            <v>9.785713184447431E-3</v>
+          </cell>
+          <cell r="S317">
+            <v>1.0312925390645726E-2</v>
+          </cell>
+          <cell r="T317">
+            <v>1.5469388085968588E-4</v>
+          </cell>
+          <cell r="U317">
+            <v>63.258566725877806</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="A318">
+            <v>44851</v>
+          </cell>
+          <cell r="B318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D318">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E318">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="F318">
+            <v>3419204</v>
+          </cell>
+          <cell r="G318">
+            <v>2482.27392578125</v>
+          </cell>
+          <cell r="H318">
+            <v>316</v>
+          </cell>
+          <cell r="I318">
+            <v>5501815.1960047465</v>
+          </cell>
+          <cell r="N318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="O318">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P318">
+            <v>0.72566666205724084</v>
+          </cell>
+          <cell r="Q318">
+            <v>0.70788094685191205</v>
+          </cell>
+          <cell r="R318">
+            <v>1.7785715205328789E-2</v>
+          </cell>
+          <cell r="S318">
+            <v>1.0122448408684743E-2</v>
+          </cell>
+          <cell r="T318">
+            <v>1.5183672613027115E-4</v>
+          </cell>
+          <cell r="U318">
+            <v>117.13710943733865</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="A319">
+            <v>44852</v>
+          </cell>
+          <cell r="B319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="C319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="D319">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="E319">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="F319">
+            <v>2292600</v>
+          </cell>
+          <cell r="G319">
+            <v>1672.51904296875</v>
+          </cell>
+          <cell r="H319">
+            <v>317</v>
+          </cell>
+          <cell r="I319">
+            <v>5491691.4887618292</v>
+          </cell>
+          <cell r="N319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O319">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P319">
+            <v>0.73366665840148926</v>
+          </cell>
+          <cell r="Q319">
+            <v>0.70871427939051679</v>
+          </cell>
+          <cell r="R319">
+            <v>2.495237901097247E-2</v>
+          </cell>
+          <cell r="S319">
+            <v>1.0605438023197395E-2</v>
+          </cell>
+          <cell r="T319">
+            <v>1.5908157034796093E-4</v>
+          </cell>
+          <cell r="U319">
+            <v>156.85273257231398</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="A320">
+            <v>44853</v>
+          </cell>
+          <cell r="B320">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="C320">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D320">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="E320">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="F320">
+            <v>4453704</v>
+          </cell>
+          <cell r="G320">
+            <v>3243.928955078125</v>
+          </cell>
+          <cell r="H320">
+            <v>318</v>
+          </cell>
+          <cell r="I320">
+            <v>5488427.3771619499</v>
+          </cell>
+          <cell r="N320">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O320">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P320">
+            <v>0.72733332713445031</v>
+          </cell>
+          <cell r="Q320">
+            <v>0.70947618427730752</v>
+          </cell>
+          <cell r="R320">
+            <v>1.7857142857142794E-2</v>
+          </cell>
+          <cell r="S320">
+            <v>1.121768335095878E-2</v>
+          </cell>
+          <cell r="T320">
+            <v>1.6826525026438169E-4</v>
+          </cell>
+          <cell r="U320">
+            <v>106.12495942617562</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="A321">
+            <v>44854</v>
+          </cell>
+          <cell r="B321">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C321">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D321">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="E321">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F321">
+            <v>5247100</v>
+          </cell>
+          <cell r="G321">
+            <v>3749.001953125</v>
+          </cell>
+          <cell r="H321">
+            <v>319</v>
+          </cell>
+          <cell r="I321">
+            <v>5487670.8650078373</v>
+          </cell>
+          <cell r="N321">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O321">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P321">
+            <v>0.71666665871938073</v>
+          </cell>
+          <cell r="Q321">
+            <v>0.71002380337033955</v>
+          </cell>
+          <cell r="R321">
+            <v>6.6428553490411879E-3</v>
+          </cell>
+          <cell r="S321">
+            <v>1.1591834275900921E-2</v>
+          </cell>
+          <cell r="T321">
+            <v>1.7387751413851382E-4</v>
+          </cell>
+          <cell r="U321">
+            <v>38.204223139223025</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="A322">
+            <v>44855</v>
+          </cell>
+          <cell r="B322">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C322">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="D322">
+            <v>0.71200001239776611</v>
+          </cell>
+          <cell r="E322">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="F322">
+            <v>3382502</v>
+          </cell>
+          <cell r="G322">
+            <v>2419.902099609375</v>
+          </cell>
+          <cell r="H322">
+            <v>320</v>
+          </cell>
+          <cell r="I322">
+            <v>5481092.2123046871</v>
+          </cell>
+          <cell r="N322">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O322">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P322">
+            <v>0.71466666460037231</v>
+          </cell>
+          <cell r="Q322">
+            <v>0.71023809058325627</v>
+          </cell>
+          <cell r="R322">
+            <v>4.4285740171160493E-3</v>
+          </cell>
+          <cell r="S322">
+            <v>1.1775509029829601E-2</v>
+          </cell>
+          <cell r="T322">
+            <v>1.7663263544744401E-4</v>
+          </cell>
+          <cell r="U322">
+            <v>25.072229749036072</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="A323">
+            <v>44858</v>
+          </cell>
+          <cell r="B323">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="C323">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D323">
+            <v>0.69599997997283936</v>
+          </cell>
+          <cell r="E323">
+            <v>0.70300000905990601</v>
+          </cell>
+          <cell r="F323">
+            <v>2591900</v>
+          </cell>
+          <cell r="G323">
+            <v>1839.9659423828125</v>
+          </cell>
+          <cell r="H323">
+            <v>321</v>
+          </cell>
+          <cell r="I323">
+            <v>5472091.6135124611</v>
+          </cell>
+          <cell r="N323">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O323">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P323">
+            <v>0.7066666682561239</v>
+          </cell>
+          <cell r="Q323">
+            <v>0.70945237647919424</v>
+          </cell>
+          <cell r="R323">
+            <v>-2.7857082230703378E-3</v>
+          </cell>
+          <cell r="S323">
+            <v>1.1530608546977152E-2</v>
+          </cell>
+          <cell r="T323">
+            <v>1.7295912820465727E-4</v>
+          </cell>
+          <cell r="U323">
+            <v>-16.106164803132529</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="A324">
+            <v>44859</v>
+          </cell>
+          <cell r="B324">
+            <v>0.69800001382827759</v>
+          </cell>
+          <cell r="C324">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="D324">
+            <v>0.69099998474121094</v>
+          </cell>
+          <cell r="E324">
+            <v>0.69800001382827759</v>
+          </cell>
+          <cell r="F324">
+            <v>5515601</v>
+          </cell>
+          <cell r="G324">
+            <v>3848.76708984375</v>
+          </cell>
+          <cell r="H324">
+            <v>322</v>
+          </cell>
+          <cell r="I324">
+            <v>5472226.7358307457</v>
+          </cell>
+          <cell r="N324">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O324">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P324">
+            <v>0.69866667191187537</v>
+          </cell>
+          <cell r="Q324">
+            <v>0.70859523472331809</v>
+          </cell>
+          <cell r="R324">
+            <v>-9.9285628114427205E-3</v>
+          </cell>
+          <cell r="S324">
+            <v>1.2224488517865053E-2</v>
+          </cell>
+          <cell r="T324">
+            <v>1.833673277679758E-4</v>
+          </cell>
+          <cell r="U324">
+            <v>-54.145757220205809</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="A325">
+            <v>44860</v>
+          </cell>
+          <cell r="B325">
+            <v>0.70300000905990601</v>
+          </cell>
+          <cell r="C325">
+            <v>0.71799999475479126</v>
+          </cell>
+          <cell r="D325">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="E325">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="F325">
+            <v>2935600</v>
+          </cell>
+          <cell r="G325">
+            <v>2079.35595703125</v>
+          </cell>
+          <cell r="H325">
+            <v>323</v>
+          </cell>
+          <cell r="I325">
+            <v>5464373.402283282</v>
+          </cell>
+          <cell r="N325">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O325">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P325">
+            <v>0.71100000540415442</v>
+          </cell>
+          <cell r="Q325">
+            <v>0.70869047443071975</v>
+          </cell>
+          <cell r="R325">
+            <v>2.3095309734346703E-3</v>
+          </cell>
+          <cell r="S325">
+            <v>1.2309521436691293E-2</v>
+          </cell>
+          <cell r="T325">
+            <v>1.846428215503694E-4</v>
+          </cell>
+          <cell r="U325">
+            <v>12.508100526424444</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="A326">
+            <v>44861</v>
+          </cell>
+          <cell r="B326">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="C326">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="D326">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E326">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="F326">
+            <v>3527200</v>
+          </cell>
+          <cell r="G326">
+            <v>2511.2080078125</v>
+          </cell>
+          <cell r="H326">
+            <v>324</v>
+          </cell>
+          <cell r="I326">
+            <v>5458394.4720293209</v>
+          </cell>
+          <cell r="N326">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O326">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P326">
+            <v>0.7096666693687439</v>
+          </cell>
+          <cell r="Q326">
+            <v>0.70942857151939742</v>
+          </cell>
+          <cell r="R326">
+            <v>2.3809784934647471E-4</v>
+          </cell>
+          <cell r="S326">
+            <v>1.1605438326491817E-2</v>
+          </cell>
+          <cell r="T326">
+            <v>1.7408157489737724E-4</v>
+          </cell>
+          <cell r="U326">
+            <v>1.3677372202476665</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="A327">
+            <v>44862</v>
+          </cell>
+          <cell r="B327">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="C327">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="D327">
+            <v>0.6809999942779541</v>
+          </cell>
+          <cell r="E327">
+            <v>0.68300002813339233</v>
+          </cell>
+          <cell r="F327">
+            <v>3020700</v>
+          </cell>
+          <cell r="G327">
+            <v>2104.006103515625</v>
+          </cell>
+          <cell r="H327">
+            <v>325</v>
+          </cell>
+          <cell r="I327">
+            <v>5450893.8736538459</v>
+          </cell>
+          <cell r="N327">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="O327">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="P327">
+            <v>0.68866668144861853</v>
+          </cell>
+          <cell r="Q327">
+            <v>0.7097619062378292</v>
+          </cell>
+          <cell r="R327">
+            <v>-2.1095224789210665E-2</v>
+          </cell>
+          <cell r="S327">
+            <v>1.1238089629582004E-2</v>
+          </cell>
+          <cell r="T327">
+            <v>1.6857134444373006E-4</v>
+          </cell>
+          <cell r="U327">
+            <v>-125.14122645710022</v>
           </cell>
         </row>
       </sheetData>
@@ -22336,7 +23130,9 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2"/>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -25754,9 +26550,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -25789,1251 +26585,749 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
         <v>2000</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>44377</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <f>VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0309999999999999</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f>C2</f>
         <v>2000</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f t="shared" ref="D3:D18" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f>E2+D3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F18" si="1">E3*B3</f>
         <v>2000</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f>G2+C3</f>
         <v>2000</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f t="shared" ref="H3:H18" si="2">F3</f>
         <v>2000</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I18" si="3">H3-G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="M3" s="23" t="s">
+      <c r="J3" s="7"/>
+      <c r="M3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>44407</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <f>VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.006</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C18" si="4">C3</f>
         <v>2000</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
         <v>1988.0715705765408</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <f t="shared" ref="E4:E18" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" si="1"/>
         <v>3951.503394762367</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G18" si="6">G3+C4</f>
         <v>4000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f t="shared" si="2"/>
         <v>3951.503394762367</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f t="shared" si="3"/>
         <v>-48.496605237633048</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="M4" s="22">
+      <c r="J4" s="7"/>
+      <c r="M4" s="21">
         <v>44561</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <f>O4</f>
         <v>14000</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>VLOOKUP(M4,A:G,7,)</f>
         <v>14000</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>VLOOKUP(M4,A:H,8,)</f>
         <v>13975.257794570207</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <f>VLOOKUP(M4,A:I,9,)</f>
         <v>-24.742205429793103</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <f t="shared" ref="R4" si="7">(P4-O4)/O4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <f>R4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>44439</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <f>VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96599999999999997</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" si="5"/>
         <v>5998.3291548230773</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="1"/>
         <v>5794.3859635590925</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" si="6"/>
         <v>6000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" si="2"/>
         <v>5794.3859635590925</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f t="shared" si="3"/>
         <v>-205.61403644090751</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>44469</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <f>VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96099999999999997</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>2081.1654526534862</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" si="5"/>
         <v>8079.494607476563</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>7764.3943177849769</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f t="shared" si="2"/>
         <v>7764.3943177849769</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f t="shared" si="3"/>
         <v>-235.60568221502308</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>44498</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99299997091293335</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>2014.098749833056</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f t="shared" si="5"/>
         <v>10093.593357309619</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>10022.937910215429</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f t="shared" si="2"/>
         <v>10022.937910215429</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f t="shared" si="3"/>
         <v>22.937910215428928</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>44530</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0110000371932983</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>1978.239294186702</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="5"/>
         <v>12071.832651496321</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>12204.623259654054</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="6"/>
         <v>12000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="2"/>
         <v>12204.623259654054</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="3"/>
         <v>204.62325965405398</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>44561</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99199998378753662</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>2016.1290652080834</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f t="shared" si="5"/>
         <v>14087.961716704405</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" si="1"/>
         <v>13975.257794570207</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f t="shared" si="2"/>
         <v>13975.257794570207</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f t="shared" si="3"/>
         <v>-24.742205429793103</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44589</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.89099997282028198</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
         <v>2244.6689798086081</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f t="shared" si="5"/>
         <v>16332.630696513013</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
         <v>14552.373506676799</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f t="shared" si="2"/>
         <v>14552.373506676799</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f t="shared" si="3"/>
         <v>-1447.6264933232014</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>44620</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.88200002908706665</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>2267.573621363872</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f t="shared" si="5"/>
         <v>18600.204317876887</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
         <v>16405.380749392796</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <f t="shared" si="6"/>
         <v>18000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f t="shared" si="2"/>
         <v>16405.380749392796</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f t="shared" si="3"/>
         <v>-1594.6192506072039</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="U11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>44651</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.79199999570846558</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>2525.2525389358689</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" si="5"/>
         <v>21125.456856812758</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
         <v>16731.361739935081</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" si="2"/>
         <v>16731.361739935081</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" si="3"/>
         <v>-3268.6382600649195</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="7"/>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>44680</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.71899998188018799</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f t="shared" si="0"/>
         <v>2781.6412383905649</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f t="shared" si="5"/>
         <v>23907.098095203324</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" si="1"/>
         <v>17189.203097259066</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" si="6"/>
         <v>22000</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f t="shared" si="2"/>
         <v>17189.203097259066</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f t="shared" si="3"/>
         <v>-4810.7969027409345</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>44712</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.74699997901916504</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f t="shared" si="0"/>
         <v>2677.3762465509894</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f t="shared" si="5"/>
         <v>26584.474341754314</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" si="1"/>
         <v>19858.601775526004</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" si="2"/>
         <v>19858.601775526004</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" si="3"/>
         <v>-4141.3982244739964</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>44742</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.84500002861022949</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <f t="shared" si="0"/>
         <v>2366.8638251875536</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f t="shared" si="5"/>
         <v>28951.338166941867</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <f t="shared" si="1"/>
         <v>24463.881579370307</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" si="6"/>
         <v>26000</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f t="shared" si="2"/>
         <v>24463.881579370307</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f t="shared" si="3"/>
         <v>-1536.118420629693</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>44771</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.80099999904632568</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
         <v>2496.8789043460788</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f t="shared" si="5"/>
         <v>31448.217071287945</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f t="shared" si="1"/>
         <v>25190.021844110288</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <f t="shared" si="6"/>
         <v>28000</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f t="shared" si="2"/>
         <v>25190.021844110288</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f t="shared" si="3"/>
         <v>-2809.9781558897121</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A17" s="17">
+    <row r="17" spans="1:10" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>44804</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.76499998569488525</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f t="shared" si="0"/>
         <v>2614.3791338548936</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f t="shared" si="5"/>
         <v>34062.596205142836</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" si="1"/>
         <v>26057.885609664922</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>26057.885609664922</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f t="shared" si="3"/>
         <v>-3942.1143903350785</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A18" s="17">
+    <row r="18" spans="1:10" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>44834</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.69599997997283936</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f t="shared" si="0"/>
         <v>2873.5633010766005</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" si="5"/>
         <v>36936.159506219439</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f t="shared" si="1"/>
         <v>25707.566276602331</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" si="6"/>
         <v>32000</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f t="shared" si="2"/>
         <v>25707.566276602331</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f t="shared" si="3"/>
         <v>-6292.4337233976694</v>
       </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J22" s="8"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J34" s="8"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J45" s="8"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J57" s="8"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J69" s="8"/>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J81" s="8"/>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J92" s="8"/>
-    </row>
-    <row r="93" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J93" s="8"/>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J98" s="8"/>
-    </row>
-    <row r="99" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J100" s="8"/>
-    </row>
-    <row r="101" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J101" s="8"/>
-    </row>
-    <row r="102" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J103" s="8"/>
-    </row>
-    <row r="104" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J104" s="8"/>
-    </row>
-    <row r="105" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J105" s="8"/>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J117" s="8"/>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J120" s="8"/>
-    </row>
-    <row r="121" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J122" s="8"/>
-    </row>
-    <row r="123" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J127" s="8"/>
-    </row>
-    <row r="128" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J128" s="8"/>
-    </row>
-    <row r="129" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J129" s="8"/>
-      <c r="M129" s="3"/>
-    </row>
-    <row r="130" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J132" s="8"/>
-    </row>
-    <row r="133" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J133" s="8"/>
-    </row>
-    <row r="134" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J134" s="8"/>
-    </row>
-    <row r="135" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J135" s="8"/>
-    </row>
-    <row r="136" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J136" s="8"/>
-    </row>
-    <row r="137" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J137" s="8"/>
-    </row>
-    <row r="138" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J138" s="8"/>
-    </row>
-    <row r="139" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J139" s="8"/>
-    </row>
-    <row r="140" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J140" s="8"/>
-    </row>
-    <row r="141" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J141" s="8"/>
-      <c r="M141" s="3"/>
-    </row>
-    <row r="142" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J142" s="8"/>
-    </row>
-    <row r="143" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J143" s="8"/>
-    </row>
-    <row r="144" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J144" s="8"/>
-    </row>
-    <row r="145" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J145" s="8"/>
-    </row>
-    <row r="146" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J146" s="8"/>
-    </row>
-    <row r="147" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J147" s="8"/>
-    </row>
-    <row r="148" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J149" s="8"/>
-    </row>
-    <row r="150" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J150" s="8"/>
-    </row>
-    <row r="151" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J151" s="8"/>
-    </row>
-    <row r="152" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J152" s="8"/>
-    </row>
-    <row r="153" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J153" s="8"/>
-      <c r="M153" s="3"/>
-    </row>
-    <row r="154" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J154" s="8"/>
-    </row>
-    <row r="155" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J155" s="8"/>
-    </row>
-    <row r="156" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J156" s="8"/>
-    </row>
-    <row r="157" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J157" s="8"/>
-    </row>
-    <row r="158" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J160" s="8"/>
-    </row>
-    <row r="161" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J161" s="8"/>
-    </row>
-    <row r="162" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J162" s="8"/>
-    </row>
-    <row r="163" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J163" s="8"/>
-    </row>
-    <row r="164" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J164" s="8"/>
-    </row>
-    <row r="165" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J165" s="8"/>
-      <c r="M165" s="3"/>
-    </row>
-    <row r="166" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J166" s="8"/>
-    </row>
-    <row r="167" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J167" s="8"/>
-    </row>
-    <row r="168" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J168" s="8"/>
-    </row>
-    <row r="169" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J169" s="4"/>
-    </row>
-    <row r="170" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J170" s="4"/>
-    </row>
-    <row r="171" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J171" s="4"/>
-    </row>
-    <row r="172" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J172" s="4"/>
-    </row>
-    <row r="173" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J173" s="4"/>
-    </row>
-    <row r="174" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J174" s="4"/>
-    </row>
-    <row r="175" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J175" s="4"/>
-    </row>
-    <row r="176" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J176" s="4"/>
-    </row>
-    <row r="177" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J177" s="4"/>
-    </row>
-    <row r="178" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J178" s="4"/>
-    </row>
-    <row r="179" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J179" s="4"/>
-    </row>
-    <row r="180" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J180" s="4"/>
-    </row>
-    <row r="181" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J181" s="4"/>
+      <c r="J18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -27046,7 +27340,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27080,1221 +27374,801 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
         <v>2000</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>44377</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <f>VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0309999999999999</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f t="shared" ref="C3:C18" si="0">IF(J3&lt;-100,2000,0)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f t="shared" ref="D3:D18" si="1">C3/B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f>E2+D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F18" si="2">E3*B3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f>G2+C3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f t="shared" ref="H3:H18" si="3">F3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I18" si="4">H3-G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <f>VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>44407</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <f>VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.006</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <f t="shared" ref="E4:E18" si="5">E3+D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G18" si="6">G3+C4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f>VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-53.501214932625707</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>44561</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <f>O4</f>
         <v>2000</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>VLOOKUP(M4,A:G,7,)</f>
         <v>2000</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>VLOOKUP(M4,A:H,8,)</f>
         <v>2053.8301941770947</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <f>VLOOKUP(M4,A:I,9,)</f>
         <v>53.830194177094654</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <f t="shared" ref="R4" si="7">(P4-O4)/O4</f>
         <v>2.6915097088547328E-2</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <f>R4</f>
         <v>2.6915097088547328E-2</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>44439</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <f>VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96599999999999997</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f t="shared" si="1"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" si="5"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="2"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" si="3"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f>VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-120.73806658644138</v>
       </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>44469</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <f>VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96099999999999997</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" si="5"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="2"/>
         <v>1989.6480331262942</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f t="shared" si="3"/>
         <v>1989.6480331262942</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f t="shared" si="4"/>
         <v>-10.351966873705805</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f>VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-30.243784697079619</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>44498</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99299997091293335</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f t="shared" si="5"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="2"/>
         <v>2055.9005608963425</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f t="shared" si="3"/>
         <v>2055.9005608963425</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f t="shared" si="4"/>
         <v>55.90056089634254</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f>VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>67.867888185983432</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>44530</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0110000371932983</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="5"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="2"/>
         <v>2093.1677788681127</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="3"/>
         <v>2093.1677788681127</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="4"/>
         <v>93.167778868112691</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f>VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>63.430477831424852</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>44561</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99199998378753662</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f t="shared" si="5"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" si="2"/>
         <v>2053.8301941770947</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f t="shared" si="3"/>
         <v>2053.8301941770947</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f t="shared" si="4"/>
         <v>53.830194177094654</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f>VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-25.534304137796351</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44589</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.89099997282028198</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <f t="shared" si="1"/>
         <v>2244.6689798086081</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f t="shared" si="5"/>
         <v>4315.0623545498092</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f t="shared" si="2"/>
         <v>3844.720440621702</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f t="shared" si="3"/>
         <v>3844.720440621702</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f t="shared" si="4"/>
         <v>-155.27955937829802</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f>VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-185.45991285326798</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>44620</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.88200002908706665</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f t="shared" si="5"/>
         <v>4315.0623545498092</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="2"/>
         <v>3805.885122225438</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f t="shared" si="3"/>
         <v>3805.885122225438</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f t="shared" si="4"/>
         <v>-194.11487777456205</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f>VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>53.846247309070314</v>
       </c>
-      <c r="U11" s="7"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>44651</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.79199999570846558</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" si="5"/>
         <v>4315.0623545498092</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="2"/>
         <v>3417.5293662852105</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" si="3"/>
         <v>3417.5293662852105</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" si="4"/>
         <v>-582.47063371478953</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f>VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-13.27465112839349</v>
       </c>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>44680</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.71899998188018799</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f t="shared" si="5"/>
         <v>4315.0623545498092</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" si="2"/>
         <v>3102.5297547331943</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f t="shared" si="3"/>
         <v>3102.5297547331943</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f t="shared" si="4"/>
         <v>-897.4702452668057</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f>VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-29.745409510831923</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>44712</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.74699997901916504</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f t="shared" si="5"/>
         <v>4315.0623545498092</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" si="2"/>
         <v>3223.3514883150965</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" si="3"/>
         <v>3223.3514883150965</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" si="4"/>
         <v>-776.6485116849035</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f>VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>121.48316506417596</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>44742</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.84500002861022949</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f t="shared" si="5"/>
         <v>4315.0623545498092</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <f t="shared" si="2"/>
         <v>3646.2278130495129</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f t="shared" si="3"/>
         <v>3646.2278130495129</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f t="shared" si="4"/>
         <v>-353.77218695048714</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f>VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>82.073682168853153</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>44771</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.80099999904632568</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f t="shared" si="1"/>
         <v>2496.8789043460788</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f t="shared" si="5"/>
         <v>6811.9412588958876</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f t="shared" si="2"/>
         <v>5456.3649418792329</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <f t="shared" si="6"/>
         <v>6000</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f t="shared" si="3"/>
         <v>5456.3649418792329</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f t="shared" si="4"/>
         <v>-543.6350581207671</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f>VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-127.3183196634585</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A17" s="17">
+    <row r="17" spans="1:10" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>44804</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.76499998569488525</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
         <v>2614.3791338548936</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f t="shared" si="5"/>
         <v>9426.320392750782</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>7211.1349656097536</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f t="shared" si="3"/>
         <v>7211.1349656097536</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f t="shared" si="4"/>
         <v>-788.86503439024636</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f>VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-140.34722331220857</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A18" s="17">
+    <row r="18" spans="1:10" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>44834</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.69599997997283936</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f t="shared" si="1"/>
         <v>2873.5633010766005</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" si="5"/>
         <v>12299.883693827382</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f t="shared" si="2"/>
         <v>8560.7188045721105</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f t="shared" si="3"/>
         <v>8560.7188045721105</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f t="shared" si="4"/>
         <v>-1439.2811954278895</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-112.42427728939072</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J21" s="8"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1">
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J33" s="8"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J44" s="8"/>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J56" s="8"/>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J68" s="8"/>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J80" s="8"/>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J92" s="8"/>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J93" s="8"/>
-    </row>
-    <row r="94" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J98" s="8"/>
-    </row>
-    <row r="99" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J100" s="8"/>
-    </row>
-    <row r="101" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J101" s="8"/>
-    </row>
-    <row r="102" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J103" s="8"/>
-    </row>
-    <row r="104" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J104" s="8"/>
-      <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J116" s="8"/>
-      <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J117" s="8"/>
-    </row>
-    <row r="118" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J120" s="8"/>
-    </row>
-    <row r="121" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J122" s="8"/>
-    </row>
-    <row r="123" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J127" s="4"/>
-    </row>
-    <row r="128" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J128" s="4"/>
-      <c r="M128" s="3"/>
-    </row>
-    <row r="129" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J129" s="4"/>
-    </row>
-    <row r="130" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J130" s="4"/>
-    </row>
-    <row r="131" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J131" s="4"/>
-    </row>
-    <row r="132" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J132" s="4"/>
-    </row>
-    <row r="133" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J133" s="4"/>
-    </row>
-    <row r="134" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J134" s="4"/>
-    </row>
-    <row r="135" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J135" s="4"/>
-    </row>
-    <row r="136" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J136" s="4"/>
-    </row>
-    <row r="137" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J137" s="4"/>
-    </row>
-    <row r="138" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J138" s="4"/>
-    </row>
-    <row r="139" spans="10:13" ht="14.1" customHeight="1">
-      <c r="J139" s="4"/>
-    </row>
-    <row r="140" spans="10:13" ht="14.1" customHeight="1">
-      <c r="M140" s="3"/>
-    </row>
-    <row r="141" spans="10:13" ht="14.1" customHeight="1"/>
-    <row r="142" spans="10:13" ht="14.1" customHeight="1"/>
-    <row r="143" spans="10:13" ht="14.1" customHeight="1"/>
-    <row r="144" spans="10:13" ht="14.1" customHeight="1"/>
-    <row r="145" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="146" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="147" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="148" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="149" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="150" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="151" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="152" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M152" s="3"/>
-    </row>
-    <row r="153" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="154" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="155" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="156" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="157" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="158" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="159" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="160" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="161" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="162" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="163" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="164" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M164" s="3"/>
-    </row>
-    <row r="165" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="166" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="167" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="168" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="169" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="170" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="171" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="172" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="173" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="174" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="175" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="176" spans="13:13" ht="14.1" customHeight="1"/>
-    <row r="177" ht="14.1" customHeight="1"/>
-    <row r="178" ht="14.1" customHeight="1"/>
-    <row r="179" ht="14.1" customHeight="1"/>
-    <row r="180" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28306,7 +28180,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28341,183 +28215,183 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
         <v>2000</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>44377</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <f>VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0309999999999999</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f>C2</f>
         <v>2000</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f t="shared" ref="D3:D18" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f>E2+D3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F18" si="1">E3*B3</f>
         <v>2000</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f>G2+C3</f>
         <v>2000</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f t="shared" ref="H3:H18" si="2">F3</f>
         <v>2000</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I18" si="3">H3-G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="R3" s="23" t="s">
+      <c r="J3" s="7"/>
+      <c r="R3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>44407</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <f>VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.006</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f>IF(N4&lt;20,3000,2000)</f>
         <v>3000</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
         <v>2982.1073558648113</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <f t="shared" ref="E4:E18" si="4">E3+D4</f>
         <v>4921.971565370146</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" si="1"/>
         <v>4951.503394762367</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G18" si="5">G3+C4</f>
         <v>5000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f t="shared" si="2"/>
         <v>4951.503394762367</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f t="shared" si="3"/>
         <v>-48.496605237633048</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f>MAX((B4-B3),0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f>J4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f>ABS(B4-B3)</f>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>L4</f>
         <v>2.4999999999999911E-2</v>
       </c>
@@ -28525,92 +28399,92 @@
         <f>K4*100/M4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <v>44561</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <f>T4</f>
         <v>17000</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <f>VLOOKUP(R4,A:G,7,)</f>
         <v>17000</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <f>VLOOKUP(R4,A:H,8,)</f>
         <v>17020.514422194668</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <f>VLOOKUP(R4,A:I,9,)</f>
         <v>20.514422194668441</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <f t="shared" ref="W4" si="6">(U4-T4)/T4</f>
         <v>1.2067307173334377E-3</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <f>W4</f>
         <v>1.2067307173334377E-3</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>44439</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <f>VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96599999999999997</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" ref="C5:C18" si="7">IF(N5&lt;20,3000,2000)</f>
         <v>3000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>3105.5900621118012</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" si="4"/>
         <v>8027.5616274819477</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="1"/>
         <v>7754.6245321475608</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" si="2"/>
         <v>7754.6245321475608</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f t="shared" si="3"/>
         <v>-245.37546785243921</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f t="shared" ref="J5:J18" si="8">MAX((B5-B4),0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" ref="K5:K18" si="9">(K4*5+J5)/6</f>
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" ref="L5:L18" si="10">ABS(B5-B4)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f t="shared" ref="M5:M18" si="11">(M4*5+L5)/6</f>
         <v>2.7499999999999931E-2</v>
       </c>
@@ -28618,65 +28492,65 @@
         <f t="shared" ref="N5:N18" si="12">K5*100/M5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>44469</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <f>VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96099999999999997</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>3121.7481789802291</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" si="4"/>
         <v>11149.309806462177</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>10714.486724010152</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="5"/>
         <v>11000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f t="shared" si="2"/>
         <v>10714.486724010152</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f t="shared" si="3"/>
         <v>-285.5132759898479</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" si="10"/>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f t="shared" si="11"/>
         <v>2.3749999999999941E-2</v>
       </c>
@@ -28684,60 +28558,60 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>44498</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99299997091293335</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>2014.098749833056</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f t="shared" si="4"/>
         <v>13163.408556295233</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>13071.264313516225</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" si="5"/>
         <v>13000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f t="shared" si="2"/>
         <v>13071.264313516225</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f t="shared" si="3"/>
         <v>71.264313516225229</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="8"/>
         <v>3.1999970912933384E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="9"/>
         <v>5.3333284854888974E-3</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="10"/>
         <v>3.1999970912933384E-2</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f t="shared" si="11"/>
         <v>2.5124995152155511E-2</v>
       </c>
@@ -28747,54 +28621,54 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>44530</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0110000371932983</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>1978.239294186702</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="4"/>
         <v>15141.647850481935</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>15308.206540005061</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="2"/>
         <v>15308.206540005061</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="3"/>
         <v>308.20654000506147</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f t="shared" si="8"/>
         <v>1.800006628036499E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" si="9"/>
         <v>7.4444514513015798E-3</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <f t="shared" si="10"/>
         <v>1.800006628036499E-2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f t="shared" si="11"/>
         <v>2.3937507006857092E-2</v>
       </c>
@@ -28802,59 +28676,59 @@
         <f t="shared" si="12"/>
         <v>31.099526985700965</v>
       </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>44561</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99199998378753662</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>2016.1290652080834</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f t="shared" si="4"/>
         <v>17157.776915690018</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" si="1"/>
         <v>17020.514422194668</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f t="shared" si="5"/>
         <v>17000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f t="shared" si="2"/>
         <v>17020.514422194668</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f t="shared" si="3"/>
         <v>20.514422194668441</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" si="9"/>
         <v>6.2037095427513169E-3</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f t="shared" si="10"/>
         <v>1.9000053405761719E-2</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" si="11"/>
         <v>2.3114598073341198E-2</v>
       </c>
@@ -28862,59 +28736,59 @@
         <f t="shared" si="12"/>
         <v>26.838924575142201</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44589</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.89099997282028198</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
         <v>3367.0034697129122</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f t="shared" si="4"/>
         <v>20524.78038540293</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
         <v>18287.578765536266</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f t="shared" si="2"/>
         <v>18287.578765536266</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f t="shared" si="3"/>
         <v>-1712.4212344637344</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="9"/>
         <v>5.1697579522927643E-3</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" si="10"/>
         <v>0.10100001096725464</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="11"/>
         <v>3.6095500222326771E-2</v>
       </c>
@@ -28922,59 +28796,59 @@
         <f t="shared" si="12"/>
         <v>14.322444405674213</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>44620</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.88200002908706665</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>3401.3604320458076</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f t="shared" si="4"/>
         <v>23926.140817448737</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
         <v>21102.85689693104</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <f t="shared" si="5"/>
         <v>23000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f t="shared" si="2"/>
         <v>21102.85689693104</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f t="shared" si="3"/>
         <v>-1897.14310306896</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" si="9"/>
         <v>4.3081316269106369E-3</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f t="shared" si="10"/>
         <v>8.999943733215332E-3</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="11"/>
         <v>3.1579574140808198E-2</v>
       </c>
@@ -28982,57 +28856,57 @@
         <f t="shared" si="12"/>
         <v>13.642146052069533</v>
       </c>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>44651</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.79199999570846558</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>3787.8788084038033</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" si="4"/>
         <v>27714.019625852539</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
         <v>21949.503424739542</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" si="5"/>
         <v>26000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" si="2"/>
         <v>21949.503424739542</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" si="3"/>
         <v>-4050.4965752604585</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" si="9"/>
         <v>3.5901096890921975E-3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f t="shared" si="10"/>
         <v>9.0000033378601074E-2</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="11"/>
         <v>4.1316317347107008E-2</v>
       </c>
@@ -29043,54 +28917,54 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>44680</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.71899998188018799</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f t="shared" si="0"/>
         <v>4172.4618575858476</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f t="shared" si="4"/>
         <v>31886.481483438387</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" si="1"/>
         <v>22926.37960881515</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" si="5"/>
         <v>29000</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f t="shared" si="2"/>
         <v>22926.37960881515</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f t="shared" si="3"/>
         <v>-6073.6203911848497</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" si="9"/>
         <v>2.9917580742434978E-3</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" si="10"/>
         <v>7.3000013828277588E-2</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="11"/>
         <v>4.659693342730211E-2</v>
       </c>
@@ -29100,54 +28974,54 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>44712</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.74699997901916504</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f t="shared" si="0"/>
         <v>4016.0643698264844</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f t="shared" si="4"/>
         <v>35902.54585326487</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" si="1"/>
         <v>26819.20099912347</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" si="5"/>
         <v>32000</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" si="2"/>
         <v>26819.20099912347</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" si="3"/>
         <v>-5180.79900087653</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" si="8"/>
         <v>2.7999997138977051E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" si="9"/>
         <v>7.1597979183657566E-3</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <f t="shared" si="10"/>
         <v>2.7999997138977051E-2</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" si="11"/>
         <v>4.3497444045914602E-2</v>
       </c>
@@ -29157,54 +29031,54 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>44742</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.84500002861022949</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <f t="shared" si="0"/>
         <v>2366.8638251875536</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f t="shared" si="4"/>
         <v>38269.409678452423</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <f t="shared" si="1"/>
         <v>32337.652273188891</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" si="5"/>
         <v>34000</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f t="shared" si="2"/>
         <v>32337.652273188891</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f t="shared" si="3"/>
         <v>-1662.3477268111092</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f t="shared" si="8"/>
         <v>9.8000049591064453E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" si="9"/>
         <v>2.2299839863815538E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f t="shared" si="10"/>
         <v>9.8000049591064453E-2</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="11"/>
         <v>5.2581211636772908E-2</v>
       </c>
@@ -29214,54 +29088,54 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>44771</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.80099999904632568</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
         <v>2496.8789043460788</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f t="shared" si="4"/>
         <v>40766.288582798501</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f t="shared" si="1"/>
         <v>32653.797115943838</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <f t="shared" si="5"/>
         <v>36000</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f t="shared" si="2"/>
         <v>32653.797115943838</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f t="shared" si="3"/>
         <v>-3346.2028840561616</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" si="9"/>
         <v>1.8583199886512948E-2</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" si="10"/>
         <v>4.4000029563903809E-2</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="11"/>
         <v>5.1151014624628059E-2</v>
       </c>
@@ -29270,55 +29144,55 @@
         <v>36.33007091430315</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1">
-      <c r="A17" s="17">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>44804</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.76499998569488525</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f t="shared" si="0"/>
         <v>2614.3791338548936</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f t="shared" si="4"/>
         <v>43380.667716653392</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" si="1"/>
         <v>33186.210182674418</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f t="shared" si="5"/>
         <v>38000</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>33186.210182674418</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f t="shared" si="3"/>
         <v>-4813.7898173255817</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f t="shared" si="9"/>
         <v>1.5485999905427456E-2</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <f t="shared" si="10"/>
         <v>3.600001335144043E-2</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" si="11"/>
         <v>4.8625847745763451E-2</v>
       </c>
@@ -29327,55 +29201,55 @@
         <v>31.847259478939737</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1">
-      <c r="A18" s="17">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>44834</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.69599997997283936</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f t="shared" si="0"/>
         <v>2873.5633010766005</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" si="4"/>
         <v>46254.231017729995</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f t="shared" si="1"/>
         <v>32192.94386199916</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" si="5"/>
         <v>40000</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f t="shared" si="2"/>
         <v>32192.94386199916</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f t="shared" si="3"/>
         <v>-7807.0561380008403</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" si="9"/>
         <v>1.2904999921189547E-2</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f t="shared" si="10"/>
         <v>6.9000005722045898E-2</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="11"/>
         <v>5.2021540741810528E-2</v>
       </c>
@@ -29384,588 +29258,6 @@
         <v>24.80703135118333</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J57" s="8"/>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J69" s="8"/>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J81" s="8"/>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J92" s="8"/>
-    </row>
-    <row r="93" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J93" s="8"/>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J98" s="8"/>
-    </row>
-    <row r="99" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J100" s="8"/>
-    </row>
-    <row r="101" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J101" s="8"/>
-    </row>
-    <row r="102" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J103" s="8"/>
-    </row>
-    <row r="104" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J104" s="8"/>
-    </row>
-    <row r="105" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J105" s="8"/>
-      <c r="R105" s="3"/>
-    </row>
-    <row r="106" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J117" s="8"/>
-      <c r="R117" s="3"/>
-    </row>
-    <row r="118" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J120" s="8"/>
-    </row>
-    <row r="121" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J122" s="8"/>
-    </row>
-    <row r="123" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J127" s="8"/>
-    </row>
-    <row r="128" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J128" s="8"/>
-    </row>
-    <row r="129" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J129" s="8"/>
-      <c r="R129" s="3"/>
-    </row>
-    <row r="130" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J132" s="8"/>
-    </row>
-    <row r="133" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J133" s="8"/>
-    </row>
-    <row r="134" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J134" s="8"/>
-    </row>
-    <row r="135" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J135" s="8"/>
-    </row>
-    <row r="136" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J136" s="8"/>
-    </row>
-    <row r="137" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J137" s="8"/>
-    </row>
-    <row r="138" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J138" s="8"/>
-    </row>
-    <row r="139" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J139" s="8"/>
-    </row>
-    <row r="140" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J140" s="8"/>
-    </row>
-    <row r="141" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J141" s="8"/>
-      <c r="R141" s="3"/>
-    </row>
-    <row r="142" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J142" s="8"/>
-    </row>
-    <row r="143" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J143" s="8"/>
-    </row>
-    <row r="144" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J144" s="8"/>
-    </row>
-    <row r="145" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J145" s="8"/>
-    </row>
-    <row r="146" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J146" s="8"/>
-    </row>
-    <row r="147" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J147" s="8"/>
-    </row>
-    <row r="148" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J149" s="8"/>
-    </row>
-    <row r="150" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J150" s="8"/>
-    </row>
-    <row r="151" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J151" s="8"/>
-    </row>
-    <row r="152" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J152" s="8"/>
-    </row>
-    <row r="153" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J153" s="8"/>
-      <c r="R153" s="3"/>
-    </row>
-    <row r="154" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J154" s="8"/>
-    </row>
-    <row r="155" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J155" s="8"/>
-    </row>
-    <row r="156" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J156" s="8"/>
-    </row>
-    <row r="157" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J157" s="8"/>
-    </row>
-    <row r="158" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J160" s="8"/>
-    </row>
-    <row r="161" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J161" s="8"/>
-    </row>
-    <row r="162" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J162" s="8"/>
-    </row>
-    <row r="163" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J163" s="8"/>
-    </row>
-    <row r="164" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J164" s="8"/>
-    </row>
-    <row r="165" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J165" s="8"/>
-      <c r="R165" s="3"/>
-    </row>
-    <row r="166" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J166" s="8"/>
-    </row>
-    <row r="167" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J167" s="4"/>
-    </row>
-    <row r="168" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J168" s="4"/>
-    </row>
-    <row r="169" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J169" s="4"/>
-    </row>
-    <row r="170" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J170" s="4"/>
-    </row>
-    <row r="171" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J171" s="4"/>
-    </row>
-    <row r="172" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J172" s="4"/>
-    </row>
-    <row r="173" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J173" s="4"/>
-    </row>
-    <row r="174" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J174" s="4"/>
-    </row>
-    <row r="175" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J175" s="4"/>
-    </row>
-    <row r="176" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J176" s="4"/>
-    </row>
-    <row r="177" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J177" s="4"/>
-    </row>
-    <row r="178" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J178" s="4"/>
-    </row>
-    <row r="179" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J179" s="4"/>
-    </row>
-    <row r="180" spans="10:10" ht="14.1" customHeight="1"/>
-    <row r="181" spans="10:10" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29977,7 +29269,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH181"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30012,136 +29304,136 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
         <v>2000</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>44377</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <f>VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0309999999999999</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f ca="1">IF(Q3&lt;0,3000,2000)</f>
         <v>2000</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f t="shared" ref="D3:D18" ca="1" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f ca="1">E2+D3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F18" ca="1" si="1">E3*B3</f>
         <v>2000</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f ca="1">G2+C3</f>
         <v>2000</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f t="shared" ref="H3:H18" ca="1" si="2">F3</f>
         <v>2000</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I18" ca="1" si="3">H3-G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <f ca="1">MAX(VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A3,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.034</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f ca="1">MIN(VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A3,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.012</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <f ca="1">J3</f>
         <v>1.034</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f ca="1">K3</f>
         <v>1.012</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f ca="1">(B3-M3)*100/(L3-M3)</f>
         <v>86.363636363635862</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f ca="1">N3</f>
         <v>86.363636363635862</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <f ca="1">O3</f>
         <v>86.363636363635862</v>
       </c>
@@ -30149,98 +29441,98 @@
         <f ca="1">3*O3-2*P3</f>
         <v>86.363636363635862</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>44407</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <f>VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.006</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C18" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
         <v>2000</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>1988.0715705765408</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <f t="shared" ref="E4:E18" ca="1" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>3951.503394762367</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G18" ca="1" si="6">G3+C4</f>
         <v>4000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>3951.503394762367</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-48.496605237633048</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f ca="1">MAX(VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A4,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.054</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f ca="1">MIN(VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A4,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.94</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f ca="1">MAX($J$3:J4)</f>
         <v>1.054</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f ca="1">MIN($K$3:K4)</f>
         <v>0.94</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f t="shared" ref="N4:N18" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
         <v>57.89473684210526</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f ca="1">(N4+2*O3)/3</f>
         <v>76.874003189792333</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f ca="1">(O4+2*P3)/3</f>
         <v>83.200425305688029</v>
       </c>
@@ -30248,104 +29540,104 @@
         <f t="shared" ref="Q4:Q18" ca="1" si="8">3*O4-2*P4</f>
         <v>64.221158958000927</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <v>44561</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <f ca="1">T4</f>
         <v>14000</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <f ca="1">VLOOKUP(R4,A:G,7,)</f>
         <v>14000</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <f ca="1">VLOOKUP(R4,A:H,8,)</f>
         <v>13975.257794570207</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <f ca="1">VLOOKUP(R4,A:I,9,)</f>
         <v>-24.742205429793103</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <f t="shared" ref="W4" ca="1" si="9">(U4-T4)/T4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <f ca="1">W4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>44439</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <f>VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96599999999999997</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>5998.3291548230773</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>5794.3859635590925</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>6000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>5794.3859635590925</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-205.61403644090751</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f ca="1">MAX(VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A5,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0469999999999999</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f ca="1">MIN(VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A5,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.95699999999999996</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f ca="1">MAX($J$3:J5)</f>
         <v>1.054</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f ca="1">MIN($K$3:K5)</f>
         <v>0.94</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>22.807017543859651</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f t="shared" ref="O5:O18" ca="1" si="10">(N5+2*O4)/3</f>
         <v>58.851674641148101</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f t="shared" ref="P5:P18" ca="1" si="11">(O5+2*P4)/3</f>
         <v>75.084175084174717</v>
       </c>
@@ -30353,77 +29645,77 @@
         <f t="shared" ca="1" si="8"/>
         <v>26.386673755094876</v>
       </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>44469</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <f>VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96099999999999997</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2081.1654526534862</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>8079.494607476563</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>7764.3943177849769</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>8000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>7764.3943177849769</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-235.60568221502308</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f ca="1">MAX(VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A6,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.98799999999999999</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f ca="1">MIN(VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A6,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f ca="1">MAX($J$3:J6)</f>
         <v>1.054</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f ca="1">MIN($K$3:K6)</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>20.512820512820436</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>46.072056598372207</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>65.41346892224054</v>
       </c>
@@ -30431,72 +29723,72 @@
         <f t="shared" ca="1" si="8"/>
         <v>7.3892319506355477</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>44498</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99299997091293335</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2014.098749833056</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>10093.593357309619</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>10022.937910215429</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>10022.937910215429</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>22.937910215428928</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f ca="1">MAX(VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A7,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0049999952316284</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f ca="1">MIN(VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A7,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.93900001049041748</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f ca="1">MAX($J$3:J7)</f>
         <v>1.054</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f ca="1">MIN($K$3:K7)</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>47.863223002507091</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>46.669112066417171</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>59.165349970299417</v>
       </c>
@@ -30506,66 +29798,66 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>44530</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0110000371932983</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>1978.239294186702</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>12071.832651496321</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>12204.623259654054</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>12000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>12204.623259654054</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>204.62325965405398</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f ca="1">MAX(VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A8,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.0219999551773071</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f ca="1">MIN(VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A8,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.98100000619888306</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <f ca="1">MAX($J$3:J8)</f>
         <v>1.054</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f ca="1">MIN($K$3:K8)</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>63.247895037007083</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>52.195373056613811</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>56.842024332404215</v>
       </c>
@@ -30573,71 +29865,71 @@
         <f t="shared" ca="1" si="8"/>
         <v>42.902070505032995</v>
       </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>44561</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99199998378753662</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2016.1290652080834</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>14087.961716704405</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>13975.257794570207</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>14000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>13975.257794570207</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-24.742205429793103</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f ca="1">MAX(VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A9,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>1.034000039100647</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f ca="1">MIN(VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A9,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.97600001096725464</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f ca="1">MAX($J$3:J9)</f>
         <v>1.054</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f ca="1">MIN($K$3:K9)</f>
         <v>0.93700000000000006</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>47.008533151740657</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>50.466426421656088</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>54.716825028821511</v>
       </c>
@@ -30645,71 +29937,71 @@
         <f t="shared" ca="1" si="8"/>
         <v>41.96562920732525</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44589</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.89099997282028198</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2244.6689798086081</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>16332.630696513013</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>14552.373506676799</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>16000</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>14552.373506676799</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-1447.6264933232014</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f ca="1">MAX(VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A10,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.99599999189376831</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f ca="1">MIN(VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A10,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.88499999046325684</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f ca="1">MAX($J$3:J10)</f>
         <v>1.054</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f ca="1">MIN($K$3:K10)</f>
         <v>0.88499999046325684</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>3.5502852180139421</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>34.827712687108708</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>48.087120914917243</v>
       </c>
@@ -30717,71 +30009,71 @@
         <f t="shared" ca="1" si="8"/>
         <v>8.3088962314916301</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>44620</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.88200002908706665</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2267.573621363872</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>18600.204317876887</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>16405.380749392796</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>18000</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>16405.380749392796</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-1594.6192506072039</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f ca="1">MAX(VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A11,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.91100001335144043</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f ca="1">MIN(VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A11,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.85000002384185791</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f ca="1">MAX(J3:J11)</f>
         <v>1.054</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f ca="1">MIN(K3:K11)</f>
         <v>0.85000002384185791</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>15.686278914269149</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>28.447234762828856</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>41.54049219755445</v>
       </c>
@@ -30789,69 +30081,69 @@
         <f t="shared" ca="1" si="8"/>
         <v>2.2607198933776687</v>
       </c>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>44651</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.79199999570846558</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>3000</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>3787.8788084038033</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>22388.08312628069</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>17731.361739935077</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>21000</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>17731.361739935077</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-3268.6382600649231</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f ca="1">MAX(VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A12,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.88599997758865356</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f ca="1">MIN(VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A12,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.75</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f t="shared" ref="L12:L18" ca="1" si="12">MAX(J4:J12)</f>
         <v>1.054</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" ref="M12:M18" ca="1" si="13">MIN(K4:K12)</f>
         <v>0.75</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>13.815788061995253</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>23.570085862550986</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>35.550356752553292</v>
       </c>
@@ -30862,66 +30154,66 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>44680</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.71899998188018799</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2781.6412383905649</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>25169.724364671256</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>18097.03136212796</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>23000</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>18097.03136212796</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-4902.9686378720398</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f ca="1">MAX(VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A13,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.80199998617172241</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f ca="1">MIN(VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A13,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.65399998426437378</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>1.0469999999999999</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" ca="1" si="13"/>
         <v>0.65399998426437378</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>16.539438934664105</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>21.226536886588693</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>30.77575013056509</v>
       </c>
@@ -30931,66 +30223,66 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>44712</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.74699997901916504</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2677.3762465509894</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>27847.100611222246</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>20801.783572327597</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>25000</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>20801.783572327597</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-4198.2164276724034</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f ca="1">MAX(VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A14,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.74800002574920654</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f ca="1">MIN(VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A14,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.68199998140335083</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>1.034000039100647</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" ca="1" si="13"/>
         <v>0.65399998426437378</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>24.4736792985099</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>22.308917690562428</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>27.953472650564205</v>
       </c>
@@ -31000,66 +30292,66 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>44742</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.84500002861022949</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2366.8638251875536</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>30213.964436409799</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>25530.800813194735</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>27000</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>25530.800813194735</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-1469.1991868052646</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f ca="1">MAX(VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A15,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.86000001430511475</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f ca="1">MIN(VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A15,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.74400001764297485</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>1.034000039100647</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" ca="1" si="13"/>
         <v>0.65399998426437378</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>50.263162311423869</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>31.626999230849577</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>29.177981510659333</v>
       </c>
@@ -31069,66 +30361,66 @@
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>44771</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.80099999904632568</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2496.8789043460788</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>32710.843340755877</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>26201.385484749968</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>29000</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>26201.385484749968</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-2798.6145152500321</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f ca="1">MAX(VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A16,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.85799998044967651</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f ca="1">MIN(VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A16,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.79900002479553223</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>1.034000039100647</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" ca="1" si="13"/>
         <v>0.65399998426437378</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>38.684208833940389</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>33.979402431879848</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>30.778455151066169</v>
       </c>
@@ -31137,67 +30429,67 @@
         <v>40.381296993507206</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1">
-      <c r="A17" s="17">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>44804</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.76499998569488525</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2614.3791338548936</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>35325.222474610768</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>27023.794687745878</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>31000</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>27023.794687745878</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-3976.205312254122</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f ca="1">MAX(VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A17,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.82700002193450928</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f ca="1">MIN(VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A17,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.7630000114440918</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>1.034000039100647</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" ca="1" si="13"/>
         <v>0.65399998426437378</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>29.210522476986728</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>32.389775780248804</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>31.315562027460384</v>
       </c>
@@ -31206,67 +30498,67 @@
         <v>34.538203285825638</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1">
-      <c r="A18" s="17">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>44834</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.69599997997283936</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>2873.5633010766005</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>38198.785775687371</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>26586.354134865192</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" ca="1" si="6"/>
         <v>33000</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>26586.354134865192</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>-6413.6458651348075</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f ca="1">MAX(VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A18,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.77399998903274536</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f ca="1">MIN(VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A18,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
         <v>0.69599997997283936</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f t="shared" ca="1" si="12"/>
         <v>0.99599999189376831</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" ca="1" si="13"/>
         <v>0.65399998426437378</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" ca="1" si="7"/>
         <v>12.280700225591376</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <f t="shared" ca="1" si="10"/>
         <v>25.686750595362994</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <f t="shared" ca="1" si="11"/>
         <v>29.439291550094584</v>
       </c>
@@ -31275,668 +30567,6 @@
         <v>18.181668685899815</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-    </row>
-    <row r="43" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J57" s="8"/>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J69" s="8"/>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J81" s="8"/>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J85" s="8"/>
-    </row>
-    <row r="86" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J86" s="8"/>
-    </row>
-    <row r="87" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J87" s="8"/>
-    </row>
-    <row r="88" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J88" s="8"/>
-    </row>
-    <row r="89" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J89" s="8"/>
-    </row>
-    <row r="90" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J90" s="8"/>
-    </row>
-    <row r="91" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J92" s="8"/>
-    </row>
-    <row r="93" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J93" s="8"/>
-      <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J98" s="8"/>
-    </row>
-    <row r="99" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J100" s="8"/>
-    </row>
-    <row r="101" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J101" s="8"/>
-    </row>
-    <row r="102" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J103" s="8"/>
-    </row>
-    <row r="104" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J104" s="8"/>
-    </row>
-    <row r="105" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J105" s="8"/>
-      <c r="R105" s="3"/>
-    </row>
-    <row r="106" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J117" s="8"/>
-      <c r="R117" s="3"/>
-    </row>
-    <row r="118" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J120" s="8"/>
-    </row>
-    <row r="121" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J122" s="8"/>
-    </row>
-    <row r="123" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J127" s="8"/>
-    </row>
-    <row r="128" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J128" s="8"/>
-    </row>
-    <row r="129" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J129" s="8"/>
-      <c r="R129" s="3"/>
-    </row>
-    <row r="130" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J132" s="8"/>
-    </row>
-    <row r="133" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J133" s="8"/>
-    </row>
-    <row r="134" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J134" s="8"/>
-    </row>
-    <row r="135" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J135" s="8"/>
-    </row>
-    <row r="136" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J136" s="8"/>
-    </row>
-    <row r="137" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J137" s="8"/>
-    </row>
-    <row r="138" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J138" s="8"/>
-    </row>
-    <row r="139" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J139" s="8"/>
-    </row>
-    <row r="140" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J140" s="8"/>
-    </row>
-    <row r="141" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J141" s="8"/>
-      <c r="R141" s="3"/>
-    </row>
-    <row r="142" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J142" s="8"/>
-    </row>
-    <row r="143" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J143" s="8"/>
-    </row>
-    <row r="144" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J144" s="8"/>
-    </row>
-    <row r="145" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J145" s="8"/>
-    </row>
-    <row r="146" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J146" s="8"/>
-    </row>
-    <row r="147" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J147" s="8"/>
-    </row>
-    <row r="148" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J149" s="8"/>
-    </row>
-    <row r="150" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J150" s="8"/>
-    </row>
-    <row r="151" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J151" s="8"/>
-    </row>
-    <row r="152" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J152" s="8"/>
-    </row>
-    <row r="153" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J153" s="8"/>
-      <c r="R153" s="3"/>
-    </row>
-    <row r="154" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J154" s="8"/>
-    </row>
-    <row r="155" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J155" s="8"/>
-    </row>
-    <row r="156" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J156" s="8"/>
-    </row>
-    <row r="157" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J157" s="8"/>
-    </row>
-    <row r="158" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J158" s="8"/>
-    </row>
-    <row r="159" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J159" s="8"/>
-    </row>
-    <row r="160" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J160" s="8"/>
-    </row>
-    <row r="161" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J161" s="8"/>
-    </row>
-    <row r="162" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J162" s="8"/>
-    </row>
-    <row r="163" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J163" s="8"/>
-    </row>
-    <row r="164" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J164" s="8"/>
-    </row>
-    <row r="165" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J165" s="4"/>
-      <c r="R165" s="3"/>
-    </row>
-    <row r="166" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J166" s="4"/>
-    </row>
-    <row r="167" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J167" s="4"/>
-    </row>
-    <row r="168" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J168" s="4"/>
-    </row>
-    <row r="169" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J169" s="4"/>
-    </row>
-    <row r="170" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J170" s="4"/>
-    </row>
-    <row r="171" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J171" s="4"/>
-    </row>
-    <row r="172" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J172" s="4"/>
-    </row>
-    <row r="173" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J173" s="4"/>
-    </row>
-    <row r="174" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J174" s="4"/>
-    </row>
-    <row r="175" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J175" s="4"/>
-    </row>
-    <row r="176" spans="10:18" ht="14.1" customHeight="1">
-      <c r="J176" s="4"/>
-    </row>
-    <row r="177" spans="10:10" ht="14.1" customHeight="1">
-      <c r="J177" s="4"/>
-    </row>
-    <row r="178" spans="10:10" ht="14.1" customHeight="1"/>
-    <row r="179" spans="10:10" ht="14.1" customHeight="1"/>
-    <row r="180" spans="10:10" ht="14.1" customHeight="1"/>
-    <row r="181" spans="10:10" ht="14.1" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31948,9 +30578,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -31982,1319 +30612,817 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4">
         <v>2000</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>44377</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <f>VLOOKUP(A3,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0309999999999999</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
         <v>41.45</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f>D2</f>
         <v>2000</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f t="shared" ref="E3:E18" si="0">D3/B3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>F2+E3</f>
         <v>1939.8642095053349</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f t="shared" ref="G3:G18" si="1">F3*B3</f>
         <v>2000</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f>H2+D3</f>
         <v>2000</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I18" si="2">G3</f>
         <v>2000</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <f t="shared" ref="J3:J18" si="3">I3-H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="M3" s="23" t="s">
+      <c r="K3" s="7"/>
+      <c r="M3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>44407</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <f>VLOOKUP(A4,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.006</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
         <v>39.930000305175781</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <f t="shared" ref="D4:D18" si="4">D3</f>
         <v>2000</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <f t="shared" si="0"/>
         <v>1988.0715705765408</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" ref="F4:F18" si="5">F3+E4</f>
         <v>3927.9357800818757</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <f t="shared" si="1"/>
         <v>3951.503394762367</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f t="shared" ref="H4:H18" si="6">H3+D4</f>
         <v>4000</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f t="shared" si="2"/>
         <v>3951.503394762367</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="19">
         <f t="shared" si="3"/>
         <v>-48.496605237633048</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="M4" s="22">
+      <c r="K4" s="7"/>
+      <c r="M4" s="21">
         <v>44561</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <f>O4</f>
         <v>14000</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>VLOOKUP(M4,A:H,8,)</f>
         <v>14000</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>VLOOKUP(M4,A:I,9,)</f>
         <v>13975.257794570207</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <f>VLOOKUP(M4,A:J,10,)</f>
         <v>-24.742205429793103</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <f t="shared" ref="R4" si="7">(P4-O4)/O4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <f>R4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
     </row>
     <row r="5" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>44439</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <f>VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96599999999999997</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
         <v>38.069999694824219</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
         <v>2070.3933747412011</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="5"/>
         <v>5998.3291548230773</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f t="shared" si="1"/>
         <v>5794.3859635590925</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" si="6"/>
         <v>6000</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f t="shared" si="2"/>
         <v>5794.3859635590925</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <f t="shared" si="3"/>
         <v>-205.61403644090751</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
     </row>
     <row r="6" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>44469</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <f>VLOOKUP(A6,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.96099999999999997</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
         <v>35.020000457763672</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>2081.1654526534862</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="5"/>
         <v>8079.494607476563</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="1"/>
         <v>7764.3943177849769</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f t="shared" si="2"/>
         <v>7764.3943177849769</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <f t="shared" si="3"/>
         <v>-235.60568221502308</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>44498</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>VLOOKUP(A7,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99299997091293335</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
         <v>36.299999239999998</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
         <v>2014.098749833056</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="5"/>
         <v>10093.593357309619</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <f t="shared" si="1"/>
         <v>10022.937910215429</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f t="shared" si="2"/>
         <v>10022.937910215429</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <f t="shared" si="3"/>
         <v>22.937910215428928</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>44530</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <f>VLOOKUP(A8,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>1.0110000371932983</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>1978.239294186702</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="5"/>
         <v>12071.832651496321</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>12204.623259654054</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f t="shared" si="6"/>
         <v>12000</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="2"/>
         <v>12204.623259654054</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <f t="shared" si="3"/>
         <v>204.62325965405398</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>44561</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <f>VLOOKUP(A9,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.99199998378753662</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
         <v>34.630000000000003</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
         <v>2016.1290652080834</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" si="5"/>
         <v>14087.961716704405</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <f t="shared" si="1"/>
         <v>13975.257794570207</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f t="shared" si="2"/>
         <v>13975.257794570207</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <f t="shared" si="3"/>
         <v>-24.742205429793103</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="K9" s="7"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44589</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>VLOOKUP(A10,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.89099997282028198</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
         <v>31.159999849999998</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
         <v>2244.6689798086081</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f t="shared" si="5"/>
         <v>16332.630696513013</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>14552.373506676799</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f t="shared" si="6"/>
         <v>16000</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f t="shared" si="2"/>
         <v>14552.373506676799</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <f t="shared" si="3"/>
         <v>-1447.6264933232014</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>44620</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <f>VLOOKUP(A11,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.88200002908706665</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
         <v>30.969999309999999</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f t="shared" si="0"/>
         <v>2267.573621363872</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="5"/>
         <v>18600.204317876887</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>16405.380749392796</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f t="shared" si="6"/>
         <v>18000</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f t="shared" si="2"/>
         <v>16405.380749392796</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <f t="shared" si="3"/>
         <v>-1594.6192506072039</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="U11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>44651</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <f>VLOOKUP(A12,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.79199999570846558</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
         <v>27.63999939</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" si="0"/>
         <v>2525.2525389358689</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="5"/>
         <v>21125.456856812758</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>16731.361739935081</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" si="2"/>
         <v>16731.361739935081</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <f t="shared" si="3"/>
         <v>-3268.6382600649195</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>44680</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f>VLOOKUP(A13,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.71899998188018799</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
         <v>25.129999160000001</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f t="shared" si="0"/>
         <v>2781.6412383905649</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" si="5"/>
         <v>23907.098095203324</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
         <v>17189.203097259066</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f t="shared" si="6"/>
         <v>22000</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f t="shared" si="2"/>
         <v>17189.203097259066</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <f t="shared" si="3"/>
         <v>-4810.7969027409345</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>44712</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f>VLOOKUP(A14,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.74699997901916504</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
         <v>24.129999160000001</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
         <v>2677.3762465509894</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" si="5"/>
         <v>26584.474341754314</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>19858.601775526004</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" si="2"/>
         <v>19858.601775526004</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <f t="shared" si="3"/>
         <v>-4141.3982244739964</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>44742</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f>VLOOKUP(A15,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.84500002861022949</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
         <v>27.809999470000001</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>2366.8638251875536</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <f t="shared" si="5"/>
         <v>28951.338166941867</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f t="shared" si="1"/>
         <v>24463.881579370307</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f t="shared" si="6"/>
         <v>26000</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f t="shared" si="2"/>
         <v>24463.881579370307</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="19">
         <f t="shared" si="3"/>
         <v>-1536.118420629693</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>44771</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f>VLOOKUP(A16,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.80099999904632568</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
         <v>26.329999919999999</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
         <v>2496.8789043460788</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f t="shared" si="5"/>
         <v>31448.217071287945</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <f t="shared" si="1"/>
         <v>25190.021844110288</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f t="shared" si="6"/>
         <v>28000</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f t="shared" si="2"/>
         <v>25190.021844110288</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="19">
         <f t="shared" si="3"/>
         <v>-2809.9781558897121</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A17" s="17">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>44804</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f>VLOOKUP(A17,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.76499998569488525</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
         <v>25.18000031</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
         <v>2614.3791338548936</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" si="5"/>
         <v>34062.596205142836</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f t="shared" si="1"/>
         <v>26057.885609664922</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>26057.885609664922</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <f t="shared" si="3"/>
         <v>-3942.1143903350785</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A18" s="17">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>44834</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
         <v>0.69599997997283936</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
         <v>23.340000150000002</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
         <v>2873.5633010766005</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <f t="shared" si="5"/>
         <v>36936.159506219439</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" si="1"/>
         <v>25707.566276602331</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f t="shared" si="6"/>
         <v>32000</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f t="shared" si="2"/>
         <v>25707.566276602331</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="19">
         <f t="shared" si="3"/>
         <v>-6292.4337233976694</v>
       </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K22" s="8"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.1" customHeight="1">
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K34" s="8"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K45" s="8"/>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K51" s="8"/>
-    </row>
-    <row r="52" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K53" s="8"/>
-    </row>
-    <row r="54" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K54" s="8"/>
-    </row>
-    <row r="55" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K55" s="8"/>
-    </row>
-    <row r="56" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K56" s="8"/>
-    </row>
-    <row r="57" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K57" s="8"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K58" s="8"/>
-    </row>
-    <row r="59" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K61" s="8"/>
-    </row>
-    <row r="62" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K62" s="8"/>
-    </row>
-    <row r="63" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K63" s="8"/>
-    </row>
-    <row r="64" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K64" s="8"/>
-    </row>
-    <row r="65" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K65" s="8"/>
-    </row>
-    <row r="66" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K66" s="8"/>
-    </row>
-    <row r="67" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K67" s="8"/>
-    </row>
-    <row r="68" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K68" s="8"/>
-    </row>
-    <row r="69" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K69" s="8"/>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K70" s="8"/>
-    </row>
-    <row r="71" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K71" s="8"/>
-    </row>
-    <row r="72" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K72" s="8"/>
-    </row>
-    <row r="73" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K74" s="8"/>
-    </row>
-    <row r="75" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K75" s="8"/>
-    </row>
-    <row r="76" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K76" s="8"/>
-    </row>
-    <row r="77" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K77" s="8"/>
-    </row>
-    <row r="78" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K78" s="8"/>
-    </row>
-    <row r="79" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K79" s="8"/>
-    </row>
-    <row r="80" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K80" s="8"/>
-    </row>
-    <row r="81" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K81" s="8"/>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K82" s="8"/>
-    </row>
-    <row r="83" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K83" s="8"/>
-    </row>
-    <row r="84" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K84" s="8"/>
-    </row>
-    <row r="85" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K85" s="8"/>
-    </row>
-    <row r="86" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K86" s="8"/>
-    </row>
-    <row r="87" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K87" s="8"/>
-    </row>
-    <row r="88" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K88" s="8"/>
-    </row>
-    <row r="89" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K89" s="8"/>
-    </row>
-    <row r="90" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K90" s="8"/>
-    </row>
-    <row r="91" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K91" s="8"/>
-    </row>
-    <row r="92" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K92" s="8"/>
-    </row>
-    <row r="93" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K93" s="8"/>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K94" s="8"/>
-    </row>
-    <row r="95" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K95" s="8"/>
-    </row>
-    <row r="96" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K96" s="8"/>
-    </row>
-    <row r="97" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K97" s="8"/>
-    </row>
-    <row r="98" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K98" s="8"/>
-    </row>
-    <row r="99" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K99" s="8"/>
-    </row>
-    <row r="100" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K100" s="8"/>
-    </row>
-    <row r="101" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K101" s="8"/>
-    </row>
-    <row r="102" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K102" s="8"/>
-    </row>
-    <row r="103" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K103" s="8"/>
-    </row>
-    <row r="104" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K104" s="8"/>
-    </row>
-    <row r="105" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K105" s="8"/>
-      <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K106" s="8"/>
-    </row>
-    <row r="107" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K107" s="8"/>
-    </row>
-    <row r="108" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K108" s="8"/>
-    </row>
-    <row r="109" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K109" s="8"/>
-    </row>
-    <row r="110" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K110" s="8"/>
-    </row>
-    <row r="111" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K111" s="8"/>
-    </row>
-    <row r="112" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K112" s="8"/>
-    </row>
-    <row r="113" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K113" s="8"/>
-    </row>
-    <row r="114" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K114" s="8"/>
-    </row>
-    <row r="115" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K115" s="8"/>
-    </row>
-    <row r="116" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K116" s="8"/>
-    </row>
-    <row r="117" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K117" s="8"/>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K118" s="8"/>
-    </row>
-    <row r="119" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K119" s="8"/>
-    </row>
-    <row r="120" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K120" s="8"/>
-    </row>
-    <row r="121" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K121" s="8"/>
-    </row>
-    <row r="122" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K122" s="8"/>
-    </row>
-    <row r="123" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K123" s="8"/>
-    </row>
-    <row r="124" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K124" s="8"/>
-    </row>
-    <row r="125" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K125" s="8"/>
-    </row>
-    <row r="126" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K126" s="8"/>
-    </row>
-    <row r="127" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K127" s="8"/>
-    </row>
-    <row r="128" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K128" s="8"/>
-    </row>
-    <row r="129" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K129" s="8"/>
-      <c r="M129" s="3"/>
-    </row>
-    <row r="130" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K130" s="8"/>
-    </row>
-    <row r="131" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K131" s="8"/>
-    </row>
-    <row r="132" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K132" s="8"/>
-    </row>
-    <row r="133" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K133" s="8"/>
-    </row>
-    <row r="134" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K134" s="8"/>
-    </row>
-    <row r="135" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K135" s="8"/>
-    </row>
-    <row r="136" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K136" s="8"/>
-    </row>
-    <row r="137" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K137" s="8"/>
-    </row>
-    <row r="138" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K138" s="8"/>
-    </row>
-    <row r="139" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K139" s="8"/>
-    </row>
-    <row r="140" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K140" s="8"/>
-    </row>
-    <row r="141" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K141" s="8"/>
-      <c r="M141" s="3"/>
-    </row>
-    <row r="142" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K142" s="8"/>
-    </row>
-    <row r="143" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K143" s="8"/>
-    </row>
-    <row r="144" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K144" s="8"/>
-    </row>
-    <row r="145" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K145" s="8"/>
-    </row>
-    <row r="146" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K146" s="8"/>
-    </row>
-    <row r="147" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K147" s="8"/>
-    </row>
-    <row r="148" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K148" s="8"/>
-    </row>
-    <row r="149" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K149" s="8"/>
-    </row>
-    <row r="150" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K150" s="8"/>
-    </row>
-    <row r="151" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K151" s="8"/>
-    </row>
-    <row r="152" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K152" s="8"/>
-    </row>
-    <row r="153" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K153" s="8"/>
-      <c r="M153" s="3"/>
-    </row>
-    <row r="154" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K154" s="8"/>
-    </row>
-    <row r="155" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K155" s="8"/>
-    </row>
-    <row r="156" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K156" s="8"/>
-    </row>
-    <row r="157" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K157" s="8"/>
-    </row>
-    <row r="158" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K158" s="8"/>
-    </row>
-    <row r="159" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K159" s="8"/>
-    </row>
-    <row r="160" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K160" s="8"/>
-    </row>
-    <row r="161" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K161" s="8"/>
-    </row>
-    <row r="162" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K162" s="8"/>
-    </row>
-    <row r="163" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K163" s="8"/>
-    </row>
-    <row r="164" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K164" s="8"/>
-    </row>
-    <row r="165" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K165" s="8"/>
-      <c r="M165" s="3"/>
-    </row>
-    <row r="166" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K166" s="8"/>
-    </row>
-    <row r="167" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K167" s="8"/>
-    </row>
-    <row r="168" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K168" s="8"/>
-    </row>
-    <row r="169" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K169" s="4"/>
-    </row>
-    <row r="170" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K170" s="4"/>
-    </row>
-    <row r="171" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K171" s="4"/>
-    </row>
-    <row r="172" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K172" s="4"/>
-    </row>
-    <row r="173" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K173" s="4"/>
-    </row>
-    <row r="174" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K174" s="4"/>
-    </row>
-    <row r="175" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K175" s="4"/>
-    </row>
-    <row r="176" spans="11:13" ht="14.1" customHeight="1">
-      <c r="K176" s="4"/>
-    </row>
-    <row r="177" spans="11:11" ht="14.1" customHeight="1">
-      <c r="K177" s="4"/>
-    </row>
-    <row r="178" spans="11:11" ht="14.1" customHeight="1">
-      <c r="K178" s="4"/>
-    </row>
-    <row r="179" spans="11:11" ht="14.1" customHeight="1">
-      <c r="K179" s="4"/>
-    </row>
-    <row r="180" spans="11:11" ht="14.1" customHeight="1">
-      <c r="K180" s="4"/>
-    </row>
-    <row r="181" spans="11:11" ht="14.1" customHeight="1">
-      <c r="K181" s="4"/>
+      <c r="K18" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="4" r:id="rId1"/>
@@ -2310,7 +2310,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2357,7 +2356,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2405,6 +2404,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,7 +2416,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2462,6 +2464,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2504,7 +2509,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2552,6 +2557,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2569,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2609,6 +2617,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>25707.566276602331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27375.140717758622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,7 +2662,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2699,6 +2710,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,7 +2722,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2756,6 +2770,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-6292.4337233976694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6624.8592822413775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2777,11 +2794,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428926848"/>
-        <c:axId val="500089984"/>
+        <c:axId val="71011328"/>
+        <c:axId val="91754496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428926848"/>
+        <c:axId val="71011328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,14 +2841,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500089984"/>
+        <c:crossAx val="91754496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500089984"/>
+        <c:axId val="91754496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2899,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428926848"/>
+        <c:crossAx val="71011328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2896,7 +2913,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3050,7 +3066,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3098,6 +3114,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3126,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3155,6 +3174,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,7 +3219,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3245,6 +3267,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,7 +3279,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3302,6 +3327,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8560.7188045721105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10450.019810272373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,7 +3372,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3392,6 +3420,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,7 +3432,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3449,6 +3480,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-1439.2811954278895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1549.9801897276266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,11 +3504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520579712"/>
-        <c:axId val="558764416"/>
+        <c:axId val="594687488"/>
+        <c:axId val="594689024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520579712"/>
+        <c:axId val="594687488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,14 +3551,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558764416"/>
+        <c:crossAx val="594689024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558764416"/>
+        <c:axId val="594689024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3609,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520579712"/>
+        <c:crossAx val="594687488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3742,7 +3776,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3790,6 +3824,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3799,7 +3836,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3847,6 +3884,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3889,7 +3929,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3937,6 +3977,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3946,7 +3989,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3994,6 +4037,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32192.94386199916</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33776.655628449436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4036,7 +4082,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4084,6 +4130,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4093,7 +4142,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4141,6 +4190,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-7807.0561380008403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8223.3443715505637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4162,11 +4214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="674002432"/>
-        <c:axId val="674003968"/>
+        <c:axId val="624148864"/>
+        <c:axId val="624150400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="674002432"/>
+        <c:axId val="624148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,14 +4261,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674003968"/>
+        <c:crossAx val="624150400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="674003968"/>
+        <c:axId val="624150400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4267,7 +4319,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674002432"/>
+        <c:crossAx val="624148864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4388,6 +4440,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4434,7 +4487,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4482,6 +4535,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4491,7 +4547,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4539,6 +4595,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4581,7 +4640,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4629,6 +4688,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,7 +4700,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4686,6 +4748,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>26586.354134865192</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28242.564935381801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4728,7 +4793,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4776,6 +4841,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4785,7 +4853,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4833,6 +4901,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-6413.6458651348075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6757.4350646181992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,11 +4925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675760000"/>
-        <c:axId val="675761536"/>
+        <c:axId val="711798144"/>
+        <c:axId val="619009152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="675760000"/>
+        <c:axId val="711798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4901,14 +4972,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675761536"/>
+        <c:crossAx val="619009152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="675761536"/>
+        <c:axId val="619009152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +5030,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675760000"/>
+        <c:crossAx val="711798144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4973,6 +5044,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5126,7 +5198,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5174,6 +5246,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,7 +5258,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5231,6 +5306,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5273,7 +5351,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5321,6 +5399,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5330,7 +5411,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5378,6 +5459,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>25707.566276602331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27375.140717758622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5420,7 +5504,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5468,6 +5552,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5477,7 +5564,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5525,6 +5612,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-6292.4337233976694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6624.8592822413775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5546,11 +5636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570596736"/>
-        <c:axId val="570598528"/>
+        <c:axId val="619029248"/>
+        <c:axId val="619030784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570596736"/>
+        <c:axId val="619029248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,14 +5683,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570598528"/>
+        <c:crossAx val="619030784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="570598528"/>
+        <c:axId val="619030784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,7 +5741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570596736"/>
+        <c:crossAx val="619029248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6703,6 +6793,12 @@
           <cell r="I18">
             <v>45807001.1875</v>
           </cell>
+          <cell r="K18">
+            <v>44895</v>
+          </cell>
+          <cell r="L18">
+            <v>44866</v>
+          </cell>
           <cell r="N18">
             <v>1.0529999999999999</v>
           </cell>
@@ -23103,6 +23199,59 @@
           </cell>
           <cell r="U327">
             <v>-125.14122645710022</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="A328">
+            <v>44865</v>
+          </cell>
+          <cell r="B328">
+            <v>0.68000000715255737</v>
+          </cell>
+          <cell r="C328">
+            <v>0.69199997186660767</v>
+          </cell>
+          <cell r="D328">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E328">
+            <v>0.68699997663497925</v>
+          </cell>
+          <cell r="F328">
+            <v>3400007.75</v>
+          </cell>
+          <cell r="G328">
+            <v>2326.47412109375</v>
+          </cell>
+          <cell r="H328">
+            <v>326</v>
+          </cell>
+          <cell r="I328">
+            <v>5444602.8119248468</v>
+          </cell>
+          <cell r="N328">
+            <v>0</v>
+          </cell>
+          <cell r="O328">
+            <v>0</v>
+          </cell>
+          <cell r="P328">
+            <v>0.68566664059956872</v>
+          </cell>
+          <cell r="Q328">
+            <v>0.70992857075872884</v>
+          </cell>
+          <cell r="R328">
+            <v>-2.4261930159160117E-2</v>
+          </cell>
+          <cell r="S328">
+            <v>1.1071425108682547E-2</v>
+          </cell>
+          <cell r="T328">
+            <v>1.660713766302382E-4</v>
+          </cell>
+          <cell r="U328">
+            <v>-146.0933885866429</v>
           </cell>
         </row>
       </sheetData>
@@ -26254,6 +26403,148 @@
           </cell>
           <cell r="C367">
             <v>23.340000150000002</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v xml:space="preserve">2022/10/10
+</v>
+          </cell>
+          <cell r="C368">
+            <v>22.040000920000001</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v xml:space="preserve">2022/10/11
+</v>
+          </cell>
+          <cell r="C369">
+            <v>22.239999770000001</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v xml:space="preserve">2022/10/12
+</v>
+          </cell>
+          <cell r="C370">
+            <v>22.920000080000001</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v xml:space="preserve">2022/10/13
+</v>
+          </cell>
+          <cell r="C371">
+            <v>22.850000380000001</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v xml:space="preserve">2022/10/14
+</v>
+          </cell>
+          <cell r="C372">
+            <v>23.649999619999999</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v xml:space="preserve">2022/10/17
+</v>
+          </cell>
+          <cell r="C373">
+            <v>23.719999309999999</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v xml:space="preserve">2022/10/18
+</v>
+          </cell>
+          <cell r="C374">
+            <v>23.850000380000001</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v xml:space="preserve">2022/10/19
+</v>
+          </cell>
+          <cell r="C375">
+            <v>23.590000150000002</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v xml:space="preserve">2022/10/20
+</v>
+          </cell>
+          <cell r="C376">
+            <v>23.399999619999999</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v xml:space="preserve">2022/10/21
+</v>
+          </cell>
+          <cell r="C377">
+            <v>23.340000150000002</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v xml:space="preserve">2022/10/24
+</v>
+          </cell>
+          <cell r="C378">
+            <v>22.829999919999999</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v xml:space="preserve">2022/10/25
+</v>
+          </cell>
+          <cell r="C379">
+            <v>22.739999770000001</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v xml:space="preserve">2022/10/26
+</v>
+          </cell>
+          <cell r="C380">
+            <v>23.18000031</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v xml:space="preserve">2022/10/27
+</v>
+          </cell>
+          <cell r="C381">
+            <v>22.959999079999999</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382">
+            <v>44862</v>
+          </cell>
+          <cell r="C382">
+            <v>22.13999939</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383">
+            <v>44865</v>
+          </cell>
+          <cell r="C383">
+            <v>22.239999770000001</v>
           </cell>
         </row>
       </sheetData>
@@ -26550,9 +26841,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -26644,7 +26935,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D18" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D19" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -26652,7 +26943,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F18" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F19" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -26660,11 +26951,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H18" si="2">F3</f>
+        <f t="shared" ref="H3:H19" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I18" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I19" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -26708,7 +26999,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C18" si="4">C3</f>
+        <f t="shared" ref="C4:C19" si="4">C3</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -26716,7 +27007,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E18" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E19" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -26724,7 +27015,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G18" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G19" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -27329,6 +27620,43 @@
       </c>
       <c r="J18" s="7"/>
     </row>
+    <row r="19" spans="1:10" ht="12.75">
+      <c r="A19" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
+        <v>2911.2082503936554</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="5"/>
+        <v>39847.367756613094</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>27375.140717758622</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="6"/>
+        <v>34000</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="2"/>
+        <v>27375.140717758622</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="3"/>
+        <v>-6624.8592822413775</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27340,7 +27668,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27432,11 +27760,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="18">
-        <f t="shared" ref="C3:C18" si="0">IF(J3&lt;-100,2000,0)</f>
+        <f t="shared" ref="C3:C19" si="0">IF(J3&lt;-100,2000,0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D18" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D19" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="19">
@@ -27444,7 +27772,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F18" si="2">E3*B3</f>
+        <f t="shared" ref="F3:F19" si="2">E3*B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="19">
@@ -27452,11 +27780,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H18" si="3">F3</f>
+        <f t="shared" ref="H3:H19" si="3">F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I18" si="4">H3-G3</f>
+        <f t="shared" ref="I3:I19" si="4">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -27511,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E18" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E19" si="5">E3+D4</f>
         <v>0</v>
       </c>
       <c r="F4" s="19">
@@ -27519,7 +27847,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G18" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G19" si="6">G3+C4</f>
         <v>0</v>
       </c>
       <c r="H4" s="19">
@@ -28169,6 +28497,47 @@
         <v>-112.42427728939072</v>
       </c>
     </row>
+    <row r="19" spans="1:10" ht="12.75">
+      <c r="A19" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="1"/>
+        <v>2911.2082503936554</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="5"/>
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="2"/>
+        <v>10450.019810272373</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="3"/>
+        <v>10450.019810272373</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="4"/>
+        <v>-1549.9801897276266</v>
+      </c>
+      <c r="J19" s="7">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-146.0933885866429</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28180,7 +28549,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28288,7 +28657,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D18" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D19" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -28296,7 +28665,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F18" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F19" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -28304,11 +28673,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H18" si="2">F3</f>
+        <f t="shared" ref="H3:H19" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I18" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I19" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -28360,7 +28729,7 @@
         <v>2982.1073558648113</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E18" si="4">E3+D4</f>
+        <f t="shared" ref="E4:E19" si="4">E3+D4</f>
         <v>4921.971565370146</v>
       </c>
       <c r="F4" s="19">
@@ -28368,7 +28737,7 @@
         <v>4951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G18" si="5">G3+C4</f>
+        <f t="shared" ref="G4:G19" si="5">G3+C4</f>
         <v>5000</v>
       </c>
       <c r="H4" s="19">
@@ -28445,7 +28814,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="18">
-        <f t="shared" ref="C5:C18" si="7">IF(N5&lt;20,3000,2000)</f>
+        <f t="shared" ref="C5:C19" si="7">IF(N5&lt;20,3000,2000)</f>
         <v>3000</v>
       </c>
       <c r="D5" s="19">
@@ -28473,23 +28842,23 @@
         <v>-245.37546785243921</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J18" si="8">MAX((B5-B4),0)</f>
+        <f t="shared" ref="J5:J19" si="8">MAX((B5-B4),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K18" si="9">(K4*5+J5)/6</f>
+        <f t="shared" ref="K5:K19" si="9">(K4*5+J5)/6</f>
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" ref="L5:L18" si="10">ABS(B5-B4)</f>
+        <f t="shared" ref="L5:L19" si="10">ABS(B5-B4)</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" ref="M5:M18" si="11">(M4*5+L5)/6</f>
+        <f t="shared" ref="M5:M19" si="11">(M4*5+L5)/6</f>
         <v>2.7499999999999931E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N18" si="12">K5*100/M5</f>
+        <f t="shared" ref="N5:N19" si="12">K5*100/M5</f>
         <v>0</v>
       </c>
       <c r="Z5" s="7"/>
@@ -29258,6 +29627,63 @@
         <v>24.80703135118333</v>
       </c>
     </row>
+    <row r="19" spans="1:14" ht="12.75">
+      <c r="A19" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" si="0"/>
+        <v>2911.2082503936554</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="4"/>
+        <v>49165.43926812365</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>33776.655628449436</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="5"/>
+        <v>42000</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="2"/>
+        <v>33776.655628449436</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="3"/>
+        <v>-8223.3443715505637</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.0754166600991289E-2</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="10"/>
+        <v>9.0000033378601074E-3</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="11"/>
+        <v>4.4851284507818785E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="12"/>
+        <v>23.977388204158451</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29269,9 +29695,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -29386,7 +29812,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D18" ca="1" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D19" ca="1" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -29394,7 +29820,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F18" ca="1" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F19" ca="1" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -29402,11 +29828,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H18" ca="1" si="2">F3</f>
+        <f t="shared" ref="H3:H19" ca="1" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I18" ca="1" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I19" ca="1" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -29481,7 +29907,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C18" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
+        <f t="shared" ref="C4:C19" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -29489,7 +29915,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E18" ca="1" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E19" ca="1" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -29497,7 +29923,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G18" ca="1" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G19" ca="1" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -29525,7 +29951,7 @@
         <v>0.94</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N18" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
+        <f t="shared" ref="N4:N19" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
         <v>57.89473684210526</v>
       </c>
       <c r="O4" s="7">
@@ -29537,7 +29963,7 @@
         <v>83.200425305688029</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q18" ca="1" si="8">3*O4-2*P4</f>
+        <f t="shared" ref="Q4:Q19" ca="1" si="8">3*O4-2*P4</f>
         <v>64.221158958000927</v>
       </c>
       <c r="R4" s="21">
@@ -29634,11 +30060,11 @@
         <v>22.807017543859651</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5:O18" ca="1" si="10">(N5+2*O4)/3</f>
+        <f t="shared" ref="O5:O19" ca="1" si="10">(N5+2*O4)/3</f>
         <v>58.851674641148101</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" ref="P5:P18" ca="1" si="11">(O5+2*P4)/3</f>
+        <f t="shared" ref="P5:P19" ca="1" si="11">(O5+2*P4)/3</f>
         <v>75.084175084174717</v>
       </c>
       <c r="Q5" s="1">
@@ -30128,11 +30554,11 @@
         <v>0.75</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" ref="L12:L18" ca="1" si="12">MAX(J4:J12)</f>
+        <f t="shared" ref="L12:L19" ca="1" si="12">MAX(J4:J12)</f>
         <v>1.054</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M18" ca="1" si="13">MIN(K4:K12)</f>
+        <f t="shared" ref="M12:M19" ca="1" si="13">MIN(K4:K12)</f>
         <v>0.75</v>
       </c>
       <c r="N12" s="7">
@@ -30565,6 +30991,75 @@
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>18.181668685899815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="12.75">
+      <c r="A19" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D19" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2911.2082503936554</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>41109.994026081025</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>28242.564935381801</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>35000</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>28242.564935381801</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>-6757.4350646181992</v>
+      </c>
+      <c r="J19" s="7">
+        <f ca="1">MAX(VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A19,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="K19" s="7">
+        <f ca="1">MIN(VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A19,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.91100001335144043</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>12.840462504160149</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>21.404654564962044</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>26.761079221717068</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>10.691805251451996</v>
       </c>
     </row>
   </sheetData>
@@ -30578,7 +31073,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30679,7 +31174,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="19">
-        <f t="shared" ref="E3:E18" si="0">D3/B3</f>
+        <f t="shared" ref="E3:E19" si="0">D3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
@@ -30687,7 +31182,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G18" si="1">F3*B3</f>
+        <f t="shared" ref="G3:G19" si="1">F3*B3</f>
         <v>2000</v>
       </c>
       <c r="H3" s="19">
@@ -30695,11 +31190,11 @@
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I18" si="2">G3</f>
+        <f t="shared" ref="I3:I19" si="2">G3</f>
         <v>2000</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J18" si="3">I3-H3</f>
+        <f t="shared" ref="J3:J19" si="3">I3-H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="7"/>
@@ -30747,7 +31242,7 @@
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:D18" si="4">D3</f>
+        <f t="shared" ref="D4:D19" si="4">D3</f>
         <v>2000</v>
       </c>
       <c r="E4" s="19">
@@ -30755,7 +31250,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" ref="F4:F18" si="5">F3+E4</f>
+        <f t="shared" ref="F4:F19" si="5">F3+E4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="G4" s="19">
@@ -30763,7 +31258,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H18" si="6">H3+D4</f>
+        <f t="shared" ref="H4:H19" si="6">H3+D4</f>
         <v>4000</v>
       </c>
       <c r="I4" s="19">
@@ -31424,6 +31919,47 @@
       </c>
       <c r="K18" s="7"/>
     </row>
+    <row r="19" spans="1:11" ht="12.75">
+      <c r="A19" s="16">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="17">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="17">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>2911.2082503936554</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="5"/>
+        <v>39847.367756613094</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="1"/>
+        <v>27375.140717758622</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="6"/>
+        <v>34000</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="2"/>
+        <v>27375.140717758622</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="3"/>
+        <v>-6624.8592822413775</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="4" r:id="rId1"/>
@@ -2356,7 +2356,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2407,6 +2407,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,7 +2419,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2467,6 +2470,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2515,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2560,6 +2566,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,7 +2578,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2620,6 +2629,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>27375.140717758622</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30690.105924803764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,7 +2674,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2713,6 +2725,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2737,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2773,6 +2788,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-6624.8592822413775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5309.8940751962364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,11 +2812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71011328"/>
-        <c:axId val="91754496"/>
+        <c:axId val="77735424"/>
+        <c:axId val="77736960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71011328"/>
+        <c:axId val="77735424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,14 +2859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91754496"/>
+        <c:crossAx val="77736960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91754496"/>
+        <c:axId val="77736960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2899,7 +2917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71011328"/>
+        <c:crossAx val="77735424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3066,7 +3084,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3117,6 +3135,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3126,7 +3147,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3176,6 +3197,9 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3219,7 +3243,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3270,6 +3294,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3279,7 +3306,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3330,6 +3357,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10450.019810272373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10951.986635031977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3372,7 +3402,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3423,6 +3453,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,7 +3465,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3483,6 +3516,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-1549.9801897276266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1048.0133649680229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3504,11 +3540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594687488"/>
-        <c:axId val="594689024"/>
+        <c:axId val="91410432"/>
+        <c:axId val="91412352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594687488"/>
+        <c:axId val="91410432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3551,14 +3587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594689024"/>
+        <c:crossAx val="91412352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594689024"/>
+        <c:axId val="91412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +3645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594687488"/>
+        <c:crossAx val="91410432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3776,7 +3812,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3827,6 +3863,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3836,7 +3875,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3887,6 +3926,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,7 +3971,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3980,6 +4022,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3989,7 +4034,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4040,6 +4085,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>33776.655628449436</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37399.117679683528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,7 +4130,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4133,6 +4181,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4142,7 +4193,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4193,6 +4244,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-8223.3443715505637</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6600.882320316472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,11 +4268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="624148864"/>
-        <c:axId val="624150400"/>
+        <c:axId val="535953792"/>
+        <c:axId val="535955712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="624148864"/>
+        <c:axId val="535953792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4261,14 +4315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624150400"/>
+        <c:crossAx val="535955712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="624150400"/>
+        <c:axId val="535955712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,7 +4373,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624148864"/>
+        <c:crossAx val="535953792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4440,7 +4494,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4487,7 +4540,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4538,6 +4591,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4547,7 +4603,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4598,6 +4654,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4640,7 +4699,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4691,6 +4750,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4700,7 +4762,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4751,6 +4813,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>28242.564935381801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31599.196874944704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4793,7 +4858,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4844,6 +4909,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,7 +4921,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4904,6 +4972,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-6757.4350646181992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5400.8031250552958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4925,11 +4996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="711798144"/>
-        <c:axId val="619009152"/>
+        <c:axId val="567309056"/>
+        <c:axId val="567310592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="711798144"/>
+        <c:axId val="567309056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4972,14 +5043,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619009152"/>
+        <c:crossAx val="567310592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619009152"/>
+        <c:axId val="567310592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,7 +5101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711798144"/>
+        <c:crossAx val="567309056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5044,7 +5115,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5152,6 +5222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5198,7 +5269,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5249,6 +5320,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5258,7 +5332,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5309,6 +5383,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5351,7 +5428,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5402,6 +5479,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5411,7 +5491,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5462,6 +5542,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>27375.140717758622</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30690.105924803764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5504,7 +5587,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5555,6 +5638,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,7 +5650,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5615,6 +5701,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-6624.8592822413775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5309.8940751962364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,11 +5725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619029248"/>
-        <c:axId val="619030784"/>
+        <c:axId val="69429120"/>
+        <c:axId val="69430656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619029248"/>
+        <c:axId val="69429120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5683,14 +5772,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619030784"/>
+        <c:crossAx val="69430656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619030784"/>
+        <c:axId val="69430656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5830,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619029248"/>
+        <c:crossAx val="69429120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5755,6 +5844,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6852,6 +6942,12 @@
           <cell r="I19">
             <v>43642273.117647059</v>
           </cell>
+          <cell r="K19">
+            <v>44925</v>
+          </cell>
+          <cell r="L19">
+            <v>44896</v>
+          </cell>
           <cell r="N19">
             <v>1.0529999999999999</v>
           </cell>
@@ -23230,10 +23326,10 @@
             <v>5444602.8119248468</v>
           </cell>
           <cell r="N328">
-            <v>0</v>
+            <v>0.70499998331069946</v>
           </cell>
           <cell r="O328">
-            <v>0</v>
+            <v>0.68400001525878906</v>
           </cell>
           <cell r="P328">
             <v>0.68566664059956872</v>
@@ -23252,6 +23348,1172 @@
           </cell>
           <cell r="U328">
             <v>-146.0933885866429</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="A329">
+            <v>44866</v>
+          </cell>
+          <cell r="B329">
+            <v>0.68900001049041748</v>
+          </cell>
+          <cell r="C329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="D329">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="E329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="F329">
+            <v>4066501.25</v>
+          </cell>
+          <cell r="G329">
+            <v>2806.73095703125</v>
+          </cell>
+          <cell r="H329">
+            <v>327</v>
+          </cell>
+          <cell r="I329">
+            <v>5440388.4340596329</v>
+          </cell>
+          <cell r="N329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="O329">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P329">
+            <v>0.69799999396006263</v>
+          </cell>
+          <cell r="Q329">
+            <v>0.71021428420430144</v>
+          </cell>
+          <cell r="R329">
+            <v>-1.2214290244238812E-2</v>
+          </cell>
+          <cell r="S329">
+            <v>1.0785711663109923E-2</v>
+          </cell>
+          <cell r="T329">
+            <v>1.6178567494664885E-4</v>
+          </cell>
+          <cell r="U329">
+            <v>-75.496735098868612</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="A330">
+            <v>44867</v>
+          </cell>
+          <cell r="B330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="C330">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="D330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E330">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F330">
+            <v>3588100</v>
+          </cell>
+          <cell r="G330">
+            <v>2554.7890625</v>
+          </cell>
+          <cell r="H330">
+            <v>328</v>
+          </cell>
+          <cell r="I330">
+            <v>5434741.213224085</v>
+          </cell>
+          <cell r="N330">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="O330">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P330">
+            <v>0.71466666460037231</v>
+          </cell>
+          <cell r="Q330">
+            <v>0.71064285437266039</v>
+          </cell>
+          <cell r="R330">
+            <v>4.0238102277119214E-3</v>
+          </cell>
+          <cell r="S330">
+            <v>1.0931971527281259E-2</v>
+          </cell>
+          <cell r="T330">
+            <v>1.6397957290921887E-4</v>
+          </cell>
+          <cell r="U330">
+            <v>24.538484619297996</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="A331">
+            <v>44868</v>
+          </cell>
+          <cell r="B331">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="C331">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="D331">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="E331">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="F331">
+            <v>2969101</v>
+          </cell>
+          <cell r="G331">
+            <v>2118.14306640625</v>
+          </cell>
+          <cell r="H331">
+            <v>329</v>
+          </cell>
+          <cell r="I331">
+            <v>5427246.8660714282</v>
+          </cell>
+          <cell r="N331">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="O331">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P331">
+            <v>0.71266665061314904</v>
+          </cell>
+          <cell r="Q331">
+            <v>0.71026190121968591</v>
+          </cell>
+          <cell r="R331">
+            <v>2.4047493934631348E-3</v>
+          </cell>
+          <cell r="S331">
+            <v>1.0605440253303169E-2</v>
+          </cell>
+          <cell r="T331">
+            <v>1.5908160379954754E-4</v>
+          </cell>
+          <cell r="U331">
+            <v>15.116451783408374</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="A332">
+            <v>44869</v>
+          </cell>
+          <cell r="B332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C332">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E332">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="F332">
+            <v>3661902</v>
+          </cell>
+          <cell r="G332">
+            <v>2657.242919921875</v>
+          </cell>
+          <cell r="H332">
+            <v>330</v>
+          </cell>
+          <cell r="I332">
+            <v>5421897.3361742422</v>
+          </cell>
+          <cell r="N332">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="O332">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P332">
+            <v>0.72999999920527137</v>
+          </cell>
+          <cell r="Q332">
+            <v>0.71057142530168804</v>
+          </cell>
+          <cell r="R332">
+            <v>1.9428573903583324E-2</v>
+          </cell>
+          <cell r="S332">
+            <v>1.0870746609305046E-2</v>
+          </cell>
+          <cell r="T332">
+            <v>1.630611991395757E-4</v>
+          </cell>
+          <cell r="U332">
+            <v>119.14896987206026</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="A333">
+            <v>44872</v>
+          </cell>
+          <cell r="B333">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="C333">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D333">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E333">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F333">
+            <v>2424500</v>
+          </cell>
+          <cell r="G333">
+            <v>1782.22900390625</v>
+          </cell>
+          <cell r="H333">
+            <v>331</v>
+          </cell>
+          <cell r="I333">
+            <v>5412841.7550981874</v>
+          </cell>
+          <cell r="N333">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O333">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P333">
+            <v>0.7346666852633158</v>
+          </cell>
+          <cell r="Q333">
+            <v>0.71064285579181852</v>
+          </cell>
+          <cell r="R333">
+            <v>2.4023829471497282E-2</v>
+          </cell>
+          <cell r="S333">
+            <v>1.0931972743702587E-2</v>
+          </cell>
+          <cell r="T333">
+            <v>1.639795911555388E-4</v>
+          </cell>
+          <cell r="U333">
+            <v>146.50499676334766</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="A334">
+            <v>44873</v>
+          </cell>
+          <cell r="B334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="C334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="D334">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="E334">
+            <v>0.72699999809265137</v>
+          </cell>
+          <cell r="F334">
+            <v>2755801</v>
+          </cell>
+          <cell r="G334">
+            <v>2007.2960205078125</v>
+          </cell>
+          <cell r="H334">
+            <v>332</v>
+          </cell>
+          <cell r="I334">
+            <v>5404838.620293675</v>
+          </cell>
+          <cell r="N334">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O334">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P334">
+            <v>0.72899999221165979</v>
+          </cell>
+          <cell r="Q334">
+            <v>0.71076190329733346</v>
+          </cell>
+          <cell r="R334">
+            <v>1.8238088914326323E-2</v>
+          </cell>
+          <cell r="S334">
+            <v>1.1034013462715415E-2</v>
+          </cell>
+          <cell r="T334">
+            <v>1.6551020194073123E-4</v>
+          </cell>
+          <cell r="U334">
+            <v>110.19314036519232</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="A335">
+            <v>44874</v>
+          </cell>
+          <cell r="B335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="C335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D335">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E335">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="F335">
+            <v>2908406</v>
+          </cell>
+          <cell r="G335">
+            <v>2104.299072265625</v>
+          </cell>
+          <cell r="H335">
+            <v>333</v>
+          </cell>
+          <cell r="I335">
+            <v>5397341.8256381378</v>
+          </cell>
+          <cell r="N335">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O335">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P335">
+            <v>0.72433334589004517</v>
+          </cell>
+          <cell r="Q335">
+            <v>0.71130952380952384</v>
+          </cell>
+          <cell r="R335">
+            <v>1.302382208052133E-2</v>
+          </cell>
+          <cell r="S335">
+            <v>1.1547619388217023E-2</v>
+          </cell>
+          <cell r="T335">
+            <v>1.7321429082325533E-4</v>
+          </cell>
+          <cell r="U335">
+            <v>75.189073711075025</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="A336">
+            <v>44875</v>
+          </cell>
+          <cell r="B336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D336">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E336">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="F336">
+            <v>3683300</v>
+          </cell>
+          <cell r="G336">
+            <v>2612.735107421875</v>
+          </cell>
+          <cell r="H336">
+            <v>334</v>
+          </cell>
+          <cell r="I336">
+            <v>5392209.9638847308</v>
+          </cell>
+          <cell r="N336">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O336">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P336">
+            <v>0.71133333444595337</v>
+          </cell>
+          <cell r="Q336">
+            <v>0.71107142879849394</v>
+          </cell>
+          <cell r="R336">
+            <v>2.6190564745942613E-4</v>
+          </cell>
+          <cell r="S336">
+            <v>1.1309524377187099E-2</v>
+          </cell>
+          <cell r="T336">
+            <v>1.6964286565780646E-4</v>
+          </cell>
+          <cell r="U336">
+            <v>1.5438647917427113</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="A337">
+            <v>44876</v>
+          </cell>
+          <cell r="B337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C337">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E337">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="F337">
+            <v>3560304</v>
+          </cell>
+          <cell r="G337">
+            <v>2588.037109375</v>
+          </cell>
+          <cell r="H337">
+            <v>335</v>
+          </cell>
+          <cell r="I337">
+            <v>5386741.5878731348</v>
+          </cell>
+          <cell r="N337">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O337">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P337">
+            <v>0.72666668891906738</v>
+          </cell>
+          <cell r="Q337">
+            <v>0.71250000170298988</v>
+          </cell>
+          <cell r="R337">
+            <v>1.41666872160775E-2</v>
+          </cell>
+          <cell r="S337">
+            <v>1.2071430683135995E-2</v>
+          </cell>
+          <cell r="T337">
+            <v>1.8107146024703993E-4</v>
+          </cell>
+          <cell r="U337">
+            <v>78.238101116264076</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="A338">
+            <v>44879</v>
+          </cell>
+          <cell r="B338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="C338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D338">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E338">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="F338">
+            <v>3003903</v>
+          </cell>
+          <cell r="G338">
+            <v>2189.81298828125</v>
+          </cell>
+          <cell r="H338">
+            <v>336</v>
+          </cell>
+          <cell r="I338">
+            <v>5379649.8063616073</v>
+          </cell>
+          <cell r="N338">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="O338">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P338">
+            <v>0.72633334000905359</v>
+          </cell>
+          <cell r="Q338">
+            <v>0.71447619228135972</v>
+          </cell>
+          <cell r="R338">
+            <v>1.1857147727693862E-2</v>
+          </cell>
+          <cell r="S338">
+            <v>1.2047624304181057E-2</v>
+          </cell>
+          <cell r="T338">
+            <v>1.8071436456271585E-4</v>
+          </cell>
+          <cell r="U338">
+            <v>65.612646545199837</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="A339">
+            <v>44880</v>
+          </cell>
+          <cell r="B339">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D339">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="E339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="F339">
+            <v>5722604</v>
+          </cell>
+          <cell r="G339">
+            <v>4205.744140625</v>
+          </cell>
+          <cell r="H339">
+            <v>337</v>
+          </cell>
+          <cell r="I339">
+            <v>5380667.4745919881</v>
+          </cell>
+          <cell r="N339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="O339">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P339">
+            <v>0.73599998156229651</v>
+          </cell>
+          <cell r="Q339">
+            <v>0.71626190486408425</v>
+          </cell>
+          <cell r="R339">
+            <v>1.9738076698212259E-2</v>
+          </cell>
+          <cell r="S339">
+            <v>1.3309528430302935E-2</v>
+          </cell>
+          <cell r="T339">
+            <v>1.9964292645454401E-4</v>
+          </cell>
+          <cell r="U339">
+            <v>98.866897258723327</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="A340">
+            <v>44881</v>
+          </cell>
+          <cell r="B340">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="C340">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="D340">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="E340">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F340">
+            <v>1012900</v>
+          </cell>
+          <cell r="G340">
+            <v>748.44000244140625</v>
+          </cell>
+          <cell r="H340">
+            <v>338</v>
+          </cell>
+          <cell r="I340">
+            <v>5367745.0856139055</v>
+          </cell>
+          <cell r="N340">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O340">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P340">
+            <v>0.73766668637593591</v>
+          </cell>
+          <cell r="Q340">
+            <v>0.71826190607888363</v>
+          </cell>
+          <cell r="R340">
+            <v>1.9404780297052282E-2</v>
+          </cell>
+          <cell r="S340">
+            <v>1.4081638686510975E-2</v>
+          </cell>
+          <cell r="T340">
+            <v>2.1122458029766461E-4</v>
+          </cell>
+          <cell r="U340">
+            <v>91.868002624062171</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="A341">
+            <v>44882</v>
+          </cell>
+          <cell r="B341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="D341">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E341">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="F341">
+            <v>3281900</v>
+          </cell>
+          <cell r="G341">
+            <v>2381.821044921875</v>
+          </cell>
+          <cell r="H341">
+            <v>339</v>
+          </cell>
+          <cell r="I341">
+            <v>5361592.1502581118</v>
+          </cell>
+          <cell r="N341">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O341">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P341">
+            <v>0.72733334700266516</v>
+          </cell>
+          <cell r="Q341">
+            <v>0.7210238107613155</v>
+          </cell>
+          <cell r="R341">
+            <v>6.309536241349667E-3</v>
+          </cell>
+          <cell r="S341">
+            <v>1.1826538512495901E-2</v>
+          </cell>
+          <cell r="T341">
+            <v>1.7739807768743851E-4</v>
+          </cell>
+          <cell r="U341">
+            <v>35.567106045346073</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="A342">
+            <v>44883</v>
+          </cell>
+          <cell r="B342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C342">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="F342">
+            <v>2393401</v>
+          </cell>
+          <cell r="G342">
+            <v>1758.56494140625</v>
+          </cell>
+          <cell r="H342">
+            <v>340</v>
+          </cell>
+          <cell r="I342">
+            <v>5352862.1762867644</v>
+          </cell>
+          <cell r="N342">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O342">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P342">
+            <v>0.73366667826970422</v>
+          </cell>
+          <cell r="Q342">
+            <v>0.72445238488061092</v>
+          </cell>
+          <cell r="R342">
+            <v>9.2142933890932976E-3</v>
+          </cell>
+          <cell r="S342">
+            <v>8.7517049847816806E-3</v>
+          </cell>
+          <cell r="T342">
+            <v>1.312755747717252E-4</v>
+          </cell>
+          <cell r="U342">
+            <v>70.190463116356653</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="A343">
+            <v>44886</v>
+          </cell>
+          <cell r="B343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D343">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F343">
+            <v>3153102</v>
+          </cell>
+          <cell r="G343">
+            <v>2289.886962890625</v>
+          </cell>
+          <cell r="H343">
+            <v>341</v>
+          </cell>
+          <cell r="I343">
+            <v>5346411.2666788856</v>
+          </cell>
+          <cell r="N343">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O343">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P343">
+            <v>0.72633332014083862</v>
+          </cell>
+          <cell r="Q343">
+            <v>0.72647619389352347</v>
+          </cell>
+          <cell r="R343">
+            <v>-1.428737526848467E-4</v>
+          </cell>
+          <cell r="S343">
+            <v>6.1700725231040787E-3</v>
+          </cell>
+          <cell r="T343">
+            <v>9.2551087846561177E-5</v>
+          </cell>
+          <cell r="U343">
+            <v>-1.5437285072403966</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="A344">
+            <v>44887</v>
+          </cell>
+          <cell r="B344">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="C344">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D344">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E344">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="F344">
+            <v>3219613</v>
+          </cell>
+          <cell r="G344">
+            <v>2322.748046875</v>
+          </cell>
+          <cell r="H344">
+            <v>342</v>
+          </cell>
+          <cell r="I344">
+            <v>5340192.5582967838</v>
+          </cell>
+          <cell r="N344">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O344">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P344">
+            <v>0.718666672706604</v>
+          </cell>
+          <cell r="Q344">
+            <v>0.7267619087582543</v>
+          </cell>
+          <cell r="R344">
+            <v>-8.0952360516503008E-3</v>
+          </cell>
+          <cell r="S344">
+            <v>5.8571440832955414E-3</v>
+          </cell>
+          <cell r="T344">
+            <v>8.7857161249433113E-5</v>
+          </cell>
+          <cell r="U344">
+            <v>-92.140878859804204</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="A345">
+            <v>44888</v>
+          </cell>
+          <cell r="B345">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C345">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="D345">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E345">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="F345">
+            <v>2462800</v>
+          </cell>
+          <cell r="G345">
+            <v>1759.5560302734375</v>
+          </cell>
+          <cell r="H345">
+            <v>343</v>
+          </cell>
+          <cell r="I345">
+            <v>5331803.6587099126</v>
+          </cell>
+          <cell r="N345">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O345">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P345">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q345">
+            <v>0.72697619597117114</v>
+          </cell>
+          <cell r="R345">
+            <v>-1.130952437718713E-2</v>
+          </cell>
+          <cell r="S345">
+            <v>5.6428568703787586E-3</v>
+          </cell>
+          <cell r="T345">
+            <v>8.4642853055681371E-5</v>
+          </cell>
+          <cell r="U345">
+            <v>-133.61464044397562</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="A346">
+            <v>44889</v>
+          </cell>
+          <cell r="B346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D346">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E346">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="F346">
+            <v>2647100</v>
+          </cell>
+          <cell r="G346">
+            <v>1893.616943359375</v>
+          </cell>
+          <cell r="H346">
+            <v>344</v>
+          </cell>
+          <cell r="I346">
+            <v>5323999.2876090119</v>
+          </cell>
+          <cell r="N346">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O346">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P346">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q346">
+            <v>0.7259523868560791</v>
+          </cell>
+          <cell r="R346">
+            <v>-1.0285715262095096E-2</v>
+          </cell>
+          <cell r="S346">
+            <v>6.2993197214035734E-3</v>
+          </cell>
+          <cell r="T346">
+            <v>9.4489795821053597E-5</v>
+          </cell>
+          <cell r="U346">
+            <v>-108.8553020219703</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="A347">
+            <v>44890</v>
+          </cell>
+          <cell r="B347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C347">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E347">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="F347">
+            <v>1362800</v>
+          </cell>
+          <cell r="G347">
+            <v>968.49102783203125</v>
+          </cell>
+          <cell r="H347">
+            <v>345</v>
+          </cell>
+          <cell r="I347">
+            <v>5312517.5505434787</v>
+          </cell>
+          <cell r="N347">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O347">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P347">
+            <v>0.71200001239776611</v>
+          </cell>
+          <cell r="Q347">
+            <v>0.72433333879425421</v>
+          </cell>
+          <cell r="R347">
+            <v>-1.2333326396488098E-2</v>
+          </cell>
+          <cell r="S347">
+            <v>6.904761604711286E-3</v>
+          </cell>
+          <cell r="T347">
+            <v>1.0357142407066929E-4</v>
+          </cell>
+          <cell r="U347">
+            <v>-119.08039796838915</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>44893</v>
+          </cell>
+          <cell r="B348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="C348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="D348">
+            <v>0.6940000057220459</v>
+          </cell>
+          <cell r="E348">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="F348">
+            <v>2657600</v>
+          </cell>
+          <cell r="G348">
+            <v>1855.81494140625</v>
+          </cell>
+          <cell r="H348">
+            <v>346</v>
+          </cell>
+          <cell r="I348">
+            <v>5304844.3784320811</v>
+          </cell>
+          <cell r="N348">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O348">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P348">
+            <v>0.70299998919169104</v>
+          </cell>
+          <cell r="Q348">
+            <v>0.72247619572139921</v>
+          </cell>
+          <cell r="R348">
+            <v>-1.9476206529708162E-2</v>
+          </cell>
+          <cell r="S348">
+            <v>8.3605460569161159E-3</v>
+          </cell>
+          <cell r="T348">
+            <v>1.2540819085374172E-4</v>
+          </cell>
+          <cell r="U348">
+            <v>-155.30250773191074</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>44894</v>
+          </cell>
+          <cell r="B349">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C349">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D349">
+            <v>0.70800000429153442</v>
+          </cell>
+          <cell r="E349">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F349">
+            <v>2146700</v>
+          </cell>
+          <cell r="G349">
+            <v>1530.8990478515625</v>
+          </cell>
+          <cell r="H349">
+            <v>347</v>
+          </cell>
+          <cell r="I349">
+            <v>5295743.0978025934</v>
+          </cell>
+          <cell r="N349">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="O349">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="P349">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q349">
+            <v>0.72185714755739483</v>
+          </cell>
+          <cell r="R349">
+            <v>-6.1904759634108242E-3</v>
+          </cell>
+          <cell r="S349">
+            <v>8.7142870539710614E-3</v>
+          </cell>
+          <cell r="T349">
+            <v>1.3071430580956591E-4</v>
+          </cell>
+          <cell r="U349">
+            <v>-47.358825226288232</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350">
+            <v>44895</v>
+          </cell>
+          <cell r="B350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="C350">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E350">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="F350">
+            <v>2516800</v>
+          </cell>
+          <cell r="G350">
+            <v>1814.135986328125</v>
+          </cell>
+          <cell r="H350">
+            <v>348</v>
+          </cell>
+          <cell r="I350">
+            <v>5287757.6291307472</v>
+          </cell>
+          <cell r="N350">
+            <v>0</v>
+          </cell>
+          <cell r="O350">
+            <v>0</v>
+          </cell>
+          <cell r="P350">
+            <v>0.72099999586741126</v>
+          </cell>
+          <cell r="Q350">
+            <v>0.72254762337321321</v>
+          </cell>
+          <cell r="R350">
+            <v>-1.5476275058019517E-3</v>
+          </cell>
+          <cell r="S350">
+            <v>8.0238112381526405E-3</v>
+          </cell>
+          <cell r="T350">
+            <v>1.203571685722896E-4</v>
+          </cell>
+          <cell r="U350">
+            <v>-12.858623413630797</v>
           </cell>
         </row>
       </sheetData>
@@ -26545,6 +27807,203 @@
           </cell>
           <cell r="C383">
             <v>22.239999770000001</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v xml:space="preserve">2022/11/1
+</v>
+          </cell>
+          <cell r="C384">
+            <v>22.270000459999999</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v xml:space="preserve">2022/11/2
+</v>
+          </cell>
+          <cell r="C385">
+            <v>22.600000380000001</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v xml:space="preserve">2022/11/3
+</v>
+          </cell>
+          <cell r="C386">
+            <v>22.479999540000001</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v xml:space="preserve">2022/11/4
+</v>
+          </cell>
+          <cell r="C387">
+            <v>23.200000760000002</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v xml:space="preserve">2022/11/7
+</v>
+          </cell>
+          <cell r="C388">
+            <v>23.190000529999999</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v xml:space="preserve">2022/11/8
+</v>
+          </cell>
+          <cell r="C389">
+            <v>23.030000690000001</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v xml:space="preserve">2022/11/9
+</v>
+          </cell>
+          <cell r="C390">
+            <v>22.760000229999999</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v xml:space="preserve">2022/11/10
+</v>
+          </cell>
+          <cell r="C391">
+            <v>22.31999969</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v xml:space="preserve">2022/11/11
+</v>
+          </cell>
+          <cell r="C392">
+            <v>22.870000839999999</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v xml:space="preserve">2022/11/14
+</v>
+          </cell>
+          <cell r="C393">
+            <v>22.88999939</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v xml:space="preserve">2022/11/15
+</v>
+          </cell>
+          <cell r="C394">
+            <v>23.450000760000002</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v xml:space="preserve">2022/11/16
+</v>
+          </cell>
+          <cell r="C395">
+            <v>23.129999160000001</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v xml:space="preserve">2022/11/17
+</v>
+          </cell>
+          <cell r="C396">
+            <v>23.010000229999999</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v xml:space="preserve">2022/11/18
+</v>
+          </cell>
+          <cell r="C397">
+            <v>23.030000690000001</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v xml:space="preserve">2022/11/21
+</v>
+          </cell>
+          <cell r="C398">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v xml:space="preserve">2022/11/22
+</v>
+          </cell>
+          <cell r="C399">
+            <v>22.649999619999999</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v xml:space="preserve">2022/11/23
+</v>
+          </cell>
+          <cell r="C400">
+            <v>22.540000920000001</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v xml:space="preserve">2022/11/24
+</v>
+          </cell>
+          <cell r="C401">
+            <v>22.510000229999999</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v xml:space="preserve">2022/11/25
+</v>
+          </cell>
+          <cell r="C402">
+            <v>22.36000061</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v xml:space="preserve">2022/11/28
+</v>
+          </cell>
+          <cell r="C403">
+            <v>22.200000760000002</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v xml:space="preserve">2022/11/29
+</v>
+          </cell>
+          <cell r="C404">
+            <v>22.700000760000002</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405">
+            <v>44895</v>
+          </cell>
+          <cell r="C405">
+            <v>22.809999470000001</v>
           </cell>
         </row>
       </sheetData>
@@ -26841,7 +28300,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26935,7 +28394,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D19" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D20" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -26943,7 +28402,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F19" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F20" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -26951,11 +28410,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H19" si="2">F3</f>
+        <f t="shared" ref="H3:H20" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I19" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I20" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -26999,7 +28458,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C19" si="4">C3</f>
+        <f t="shared" ref="C4:C20" si="4">C3</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -27007,7 +28466,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E19" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E20" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -27015,7 +28474,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G19" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G20" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -27657,6 +29116,43 @@
         <v>-6624.8592822413775</v>
       </c>
     </row>
+    <row r="20" spans="1:10" ht="12.75">
+      <c r="A20" s="16">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="5"/>
+        <v>42625.145424011906</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>30690.105924803764</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="6"/>
+        <v>36000</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="2"/>
+        <v>30690.105924803764</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="3"/>
+        <v>-5309.8940751962364</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27668,7 +29164,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27760,11 +29256,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="18">
-        <f t="shared" ref="C3:C19" si="0">IF(J3&lt;-100,2000,0)</f>
+        <f t="shared" ref="C3:C20" si="0">IF(J3&lt;-100,2000,0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D19" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D20" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="19">
@@ -27772,7 +29268,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F19" si="2">E3*B3</f>
+        <f t="shared" ref="F3:F20" si="2">E3*B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="19">
@@ -27780,11 +29276,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H19" si="3">F3</f>
+        <f t="shared" ref="H3:H20" si="3">F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I19" si="4">H3-G3</f>
+        <f t="shared" ref="I3:I20" si="4">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -27839,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E19" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E20" si="5">E3+D4</f>
         <v>0</v>
       </c>
       <c r="F4" s="19">
@@ -27847,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G19" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G20" si="6">G3+C4</f>
         <v>0</v>
       </c>
       <c r="H4" s="19">
@@ -28538,6 +30034,47 @@
         <v>-146.0933885866429</v>
       </c>
     </row>
+    <row r="20" spans="1:10" ht="12.75">
+      <c r="A20" s="16">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="5"/>
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="2"/>
+        <v>10951.986635031977</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="3"/>
+        <v>10951.986635031977</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="4"/>
+        <v>-1048.0133649680229</v>
+      </c>
+      <c r="J20" s="7">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-12.858623413630797</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28549,7 +30086,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28657,7 +30194,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D19" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D20" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -28665,7 +30202,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F19" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F20" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -28673,11 +30210,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H19" si="2">F3</f>
+        <f t="shared" ref="H3:H20" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I19" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I20" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -28729,7 +30266,7 @@
         <v>2982.1073558648113</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E19" si="4">E3+D4</f>
+        <f t="shared" ref="E4:E20" si="4">E3+D4</f>
         <v>4921.971565370146</v>
       </c>
       <c r="F4" s="19">
@@ -28737,7 +30274,7 @@
         <v>4951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G19" si="5">G3+C4</f>
+        <f t="shared" ref="G4:G20" si="5">G3+C4</f>
         <v>5000</v>
       </c>
       <c r="H4" s="19">
@@ -28814,7 +30351,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="18">
-        <f t="shared" ref="C5:C19" si="7">IF(N5&lt;20,3000,2000)</f>
+        <f t="shared" ref="C5:C20" si="7">IF(N5&lt;20,3000,2000)</f>
         <v>3000</v>
       </c>
       <c r="D5" s="19">
@@ -28842,23 +30379,23 @@
         <v>-245.37546785243921</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J19" si="8">MAX((B5-B4),0)</f>
+        <f t="shared" ref="J5:J20" si="8">MAX((B5-B4),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K19" si="9">(K4*5+J5)/6</f>
+        <f t="shared" ref="K5:K20" si="9">(K4*5+J5)/6</f>
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" ref="L5:L19" si="10">ABS(B5-B4)</f>
+        <f t="shared" ref="L5:L20" si="10">ABS(B5-B4)</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" ref="M5:M19" si="11">(M4*5+L5)/6</f>
+        <f t="shared" ref="M5:M20" si="11">(M4*5+L5)/6</f>
         <v>2.7499999999999931E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N19" si="12">K5*100/M5</f>
+        <f t="shared" ref="N5:N20" si="12">K5*100/M5</f>
         <v>0</v>
       </c>
       <c r="Z5" s="7"/>
@@ -29684,6 +31221,63 @@
         <v>23.977388204158451</v>
       </c>
     </row>
+    <row r="20" spans="1:14" ht="12.75">
+      <c r="A20" s="16">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="4"/>
+        <v>51943.216935522461</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>37399.117679683528</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="5"/>
+        <v>44000</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="2"/>
+        <v>37399.117679683528</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="3"/>
+        <v>-6600.882320316472</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="8"/>
+        <v>3.3000051975250244E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4461814163367781E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="10"/>
+        <v>3.3000051975250244E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="11"/>
+        <v>4.287607908572403E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="12"/>
+        <v>33.729329900837342</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29695,9 +31289,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -29812,7 +31406,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D19" ca="1" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D20" ca="1" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -29820,7 +31414,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F19" ca="1" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F20" ca="1" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -29828,11 +31422,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H19" ca="1" si="2">F3</f>
+        <f t="shared" ref="H3:H20" ca="1" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I19" ca="1" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I20" ca="1" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -29907,7 +31501,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C19" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
+        <f t="shared" ref="C4:C20" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -29915,7 +31509,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E19" ca="1" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E20" ca="1" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -29923,7 +31517,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G19" ca="1" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G20" ca="1" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -29951,7 +31545,7 @@
         <v>0.94</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N19" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
+        <f t="shared" ref="N4:N20" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
         <v>57.89473684210526</v>
       </c>
       <c r="O4" s="7">
@@ -29963,7 +31557,7 @@
         <v>83.200425305688029</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q19" ca="1" si="8">3*O4-2*P4</f>
+        <f t="shared" ref="Q4:Q20" ca="1" si="8">3*O4-2*P4</f>
         <v>64.221158958000927</v>
       </c>
       <c r="R4" s="21">
@@ -30060,11 +31654,11 @@
         <v>22.807017543859651</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5:O19" ca="1" si="10">(N5+2*O4)/3</f>
+        <f t="shared" ref="O5:O20" ca="1" si="10">(N5+2*O4)/3</f>
         <v>58.851674641148101</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" ref="P5:P19" ca="1" si="11">(O5+2*P4)/3</f>
+        <f t="shared" ref="P5:P20" ca="1" si="11">(O5+2*P4)/3</f>
         <v>75.084175084174717</v>
       </c>
       <c r="Q5" s="1">
@@ -30554,11 +32148,11 @@
         <v>0.75</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" ref="L12:L19" ca="1" si="12">MAX(J4:J12)</f>
+        <f t="shared" ref="L12:L20" ca="1" si="12">MAX(J4:J12)</f>
         <v>1.054</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M19" ca="1" si="13">MIN(K4:K12)</f>
+        <f t="shared" ref="M12:M20" ca="1" si="13">MIN(K4:K12)</f>
         <v>0.75</v>
       </c>
       <c r="N12" s="7">
@@ -31060,6 +32654,75 @@
       <c r="Q19" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>10.691805251451996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12.75">
+      <c r="A20" s="16">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D20" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>43887.771693479837</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>31599.196874944704</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>37000</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>31599.196874944704</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5400.8031250552958</v>
+      </c>
+      <c r="J20" s="7">
+        <f ca="1">MAX(VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A20,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="K20" s="7">
+        <f ca="1">MIN(VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A20,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.88599997758865356</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>28.448295795251873</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>23.752534975058655</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>25.758231139497596</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>19.741142646180776</v>
       </c>
     </row>
   </sheetData>
@@ -31073,9 +32736,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -31174,7 +32837,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="19">
-        <f t="shared" ref="E3:E19" si="0">D3/B3</f>
+        <f t="shared" ref="E3:E20" si="0">D3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
@@ -31182,7 +32845,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G19" si="1">F3*B3</f>
+        <f t="shared" ref="G3:G20" si="1">F3*B3</f>
         <v>2000</v>
       </c>
       <c r="H3" s="19">
@@ -31190,11 +32853,11 @@
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I19" si="2">G3</f>
+        <f t="shared" ref="I3:I20" si="2">G3</f>
         <v>2000</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J19" si="3">I3-H3</f>
+        <f t="shared" ref="J3:J20" si="3">I3-H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="7"/>
@@ -31242,7 +32905,7 @@
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:D19" si="4">D3</f>
+        <f t="shared" ref="D4:D20" si="4">D3</f>
         <v>2000</v>
       </c>
       <c r="E4" s="19">
@@ -31250,7 +32913,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" ref="F4:F19" si="5">F3+E4</f>
+        <f t="shared" ref="F4:F20" si="5">F3+E4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="G4" s="19">
@@ -31258,7 +32921,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H19" si="6">H3+D4</f>
+        <f t="shared" ref="H4:H20" si="6">H3+D4</f>
         <v>4000</v>
       </c>
       <c r="I4" s="19">
@@ -31960,6 +33623,47 @@
         <v>-6624.8592822413775</v>
       </c>
     </row>
+    <row r="20" spans="1:11" ht="12.75">
+      <c r="A20" s="16">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="17">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="17">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="5"/>
+        <v>42625.145424011906</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="1"/>
+        <v>30690.105924803764</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="6"/>
+        <v>36000</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="2"/>
+        <v>30690.105924803764</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="3"/>
+        <v>-5309.8940751962364</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2356,7 +2356,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2410,6 +2410,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2422,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2473,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2521,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2569,6 +2575,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,7 +2587,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2632,6 +2641,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>30690.105924803764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32817.979714730289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,7 +2686,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2728,6 +2740,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,7 +2752,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2791,6 +2806,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-5309.8940751962364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5182.0202852697112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2812,11 +2830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77735424"/>
-        <c:axId val="77736960"/>
+        <c:axId val="506180352"/>
+        <c:axId val="506182272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77735424"/>
+        <c:axId val="506180352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,14 +2877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77736960"/>
+        <c:crossAx val="506182272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77736960"/>
+        <c:axId val="506182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +2935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77735424"/>
+        <c:crossAx val="506180352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3084,7 +3102,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3138,6 +3156,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,7 +3168,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3200,6 +3221,9 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3243,7 +3267,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3297,6 +3321,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,7 +3333,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3360,6 +3387,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>10951.986635031977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10997.619323354318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,7 +3432,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3456,6 +3486,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3465,7 +3498,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3519,6 +3552,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-1048.0133649680229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1002.3806766456819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,11 +3576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91410432"/>
-        <c:axId val="91412352"/>
+        <c:axId val="382106624"/>
+        <c:axId val="382112512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91410432"/>
+        <c:axId val="382106624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,14 +3623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91412352"/>
+        <c:crossAx val="382112512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91412352"/>
+        <c:axId val="382112512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3645,7 +3681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91410432"/>
+        <c:crossAx val="382106624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3812,7 +3848,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3866,6 +3902,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,7 +3914,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3929,6 +3968,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,7 +4013,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4025,6 +4067,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4034,7 +4079,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4088,6 +4133,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>37399.117679683528</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39554.945324245164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,7 +4178,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4184,6 +4232,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,7 +4244,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4247,6 +4298,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-6600.882320316472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6445.0546757548364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,11 +4322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535953792"/>
-        <c:axId val="535955712"/>
+        <c:axId val="382128512"/>
+        <c:axId val="382130048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535953792"/>
+        <c:axId val="382128512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,14 +4369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535955712"/>
+        <c:crossAx val="382130048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535955712"/>
+        <c:axId val="382130048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,7 +4427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535953792"/>
+        <c:crossAx val="382128512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4540,7 +4594,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4594,6 +4648,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4603,7 +4660,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4657,6 +4714,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,7 +4759,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4753,6 +4813,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4762,7 +4825,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4816,6 +4879,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>31599.196874944704</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33730.858494912194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,7 +4924,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4912,6 +4978,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,7 +4990,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4975,6 +5044,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-5400.8031250552958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5269.1415050878059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,11 +5068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567309056"/>
-        <c:axId val="567310592"/>
+        <c:axId val="382187008"/>
+        <c:axId val="382188544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567309056"/>
+        <c:axId val="382187008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5043,14 +5115,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567310592"/>
+        <c:crossAx val="382188544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567310592"/>
+        <c:axId val="382188544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,7 +5173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567309056"/>
+        <c:crossAx val="382187008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5269,7 +5341,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5323,6 +5395,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5332,7 +5407,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5386,6 +5461,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,7 +5506,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5482,6 +5560,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5491,7 +5572,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5545,6 +5626,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>30690.105924803764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32817.979714730289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5587,7 +5671,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5641,6 +5725,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5650,7 +5737,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5704,6 +5791,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-5309.8940751962364</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-5182.0202852697112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5725,11 +5815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69429120"/>
-        <c:axId val="69430656"/>
+        <c:axId val="382200448"/>
+        <c:axId val="382202240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69429120"/>
+        <c:axId val="382200448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,14 +5862,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69430656"/>
+        <c:crossAx val="382202240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69430656"/>
+        <c:axId val="382202240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5830,7 +5920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69429120"/>
+        <c:crossAx val="382200448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7001,6 +7091,12 @@
           <cell r="I20">
             <v>42507572.722222224</v>
           </cell>
+          <cell r="K20">
+            <v>44957</v>
+          </cell>
+          <cell r="L20">
+            <v>44929</v>
+          </cell>
           <cell r="N20">
             <v>1.0529999999999999</v>
           </cell>
@@ -24492,10 +24588,10 @@
             <v>5287757.6291307472</v>
           </cell>
           <cell r="N350">
-            <v>0</v>
+            <v>0.74000000953674316</v>
           </cell>
           <cell r="O350">
-            <v>0</v>
+            <v>0.72899997234344482</v>
           </cell>
           <cell r="P350">
             <v>0.72099999586741126</v>
@@ -24514,6 +24610,1172 @@
           </cell>
           <cell r="U350">
             <v>-12.858623413630797</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="A351">
+            <v>44896</v>
+          </cell>
+          <cell r="B351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C351">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E351">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="F351">
+            <v>1514200</v>
+          </cell>
+          <cell r="G351">
+            <v>1115.52001953125</v>
+          </cell>
+          <cell r="H351">
+            <v>349</v>
+          </cell>
+          <cell r="I351">
+            <v>5276945.1430873927</v>
+          </cell>
+          <cell r="N351">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="O351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P351">
+            <v>0.734333336353302</v>
+          </cell>
+          <cell r="Q351">
+            <v>0.72309524104708711</v>
+          </cell>
+          <cell r="R351">
+            <v>1.123809530621489E-2</v>
+          </cell>
+          <cell r="S351">
+            <v>8.5714289120265418E-3</v>
+          </cell>
+          <cell r="T351">
+            <v>1.2857143368039811E-4</v>
+          </cell>
+          <cell r="U351">
+            <v>87.407404463968732</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352">
+            <v>44897</v>
+          </cell>
+          <cell r="B352">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C352">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F352">
+            <v>2813797</v>
+          </cell>
+          <cell r="G352">
+            <v>2058.468017578125</v>
+          </cell>
+          <cell r="H352">
+            <v>350</v>
+          </cell>
+          <cell r="I352">
+            <v>5269907.5769642862</v>
+          </cell>
+          <cell r="N352">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="O352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P352">
+            <v>0.73099998633066809</v>
+          </cell>
+          <cell r="Q352">
+            <v>0.72342857292720242</v>
+          </cell>
+          <cell r="R352">
+            <v>7.5714134034656766E-3</v>
+          </cell>
+          <cell r="S352">
+            <v>8.9047607921418637E-3</v>
+          </cell>
+          <cell r="T352">
+            <v>1.3357141188212796E-4</v>
+          </cell>
+          <cell r="U352">
+            <v>56.684385504191425</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353">
+            <v>44900</v>
+          </cell>
+          <cell r="B353">
+            <v>0.73199999332427979</v>
+          </cell>
+          <cell r="C353">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D353">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="E353">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="F353">
+            <v>3264301</v>
+          </cell>
+          <cell r="G353">
+            <v>2391.455078125</v>
+          </cell>
+          <cell r="H353">
+            <v>351</v>
+          </cell>
+          <cell r="I353">
+            <v>5264193.5981125357</v>
+          </cell>
+          <cell r="N353">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="O353">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P353">
+            <v>0.73333334922790527</v>
+          </cell>
+          <cell r="Q353">
+            <v>0.7232380991890317</v>
+          </cell>
+          <cell r="R353">
+            <v>1.0095250038873571E-2</v>
+          </cell>
+          <cell r="S353">
+            <v>8.7142870539710614E-3</v>
+          </cell>
+          <cell r="T353">
+            <v>1.3071430580956591E-4</v>
+          </cell>
+          <cell r="U353">
+            <v>77.231409189297636</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354">
+            <v>44901</v>
+          </cell>
+          <cell r="B354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C354">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="E354">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="F354">
+            <v>1767300</v>
+          </cell>
+          <cell r="G354">
+            <v>1305.98095703125</v>
+          </cell>
+          <cell r="H354">
+            <v>352</v>
+          </cell>
+          <cell r="I354">
+            <v>5254259.2412997158</v>
+          </cell>
+          <cell r="N354">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="O354">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P354">
+            <v>0.73966666062672937</v>
+          </cell>
+          <cell r="Q354">
+            <v>0.72338095449265982</v>
+          </cell>
+          <cell r="R354">
+            <v>1.6285706134069544E-2</v>
+          </cell>
+          <cell r="S354">
+            <v>8.8571423575991657E-3</v>
+          </cell>
+          <cell r="T354">
+            <v>1.3285713536398747E-4</v>
+          </cell>
+          <cell r="U354">
+            <v>122.5805907183814</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355">
+            <v>44902</v>
+          </cell>
+          <cell r="B355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C355">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E355">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="F355">
+            <v>2062507</v>
+          </cell>
+          <cell r="G355">
+            <v>1538.0469970703125</v>
+          </cell>
+          <cell r="H355">
+            <v>353</v>
+          </cell>
+          <cell r="I355">
+            <v>5245217.4502478754</v>
+          </cell>
+          <cell r="N355">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O355">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P355">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="Q355">
+            <v>0.72471428627059586</v>
+          </cell>
+          <cell r="R355">
+            <v>2.1285705623172446E-2</v>
+          </cell>
+          <cell r="S355">
+            <v>1.0190474135535104E-2</v>
+          </cell>
+          <cell r="T355">
+            <v>1.5285711203302655E-4</v>
+          </cell>
+          <cell r="U355">
+            <v>139.25230785842285</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356">
+            <v>44903</v>
+          </cell>
+          <cell r="B356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="C356">
+            <v>0.74800002574920654</v>
+          </cell>
+          <cell r="D356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="E356">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="F356">
+            <v>3449804</v>
+          </cell>
+          <cell r="G356">
+            <v>2575.367919921875</v>
+          </cell>
+          <cell r="H356">
+            <v>354</v>
+          </cell>
+          <cell r="I356">
+            <v>5240145.6608403958</v>
+          </cell>
+          <cell r="N356">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O356">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P356">
+            <v>0.74466667572657264</v>
+          </cell>
+          <cell r="Q356">
+            <v>0.72550000037465778</v>
+          </cell>
+          <cell r="R356">
+            <v>1.9166675351914852E-2</v>
+          </cell>
+          <cell r="S356">
+            <v>1.0976188239597133E-2</v>
+          </cell>
+          <cell r="T356">
+            <v>1.64642823593957E-4</v>
+          </cell>
+          <cell r="U356">
+            <v>116.41367011041919</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357">
+            <v>44904</v>
+          </cell>
+          <cell r="B357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="C357">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E357">
+            <v>0.75</v>
+          </cell>
+          <cell r="F357">
+            <v>4098100</v>
+          </cell>
+          <cell r="G357">
+            <v>3059.9140625</v>
+          </cell>
+          <cell r="H357">
+            <v>355</v>
+          </cell>
+          <cell r="I357">
+            <v>5236928.6308098594</v>
+          </cell>
+          <cell r="N357">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O357">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P357">
+            <v>0.74833333492279053</v>
+          </cell>
+          <cell r="Q357">
+            <v>0.72707143000194008</v>
+          </cell>
+          <cell r="R357">
+            <v>2.126190492085045E-2</v>
+          </cell>
+          <cell r="S357">
+            <v>1.2547617866879412E-2</v>
+          </cell>
+          <cell r="T357">
+            <v>1.8821426800319117E-4</v>
+          </cell>
+          <cell r="U357">
+            <v>112.96648838806394</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358">
+            <v>44907</v>
+          </cell>
+          <cell r="B358">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="C358">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="D358">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E358">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="F358">
+            <v>1660900</v>
+          </cell>
+          <cell r="G358">
+            <v>1239.9219970703125</v>
+          </cell>
+          <cell r="H358">
+            <v>356</v>
+          </cell>
+          <cell r="I358">
+            <v>5226883.606566011</v>
+          </cell>
+          <cell r="N358">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O358">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P358">
+            <v>0.74666666984558105</v>
+          </cell>
+          <cell r="Q358">
+            <v>0.72907142979758122</v>
+          </cell>
+          <cell r="R358">
+            <v>1.7595240047999838E-2</v>
+          </cell>
+          <cell r="S358">
+            <v>1.3061223792381029E-2</v>
+          </cell>
+          <cell r="T358">
+            <v>1.9591835688571543E-4</v>
+          </cell>
+          <cell r="U358">
+            <v>89.809042540427313</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359">
+            <v>44908</v>
+          </cell>
+          <cell r="B359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D359">
+            <v>0.7369999885559082</v>
+          </cell>
+          <cell r="E359">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="F359">
+            <v>3002001</v>
+          </cell>
+          <cell r="G359">
+            <v>2222.159912109375</v>
+          </cell>
+          <cell r="H359">
+            <v>357</v>
+          </cell>
+          <cell r="I359">
+            <v>5220651.4424019605</v>
+          </cell>
+          <cell r="N359">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O359">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P359">
+            <v>0.74033331871032715</v>
+          </cell>
+          <cell r="Q359">
+            <v>0.73083333316303445</v>
+          </cell>
+          <cell r="R359">
+            <v>9.4999855472926997E-3</v>
+          </cell>
+          <cell r="S359">
+            <v>1.24047607386193E-2</v>
+          </cell>
+          <cell r="T359">
+            <v>1.8607141107928951E-4</v>
+          </cell>
+          <cell r="U359">
+            <v>51.055589314817027</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360">
+            <v>44909</v>
+          </cell>
+          <cell r="B360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D360">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E360">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="F360">
+            <v>4652100</v>
+          </cell>
+          <cell r="G360">
+            <v>3427.55908203125</v>
+          </cell>
+          <cell r="H360">
+            <v>358</v>
+          </cell>
+          <cell r="I360">
+            <v>5219063.3098812848</v>
+          </cell>
+          <cell r="N360">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O360">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P360">
+            <v>0.73666667938232422</v>
+          </cell>
+          <cell r="Q360">
+            <v>0.73233333371934428</v>
+          </cell>
+          <cell r="R360">
+            <v>4.3333456629799372E-3</v>
+          </cell>
+          <cell r="S360">
+            <v>1.1285716173600207E-2</v>
+          </cell>
+          <cell r="T360">
+            <v>1.6928574260400309E-4</v>
+          </cell>
+          <cell r="U360">
+            <v>25.597818199708609</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="A361">
+            <v>44910</v>
+          </cell>
+          <cell r="B361">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="C361">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D361">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E361">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="F361">
+            <v>3350200</v>
+          </cell>
+          <cell r="G361">
+            <v>2474.9130859375</v>
+          </cell>
+          <cell r="H361">
+            <v>359</v>
+          </cell>
+          <cell r="I361">
+            <v>5213857.5625</v>
+          </cell>
+          <cell r="N361">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O361">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P361">
+            <v>0.74033331871032715</v>
+          </cell>
+          <cell r="Q361">
+            <v>0.73435714131309859</v>
+          </cell>
+          <cell r="R361">
+            <v>5.9761773972285548E-3</v>
+          </cell>
+          <cell r="S361">
+            <v>9.6870741876615395E-3</v>
+          </cell>
+          <cell r="T361">
+            <v>1.4530611281492309E-4</v>
+          </cell>
+          <cell r="U361">
+            <v>41.128189870720945</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="A362">
+            <v>44911</v>
+          </cell>
+          <cell r="B362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="C362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D362">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E362">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="F362">
+            <v>2607600</v>
+          </cell>
+          <cell r="G362">
+            <v>1922.4029541015625</v>
+          </cell>
+          <cell r="H362">
+            <v>360</v>
+          </cell>
+          <cell r="I362">
+            <v>5206617.9581597224</v>
+          </cell>
+          <cell r="N362">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O362">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="P362">
+            <v>0.73633333047231042</v>
+          </cell>
+          <cell r="Q362">
+            <v>0.73673809426171455</v>
+          </cell>
+          <cell r="R362">
+            <v>-4.0476378940412783E-4</v>
+          </cell>
+          <cell r="S362">
+            <v>6.9761872291564941E-3</v>
+          </cell>
+          <cell r="T362">
+            <v>1.0464280843734741E-4</v>
+          </cell>
+          <cell r="U362">
+            <v>-3.8680516649786907</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="A363">
+            <v>44914</v>
+          </cell>
+          <cell r="B363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="C363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="D363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="E363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="F363">
+            <v>3066702</v>
+          </cell>
+          <cell r="G363">
+            <v>2247.702880859375</v>
+          </cell>
+          <cell r="H363">
+            <v>361</v>
+          </cell>
+          <cell r="I363">
+            <v>5200690.2131232684</v>
+          </cell>
+          <cell r="N363">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="P363">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="Q363">
+            <v>0.7378333324477786</v>
+          </cell>
+          <cell r="R363">
+            <v>-6.8333262488955437E-3</v>
+          </cell>
+          <cell r="S363">
+            <v>5.8809490430922762E-3</v>
+          </cell>
+          <cell r="T363">
+            <v>8.8214235646384139E-5</v>
+          </cell>
+          <cell r="U363">
+            <v>-77.462851645483127</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="A364">
+            <v>44915</v>
+          </cell>
+          <cell r="B364">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="C364">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D364">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E364">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F364">
+            <v>3940700</v>
+          </cell>
+          <cell r="G364">
+            <v>2847.77294921875</v>
+          </cell>
+          <cell r="H364">
+            <v>362</v>
+          </cell>
+          <cell r="I364">
+            <v>5197209.5771754142</v>
+          </cell>
+          <cell r="N364">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O364">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="P364">
+            <v>0.72099999586741126</v>
+          </cell>
+          <cell r="Q364">
+            <v>0.73783333244777871</v>
+          </cell>
+          <cell r="R364">
+            <v>-1.6833336580367453E-2</v>
+          </cell>
+          <cell r="S364">
+            <v>5.8809490430922762E-3</v>
+          </cell>
+          <cell r="T364">
+            <v>8.8214235646384139E-5</v>
+          </cell>
+          <cell r="U364">
+            <v>-190.82335699019848</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="A365">
+            <v>44916</v>
+          </cell>
+          <cell r="B365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="C365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D365">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E365">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="F365">
+            <v>2461800</v>
+          </cell>
+          <cell r="G365">
+            <v>1768.2430419921875</v>
+          </cell>
+          <cell r="H365">
+            <v>363</v>
+          </cell>
+          <cell r="I365">
+            <v>5189674.013601928</v>
+          </cell>
+          <cell r="N365">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O365">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="P365">
+            <v>0.71633332967758179</v>
+          </cell>
+          <cell r="Q365">
+            <v>0.73654761768522714</v>
+          </cell>
+          <cell r="R365">
+            <v>-2.0214288007645353E-2</v>
+          </cell>
+          <cell r="S365">
+            <v>7.1836726195147315E-3</v>
+          </cell>
+          <cell r="T365">
+            <v>1.0775508929272096E-4</v>
+          </cell>
+          <cell r="U365">
+            <v>-187.59474044638802</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="A366">
+            <v>44917</v>
+          </cell>
+          <cell r="B366">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C366">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D366">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E366">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="F366">
+            <v>3196400</v>
+          </cell>
+          <cell r="G366">
+            <v>2294.62109375</v>
+          </cell>
+          <cell r="H366">
+            <v>364</v>
+          </cell>
+          <cell r="I366">
+            <v>5184197.9860920329</v>
+          </cell>
+          <cell r="N366">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O366">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="P366">
+            <v>0.71533334255218506</v>
+          </cell>
+          <cell r="Q366">
+            <v>0.73542857170104969</v>
+          </cell>
+          <cell r="R366">
+            <v>-2.0095229148864635E-2</v>
+          </cell>
+          <cell r="S366">
+            <v>8.5918335687546876E-3</v>
+          </cell>
+          <cell r="T366">
+            <v>1.288775035313203E-4</v>
+          </cell>
+          <cell r="U366">
+            <v>-155.92503422430912</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="A367">
+            <v>44918</v>
+          </cell>
+          <cell r="B367">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C367">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="D367">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E367">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="F367">
+            <v>3038001</v>
+          </cell>
+          <cell r="G367">
+            <v>2157.553955078125</v>
+          </cell>
+          <cell r="H367">
+            <v>365</v>
+          </cell>
+          <cell r="I367">
+            <v>5178317.9943493148</v>
+          </cell>
+          <cell r="N367">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O367">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P367">
+            <v>0.70999999841054284</v>
+          </cell>
+          <cell r="Q367">
+            <v>0.73376190378552397</v>
+          </cell>
+          <cell r="R367">
+            <v>-2.3761905374981129E-2</v>
+          </cell>
+          <cell r="S367">
+            <v>1.0734692317287924E-2</v>
+          </cell>
+          <cell r="T367">
+            <v>1.6102038475931886E-4</v>
+          </cell>
+          <cell r="U367">
+            <v>-147.5707899375513</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="A368">
+            <v>44921</v>
+          </cell>
+          <cell r="B368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C368">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E368">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="F368">
+            <v>5080404</v>
+          </cell>
+          <cell r="G368">
+            <v>3635.52587890625</v>
+          </cell>
+          <cell r="H368">
+            <v>366</v>
+          </cell>
+          <cell r="I368">
+            <v>5178050.4697745899</v>
+          </cell>
+          <cell r="N368">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P368">
+            <v>0.71566667159398401</v>
+          </cell>
+          <cell r="Q368">
+            <v>0.73204761885461356</v>
+          </cell>
+          <cell r="R368">
+            <v>-1.6380947260629553E-2</v>
+          </cell>
+          <cell r="S368">
+            <v>1.1850338403870453E-2</v>
+          </cell>
+          <cell r="T368">
+            <v>1.7775507605805678E-4</v>
+          </cell>
+          <cell r="U368">
+            <v>-92.154596222497489</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="A369">
+            <v>44922</v>
+          </cell>
+          <cell r="B369">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="C369">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D369">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E369">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F369">
+            <v>6773900</v>
+          </cell>
+          <cell r="G369">
+            <v>4913.7880859375</v>
+          </cell>
+          <cell r="H369">
+            <v>367</v>
+          </cell>
+          <cell r="I369">
+            <v>5182398.8336171666</v>
+          </cell>
+          <cell r="N369">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O369">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P369">
+            <v>0.72599999109903968</v>
+          </cell>
+          <cell r="Q369">
+            <v>0.73061904736927574</v>
+          </cell>
+          <cell r="R369">
+            <v>-4.619056270236066E-3</v>
+          </cell>
+          <cell r="S369">
+            <v>1.1340136430701435E-2</v>
+          </cell>
+          <cell r="T369">
+            <v>1.7010204646052151E-4</v>
+          </cell>
+          <cell r="U369">
+            <v>-27.154619043975401</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="A370">
+            <v>44923</v>
+          </cell>
+          <cell r="B370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="C370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D370">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E370">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="F370">
+            <v>2380500</v>
+          </cell>
+          <cell r="G370">
+            <v>1714.72998046875</v>
+          </cell>
+          <cell r="H370">
+            <v>368</v>
+          </cell>
+          <cell r="I370">
+            <v>5174784.9780910322</v>
+          </cell>
+          <cell r="N370">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O370">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P370">
+            <v>0.72066666682561242</v>
+          </cell>
+          <cell r="Q370">
+            <v>0.72890476101920731</v>
+          </cell>
+          <cell r="R370">
+            <v>-8.2380941935948915E-3</v>
+          </cell>
+          <cell r="S370">
+            <v>1.1047618729727609E-2</v>
+          </cell>
+          <cell r="T370">
+            <v>1.6571428094591412E-4</v>
+          </cell>
+          <cell r="U370">
+            <v>-49.712638805605678</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="A371">
+            <v>44924</v>
+          </cell>
+          <cell r="B371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C371">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="D371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E371">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="F371">
+            <v>3941701.25</v>
+          </cell>
+          <cell r="G371">
+            <v>2847.658935546875</v>
+          </cell>
+          <cell r="H371">
+            <v>369</v>
+          </cell>
+          <cell r="I371">
+            <v>5171443.2877710024</v>
+          </cell>
+          <cell r="N371">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O371">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="P371">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="Q371">
+            <v>0.72702380872908101</v>
+          </cell>
+          <cell r="R371">
+            <v>-5.0238058680580622E-3</v>
+          </cell>
+          <cell r="S371">
+            <v>9.8843529921810759E-3</v>
+          </cell>
+          <cell r="T371">
+            <v>1.4826529488271614E-4</v>
+          </cell>
+          <cell r="U371">
+            <v>-33.883896241747578</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="A372">
+            <v>44925</v>
+          </cell>
+          <cell r="B372">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C372">
+            <v>0.72699999809265137</v>
+          </cell>
+          <cell r="D372">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E372">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="F372">
+            <v>2041800</v>
+          </cell>
+          <cell r="G372">
+            <v>1479.02197265625</v>
+          </cell>
+          <cell r="H372">
+            <v>370</v>
+          </cell>
+          <cell r="I372">
+            <v>5162984.7923986483</v>
+          </cell>
+          <cell r="N372">
+            <v>0</v>
+          </cell>
+          <cell r="O372">
+            <v>0</v>
+          </cell>
+          <cell r="P372">
+            <v>0.72366666793823242</v>
+          </cell>
+          <cell r="Q372">
+            <v>0.7253809514499846</v>
+          </cell>
+          <cell r="R372">
+            <v>-1.7142835117521793E-3</v>
+          </cell>
+          <cell r="S372">
+            <v>8.340133696186294E-3</v>
+          </cell>
+          <cell r="T372">
+            <v>1.2510200544279442E-4</v>
+          </cell>
+          <cell r="U372">
+            <v>-13.703085779356849</v>
           </cell>
         </row>
       </sheetData>
@@ -28004,6 +29266,202 @@
           </cell>
           <cell r="C405">
             <v>22.809999470000001</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v xml:space="preserve">2022/12/1
+</v>
+          </cell>
+          <cell r="C406">
+            <v>23.170000080000001</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v xml:space="preserve">2022/12/2
+</v>
+          </cell>
+          <cell r="C407">
+            <v>23.030000690000001</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v xml:space="preserve">2022/12/5
+</v>
+          </cell>
+          <cell r="C408">
+            <v>23.219999309999999</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v xml:space="preserve">2022/12/6
+</v>
+          </cell>
+          <cell r="C409">
+            <v>23.459999079999999</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v xml:space="preserve">2022/12/7
+</v>
+          </cell>
+          <cell r="C410">
+            <v>23.649999619999999</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v xml:space="preserve">2022/12/8
+</v>
+          </cell>
+          <cell r="C411">
+            <v>23.629999160000001</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v xml:space="preserve">2022/12/9
+</v>
+          </cell>
+          <cell r="C412">
+            <v>23.840000150000002</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v xml:space="preserve">2022/12/12
+</v>
+          </cell>
+          <cell r="C413">
+            <v>23.600000380000001</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v xml:space="preserve">2022/12/13
+</v>
+          </cell>
+          <cell r="C414">
+            <v>23.329999919999999</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v xml:space="preserve">2022/12/14
+</v>
+          </cell>
+          <cell r="C415">
+            <v>23.270000459999999</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v xml:space="preserve">2022/12/15
+</v>
+          </cell>
+          <cell r="C416">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v xml:space="preserve">2022/12/16
+</v>
+          </cell>
+          <cell r="C417">
+            <v>23.350000380000001</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v xml:space="preserve">2022/12/19
+</v>
+          </cell>
+          <cell r="C418">
+            <v>23.079999919999999</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v xml:space="preserve">2022/12/20
+</v>
+          </cell>
+          <cell r="C419">
+            <v>22.709999079999999</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v xml:space="preserve">2022/12/21
+</v>
+          </cell>
+          <cell r="C420">
+            <v>22.61000061</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v xml:space="preserve">2022/12/22
+</v>
+          </cell>
+          <cell r="C421">
+            <v>22.549999239999998</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v xml:space="preserve">2022/12/23
+</v>
+          </cell>
+          <cell r="C422">
+            <v>22.450000760000002</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v xml:space="preserve">2022/12/26
+</v>
+          </cell>
+          <cell r="C423">
+            <v>22.790000920000001</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v xml:space="preserve">2022/12/27
+</v>
+          </cell>
+          <cell r="C424">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v xml:space="preserve">2022/12/28
+</v>
+          </cell>
+          <cell r="C425">
+            <v>22.729999540000001</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426">
+            <v>44924</v>
+          </cell>
+          <cell r="C426">
+            <v>22.760000229999999</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427">
+            <v>44925</v>
+          </cell>
+          <cell r="C427">
+            <v>22.739999770000001</v>
           </cell>
         </row>
       </sheetData>
@@ -28300,7 +29758,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28394,7 +29852,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D20" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -28402,7 +29860,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F20" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F21" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -28410,11 +29868,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H20" si="2">F3</f>
+        <f t="shared" ref="H3:H21" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I20" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I21" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -28458,7 +29916,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C20" si="4">C3</f>
+        <f t="shared" ref="C4:C21" si="4">C3</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -28466,7 +29924,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E20" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E21" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -28474,7 +29932,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G20" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G21" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -29153,6 +30611,43 @@
         <v>-5309.8940751962364</v>
       </c>
     </row>
+    <row r="21" spans="1:10" ht="12.75">
+      <c r="A21" s="16">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
+        <v>2766.2517672200333</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="5"/>
+        <v>45391.397191231939</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>32817.979714730289</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="6"/>
+        <v>38000</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="2"/>
+        <v>32817.979714730289</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="3"/>
+        <v>-5182.0202852697112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29164,7 +30659,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29256,11 +30751,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="18">
-        <f t="shared" ref="C3:C20" si="0">IF(J3&lt;-100,2000,0)</f>
+        <f t="shared" ref="C3:C21" si="0">IF(J3&lt;-100,2000,0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D20" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D21" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="19">
@@ -29268,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F20" si="2">E3*B3</f>
+        <f t="shared" ref="F3:F21" si="2">E3*B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="19">
@@ -29276,11 +30771,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H20" si="3">F3</f>
+        <f t="shared" ref="H3:H21" si="3">F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I20" si="4">H3-G3</f>
+        <f t="shared" ref="I3:I21" si="4">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -29335,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E20" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E21" si="5">E3+D4</f>
         <v>0</v>
       </c>
       <c r="F4" s="19">
@@ -29343,7 +30838,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G20" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G21" si="6">G3+C4</f>
         <v>0</v>
       </c>
       <c r="H4" s="19">
@@ -30075,6 +31570,47 @@
         <v>-12.858623413630797</v>
       </c>
     </row>
+    <row r="21" spans="1:10" ht="12.75">
+      <c r="A21" s="16">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="5"/>
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="2"/>
+        <v>10997.619323354318</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="3"/>
+        <v>10997.619323354318</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="4"/>
+        <v>-1002.3806766456819</v>
+      </c>
+      <c r="J21" s="7">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-13.703085779356849</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30086,7 +31622,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30194,7 +31730,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D20" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -30202,7 +31738,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F20" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F21" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -30210,11 +31746,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H20" si="2">F3</f>
+        <f t="shared" ref="H3:H21" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I20" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I21" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -30266,7 +31802,7 @@
         <v>2982.1073558648113</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E20" si="4">E3+D4</f>
+        <f t="shared" ref="E4:E21" si="4">E3+D4</f>
         <v>4921.971565370146</v>
       </c>
       <c r="F4" s="19">
@@ -30274,7 +31810,7 @@
         <v>4951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G20" si="5">G3+C4</f>
+        <f t="shared" ref="G4:G21" si="5">G3+C4</f>
         <v>5000</v>
       </c>
       <c r="H4" s="19">
@@ -30351,7 +31887,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="18">
-        <f t="shared" ref="C5:C20" si="7">IF(N5&lt;20,3000,2000)</f>
+        <f t="shared" ref="C5:C21" si="7">IF(N5&lt;20,3000,2000)</f>
         <v>3000</v>
       </c>
       <c r="D5" s="19">
@@ -30379,23 +31915,23 @@
         <v>-245.37546785243921</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J20" si="8">MAX((B5-B4),0)</f>
+        <f t="shared" ref="J5:J21" si="8">MAX((B5-B4),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K20" si="9">(K4*5+J5)/6</f>
+        <f t="shared" ref="K5:K21" si="9">(K4*5+J5)/6</f>
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" ref="L5:L20" si="10">ABS(B5-B4)</f>
+        <f t="shared" ref="L5:L21" si="10">ABS(B5-B4)</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" ref="M5:M20" si="11">(M4*5+L5)/6</f>
+        <f t="shared" ref="M5:M21" si="11">(M4*5+L5)/6</f>
         <v>2.7499999999999931E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N20" si="12">K5*100/M5</f>
+        <f t="shared" ref="N5:N21" si="12">K5*100/M5</f>
         <v>0</v>
       </c>
       <c r="Z5" s="7"/>
@@ -31278,6 +32814,63 @@
         <v>33.729329900837342</v>
       </c>
     </row>
+    <row r="21" spans="1:14" ht="12.75">
+      <c r="A21" s="16">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" si="0"/>
+        <v>2766.2517672200333</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="4"/>
+        <v>54709.468702742495</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>39554.945324245164</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="5"/>
+        <v>46000</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="2"/>
+        <v>39554.945324245164</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="3"/>
+        <v>-6445.0546757548364</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="8"/>
+        <v>2.9999613761901855E-3</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2551505365504848E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="10"/>
+        <v>2.9999613761901855E-3</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="11"/>
+        <v>3.6230059467468385E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="12"/>
+        <v>34.643899430457921</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31289,7 +32882,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31406,7 +32999,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D20" ca="1" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D21" ca="1" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -31414,7 +33007,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F20" ca="1" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F21" ca="1" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -31422,11 +33015,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H20" ca="1" si="2">F3</f>
+        <f t="shared" ref="H3:H21" ca="1" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I20" ca="1" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I21" ca="1" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -31501,7 +33094,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C20" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
+        <f t="shared" ref="C4:C21" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -31509,7 +33102,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E20" ca="1" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E21" ca="1" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -31517,7 +33110,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G20" ca="1" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G21" ca="1" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -31545,7 +33138,7 @@
         <v>0.94</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N20" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
+        <f t="shared" ref="N4:N21" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
         <v>57.89473684210526</v>
       </c>
       <c r="O4" s="7">
@@ -31557,7 +33150,7 @@
         <v>83.200425305688029</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q20" ca="1" si="8">3*O4-2*P4</f>
+        <f t="shared" ref="Q4:Q21" ca="1" si="8">3*O4-2*P4</f>
         <v>64.221158958000927</v>
       </c>
       <c r="R4" s="21">
@@ -31654,11 +33247,11 @@
         <v>22.807017543859651</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5:O20" ca="1" si="10">(N5+2*O4)/3</f>
+        <f t="shared" ref="O5:O21" ca="1" si="10">(N5+2*O4)/3</f>
         <v>58.851674641148101</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" ref="P5:P20" ca="1" si="11">(O5+2*P4)/3</f>
+        <f t="shared" ref="P5:P21" ca="1" si="11">(O5+2*P4)/3</f>
         <v>75.084175084174717</v>
       </c>
       <c r="Q5" s="1">
@@ -32148,11 +33741,11 @@
         <v>0.75</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" ref="L12:L20" ca="1" si="12">MAX(J4:J12)</f>
+        <f t="shared" ref="L12:L21" ca="1" si="12">MAX(J4:J12)</f>
         <v>1.054</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M20" ca="1" si="13">MIN(K4:K12)</f>
+        <f t="shared" ref="M12:M21" ca="1" si="13">MIN(K4:K12)</f>
         <v>0.75</v>
       </c>
       <c r="N12" s="7">
@@ -32723,6 +34316,75 @@
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>19.741142646180776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12.75">
+      <c r="A21" s="16">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D21" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2766.2517672200333</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>46654.023460699871</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>33730.858494912194</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>39000</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>33730.858494912194</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5269.1415050878059</v>
+      </c>
+      <c r="J21" s="7">
+        <f ca="1">MAX(VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A21,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="K21" s="7">
+        <f ca="1">MIN(VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A21,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>33.495143524202234</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>27.000071158106511</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>26.172177812367234</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.655857849585068</v>
       </c>
     </row>
   </sheetData>
@@ -32736,7 +34398,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32837,7 +34499,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="19">
-        <f t="shared" ref="E3:E20" si="0">D3/B3</f>
+        <f t="shared" ref="E3:E21" si="0">D3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
@@ -32845,7 +34507,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G20" si="1">F3*B3</f>
+        <f t="shared" ref="G3:G21" si="1">F3*B3</f>
         <v>2000</v>
       </c>
       <c r="H3" s="19">
@@ -32853,11 +34515,11 @@
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I20" si="2">G3</f>
+        <f t="shared" ref="I3:I21" si="2">G3</f>
         <v>2000</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J20" si="3">I3-H3</f>
+        <f t="shared" ref="J3:J21" si="3">I3-H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="7"/>
@@ -32905,7 +34567,7 @@
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:D20" si="4">D3</f>
+        <f t="shared" ref="D4:D21" si="4">D3</f>
         <v>2000</v>
       </c>
       <c r="E4" s="19">
@@ -32913,7 +34575,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" ref="F4:F20" si="5">F3+E4</f>
+        <f t="shared" ref="F4:F21" si="5">F3+E4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="G4" s="19">
@@ -32921,7 +34583,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H20" si="6">H3+D4</f>
+        <f t="shared" ref="H4:H21" si="6">H3+D4</f>
         <v>4000</v>
       </c>
       <c r="I4" s="19">
@@ -33664,6 +35326,47 @@
         <v>-5309.8940751962364</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="12.75">
+      <c r="A21" s="16">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="17">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="17">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>2766.2517672200333</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="5"/>
+        <v>45391.397191231939</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="1"/>
+        <v>32817.979714730289</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="6"/>
+        <v>38000</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="2"/>
+        <v>32817.979714730289</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="3"/>
+        <v>-5182.0202852697112</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2356,7 +2356,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2413,6 +2413,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,7 +2425,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2479,6 +2482,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,7 +2527,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2578,6 +2584,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,7 +2596,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2644,6 +2653,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>32817.979714730289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37813.81123673384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,7 +2698,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2743,6 +2755,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2752,7 +2767,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2809,6 +2824,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-5182.0202852697112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2186.1887632661601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,11 +2848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506180352"/>
-        <c:axId val="506182272"/>
+        <c:axId val="472806144"/>
+        <c:axId val="472808064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506180352"/>
+        <c:axId val="472806144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,14 +2895,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506182272"/>
+        <c:crossAx val="472808064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506182272"/>
+        <c:axId val="472808064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +2953,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506180352"/>
+        <c:crossAx val="472806144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3102,7 +3120,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3159,6 +3177,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,7 +3189,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3224,6 +3245,9 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3267,7 +3291,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3324,6 +3348,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,7 +3360,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3390,6 +3417,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>10997.619323354318</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12001.551159570063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,7 +3462,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3489,6 +3519,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3498,7 +3531,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3555,6 +3588,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-1002.3806766456819</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5511595700627367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3576,11 +3612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="382106624"/>
-        <c:axId val="382112512"/>
+        <c:axId val="495922560"/>
+        <c:axId val="507721216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="382106624"/>
+        <c:axId val="495922560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3623,14 +3659,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382112512"/>
+        <c:crossAx val="507721216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="382112512"/>
+        <c:axId val="507721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,7 +3717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382106624"/>
+        <c:crossAx val="495922560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3848,7 +3884,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3905,6 +3941,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +3953,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3971,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,7 +4055,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4070,6 +4112,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,7 +4124,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4136,6 +4181,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>39554.945324245164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45165.769423825928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,7 +4226,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4235,6 +4283,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4295,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4301,6 +4352,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-6445.0546757548364</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2834.2305761740718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,11 +4376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="382128512"/>
-        <c:axId val="382130048"/>
+        <c:axId val="583363584"/>
+        <c:axId val="583365376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="382128512"/>
+        <c:axId val="583363584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,14 +4423,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382130048"/>
+        <c:crossAx val="583365376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="382130048"/>
+        <c:axId val="583365376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,7 +4481,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382128512"/>
+        <c:crossAx val="583363584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4594,7 +4648,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4651,6 +4705,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4660,7 +4717,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4717,6 +4774,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,7 +4819,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4816,6 +4876,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,7 +4888,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4882,6 +4945,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>33730.858494912194</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38810.02333143448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4924,7 +4990,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4981,6 +5047,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,7 +5059,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5047,6 +5116,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-5269.1415050878059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2189.9766685655195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,11 +5140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="382187008"/>
-        <c:axId val="382188544"/>
+        <c:axId val="583389568"/>
+        <c:axId val="583391104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="382187008"/>
+        <c:axId val="583389568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5115,14 +5187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382188544"/>
+        <c:crossAx val="583391104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="382188544"/>
+        <c:axId val="583391104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5173,7 +5245,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382187008"/>
+        <c:crossAx val="583389568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5341,7 +5413,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5398,6 +5470,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5407,7 +5482,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5464,6 +5539,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5506,7 +5584,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5563,6 +5641,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5572,7 +5653,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5629,6 +5710,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>32817.979714730289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37813.81123673384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,7 +5755,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5728,6 +5812,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5737,7 +5824,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5794,6 +5881,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-5182.0202852697112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2186.1887632661601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5815,11 +5905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="382200448"/>
-        <c:axId val="382202240"/>
+        <c:axId val="583444352"/>
+        <c:axId val="583445888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="382200448"/>
+        <c:axId val="583444352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5862,14 +5952,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382202240"/>
+        <c:crossAx val="583445888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="382202240"/>
+        <c:axId val="583445888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5920,7 +6010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382200448"/>
+        <c:crossAx val="583444352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7150,6 +7240,12 @@
           <cell r="I21">
             <v>40637239.315789476</v>
           </cell>
+          <cell r="K21">
+            <v>44985</v>
+          </cell>
+          <cell r="L21">
+            <v>44958</v>
+          </cell>
           <cell r="N21">
             <v>1.054</v>
           </cell>
@@ -25754,10 +25850,10 @@
             <v>5162984.7923986483</v>
           </cell>
           <cell r="N372">
-            <v>0</v>
+            <v>0.72899997234344482</v>
           </cell>
           <cell r="O372">
-            <v>0</v>
+            <v>0.7149999737739563</v>
           </cell>
           <cell r="P372">
             <v>0.72366666793823242</v>
@@ -25776,6 +25872,1861 @@
           </cell>
           <cell r="U372">
             <v>-13.703085779356849</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="A373">
+            <v>44929</v>
+          </cell>
+          <cell r="B373">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D373">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="E373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="F373">
+            <v>1565200</v>
+          </cell>
+          <cell r="G373">
+            <v>1129.6409912109375</v>
+          </cell>
+          <cell r="H373">
+            <v>371</v>
+          </cell>
+          <cell r="I373">
+            <v>5153287.2592654983</v>
+          </cell>
+          <cell r="N373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="O373">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P373">
+            <v>0.72433330615361535</v>
+          </cell>
+          <cell r="Q373">
+            <v>0.7242380934102195</v>
+          </cell>
+          <cell r="R373">
+            <v>9.5212743395856059E-5</v>
+          </cell>
+          <cell r="S373">
+            <v>7.0340102221690083E-3</v>
+          </cell>
+          <cell r="T373">
+            <v>1.0551015333253512E-4</v>
+          </cell>
+          <cell r="U373">
+            <v>0.90240361129772195</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="A374">
+            <v>44930</v>
+          </cell>
+          <cell r="B374">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C374">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D374">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E374">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="F374">
+            <v>1636900</v>
+          </cell>
+          <cell r="G374">
+            <v>1184.56201171875</v>
+          </cell>
+          <cell r="H374">
+            <v>372</v>
+          </cell>
+          <cell r="I374">
+            <v>5143834.6053427421</v>
+          </cell>
+          <cell r="N374">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="O374">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P374">
+            <v>0.72433334589004517</v>
+          </cell>
+          <cell r="Q374">
+            <v>0.72335714101791382</v>
+          </cell>
+          <cell r="R374">
+            <v>9.7620487213134766E-4</v>
+          </cell>
+          <cell r="S374">
+            <v>6.0714256195794946E-3</v>
+          </cell>
+          <cell r="T374">
+            <v>9.1071384293692418E-5</v>
+          </cell>
+          <cell r="U374">
+            <v>10.719117532936846</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="A375">
+            <v>44931</v>
+          </cell>
+          <cell r="B375">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C375">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="D375">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="E375">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="F375">
+            <v>1151000</v>
+          </cell>
+          <cell r="G375">
+            <v>847.927001953125</v>
+          </cell>
+          <cell r="H375">
+            <v>373</v>
+          </cell>
+          <cell r="I375">
+            <v>5133129.9549262738</v>
+          </cell>
+          <cell r="N375">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="O375">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P375">
+            <v>0.73799999554951989</v>
+          </cell>
+          <cell r="Q375">
+            <v>0.72319047507785617</v>
+          </cell>
+          <cell r="R375">
+            <v>1.4809520471663729E-2</v>
+          </cell>
+          <cell r="S375">
+            <v>5.9047596795218328E-3</v>
+          </cell>
+          <cell r="T375">
+            <v>8.8571395192827494E-5</v>
+          </cell>
+          <cell r="U375">
+            <v>167.20432640156722</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="A376">
+            <v>44932</v>
+          </cell>
+          <cell r="B376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C376">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E376">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="F376">
+            <v>2536002</v>
+          </cell>
+          <cell r="G376">
+            <v>1894.322998046875</v>
+          </cell>
+          <cell r="H376">
+            <v>374</v>
+          </cell>
+          <cell r="I376">
+            <v>5126185.7625334226</v>
+          </cell>
+          <cell r="N376">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="O376">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P376">
+            <v>0.74533333381017053</v>
+          </cell>
+          <cell r="Q376">
+            <v>0.72383333245913195</v>
+          </cell>
+          <cell r="R376">
+            <v>2.1500001351038578E-2</v>
+          </cell>
+          <cell r="S376">
+            <v>6.571426278068916E-3</v>
+          </cell>
+          <cell r="T376">
+            <v>9.8571394171033733E-5</v>
+          </cell>
+          <cell r="U376">
+            <v>218.11603185538169</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="A377">
+            <v>44935</v>
+          </cell>
+          <cell r="B377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C377">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="E377">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="F377">
+            <v>2679501</v>
+          </cell>
+          <cell r="G377">
+            <v>2000.68994140625</v>
+          </cell>
+          <cell r="H377">
+            <v>375</v>
+          </cell>
+          <cell r="I377">
+            <v>5119661.2698333338</v>
+          </cell>
+          <cell r="N377">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="O377">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P377">
+            <v>0.74833331505457557</v>
+          </cell>
+          <cell r="Q377">
+            <v>0.72507142594882423</v>
+          </cell>
+          <cell r="R377">
+            <v>2.3261889105751332E-2</v>
+          </cell>
+          <cell r="S377">
+            <v>8.1972759597155574E-3</v>
+          </cell>
+          <cell r="T377">
+            <v>1.2295913939573336E-4</v>
+          </cell>
+          <cell r="U377">
+            <v>189.18389653724685</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="A378">
+            <v>44936</v>
+          </cell>
+          <cell r="B378">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C378">
+            <v>0.75499999523162842</v>
+          </cell>
+          <cell r="D378">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E378">
+            <v>0.75300002098083496</v>
+          </cell>
+          <cell r="F378">
+            <v>1321912</v>
+          </cell>
+          <cell r="G378">
+            <v>988.56402587890625</v>
+          </cell>
+          <cell r="H378">
+            <v>376</v>
+          </cell>
+          <cell r="I378">
+            <v>5109560.872839096</v>
+          </cell>
+          <cell r="N378">
+            <v>0.75499999523162842</v>
+          </cell>
+          <cell r="O378">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P378">
+            <v>0.75066667795181274</v>
+          </cell>
+          <cell r="Q378">
+            <v>0.72719047466913855</v>
+          </cell>
+          <cell r="R378">
+            <v>2.3476203282674191E-2</v>
+          </cell>
+          <cell r="S378">
+            <v>1.051020338421774E-2</v>
+          </cell>
+          <cell r="T378">
+            <v>1.576530507632661E-4</v>
+          </cell>
+          <cell r="U378">
+            <v>148.91055497509126</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="A379">
+            <v>44937</v>
+          </cell>
+          <cell r="B379">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="C379">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D379">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="E379">
+            <v>0.74800002574920654</v>
+          </cell>
+          <cell r="F379">
+            <v>2797004</v>
+          </cell>
+          <cell r="G379">
+            <v>2105.48388671875</v>
+          </cell>
+          <cell r="H379">
+            <v>377</v>
+          </cell>
+          <cell r="I379">
+            <v>5103426.7697281167</v>
+          </cell>
+          <cell r="N379">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="O379">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P379">
+            <v>0.75033332904179895</v>
+          </cell>
+          <cell r="Q379">
+            <v>0.72961904605229688</v>
+          </cell>
+          <cell r="R379">
+            <v>2.0714282989502064E-2</v>
+          </cell>
+          <cell r="S379">
+            <v>1.2081631592341808E-2</v>
+          </cell>
+          <cell r="T379">
+            <v>1.8122447388512711E-4</v>
+          </cell>
+          <cell r="U379">
+            <v>114.30179680164083</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="A380">
+            <v>44938</v>
+          </cell>
+          <cell r="B380">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="C380">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D380">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="E380">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="F380">
+            <v>2889600</v>
+          </cell>
+          <cell r="G380">
+            <v>2174.404052734375</v>
+          </cell>
+          <cell r="H380">
+            <v>378</v>
+          </cell>
+          <cell r="I380">
+            <v>5097570.0851521166</v>
+          </cell>
+          <cell r="N380">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="O380">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P380">
+            <v>0.75233332316080725</v>
+          </cell>
+          <cell r="Q380">
+            <v>0.73226190181005557</v>
+          </cell>
+          <cell r="R380">
+            <v>2.0071421350751684E-2</v>
+          </cell>
+          <cell r="S380">
+            <v>1.306122338690723E-2</v>
+          </cell>
+          <cell r="T380">
+            <v>1.9591835080360844E-4</v>
+          </cell>
+          <cell r="U380">
+            <v>102.4478884618194</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="A381">
+            <v>44939</v>
+          </cell>
+          <cell r="B381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D381">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="E381">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="F381">
+            <v>2609100</v>
+          </cell>
+          <cell r="G381">
+            <v>1971.1600341796875</v>
+          </cell>
+          <cell r="H381">
+            <v>379</v>
+          </cell>
+          <cell r="I381">
+            <v>5091004.2010224275</v>
+          </cell>
+          <cell r="N381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="O381">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P381">
+            <v>0.75866665442784631</v>
+          </cell>
+          <cell r="Q381">
+            <v>0.73573809152557745</v>
+          </cell>
+          <cell r="R381">
+            <v>2.2928562902268856E-2</v>
+          </cell>
+          <cell r="S381">
+            <v>1.3357141188212804E-2</v>
+          </cell>
+          <cell r="T381">
+            <v>2.0035711782319206E-4</v>
+          </cell>
+          <cell r="U381">
+            <v>114.43847441697822</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="A382">
+            <v>44942</v>
+          </cell>
+          <cell r="B382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="C382">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="D382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E382">
+            <v>0.77300000190734863</v>
+          </cell>
+          <cell r="F382">
+            <v>3660307</v>
+          </cell>
+          <cell r="G382">
+            <v>2824.14404296875</v>
+          </cell>
+          <cell r="H382">
+            <v>380</v>
+          </cell>
+          <cell r="I382">
+            <v>5087239.2083881581</v>
+          </cell>
+          <cell r="N382">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="O382">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P382">
+            <v>0.77066665887832642</v>
+          </cell>
+          <cell r="Q382">
+            <v>0.73966666204588749</v>
+          </cell>
+          <cell r="R382">
+            <v>3.0999996832438925E-2</v>
+          </cell>
+          <cell r="S382">
+            <v>1.4095236857732134E-2</v>
+          </cell>
+          <cell r="T382">
+            <v>2.1142855286598199E-4</v>
+          </cell>
+          <cell r="U382">
+            <v>146.62161951271011</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="A383">
+            <v>44943</v>
+          </cell>
+          <cell r="B383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="C383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="D383">
+            <v>0.77300000190734863</v>
+          </cell>
+          <cell r="E383">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="F383">
+            <v>1479900</v>
+          </cell>
+          <cell r="G383">
+            <v>1148.1639404296875</v>
+          </cell>
+          <cell r="H383">
+            <v>381</v>
+          </cell>
+          <cell r="I383">
+            <v>5077771.1264763782</v>
+          </cell>
+          <cell r="N383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O383">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P383">
+            <v>0.78099999825159705</v>
+          </cell>
+          <cell r="Q383">
+            <v>0.74359523398535587</v>
+          </cell>
+          <cell r="R383">
+            <v>3.7404764266241175E-2</v>
+          </cell>
+          <cell r="S383">
+            <v>1.5510202670583919E-2</v>
+          </cell>
+          <cell r="T383">
+            <v>2.3265304005875878E-4</v>
+          </cell>
+          <cell r="U383">
+            <v>160.77487857796416</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="A384">
+            <v>44944</v>
+          </cell>
+          <cell r="B384">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="C384">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D384">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="E384">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="F384">
+            <v>5034005</v>
+          </cell>
+          <cell r="G384">
+            <v>3914.56298828125</v>
+          </cell>
+          <cell r="H384">
+            <v>382</v>
+          </cell>
+          <cell r="I384">
+            <v>5077656.5554646598</v>
+          </cell>
+          <cell r="N384">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O384">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P384">
+            <v>0.77733333905537927</v>
+          </cell>
+          <cell r="Q384">
+            <v>0.74764285343033932</v>
+          </cell>
+          <cell r="R384">
+            <v>2.9690485625039953E-2</v>
+          </cell>
+          <cell r="S384">
+            <v>1.5455781197061329E-2</v>
+          </cell>
+          <cell r="T384">
+            <v>2.3183671795591992E-4</v>
+          </cell>
+          <cell r="U384">
+            <v>128.06636449488181</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="A385">
+            <v>44945</v>
+          </cell>
+          <cell r="B385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C385">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="D385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E385">
+            <v>0.78200000524520874</v>
+          </cell>
+          <cell r="F385">
+            <v>1876500</v>
+          </cell>
+          <cell r="G385">
+            <v>1461.1739501953125</v>
+          </cell>
+          <cell r="H385">
+            <v>383</v>
+          </cell>
+          <cell r="I385">
+            <v>5069298.4443537863</v>
+          </cell>
+          <cell r="N385">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O385">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P385">
+            <v>0.77966666221618652</v>
+          </cell>
+          <cell r="Q385">
+            <v>0.75176190052713665</v>
+          </cell>
+          <cell r="R385">
+            <v>2.7904761689049873E-2</v>
+          </cell>
+          <cell r="S385">
+            <v>1.5585033261046108E-2</v>
+          </cell>
+          <cell r="T385">
+            <v>2.3377549891569161E-4</v>
+          </cell>
+          <cell r="U385">
+            <v>119.36563847999057</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="A386">
+            <v>44946</v>
+          </cell>
+          <cell r="B386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C386">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E386">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="F386">
+            <v>6181202</v>
+          </cell>
+          <cell r="G386">
+            <v>4860.455078125</v>
+          </cell>
+          <cell r="H386">
+            <v>384</v>
+          </cell>
+          <cell r="I386">
+            <v>5072194.0265299482</v>
+          </cell>
+          <cell r="N386">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="O386">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P386">
+            <v>0.78599999348322547</v>
+          </cell>
+          <cell r="Q386">
+            <v>0.75621428092320753</v>
+          </cell>
+          <cell r="R386">
+            <v>2.9785712560017941E-2</v>
+          </cell>
+          <cell r="S386">
+            <v>1.6578231539045047E-2</v>
+          </cell>
+          <cell r="T386">
+            <v>2.4867347308567571E-4</v>
+          </cell>
+          <cell r="U386">
+            <v>119.77840736456776</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="A387">
+            <v>44956</v>
+          </cell>
+          <cell r="B387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="C387">
+            <v>0.81000000238418579</v>
+          </cell>
+          <cell r="D387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="E387">
+            <v>0.79799997806549072</v>
+          </cell>
+          <cell r="F387">
+            <v>2619200</v>
+          </cell>
+          <cell r="G387">
+            <v>2099.212890625</v>
+          </cell>
+          <cell r="H387">
+            <v>385</v>
+          </cell>
+          <cell r="I387">
+            <v>5065822.6134740263</v>
+          </cell>
+          <cell r="N387">
+            <v>0.81000000238418579</v>
+          </cell>
+          <cell r="O387">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="P387">
+            <v>0.79833332697550452</v>
+          </cell>
+          <cell r="Q387">
+            <v>0.76149999669619972</v>
+          </cell>
+          <cell r="R387">
+            <v>3.6833330279304799E-2</v>
+          </cell>
+          <cell r="S387">
+            <v>1.7714285526145877E-2</v>
+          </cell>
+          <cell r="T387">
+            <v>2.6571428289218815E-4</v>
+          </cell>
+          <cell r="U387">
+            <v>138.62006166318761</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="A388">
+            <v>44957</v>
+          </cell>
+          <cell r="B388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="C388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D388">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E388">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="F388">
+            <v>2396100</v>
+          </cell>
+          <cell r="G388">
+            <v>1900.77001953125</v>
+          </cell>
+          <cell r="H388">
+            <v>386</v>
+          </cell>
+          <cell r="I388">
+            <v>5058906.2336463733</v>
+          </cell>
+          <cell r="N388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="O388">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="P388">
+            <v>0.79233332475026452</v>
+          </cell>
+          <cell r="Q388">
+            <v>0.76635713804335825</v>
+          </cell>
+          <cell r="R388">
+            <v>2.5976186706906268E-2</v>
+          </cell>
+          <cell r="S388">
+            <v>1.7261905329568037E-2</v>
+          </cell>
+          <cell r="T388">
+            <v>2.5892857994352057E-4</v>
+          </cell>
+          <cell r="U388">
+            <v>100.32182122410893</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="A389">
+            <v>44958</v>
+          </cell>
+          <cell r="B389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C389">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E389">
+            <v>0.79900002479553223</v>
+          </cell>
+          <cell r="F389">
+            <v>2298500</v>
+          </cell>
+          <cell r="G389">
+            <v>1828.115966796875</v>
+          </cell>
+          <cell r="H389">
+            <v>387</v>
+          </cell>
+          <cell r="I389">
+            <v>5051773.4010012923</v>
+          </cell>
+          <cell r="N389">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="O389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="P389">
+            <v>0.79566667477289832</v>
+          </cell>
+          <cell r="Q389">
+            <v>0.77047618655931382</v>
+          </cell>
+          <cell r="R389">
+            <v>2.5190488213584494E-2</v>
+          </cell>
+          <cell r="S389">
+            <v>1.674149798698165E-2</v>
+          </cell>
+          <cell r="T389">
+            <v>2.5112246980472474E-4</v>
+          </cell>
+          <cell r="U389">
+            <v>100.31156603856621</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="A390">
+            <v>44959</v>
+          </cell>
+          <cell r="B390">
+            <v>0.80099999904632568</v>
+          </cell>
+          <cell r="C390">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="D390">
+            <v>0.79400002956390381</v>
+          </cell>
+          <cell r="E390">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="F390">
+            <v>1222000</v>
+          </cell>
+          <cell r="G390">
+            <v>974.9000244140625</v>
+          </cell>
+          <cell r="H390">
+            <v>388</v>
+          </cell>
+          <cell r="I390">
+            <v>5041902.8509987118</v>
+          </cell>
+          <cell r="N390">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O390">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="P390">
+            <v>0.79700001080830896</v>
+          </cell>
+          <cell r="Q390">
+            <v>0.77416666348775232</v>
+          </cell>
+          <cell r="R390">
+            <v>2.2833347320556641E-2</v>
+          </cell>
+          <cell r="S390">
+            <v>1.6285717487335198E-2</v>
+          </cell>
+          <cell r="T390">
+            <v>2.4428576231002794E-4</v>
+          </cell>
+          <cell r="U390">
+            <v>93.469824457384391</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="A391">
+            <v>44960</v>
+          </cell>
+          <cell r="B391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D391">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E391">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="F391">
+            <v>2231500</v>
+          </cell>
+          <cell r="G391">
+            <v>1757.35205078125</v>
+          </cell>
+          <cell r="H391">
+            <v>389</v>
+          </cell>
+          <cell r="I391">
+            <v>5034678.1650064271</v>
+          </cell>
+          <cell r="N391">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O391">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="P391">
+            <v>0.78800000747044885</v>
+          </cell>
+          <cell r="Q391">
+            <v>0.77699999866031466</v>
+          </cell>
+          <cell r="R391">
+            <v>1.1000008810134188E-2</v>
+          </cell>
+          <cell r="S391">
+            <v>1.4619049977283083E-2</v>
+          </cell>
+          <cell r="T391">
+            <v>2.1928574965924625E-4</v>
+          </cell>
+          <cell r="U391">
+            <v>50.162898534115342</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="A392">
+            <v>44963</v>
+          </cell>
+          <cell r="B392">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C392">
+            <v>0.7850000262260437</v>
+          </cell>
+          <cell r="D392">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E392">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="F392">
+            <v>653500</v>
+          </cell>
+          <cell r="G392">
+            <v>509.80899047851562</v>
+          </cell>
+          <cell r="H392">
+            <v>390</v>
+          </cell>
+          <cell r="I392">
+            <v>5023444.3748397436</v>
+          </cell>
+          <cell r="N392">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O392">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="P392">
+            <v>0.77933335304260254</v>
+          </cell>
+          <cell r="Q392">
+            <v>0.77904761830965685</v>
+          </cell>
+          <cell r="R392">
+            <v>2.8573473294568608E-4</v>
+          </cell>
+          <cell r="S392">
+            <v>1.2272112426303652E-2</v>
+          </cell>
+          <cell r="T392">
+            <v>1.8408168639455478E-4</v>
+          </cell>
+          <cell r="U392">
+            <v>1.5522170539727207</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="A393">
+            <v>44964</v>
+          </cell>
+          <cell r="B393">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C393">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="D393">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="E393">
+            <v>0.77999997138977051</v>
+          </cell>
+          <cell r="F393">
+            <v>1518500</v>
+          </cell>
+          <cell r="G393">
+            <v>1184.8780517578125</v>
+          </cell>
+          <cell r="H393">
+            <v>391</v>
+          </cell>
+          <cell r="I393">
+            <v>5014480.3227301789</v>
+          </cell>
+          <cell r="N393">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O393">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="P393">
+            <v>0.78033332029978431</v>
+          </cell>
+          <cell r="Q393">
+            <v>0.78119047482808435</v>
+          </cell>
+          <cell r="R393">
+            <v>-8.5715452830004146E-4</v>
+          </cell>
+          <cell r="S393">
+            <v>1.0027212756020689E-2</v>
+          </cell>
+          <cell r="T393">
+            <v>1.5040819134031034E-4</v>
+          </cell>
+          <cell r="U393">
+            <v>-5.6988553659332428</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="A394">
+            <v>44965</v>
+          </cell>
+          <cell r="B394">
+            <v>0.77999997138977051</v>
+          </cell>
+          <cell r="C394">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D394">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E394">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="F394">
+            <v>1171112</v>
+          </cell>
+          <cell r="G394">
+            <v>912.447021484375</v>
+          </cell>
+          <cell r="H394">
+            <v>392</v>
+          </cell>
+          <cell r="I394">
+            <v>5004675.8117028065</v>
+          </cell>
+          <cell r="N394">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O394">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="P394">
+            <v>0.77800001700719201</v>
+          </cell>
+          <cell r="Q394">
+            <v>0.78302381010282607</v>
+          </cell>
+          <cell r="R394">
+            <v>-5.0237930956340549E-3</v>
+          </cell>
+          <cell r="S394">
+            <v>8.4557825205277392E-3</v>
+          </cell>
+          <cell r="T394">
+            <v>1.2683673780791607E-4</v>
+          </cell>
+          <cell r="U394">
+            <v>-39.608343627082093</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="A395">
+            <v>44966</v>
+          </cell>
+          <cell r="B395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C395">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E395">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="F395">
+            <v>1557100</v>
+          </cell>
+          <cell r="G395">
+            <v>1221.449951171875</v>
+          </cell>
+          <cell r="H395">
+            <v>393</v>
+          </cell>
+          <cell r="I395">
+            <v>4995903.354166667</v>
+          </cell>
+          <cell r="N395">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P395">
+            <v>0.78333332141240442</v>
+          </cell>
+          <cell r="Q395">
+            <v>0.78478571488743742</v>
+          </cell>
+          <cell r="R395">
+            <v>-1.4523934750330092E-3</v>
+          </cell>
+          <cell r="S395">
+            <v>6.9455784194323534E-3</v>
+          </cell>
+          <cell r="T395">
+            <v>1.041836762914853E-4</v>
+          </cell>
+          <cell r="U395">
+            <v>-13.940700949825382</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="A396">
+            <v>44967</v>
+          </cell>
+          <cell r="B396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D396">
+            <v>0.77899998426437378</v>
+          </cell>
+          <cell r="E396">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="F396">
+            <v>2219900</v>
+          </cell>
+          <cell r="G396">
+            <v>1734.8929443359375</v>
+          </cell>
+          <cell r="H396">
+            <v>394</v>
+          </cell>
+          <cell r="I396">
+            <v>4988857.6603743657</v>
+          </cell>
+          <cell r="N396">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O396">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P396">
+            <v>0.78366665045420325</v>
+          </cell>
+          <cell r="Q396">
+            <v>0.7857142857142857</v>
+          </cell>
+          <cell r="R396">
+            <v>-2.0476352600824477E-3</v>
+          </cell>
+          <cell r="S396">
+            <v>6.1496605678480476E-3</v>
+          </cell>
+          <cell r="T396">
+            <v>9.224490851772071E-5</v>
+          </cell>
+          <cell r="U396">
+            <v>-22.197813331768732</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="A397">
+            <v>44970</v>
+          </cell>
+          <cell r="B397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="C397">
+            <v>0.79000002145767212</v>
+          </cell>
+          <cell r="D397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E397">
+            <v>0.78899997472763062</v>
+          </cell>
+          <cell r="F397">
+            <v>2053500</v>
+          </cell>
+          <cell r="G397">
+            <v>1613.4949951171875</v>
+          </cell>
+          <cell r="H397">
+            <v>395</v>
+          </cell>
+          <cell r="I397">
+            <v>4981426.375158228</v>
+          </cell>
+          <cell r="N397">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O397">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P397">
+            <v>0.78666667143503821</v>
+          </cell>
+          <cell r="Q397">
+            <v>0.78611904808453148</v>
+          </cell>
+          <cell r="R397">
+            <v>5.4762335050673183E-4</v>
+          </cell>
+          <cell r="S397">
+            <v>5.8979611007534682E-3</v>
+          </cell>
+          <cell r="T397">
+            <v>8.846941651130202E-5</v>
+          </cell>
+          <cell r="U397">
+            <v>6.1899735761993258</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="A398">
+            <v>44971</v>
+          </cell>
+          <cell r="B398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D398">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E398">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="F398">
+            <v>1283308</v>
+          </cell>
+          <cell r="G398">
+            <v>1008.1619873046875</v>
+          </cell>
+          <cell r="H398">
+            <v>396</v>
+          </cell>
+          <cell r="I398">
+            <v>4972087.6923926771</v>
+          </cell>
+          <cell r="N398">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O398">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P398">
+            <v>0.7873333295186361</v>
+          </cell>
+          <cell r="Q398">
+            <v>0.78683333311762116</v>
+          </cell>
+          <cell r="R398">
+            <v>4.9999640101494602E-4</v>
+          </cell>
+          <cell r="S398">
+            <v>5.3809536557619187E-3</v>
+          </cell>
+          <cell r="T398">
+            <v>8.0714304836428777E-5</v>
+          </cell>
+          <cell r="U398">
+            <v>6.1946442087088718</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="A399">
+            <v>44972</v>
+          </cell>
+          <cell r="B399">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C399">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="D399">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="E399">
+            <v>0.78600001335144043</v>
+          </cell>
+          <cell r="F399">
+            <v>854601</v>
+          </cell>
+          <cell r="G399">
+            <v>671.81597900390625</v>
+          </cell>
+          <cell r="H399">
+            <v>397</v>
+          </cell>
+          <cell r="I399">
+            <v>4961716.1893891692</v>
+          </cell>
+          <cell r="N399">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O399">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="P399">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="Q399">
+            <v>0.787357142993382</v>
+          </cell>
+          <cell r="R399">
+            <v>-3.5714251654483942E-4</v>
+          </cell>
+          <cell r="S399">
+            <v>4.9353756872164067E-3</v>
+          </cell>
+          <cell r="T399">
+            <v>7.4030635308246096E-5</v>
+          </cell>
+          <cell r="U399">
+            <v>-4.8242530279225928</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="A400">
+            <v>44973</v>
+          </cell>
+          <cell r="B400">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="C400">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D400">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="E400">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="F400">
+            <v>1755000</v>
+          </cell>
+          <cell r="G400">
+            <v>1372.9659423828125</v>
+          </cell>
+          <cell r="H400">
+            <v>398</v>
+          </cell>
+          <cell r="I400">
+            <v>4953659.1135364324</v>
+          </cell>
+          <cell r="N400">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O400">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="P400">
+            <v>0.78066666920979821</v>
+          </cell>
+          <cell r="Q400">
+            <v>0.78697619125956586</v>
+          </cell>
+          <cell r="R400">
+            <v>-6.3095220497676463E-3</v>
+          </cell>
+          <cell r="S400">
+            <v>5.2619051365625346E-3</v>
+          </cell>
+          <cell r="T400">
+            <v>7.8928577048438018E-5</v>
+          </cell>
+          <cell r="U400">
+            <v>-79.939640187552456</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="A401">
+            <v>44974</v>
+          </cell>
+          <cell r="B401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="C401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D401">
+            <v>0.75999999046325684</v>
+          </cell>
+          <cell r="E401">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="F401">
+            <v>3067106</v>
+          </cell>
+          <cell r="G401">
+            <v>2349.093017578125</v>
+          </cell>
+          <cell r="H401">
+            <v>399</v>
+          </cell>
+          <cell r="I401">
+            <v>4948930.9102443606</v>
+          </cell>
+          <cell r="N401">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O401">
+            <v>0.75999999046325684</v>
+          </cell>
+          <cell r="P401">
+            <v>0.7653333147366842</v>
+          </cell>
+          <cell r="Q401">
+            <v>0.78461904752822165</v>
+          </cell>
+          <cell r="R401">
+            <v>-1.9285732791537447E-2</v>
+          </cell>
+          <cell r="S401">
+            <v>5.9523837906973699E-3</v>
+          </cell>
+          <cell r="T401">
+            <v>8.9285756860460545E-5</v>
+          </cell>
+          <cell r="U401">
+            <v>-216.00010426834353</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="A402">
+            <v>44977</v>
+          </cell>
+          <cell r="B402">
+            <v>0.75800001621246338</v>
+          </cell>
+          <cell r="C402">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D402">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E402">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="F402">
+            <v>956200</v>
+          </cell>
+          <cell r="G402">
+            <v>735.38299560546875</v>
+          </cell>
+          <cell r="H402">
+            <v>400</v>
+          </cell>
+          <cell r="I402">
+            <v>4938949.08296875</v>
+          </cell>
+          <cell r="N402">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O402">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P402">
+            <v>0.7683333158493042</v>
+          </cell>
+          <cell r="Q402">
+            <v>0.78290476117815289</v>
+          </cell>
+          <cell r="R402">
+            <v>-1.4571445328848687E-2</v>
+          </cell>
+          <cell r="S402">
+            <v>6.4897967033645731E-3</v>
+          </cell>
+          <cell r="T402">
+            <v>9.7346950550468591E-5</v>
+          </cell>
+          <cell r="U402">
+            <v>-149.68568862662278</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="A403">
+            <v>44978</v>
+          </cell>
+          <cell r="B403">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C403">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="D403">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="E403">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="F403">
+            <v>1222500</v>
+          </cell>
+          <cell r="G403">
+            <v>944.00799560546875</v>
+          </cell>
+          <cell r="H403">
+            <v>401</v>
+          </cell>
+          <cell r="I403">
+            <v>4929681.1301433919</v>
+          </cell>
+          <cell r="N403">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O403">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P403">
+            <v>0.77366665999094641</v>
+          </cell>
+          <cell r="Q403">
+            <v>0.78133333155087059</v>
+          </cell>
+          <cell r="R403">
+            <v>-7.6666715599241764E-3</v>
+          </cell>
+          <cell r="S403">
+            <v>6.2380958171117896E-3</v>
+          </cell>
+          <cell r="T403">
+            <v>9.3571437256676846E-5</v>
+          </cell>
+          <cell r="U403">
+            <v>-81.933886928482721</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="A404">
+            <v>44979</v>
+          </cell>
+          <cell r="B404">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="C404">
+            <v>0.77100002765655518</v>
+          </cell>
+          <cell r="D404">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E404">
+            <v>0.76800000667572021</v>
+          </cell>
+          <cell r="F404">
+            <v>1488800</v>
+          </cell>
+          <cell r="G404">
+            <v>1145.47900390625</v>
+          </cell>
+          <cell r="H404">
+            <v>402</v>
+          </cell>
+          <cell r="I404">
+            <v>4921121.7243470149</v>
+          </cell>
+          <cell r="N404">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O404">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P404">
+            <v>0.76866668462753296</v>
+          </cell>
+          <cell r="Q404">
+            <v>0.77930952253795804</v>
+          </cell>
+          <cell r="R404">
+            <v>-1.0642837910425085E-2</v>
+          </cell>
+          <cell r="S404">
+            <v>6.0782314968757922E-3</v>
+          </cell>
+          <cell r="T404">
+            <v>9.1173472453136878E-5</v>
+          </cell>
+          <cell r="U404">
+            <v>-116.73173812586219</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="A405">
+            <v>44980</v>
+          </cell>
+          <cell r="B405">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="C405">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D405">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E405">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="F405">
+            <v>1037301.9375</v>
+          </cell>
+          <cell r="G405">
+            <v>799.7540283203125</v>
+          </cell>
+          <cell r="H405">
+            <v>403</v>
+          </cell>
+          <cell r="I405">
+            <v>4911484.4544044668</v>
+          </cell>
+          <cell r="N405">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O405">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P405">
+            <v>0.76933334271113074</v>
+          </cell>
+          <cell r="Q405">
+            <v>0.77797618934086377</v>
+          </cell>
+          <cell r="R405">
+            <v>-8.6428466297330253E-3</v>
+          </cell>
+          <cell r="S405">
+            <v>6.3639469698173311E-3</v>
+          </cell>
+          <cell r="T405">
+            <v>9.5459204547259957E-5</v>
+          </cell>
+          <cell r="U405">
+            <v>-90.539688348797455</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="A406">
+            <v>44981</v>
+          </cell>
+          <cell r="B406">
+            <v>0.76800000667572021</v>
+          </cell>
+          <cell r="C406">
+            <v>0.76899999380111694</v>
+          </cell>
+          <cell r="D406">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E406">
+            <v>0.76499998569488525</v>
+          </cell>
+          <cell r="F406">
+            <v>1018601</v>
+          </cell>
+          <cell r="G406">
+            <v>779.92901611328125</v>
+          </cell>
+          <cell r="H406">
+            <v>404</v>
+          </cell>
+          <cell r="I406">
+            <v>4901848.6042698016</v>
+          </cell>
+          <cell r="N406">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O406">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P406">
+            <v>0.76499998569488525</v>
+          </cell>
+          <cell r="Q406">
+            <v>0.77695237738745537</v>
+          </cell>
+          <cell r="R406">
+            <v>-1.1952391692570119E-2</v>
+          </cell>
+          <cell r="S406">
+            <v>7.3401372448927971E-3</v>
+          </cell>
+          <cell r="T406">
+            <v>1.1010205867339195E-4</v>
+          </cell>
+          <cell r="U406">
+            <v>-108.55738608871825</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="A407">
+            <v>44984</v>
+          </cell>
+          <cell r="B407">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="C407">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="D407">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E407">
+            <v>0.75700002908706665</v>
+          </cell>
+          <cell r="F407">
+            <v>2463800</v>
+          </cell>
+          <cell r="G407">
+            <v>1870.217041015625</v>
+          </cell>
+          <cell r="H407">
+            <v>405</v>
+          </cell>
+          <cell r="I407">
+            <v>4895828.7311728392</v>
+          </cell>
+          <cell r="N407">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="O407">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="P407">
+            <v>0.75799999634424842</v>
+          </cell>
+          <cell r="Q407">
+            <v>0.77535713996206013</v>
+          </cell>
+          <cell r="R407">
+            <v>-1.735714361781171E-2</v>
+          </cell>
+          <cell r="S407">
+            <v>8.4523828256697995E-3</v>
+          </cell>
+          <cell r="T407">
+            <v>1.2678574238504699E-4</v>
+          </cell>
+          <cell r="U407">
+            <v>-136.90138410909205</v>
           </cell>
         </row>
       </sheetData>
@@ -28747,7 +30698,7 @@
 </v>
           </cell>
           <cell r="C347">
-            <v>23.5</v>
+            <v>24.68000031</v>
           </cell>
         </row>
         <row r="348">
@@ -28756,7 +30707,7 @@
 </v>
           </cell>
           <cell r="C348">
-            <v>23.5</v>
+            <v>24.6341</v>
           </cell>
         </row>
         <row r="349">
@@ -28765,7 +30716,7 @@
 </v>
           </cell>
           <cell r="C349">
-            <v>23.5</v>
+            <v>24.469999309999999</v>
           </cell>
         </row>
         <row r="350">
@@ -28774,7 +30725,7 @@
 </v>
           </cell>
           <cell r="C350">
-            <v>23.33</v>
+            <v>24.540000920000001</v>
           </cell>
         </row>
         <row r="351">
@@ -28783,7 +30734,7 @@
 </v>
           </cell>
           <cell r="C351">
-            <v>23.05</v>
+            <v>24.780000690000001</v>
           </cell>
         </row>
         <row r="352">
@@ -28792,7 +30743,7 @@
 </v>
           </cell>
           <cell r="C352">
-            <v>22.91</v>
+            <v>24.440000529999999</v>
           </cell>
         </row>
         <row r="353">
@@ -28801,7 +30752,7 @@
 </v>
           </cell>
           <cell r="C353">
-            <v>23</v>
+            <v>24.770099999999999</v>
           </cell>
         </row>
         <row r="354">
@@ -28810,7 +30761,7 @@
 </v>
           </cell>
           <cell r="C354">
-            <v>23.46</v>
+            <v>24.93</v>
           </cell>
         </row>
         <row r="355">
@@ -28819,7 +30770,7 @@
 </v>
           </cell>
           <cell r="C355">
-            <v>22.93</v>
+            <v>24.52</v>
           </cell>
         </row>
         <row r="356">
@@ -28828,7 +30779,7 @@
 </v>
           </cell>
           <cell r="C356">
-            <v>23.03</v>
+            <v>23.94</v>
           </cell>
         </row>
         <row r="357">
@@ -28837,7 +30788,7 @@
 </v>
           </cell>
           <cell r="C357">
-            <v>22.61000061</v>
+            <v>23.5</v>
           </cell>
         </row>
         <row r="358">
@@ -28846,7 +30797,7 @@
 </v>
           </cell>
           <cell r="C358">
-            <v>22.040000920000001</v>
+            <v>23.5</v>
           </cell>
         </row>
         <row r="359">
@@ -28855,7 +30806,7 @@
 </v>
           </cell>
           <cell r="C359">
-            <v>22.239999770000001</v>
+            <v>23.5</v>
           </cell>
         </row>
         <row r="360">
@@ -28864,7 +30815,7 @@
 </v>
           </cell>
           <cell r="C360">
-            <v>22.920000080000001</v>
+            <v>23.33</v>
           </cell>
         </row>
         <row r="361">
@@ -28873,7 +30824,7 @@
 </v>
           </cell>
           <cell r="C361">
-            <v>22.850000380000001</v>
+            <v>23.05</v>
           </cell>
         </row>
         <row r="362">
@@ -28882,7 +30833,7 @@
 </v>
           </cell>
           <cell r="C362">
-            <v>23.649999619999999</v>
+            <v>22.91</v>
           </cell>
         </row>
         <row r="363">
@@ -28891,7 +30842,7 @@
 </v>
           </cell>
           <cell r="C363">
-            <v>23.719999309999999</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="364">
@@ -28900,7 +30851,7 @@
 </v>
           </cell>
           <cell r="C364">
-            <v>23.850000380000001</v>
+            <v>23.46</v>
           </cell>
         </row>
         <row r="365">
@@ -28909,7 +30860,7 @@
 </v>
           </cell>
           <cell r="C365">
-            <v>23.590000150000002</v>
+            <v>22.93</v>
           </cell>
         </row>
         <row r="366">
@@ -28918,7 +30869,7 @@
 </v>
           </cell>
           <cell r="C366">
-            <v>23.399999619999999</v>
+            <v>23.030000690000001</v>
           </cell>
         </row>
         <row r="367">
@@ -28926,7 +30877,7 @@
             <v>44834</v>
           </cell>
           <cell r="C367">
-            <v>23.340000150000002</v>
+            <v>22.61</v>
           </cell>
         </row>
         <row r="368">
@@ -29462,6 +31413,148 @@
           </cell>
           <cell r="C427">
             <v>22.739999770000001</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v xml:space="preserve">2023/1/3
+</v>
+          </cell>
+          <cell r="C428">
+            <v>22.829999919999999</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v xml:space="preserve">2023/1/4
+</v>
+          </cell>
+          <cell r="C429">
+            <v>23.409999849999998</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v xml:space="preserve">2023/1/5
+</v>
+          </cell>
+          <cell r="C430">
+            <v>23.5</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v xml:space="preserve">2023/1/6
+</v>
+          </cell>
+          <cell r="C431">
+            <v>23.579999919999999</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v xml:space="preserve">2023/1/9
+</v>
+          </cell>
+          <cell r="C432">
+            <v>23.81999969</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v xml:space="preserve">2023/1/10
+</v>
+          </cell>
+          <cell r="C433">
+            <v>23.649999619999999</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v xml:space="preserve">2023/1/11
+</v>
+          </cell>
+          <cell r="C434">
+            <v>23.780000690000001</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v xml:space="preserve">2023/1/12
+</v>
+          </cell>
+          <cell r="C435">
+            <v>24.100000380000001</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v xml:space="preserve">2023/1/13
+</v>
+          </cell>
+          <cell r="C436">
+            <v>24.450000760000002</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v xml:space="preserve">2023/1/16
+</v>
+          </cell>
+          <cell r="C437">
+            <v>24.520000459999999</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v xml:space="preserve">2023/1/17
+</v>
+          </cell>
+          <cell r="C438">
+            <v>24.530000690000001</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v xml:space="preserve">2023/1/18
+</v>
+          </cell>
+          <cell r="C439">
+            <v>24.739999770000001</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v xml:space="preserve">2023/1/19
+</v>
+          </cell>
+          <cell r="C440">
+            <v>24.829999919999999</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v xml:space="preserve">2023/1/20
+</v>
+          </cell>
+          <cell r="C441">
+            <v>25.170000080000001</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442">
+            <v>44956</v>
+          </cell>
+          <cell r="C442">
+            <v>24.899999619999999</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443">
+            <v>44957</v>
+          </cell>
+          <cell r="C443">
+            <v>24.899999619999999</v>
           </cell>
         </row>
       </sheetData>
@@ -29758,7 +31851,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29852,7 +31945,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D22" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -29860,7 +31953,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F21" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F22" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -29868,11 +31961,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H21" si="2">F3</f>
+        <f t="shared" ref="H3:H22" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I21" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I22" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -29916,7 +32009,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C21" si="4">C3</f>
+        <f t="shared" ref="C4:C22" si="4">C3</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -29924,7 +32017,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E21" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E22" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -29932,7 +32025,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G21" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G22" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -30648,6 +32741,43 @@
         <v>-5182.0202852697112</v>
       </c>
     </row>
+    <row r="22" spans="1:10" ht="12.75">
+      <c r="A22" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
+        <v>2534.8543270744931</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="5"/>
+        <v>47926.251518306432</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
+        <v>37813.81123673384</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="6"/>
+        <v>40000</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="2"/>
+        <v>37813.81123673384</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="3"/>
+        <v>-2186.1887632661601</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30659,7 +32789,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30751,11 +32881,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="18">
-        <f t="shared" ref="C3:C21" si="0">IF(J3&lt;-100,2000,0)</f>
+        <f t="shared" ref="C3:C22" si="0">IF(J3&lt;-100,2000,0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D21" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D22" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="19">
@@ -30763,7 +32893,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F21" si="2">E3*B3</f>
+        <f t="shared" ref="F3:F22" si="2">E3*B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="19">
@@ -30771,11 +32901,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H21" si="3">F3</f>
+        <f t="shared" ref="H3:H22" si="3">F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I21" si="4">H3-G3</f>
+        <f t="shared" ref="I3:I22" si="4">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -30830,7 +32960,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E21" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E22" si="5">E3+D4</f>
         <v>0</v>
       </c>
       <c r="F4" s="19">
@@ -30838,7 +32968,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G21" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G22" si="6">G3+C4</f>
         <v>0</v>
       </c>
       <c r="H4" s="19">
@@ -31611,6 +33741,47 @@
         <v>-13.703085779356849</v>
       </c>
     </row>
+    <row r="22" spans="1:10" ht="12.75">
+      <c r="A22" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="5"/>
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="2"/>
+        <v>12001.551159570063</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="3"/>
+        <v>12001.551159570063</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="4"/>
+        <v>1.5511595700627367</v>
+      </c>
+      <c r="J22" s="7">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>100.32182122410893</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31622,7 +33793,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31730,7 +33901,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D21" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D22" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -31738,7 +33909,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F21" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F22" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -31746,11 +33917,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H21" si="2">F3</f>
+        <f t="shared" ref="H3:H22" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I21" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I22" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -31802,7 +33973,7 @@
         <v>2982.1073558648113</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E21" si="4">E3+D4</f>
+        <f t="shared" ref="E4:E22" si="4">E3+D4</f>
         <v>4921.971565370146</v>
       </c>
       <c r="F4" s="19">
@@ -31810,7 +33981,7 @@
         <v>4951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G21" si="5">G3+C4</f>
+        <f t="shared" ref="G4:G22" si="5">G3+C4</f>
         <v>5000</v>
       </c>
       <c r="H4" s="19">
@@ -31887,7 +34058,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="18">
-        <f t="shared" ref="C5:C21" si="7">IF(N5&lt;20,3000,2000)</f>
+        <f t="shared" ref="C5:C22" si="7">IF(N5&lt;20,3000,2000)</f>
         <v>3000</v>
       </c>
       <c r="D5" s="19">
@@ -31915,23 +34086,23 @@
         <v>-245.37546785243921</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J21" si="8">MAX((B5-B4),0)</f>
+        <f t="shared" ref="J5:J22" si="8">MAX((B5-B4),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K21" si="9">(K4*5+J5)/6</f>
+        <f t="shared" ref="K5:K22" si="9">(K4*5+J5)/6</f>
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" ref="L5:L21" si="10">ABS(B5-B4)</f>
+        <f t="shared" ref="L5:L22" si="10">ABS(B5-B4)</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" ref="M5:M21" si="11">(M4*5+L5)/6</f>
+        <f t="shared" ref="M5:M22" si="11">(M4*5+L5)/6</f>
         <v>2.7499999999999931E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N21" si="12">K5*100/M5</f>
+        <f t="shared" ref="N5:N22" si="12">K5*100/M5</f>
         <v>0</v>
       </c>
       <c r="Z5" s="7"/>
@@ -32871,6 +35042,63 @@
         <v>34.643899430457921</v>
       </c>
     </row>
+    <row r="22" spans="1:14" ht="12.75">
+      <c r="A22" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="0"/>
+        <v>2534.8543270744931</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="4"/>
+        <v>57244.323029816987</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
+        <v>45165.769423825928</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="5"/>
+        <v>48000</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="2"/>
+        <v>45165.769423825928</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="3"/>
+        <v>-2834.2305761740718</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="8"/>
+        <v>6.5999984741210938E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="9"/>
+        <v>2.145958526145586E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="10"/>
+        <v>6.5999984741210938E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="11"/>
+        <v>4.119171367975881E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="12"/>
+        <v>52.096849935138493</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32882,7 +35110,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32999,7 +35227,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D21" ca="1" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D22" ca="1" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -33007,7 +35235,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F21" ca="1" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F22" ca="1" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -33015,11 +35243,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H21" ca="1" si="2">F3</f>
+        <f t="shared" ref="H3:H22" ca="1" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I21" ca="1" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I22" ca="1" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -33094,7 +35322,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C21" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
+        <f t="shared" ref="C4:C22" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -33102,7 +35330,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E21" ca="1" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E22" ca="1" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -33110,7 +35338,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G21" ca="1" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G22" ca="1" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -33138,7 +35366,7 @@
         <v>0.94</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N21" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
+        <f t="shared" ref="N4:N22" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
         <v>57.89473684210526</v>
       </c>
       <c r="O4" s="7">
@@ -33150,7 +35378,7 @@
         <v>83.200425305688029</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q21" ca="1" si="8">3*O4-2*P4</f>
+        <f t="shared" ref="Q4:Q22" ca="1" si="8">3*O4-2*P4</f>
         <v>64.221158958000927</v>
       </c>
       <c r="R4" s="21">
@@ -33247,11 +35475,11 @@
         <v>22.807017543859651</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5:O21" ca="1" si="10">(N5+2*O4)/3</f>
+        <f t="shared" ref="O5:O22" ca="1" si="10">(N5+2*O4)/3</f>
         <v>58.851674641148101</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" ref="P5:P21" ca="1" si="11">(O5+2*P4)/3</f>
+        <f t="shared" ref="P5:P22" ca="1" si="11">(O5+2*P4)/3</f>
         <v>75.084175084174717</v>
       </c>
       <c r="Q5" s="1">
@@ -33741,11 +35969,11 @@
         <v>0.75</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" ref="L12:L21" ca="1" si="12">MAX(J4:J12)</f>
+        <f t="shared" ref="L12:L22" ca="1" si="12">MAX(J4:J12)</f>
         <v>1.054</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M21" ca="1" si="13">MIN(K4:K12)</f>
+        <f t="shared" ref="M12:M22" ca="1" si="13">MIN(K4:K12)</f>
         <v>0.75</v>
       </c>
       <c r="N12" s="7">
@@ -34385,6 +36613,75 @@
       <c r="Q21" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>28.655857849585068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12.75">
+      <c r="A22" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2534.8543270744931</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>49188.877787774363</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>38810.02333143448</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>41000</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>38810.02333143448</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2189.9766685655195</v>
+      </c>
+      <c r="J22" s="7">
+        <f ca="1">MAX(VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A22,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="K22" s="7">
+        <f ca="1">MIN(VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A22,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>60.988998033047167</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>38.329713449753399</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>30.224689691495957</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>54.539760966268283</v>
       </c>
     </row>
   </sheetData>
@@ -34398,7 +36695,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34499,7 +36796,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="19">
-        <f t="shared" ref="E3:E21" si="0">D3/B3</f>
+        <f t="shared" ref="E3:E22" si="0">D3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
@@ -34507,7 +36804,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G21" si="1">F3*B3</f>
+        <f t="shared" ref="G3:G22" si="1">F3*B3</f>
         <v>2000</v>
       </c>
       <c r="H3" s="19">
@@ -34515,11 +36812,11 @@
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I21" si="2">G3</f>
+        <f t="shared" ref="I3:I22" si="2">G3</f>
         <v>2000</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J21" si="3">I3-H3</f>
+        <f t="shared" ref="J3:J22" si="3">I3-H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="7"/>
@@ -34567,7 +36864,7 @@
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:D21" si="4">D3</f>
+        <f t="shared" ref="D4:D22" si="4">D3</f>
         <v>2000</v>
       </c>
       <c r="E4" s="19">
@@ -34575,7 +36872,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" ref="F4:F21" si="5">F3+E4</f>
+        <f t="shared" ref="F4:F22" si="5">F3+E4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="G4" s="19">
@@ -34583,7 +36880,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H21" si="6">H3+D4</f>
+        <f t="shared" ref="H4:H22" si="6">H3+D4</f>
         <v>4000</v>
       </c>
       <c r="I4" s="19">
@@ -35367,6 +37664,47 @@
         <v>-5182.0202852697112</v>
       </c>
     </row>
+    <row r="22" spans="1:11" ht="12.75">
+      <c r="A22" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="17">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="17">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>2534.8543270744931</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="5"/>
+        <v>47926.251518306432</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="1"/>
+        <v>37813.81123673384</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="6"/>
+        <v>40000</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="2"/>
+        <v>37813.81123673384</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="3"/>
+        <v>-2186.1887632661601</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="4" r:id="rId1"/>
@@ -2310,6 +2310,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2356,7 +2357,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2416,6 +2417,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,7 +2429,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2485,6 +2489,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2527,7 +2534,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2587,6 +2594,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,7 +2606,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2656,6 +2666,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37813.81123673384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38567.730456940233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2711,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2758,6 +2771,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2767,7 +2783,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2827,6 +2843,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-2186.1887632661601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3432.2695430597669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,11 +2867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472806144"/>
-        <c:axId val="472808064"/>
+        <c:axId val="578194048"/>
+        <c:axId val="591311616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472806144"/>
+        <c:axId val="578194048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,14 +2914,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472808064"/>
+        <c:crossAx val="591311616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472808064"/>
+        <c:axId val="591311616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472806144"/>
+        <c:crossAx val="578194048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2967,6 +2986,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3120,7 +3140,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3180,6 +3200,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,7 +3212,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3248,6 +3271,9 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3291,7 +3317,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3351,6 +3377,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3360,7 +3389,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3420,6 +3449,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>12001.551159570063</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11606.063327517782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3462,7 +3494,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3522,6 +3554,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3531,7 +3566,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3591,6 +3626,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.5511595700627367</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-393.93667248221755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495922560"/>
-        <c:axId val="507721216"/>
+        <c:axId val="571602816"/>
+        <c:axId val="571604352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495922560"/>
+        <c:axId val="571602816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,14 +3697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507721216"/>
+        <c:crossAx val="571604352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507721216"/>
+        <c:axId val="571604352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3755,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495922560"/>
+        <c:crossAx val="571602816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3884,7 +3922,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3944,6 +3982,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3953,7 +3994,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4013,6 +4054,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,7 +4099,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4115,6 +4159,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,7 +4171,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4184,6 +4231,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>45165.769423825928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45677.419126859648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4226,7 +4276,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4286,6 +4336,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,7 +4348,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4355,6 +4408,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-2834.2305761740718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4322.5808731403522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4376,11 +4432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583363584"/>
-        <c:axId val="583365376"/>
+        <c:axId val="569803520"/>
+        <c:axId val="569805056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583363584"/>
+        <c:axId val="569803520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4423,14 +4479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583365376"/>
+        <c:crossAx val="569805056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583365376"/>
+        <c:axId val="569805056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583363584"/>
+        <c:crossAx val="569803520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4648,7 +4704,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4708,6 +4764,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,7 +4776,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4777,6 +4836,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4819,7 +4881,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4879,6 +4941,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4888,7 +4953,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4948,6 +5013,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>38810.02333143448</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39531.114314993873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,7 +5058,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5050,6 +5118,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5059,7 +5130,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5119,6 +5190,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-2189.9766685655195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3468.8856850061275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5140,11 +5214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583389568"/>
-        <c:axId val="583391104"/>
+        <c:axId val="571832192"/>
+        <c:axId val="571833728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583389568"/>
+        <c:axId val="571832192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,14 +5261,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583391104"/>
+        <c:crossAx val="571833728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583391104"/>
+        <c:axId val="571833728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5245,7 +5319,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583389568"/>
+        <c:crossAx val="571832192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5366,7 +5440,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5413,7 +5486,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5473,6 +5546,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5482,7 +5558,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5542,6 +5618,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5584,7 +5663,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5644,6 +5723,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5653,7 +5735,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5713,6 +5795,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>37813.81123673384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38567.730456940233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5755,7 +5840,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5815,6 +5900,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5824,7 +5912,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5884,6 +5972,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-2186.1887632661601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3432.2695430597669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5905,11 +5996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583444352"/>
-        <c:axId val="583445888"/>
+        <c:axId val="571673600"/>
+        <c:axId val="571679488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583444352"/>
+        <c:axId val="571673600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5952,14 +6043,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583445888"/>
+        <c:crossAx val="571679488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583445888"/>
+        <c:axId val="571679488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6010,7 +6101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583444352"/>
+        <c:crossAx val="571673600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6024,7 +6115,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6170,15 +6260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7299,6 +7389,12 @@
           <cell r="I22">
             <v>39128742.049999997</v>
           </cell>
+          <cell r="K22">
+            <v>45016</v>
+          </cell>
+          <cell r="L22">
+            <v>44986</v>
+          </cell>
           <cell r="N22">
             <v>1.054</v>
           </cell>
@@ -27727,6 +27823,59 @@
           </cell>
           <cell r="U407">
             <v>-136.90138410909205</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="A408">
+            <v>44985</v>
+          </cell>
+          <cell r="B408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="C408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="D408">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="E408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="F408">
+            <v>699600</v>
+          </cell>
+          <cell r="G408">
+            <v>532.60498046875</v>
+          </cell>
+          <cell r="H408">
+            <v>406</v>
+          </cell>
+          <cell r="I408">
+            <v>4885493.1924261088</v>
+          </cell>
+          <cell r="N408">
+            <v>0</v>
+          </cell>
+          <cell r="O408">
+            <v>0</v>
+          </cell>
+          <cell r="P408">
+            <v>0.76166667540868127</v>
+          </cell>
+          <cell r="Q408">
+            <v>0.77419047270502361</v>
+          </cell>
+          <cell r="R408">
+            <v>-1.2523797296342343E-2</v>
+          </cell>
+          <cell r="S408">
+            <v>9.0748294681107945E-3</v>
+          </cell>
+          <cell r="T408">
+            <v>1.3612244202166192E-4</v>
+          </cell>
+          <cell r="U408">
+            <v>-92.003912876830128</v>
           </cell>
         </row>
       </sheetData>
@@ -31851,9 +32000,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -31945,7 +32094,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D22" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D23" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -31953,7 +32102,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F22" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F23" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -31961,11 +32110,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H22" si="2">F3</f>
+        <f t="shared" ref="H3:H23" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I22" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I23" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -31990,9 +32139,16 @@
       <c r="S3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="U3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="V3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="W3" s="7">
+        <f>-V3</f>
+        <v>-14000</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -32009,7 +32165,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C22" si="4">C3</f>
+        <f t="shared" ref="C4:C23" si="4">C3</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -32017,7 +32173,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E22" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E23" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -32025,7 +32181,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G22" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G23" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -32064,9 +32220,16 @@
         <f>R4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="U4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="V4" s="7">
+        <v>38000</v>
+      </c>
+      <c r="W4" s="7">
+        <f>-V4</f>
+        <v>-38000</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -32111,9 +32274,39 @@
         <v>-205.61403644090751</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="M5" s="21">
+        <v>44925</v>
+      </c>
+      <c r="N5" s="10">
+        <f>O5-O4</f>
+        <v>24000</v>
+      </c>
+      <c r="O5" s="4">
+        <f>VLOOKUP(M5,A:G,7,)</f>
+        <v>38000</v>
+      </c>
+      <c r="P5" s="4">
+        <f>VLOOKUP(M5,A:H,8,)</f>
+        <v>32817.979714730289</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>VLOOKUP(M5,A:I,9,)</f>
+        <v>-5182.0202852697112</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5" si="8">(P5-O5)/O5</f>
+        <v>-0.13636895487551873</v>
+      </c>
+      <c r="S5" s="9">
+        <v>-0.31117654684131701</v>
+      </c>
+      <c r="U5" s="21">
+        <v>44925</v>
+      </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="8">
+        <v>32817.979714730289</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8"/>
@@ -32160,7 +32353,10 @@
       <c r="J6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="8">
+        <f>IRR(W3:W5)</f>
+        <v>-0.31117654684131701</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -32776,6 +32972,43 @@
       <c r="I22" s="19">
         <f t="shared" si="3"/>
         <v>-2186.1887632661601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75">
+      <c r="A23" s="16">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>2621.2319397147853</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="5"/>
+        <v>50547.483458021219</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
+        <v>38567.730456940233</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="6"/>
+        <v>42000</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="2"/>
+        <v>38567.730456940233</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="3"/>
+        <v>-3432.2695430597669</v>
       </c>
     </row>
   </sheetData>
@@ -32789,7 +33022,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32881,11 +33114,11 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="18">
-        <f t="shared" ref="C3:C22" si="0">IF(J3&lt;-100,2000,0)</f>
+        <f t="shared" ref="C3:C23" si="0">IF(J3&lt;-100,2000,0)</f>
         <v>0</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D22" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D23" si="1">C3/B3</f>
         <v>0</v>
       </c>
       <c r="E3" s="19">
@@ -32893,7 +33126,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F22" si="2">E3*B3</f>
+        <f t="shared" ref="F3:F23" si="2">E3*B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="19">
@@ -32901,11 +33134,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H22" si="3">F3</f>
+        <f t="shared" ref="H3:H23" si="3">F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I22" si="4">H3-G3</f>
+        <f t="shared" ref="I3:I23" si="4">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -32933,9 +33166,16 @@
       <c r="S3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="U3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="V3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="W3" s="7">
+        <f>-V3</f>
+        <v>-2000</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -32960,7 +33200,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E22" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E23" si="5">E3+D4</f>
         <v>0</v>
       </c>
       <c r="F4" s="19">
@@ -32968,7 +33208,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G22" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G23" si="6">G3+C4</f>
         <v>0</v>
       </c>
       <c r="H4" s="19">
@@ -33010,9 +33250,16 @@
         <f>R4</f>
         <v>2.6915097088547328E-2</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="U4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="V4" s="7">
+        <v>12000</v>
+      </c>
+      <c r="W4" s="7">
+        <f>-V4</f>
+        <v>-12000</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -33060,9 +33307,39 @@
         <f>VLOOKUP(A5,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>-120.73806658644138</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="M5" s="21">
+        <v>44925</v>
+      </c>
+      <c r="N5" s="10">
+        <f>O5-O4</f>
+        <v>10000</v>
+      </c>
+      <c r="O5" s="4">
+        <f>VLOOKUP(M5,A:G,7,)</f>
+        <v>12000</v>
+      </c>
+      <c r="P5" s="4">
+        <f>VLOOKUP(M5,A:H,8,)</f>
+        <v>10997.619323354318</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>VLOOKUP(M5,A:I,9,)</f>
+        <v>-1002.3806766456819</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5" si="8">(P5-O5)/O5</f>
+        <v>-8.3531723053806822E-2</v>
+      </c>
+      <c r="S5" s="9">
+        <v>-0.19226974935498364</v>
+      </c>
+      <c r="U5" s="21">
+        <v>44925</v>
+      </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="8">
+        <v>10997.619323354318</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8"/>
@@ -33112,7 +33389,10 @@
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="8">
+        <f>IRR(W3:W5)</f>
+        <v>-0.19226974935498364</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -33780,6 +34060,47 @@
       <c r="J22" s="7">
         <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
         <v>100.32182122410893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75">
+      <c r="A23" s="16">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="5"/>
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="2"/>
+        <v>11606.063327517782</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="3"/>
+        <v>11606.063327517782</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="4"/>
+        <v>-393.93667248221755</v>
+      </c>
+      <c r="J23" s="7">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$U,21)</f>
+        <v>-92.003912876830128</v>
       </c>
     </row>
   </sheetData>
@@ -33793,9 +34114,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -33901,7 +34222,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D22" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D23" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -33909,7 +34230,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F22" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F23" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -33917,11 +34238,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H22" si="2">F3</f>
+        <f t="shared" ref="H3:H23" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I22" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I23" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7"/>
@@ -33946,9 +34267,16 @@
       <c r="X3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="Z3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>17000</v>
+      </c>
+      <c r="AB3" s="7">
+        <f>-AA3</f>
+        <v>-17000</v>
+      </c>
       <c r="AC3" s="6"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
@@ -33973,7 +34301,7 @@
         <v>2982.1073558648113</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E22" si="4">E3+D4</f>
+        <f t="shared" ref="E4:E23" si="4">E3+D4</f>
         <v>4921.971565370146</v>
       </c>
       <c r="F4" s="19">
@@ -33981,7 +34309,7 @@
         <v>4951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G22" si="5">G3+C4</f>
+        <f t="shared" ref="G4:G23" si="5">G3+C4</f>
         <v>5000</v>
       </c>
       <c r="H4" s="19">
@@ -34039,9 +34367,16 @@
         <f>W4</f>
         <v>1.2067307173334377E-3</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="Z4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>46000</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>-AA4</f>
+        <v>-46000</v>
+      </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -34058,7 +34393,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="18">
-        <f t="shared" ref="C5:C22" si="7">IF(N5&lt;20,3000,2000)</f>
+        <f t="shared" ref="C5:C23" si="7">IF(N5&lt;20,3000,2000)</f>
         <v>3000</v>
       </c>
       <c r="D5" s="19">
@@ -34086,28 +34421,58 @@
         <v>-245.37546785243921</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J22" si="8">MAX((B5-B4),0)</f>
+        <f t="shared" ref="J5:J23" si="8">MAX((B5-B4),0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K22" si="9">(K4*5+J5)/6</f>
+        <f t="shared" ref="K5:K23" si="9">(K4*5+J5)/6</f>
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" ref="L5:L22" si="10">ABS(B5-B4)</f>
+        <f t="shared" ref="L5:L23" si="10">ABS(B5-B4)</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" ref="M5:M22" si="11">(M4*5+L5)/6</f>
+        <f t="shared" ref="M5:M23" si="11">(M4*5+L5)/6</f>
         <v>2.7499999999999931E-2</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N22" si="12">K5*100/M5</f>
+        <f t="shared" ref="N5:N23" si="12">K5*100/M5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="7"/>
+      <c r="R5" s="21">
+        <v>44925</v>
+      </c>
+      <c r="S5" s="10">
+        <f>T5-T4</f>
+        <v>29000</v>
+      </c>
+      <c r="T5" s="4">
+        <f>VLOOKUP(R5,A:G,7,)</f>
+        <v>46000</v>
+      </c>
+      <c r="U5" s="4">
+        <f>VLOOKUP(R5,A:H,8,)</f>
+        <v>39554.945324245164</v>
+      </c>
+      <c r="V5" s="4">
+        <f>VLOOKUP(R5,A:I,9,)</f>
+        <v>-6445.0546757548364</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" ref="W5" si="13">(U5-T5)/T5</f>
+        <v>-0.14010988425553991</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-0.31401711789187303</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>44925</v>
+      </c>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
+      <c r="AB5" s="8">
+        <v>39554.945324245164</v>
+      </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="8"/>
@@ -34173,7 +34538,10 @@
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="8">
+        <f>IRR(AB3:AB5)</f>
+        <v>-0.31401711789187303</v>
+      </c>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
@@ -35097,6 +35465,63 @@
       <c r="N22" s="1">
         <f t="shared" si="12"/>
         <v>52.096849935138493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
+      <c r="A23" s="16">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" si="0"/>
+        <v>2621.2319397147853</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="4"/>
+        <v>59865.554969531775</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
+        <v>45677.419126859648</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="5"/>
+        <v>50000</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="2"/>
+        <v>45677.419126859648</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="3"/>
+        <v>-4322.5808731403522</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="9"/>
+        <v>1.7882987717879884E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="10"/>
+        <v>2.5999963283538818E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8659755280388813E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="12"/>
+        <v>46.257374337161167</v>
       </c>
     </row>
   </sheetData>
@@ -35110,9 +35535,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -35227,7 +35652,7 @@
         <v>2000</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D22" ca="1" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D23" ca="1" si="0">C3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="E3" s="19">
@@ -35235,7 +35660,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" ref="F3:F22" ca="1" si="1">E3*B3</f>
+        <f t="shared" ref="F3:F23" ca="1" si="1">E3*B3</f>
         <v>2000</v>
       </c>
       <c r="G3" s="19">
@@ -35243,11 +35668,11 @@
         <v>2000</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H22" ca="1" si="2">F3</f>
+        <f t="shared" ref="H3:H23" ca="1" si="2">F3</f>
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I22" ca="1" si="3">H3-G3</f>
+        <f t="shared" ref="I3:I23" ca="1" si="3">H3-G3</f>
         <v>0</v>
       </c>
       <c r="J3" s="7">
@@ -35303,9 +35728,16 @@
       <c r="X3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
+      <c r="Z3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="AB3" s="7">
+        <f>-AA3</f>
+        <v>-14000</v>
+      </c>
       <c r="AC3" s="6"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
@@ -35322,7 +35754,7 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="18">
-        <f t="shared" ref="C4:C22" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
+        <f t="shared" ref="C4:C23" ca="1" si="4">IF(Q4&lt;0,3000,2000)</f>
         <v>2000</v>
       </c>
       <c r="D4" s="19">
@@ -35330,7 +35762,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="E4" s="19">
-        <f t="shared" ref="E4:E22" ca="1" si="5">E3+D4</f>
+        <f t="shared" ref="E4:E23" ca="1" si="5">E3+D4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="F4" s="19">
@@ -35338,7 +35770,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G22" ca="1" si="6">G3+C4</f>
+        <f t="shared" ref="G4:G23" ca="1" si="6">G3+C4</f>
         <v>4000</v>
       </c>
       <c r="H4" s="19">
@@ -35366,7 +35798,7 @@
         <v>0.94</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N22" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
+        <f t="shared" ref="N4:N23" ca="1" si="7">(B4-M4)*100/(L4-M4)</f>
         <v>57.89473684210526</v>
       </c>
       <c r="O4" s="7">
@@ -35378,7 +35810,7 @@
         <v>83.200425305688029</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q22" ca="1" si="8">3*O4-2*P4</f>
+        <f t="shared" ref="Q4:Q23" ca="1" si="8">3*O4-2*P4</f>
         <v>64.221158958000927</v>
       </c>
       <c r="R4" s="21">
@@ -35408,9 +35840,16 @@
         <f ca="1">W4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="Z4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>39000</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>-AA4</f>
+        <v>-39000</v>
+      </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -35475,20 +35914,50 @@
         <v>22.807017543859651</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5:O22" ca="1" si="10">(N5+2*O4)/3</f>
+        <f t="shared" ref="O5:O23" ca="1" si="10">(N5+2*O4)/3</f>
         <v>58.851674641148101</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" ref="P5:P22" ca="1" si="11">(O5+2*P4)/3</f>
+        <f t="shared" ref="P5:P23" ca="1" si="11">(O5+2*P4)/3</f>
         <v>75.084175084174717</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>26.386673755094876</v>
       </c>
-      <c r="Z5" s="7"/>
+      <c r="R5" s="21">
+        <v>44925</v>
+      </c>
+      <c r="S5" s="10">
+        <f ca="1">T5-T4</f>
+        <v>25000</v>
+      </c>
+      <c r="T5" s="4">
+        <f ca="1">VLOOKUP(R5,A:G,7,)</f>
+        <v>39000</v>
+      </c>
+      <c r="U5" s="4">
+        <f ca="1">VLOOKUP(R5,A:H,8,)</f>
+        <v>33730.858494912194</v>
+      </c>
+      <c r="V5" s="4">
+        <f ca="1">VLOOKUP(R5,A:I,9,)</f>
+        <v>-5269.1415050878059</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" ref="W5" ca="1" si="12">(U5-T5)/T5</f>
+        <v>-0.13510619243814886</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-0.30733609147477092</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>44925</v>
+      </c>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
+      <c r="AB5" s="8">
+        <v>33730.858494912194</v>
+      </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="8"/>
@@ -35566,7 +36035,10 @@
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="8">
+        <f>IRR(AB3:AB5)</f>
+        <v>-0.30733609147477092</v>
+      </c>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
@@ -35969,11 +36441,11 @@
         <v>0.75</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" ref="L12:L22" ca="1" si="12">MAX(J4:J12)</f>
+        <f t="shared" ref="L12:L23" ca="1" si="13">MAX(J4:J12)</f>
         <v>1.054</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M22" ca="1" si="13">MIN(K4:K12)</f>
+        <f t="shared" ref="M12:M23" ca="1" si="14">MIN(K4:K12)</f>
         <v>0.75</v>
       </c>
       <c r="N12" s="7">
@@ -36039,11 +36511,11 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N13" s="7">
@@ -36108,11 +36580,11 @@
         <v>0.68199998140335083</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1.034000039100647</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N14" s="7">
@@ -36177,11 +36649,11 @@
         <v>0.74400001764297485</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1.034000039100647</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N15" s="7">
@@ -36246,11 +36718,11 @@
         <v>0.79900002479553223</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1.034000039100647</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N16" s="7">
@@ -36315,11 +36787,11 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1.034000039100647</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N17" s="7">
@@ -36384,11 +36856,11 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.99599999189376831</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N18" s="7">
@@ -36453,11 +36925,11 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.91100001335144043</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N19" s="7">
@@ -36522,11 +36994,11 @@
         <v>0.68400001525878906</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.88599997758865356</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N20" s="7">
@@ -36591,11 +37063,11 @@
         <v>0.7070000171661377</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.86000001430511475</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.65399998426437378</v>
       </c>
       <c r="N21" s="7">
@@ -36660,11 +37132,11 @@
         <v>0.7149999737739563</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.86000001430511475</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.67799997329711914</v>
       </c>
       <c r="N22" s="7">
@@ -36682,6 +37154,75 @@
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="8"/>
         <v>54.539760966268283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12.75">
+      <c r="A23" s="16">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="D23" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2621.2319397147853</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>51810.109727489151</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>39531.114314993873</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>43000</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" ca="1" si="2"/>
+        <v>39531.114314993873</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3468.8856850061275</v>
+      </c>
+      <c r="J23" s="7">
+        <f ca="1">MAX(VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$C,3),OFFSET([1]HwabaoWP_szse_innovation_100!$N$1,(MATCH(A23,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="K23" s="7">
+        <f ca="1">MIN(VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$D,4),OFFSET([1]HwabaoWP_szse_innovation_100!$O$1,(MATCH(A23,[1]HwabaoWP_szse_innovation_100!$A:$A)-2),))</f>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>46.703307140045339</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>41.120911346517381</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>33.856763576503099</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>55.649206886545954</v>
       </c>
     </row>
   </sheetData>
@@ -36695,9 +37236,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -36796,7 +37337,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="19">
-        <f t="shared" ref="E3:E22" si="0">D3/B3</f>
+        <f t="shared" ref="E3:E23" si="0">D3/B3</f>
         <v>1939.8642095053349</v>
       </c>
       <c r="F3" s="19">
@@ -36804,7 +37345,7 @@
         <v>1939.8642095053349</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:G22" si="1">F3*B3</f>
+        <f t="shared" ref="G3:G23" si="1">F3*B3</f>
         <v>2000</v>
       </c>
       <c r="H3" s="19">
@@ -36812,11 +37353,11 @@
         <v>2000</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I22" si="2">G3</f>
+        <f t="shared" ref="I3:I23" si="2">G3</f>
         <v>2000</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J22" si="3">I3-H3</f>
+        <f t="shared" ref="J3:J23" si="3">I3-H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="7"/>
@@ -36841,9 +37382,16 @@
       <c r="S3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="U3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="V3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="W3" s="7">
+        <f>-V3</f>
+        <v>-14000</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
@@ -36864,7 +37412,7 @@
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:D22" si="4">D3</f>
+        <f t="shared" ref="D4:D23" si="4">D3</f>
         <v>2000</v>
       </c>
       <c r="E4" s="19">
@@ -36872,7 +37420,7 @@
         <v>1988.0715705765408</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" ref="F4:F22" si="5">F3+E4</f>
+        <f t="shared" ref="F4:F23" si="5">F3+E4</f>
         <v>3927.9357800818757</v>
       </c>
       <c r="G4" s="19">
@@ -36880,7 +37428,7 @@
         <v>3951.503394762367</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H22" si="6">H3+D4</f>
+        <f t="shared" ref="H4:H23" si="6">H3+D4</f>
         <v>4000</v>
       </c>
       <c r="I4" s="19">
@@ -36919,9 +37467,16 @@
         <f>R4</f>
         <v>-1.7673003878423644E-3</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="U4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="V4" s="7">
+        <v>38000</v>
+      </c>
+      <c r="W4" s="7">
+        <f>-V4</f>
+        <v>-38000</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -36970,9 +37525,39 @@
         <v>-205.61403644090751</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="M5" s="21">
+        <v>44925</v>
+      </c>
+      <c r="N5" s="10">
+        <f>O5-O4</f>
+        <v>24000</v>
+      </c>
+      <c r="O5" s="4">
+        <f>VLOOKUP(M5,A:H,8,)</f>
+        <v>38000</v>
+      </c>
+      <c r="P5" s="4">
+        <f>VLOOKUP(M5,A:I,9,)</f>
+        <v>32817.979714730289</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>VLOOKUP(M5,A:J,10,)</f>
+        <v>-5182.0202852697112</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" ref="R5" si="8">(P5-O5)/O5</f>
+        <v>-0.13636895487551873</v>
+      </c>
+      <c r="S5" s="9">
+        <v>-0.31117654684131701</v>
+      </c>
+      <c r="U5" s="21">
+        <v>44925</v>
+      </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="8">
+        <v>32817.979714730289</v>
+      </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8"/>
@@ -37023,7 +37608,10 @@
       <c r="K6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="8">
+        <f>IRR(W3:W5)</f>
+        <v>-0.31117654684131701</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -37703,6 +38291,47 @@
       <c r="J22" s="19">
         <f t="shared" si="3"/>
         <v>-2186.1887632661601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75">
+      <c r="A23" s="16">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="17">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="17">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
+        <v>2621.2319397147853</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="5"/>
+        <v>50547.483458021219</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="1"/>
+        <v>38567.730456940233</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="6"/>
+        <v>42000</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="2"/>
+        <v>38567.730456940233</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="3"/>
+        <v>-3432.2695430597669</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="4" r:id="rId1"/>
@@ -2353,7 +2353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2416,6 +2416,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,7 +2428,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2488,6 +2491,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,7 +2536,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2593,6 +2599,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,7 +2611,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2665,6 +2674,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38567.730456940233</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40972.111144103626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,7 +2719,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2770,6 +2782,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,7 +2794,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2842,6 +2857,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-3432.2695430597669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3027.8888558963736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,11 +2881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264012928"/>
-        <c:axId val="264014464"/>
+        <c:axId val="473450368"/>
+        <c:axId val="473464832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="264012928"/>
+        <c:axId val="473450368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,14 +2928,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264014464"/>
+        <c:crossAx val="473464832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264014464"/>
+        <c:axId val="473464832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2986,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264012928"/>
+        <c:crossAx val="473450368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3137,7 +3155,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3200,6 +3218,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,7 +3230,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3271,6 +3292,9 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3314,7 +3338,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3401,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3413,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3449,6 +3476,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>11606.063327517782</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11727.752309680822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,7 +3521,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3554,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3563,7 +3596,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3626,6 +3659,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-393.93667248221755</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-272.24769031917822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3647,11 +3683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478349952"/>
-        <c:axId val="495137536"/>
+        <c:axId val="553386752"/>
+        <c:axId val="553389056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478349952"/>
+        <c:axId val="553386752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,14 +3730,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495137536"/>
+        <c:crossAx val="553389056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495137536"/>
+        <c:axId val="553389056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,7 +3788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478349952"/>
+        <c:crossAx val="553386752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3921,7 +3957,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3984,6 +4020,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,7 +4032,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4056,6 +4095,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4098,7 +4140,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4161,6 +4203,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4170,7 +4215,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4233,6 +4278,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>45677.419126859648</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48156.344537184021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,7 +4323,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4338,6 +4386,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4347,7 +4398,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4410,6 +4461,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-4322.5808731403522</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3843.6554628159793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,11 +4485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559880832"/>
-        <c:axId val="559936256"/>
+        <c:axId val="669569408"/>
+        <c:axId val="669570944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559880832"/>
+        <c:axId val="669569408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,14 +4532,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559936256"/>
+        <c:crossAx val="669570944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559936256"/>
+        <c:axId val="669570944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559880832"/>
+        <c:crossAx val="669569408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4705,7 +4759,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4768,6 +4822,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,7 +4834,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4840,6 +4897,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,7 +4942,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4945,6 +5005,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4954,7 +5017,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5017,6 +5080,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>39531.114314993873</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41945.596032783295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5059,7 +5125,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5122,6 +5188,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5131,7 +5200,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5194,6 +5263,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-3468.8856850061275</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3054.4039672167055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5215,11 +5287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80934400"/>
-        <c:axId val="80935936"/>
+        <c:axId val="669591040"/>
+        <c:axId val="669592576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80934400"/>
+        <c:axId val="669591040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5262,14 +5334,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80935936"/>
+        <c:crossAx val="669592576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80935936"/>
+        <c:axId val="669592576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5320,7 +5392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80934400"/>
+        <c:crossAx val="669591040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5489,7 +5561,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5552,6 +5624,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,7 +5636,7 @@
               <c:f>'model1&amp;2'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5624,6 +5699,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,7 +5744,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5729,6 +5807,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5738,7 +5819,7 @@
               <c:f>'model1&amp;2'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5801,6 +5882,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38567.730456940233</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40972.111144103626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5843,7 +5927,7 @@
               <c:f>'model1&amp;2'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5906,6 +5990,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5915,7 +6002,7 @@
               <c:f>'model1&amp;2'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5978,6 +6065,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-3432.2695430597669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3027.8888558963736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5999,11 +6089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80980608"/>
-        <c:axId val="80982400"/>
+        <c:axId val="669674112"/>
+        <c:axId val="669675904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80980608"/>
+        <c:axId val="669674112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6046,14 +6136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80982400"/>
+        <c:crossAx val="669675904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80982400"/>
+        <c:axId val="669675904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,7 +6194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80980608"/>
+        <c:crossAx val="669674112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6658,7 +6748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7501,6 +7591,35 @@
         <v>-3432.2695430597669</v>
       </c>
     </row>
+    <row r="24" spans="1:10" ht="12.75">
+      <c r="A24" s="16">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2594.0336293877635</v>
+      </c>
+      <c r="E24" s="19">
+        <v>53141.517087408982</v>
+      </c>
+      <c r="F24" s="19">
+        <v>40972.111144103626</v>
+      </c>
+      <c r="G24" s="19">
+        <v>44000</v>
+      </c>
+      <c r="H24" s="19">
+        <v>40972.111144103626</v>
+      </c>
+      <c r="I24" s="19">
+        <v>-3027.8888558963736</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,7 +7631,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8404,6 +8523,38 @@
         <v>-92.003912876830128</v>
       </c>
     </row>
+    <row r="24" spans="1:10" ht="12.75">
+      <c r="A24" s="16">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F24" s="19">
+        <v>11727.752309680822</v>
+      </c>
+      <c r="G24" s="19">
+        <v>12000</v>
+      </c>
+      <c r="H24" s="19">
+        <v>11727.752309680822</v>
+      </c>
+      <c r="I24" s="19">
+        <v>-272.24769031917822</v>
+      </c>
+      <c r="J24" s="7">
+        <v>121.19851098278713</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8415,9 +8566,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -9557,6 +9708,50 @@
         <v>46.257374337161167</v>
       </c>
     </row>
+    <row r="24" spans="1:14" ht="12.75">
+      <c r="A24" s="16">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2594.0336293877635</v>
+      </c>
+      <c r="E24" s="19">
+        <v>62459.588598919538</v>
+      </c>
+      <c r="F24" s="19">
+        <v>48156.344537184021</v>
+      </c>
+      <c r="G24" s="19">
+        <v>52000</v>
+      </c>
+      <c r="H24" s="19">
+        <v>48156.344537184021</v>
+      </c>
+      <c r="I24" s="19">
+        <v>-3843.6554628159793</v>
+      </c>
+      <c r="J24" s="7">
+        <v>8.0000162124633789E-3</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>8.0000162124633789E-3</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>48.393213658495924</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9568,7 +9763,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10922,6 +11117,59 @@
         <v>55.649206886545954</v>
       </c>
     </row>
+    <row r="24" spans="1:17" ht="12.75">
+      <c r="A24" s="16">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2594.0336293877635</v>
+      </c>
+      <c r="E24" s="19">
+        <v>54404.143356876913</v>
+      </c>
+      <c r="F24" s="19">
+        <v>41945.596032783295</v>
+      </c>
+      <c r="G24" s="19">
+        <v>45000</v>
+      </c>
+      <c r="H24" s="19">
+        <v>41945.596032783295</v>
+      </c>
+      <c r="I24" s="19">
+        <v>-3054.4039672167055</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.85799998044967651</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N24" s="7">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="O24" s="7">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="P24" s="7">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>59.008717736258845</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10933,9 +11181,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -11657,7 +11905,7 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="17">
-        <v>22.61</v>
+        <v>23.340000150000002</v>
       </c>
       <c r="D18" s="18">
         <v>2000</v>
@@ -11818,7 +12066,7 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="17">
-        <v>23.979999540000001</v>
+        <v>24.899999619999999</v>
       </c>
       <c r="D23" s="18">
         <v>2000</v>
@@ -11840,6 +12088,38 @@
       </c>
       <c r="J23" s="19">
         <v>-3432.2695430597669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75">
+      <c r="A24" s="16">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="17">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2594.0336293877635</v>
+      </c>
+      <c r="F24" s="19">
+        <v>53141.517087408982</v>
+      </c>
+      <c r="G24" s="19">
+        <v>40972.111144103626</v>
+      </c>
+      <c r="H24" s="19">
+        <v>44000</v>
+      </c>
+      <c r="I24" s="19">
+        <v>40972.111144103626</v>
+      </c>
+      <c r="J24" s="19">
+        <v>-3027.8888558963736</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -1968,7 +1968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2021,6 +2021,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="231">
     <cellStyle name="20% - 着色 1" xfId="3"/>
@@ -2353,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2419,6 +2420,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,7 +2438,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2494,6 +2504,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2536,7 +2555,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2602,6 +2621,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,7 +2639,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2677,6 +2705,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40972.111144103626</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41909.2786484682</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42179.337341177379</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46229.719758388521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,7 +2756,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2785,6 +2822,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,7 +2840,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2860,6 +2906,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3027.8888558963736</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4090.7213515317999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5820.6626588226209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3770.2802416114791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,11 +2936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582704512"/>
-        <c:axId val="606631040"/>
+        <c:axId val="450798720"/>
+        <c:axId val="450801024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582704512"/>
+        <c:axId val="450798720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,14 +2983,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606631040"/>
+        <c:crossAx val="450801024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606631040"/>
+        <c:axId val="450801024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +3041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582704512"/>
+        <c:crossAx val="450798720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3155,7 +3210,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3221,6 +3276,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,7 +3294,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3296,6 +3360,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3338,7 +3411,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3404,6 +3477,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,7 +3495,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3479,6 +3561,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>11727.752309680822</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11423.529854273223</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12951.986635031979</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13581.596470995371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3521,7 +3612,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3587,6 +3678,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,7 +3696,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3662,6 +3762,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-272.24769031917822</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-576.47014572677654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1048.0133649680211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-418.40352900462858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,11 +3792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617265792"/>
-        <c:axId val="617276160"/>
+        <c:axId val="507896192"/>
+        <c:axId val="507898112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617265792"/>
+        <c:axId val="507896192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,14 +3839,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617276160"/>
+        <c:crossAx val="507898112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617276160"/>
+        <c:axId val="507898112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,7 +3897,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617265792"/>
+        <c:crossAx val="507896192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3957,7 +4066,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4023,6 +4132,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,7 +4150,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4098,6 +4216,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,7 +4267,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4206,6 +4333,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,7 +4351,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4281,6 +4417,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48156.344537184021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48907.150233646149</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48888.349096057143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53264.863705146956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4323,7 +4468,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4389,6 +4534,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4398,7 +4552,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4464,6 +4618,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3843.6554628159793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5092.849766353851</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7111.6509039428565</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4735.1362948530441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4485,11 +4648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656214656"/>
-        <c:axId val="670229248"/>
+        <c:axId val="551928576"/>
+        <c:axId val="551930112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656214656"/>
+        <c:axId val="551928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4532,14 +4695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670229248"/>
+        <c:crossAx val="551930112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="670229248"/>
+        <c:axId val="551930112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656214656"/>
+        <c:crossAx val="551928576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4759,7 +4922,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4825,6 +4988,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4834,7 +5006,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4900,6 +5072,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4942,7 +5123,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5008,6 +5189,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5017,7 +5207,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5083,6 +5273,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>41945.596032783295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42857.510960582804</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43088.42829131832</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47183.002585816139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5125,7 +5324,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5191,6 +5390,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5200,7 +5408,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5266,6 +5474,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3054.4039672167055</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4142.4890394171962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5911.5717086816803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3816.9974141838611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,11 +5504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="693927296"/>
-        <c:axId val="694044160"/>
+        <c:axId val="585249152"/>
+        <c:axId val="585250688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="693927296"/>
+        <c:axId val="585249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5334,14 +5551,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="694044160"/>
+        <c:crossAx val="585250688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="694044160"/>
+        <c:axId val="585250688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,7 +5609,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693927296"/>
+        <c:crossAx val="585249152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5561,7 +5778,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5627,6 +5844,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,7 +5862,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5702,6 +5928,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,7 +5979,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5810,6 +6045,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5819,7 +6063,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5885,6 +6129,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40972.111144103626</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41909.2786484682</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42179.337341177379</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46229.719758388521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5927,7 +6180,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5993,6 +6246,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6002,7 +6264,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6068,6 +6330,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3027.8888558963736</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4090.7213515317999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5820.6626588226209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3770.2802416114791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6089,11 +6360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="719829632"/>
-        <c:axId val="719954688"/>
+        <c:axId val="534024576"/>
+        <c:axId val="534026112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="719829632"/>
+        <c:axId val="534024576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,14 +6407,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719954688"/>
+        <c:crossAx val="534026112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="719954688"/>
+        <c:axId val="534026112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,7 +6465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719829632"/>
+        <c:crossAx val="534024576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6748,7 +7019,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6950,11 +7221,11 @@
         <v>44925</v>
       </c>
       <c r="V4" s="7">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="W4" s="7">
         <f>-V4</f>
-        <v>-38000</v>
+        <v>-24000</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
@@ -7011,13 +7282,13 @@
         <v>-0.13636895487551873</v>
       </c>
       <c r="S5" s="9">
-        <v>-0.31117654684131701</v>
+        <v>-0.10248183981043768</v>
       </c>
       <c r="U5" s="21">
         <v>44925</v>
       </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="8">
+      <c r="W5" s="26">
         <v>32817.979714730289</v>
       </c>
       <c r="X5" s="7"/>
@@ -7059,7 +7330,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
-        <v>-0.31117654684131701</v>
+        <v>-0.10248183981043768</v>
       </c>
       <c r="AC6" s="2"/>
     </row>
@@ -7606,6 +7877,93 @@
       </c>
       <c r="I24" s="19">
         <v>-3027.8888558963736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="E25" s="19">
+        <v>55804.632978602807</v>
+      </c>
+      <c r="F25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="G25" s="19">
+        <v>46000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-4090.7213515317999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>58582.410646001619</v>
+      </c>
+      <c r="F26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="G26" s="19">
+        <v>48000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-5820.6626588226209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="E27" s="19">
+        <v>61231.417285248572</v>
+      </c>
+      <c r="F27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="G27" s="19">
+        <v>50000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-3770.2802416114791</v>
       </c>
     </row>
   </sheetData>
@@ -7619,7 +7977,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7827,11 +8185,11 @@
         <v>44925</v>
       </c>
       <c r="V4" s="7">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="W4" s="7">
         <f>-V4</f>
-        <v>-12000</v>
+        <v>-10000</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
@@ -7890,13 +8248,13 @@
         <v>-8.3531723053806822E-2</v>
       </c>
       <c r="S5" s="9">
-        <v>-0.19226974935498364</v>
+        <v>-7.2346332886421894E-2</v>
       </c>
       <c r="U5" s="21">
         <v>44925</v>
       </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="8">
+      <c r="W5" s="26">
         <v>10997.619323354318</v>
       </c>
       <c r="X5" s="7"/>
@@ -7940,7 +8298,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
-        <v>-0.19226974935498364</v>
+        <v>-7.2346332886421894E-2</v>
       </c>
       <c r="AC6" s="2"/>
     </row>
@@ -8529,6 +8887,102 @@
       </c>
       <c r="J24" s="7">
         <v>121.19851098278713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F25" s="19">
+        <v>11423.529854273223</v>
+      </c>
+      <c r="G25" s="19">
+        <v>12000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>11423.529854273223</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-576.47014572677654</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-64.205140990854673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F26" s="19">
+        <v>12951.986635031979</v>
+      </c>
+      <c r="G26" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>12951.986635031979</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-1048.0133649680211</v>
+      </c>
+      <c r="J26" s="7">
+        <v>-122.69771180703479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F27" s="19">
+        <v>13581.596470995371</v>
+      </c>
+      <c r="G27" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>13581.596470995371</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-418.40352900462858</v>
+      </c>
+      <c r="J27" s="7">
+        <v>24.912007435828137</v>
       </c>
     </row>
   </sheetData>
@@ -8542,7 +8996,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8772,11 +9226,11 @@
         <v>44925</v>
       </c>
       <c r="AA4" s="7">
-        <v>46000</v>
+        <v>29000</v>
       </c>
       <c r="AB4" s="7">
         <f>-AA4</f>
-        <v>-46000</v>
+        <v>-29000</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
@@ -8847,13 +9301,13 @@
         <v>-0.14010988425553991</v>
       </c>
       <c r="X5" s="9">
-        <v>-0.31401711789187303</v>
+        <v>-0.10529414683888616</v>
       </c>
       <c r="Z5" s="21">
         <v>44925</v>
       </c>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="8">
+      <c r="AB5" s="26">
         <v>39554.945324245164</v>
       </c>
       <c r="AC5" s="7"/>
@@ -8909,7 +9363,7 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <v>-0.31401711789187303</v>
+        <v>-0.10529414683888616</v>
       </c>
       <c r="AH6" s="2"/>
     </row>
@@ -9714,6 +10168,138 @@
       </c>
       <c r="N24" s="1">
         <v>48.393213658495924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="E25" s="19">
+        <v>65122.704490113363</v>
+      </c>
+      <c r="F25" s="19">
+        <v>48907.150233646149</v>
+      </c>
+      <c r="G25" s="19">
+        <v>54000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>48907.150233646149</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-5092.849766353851</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1.3529854833592056E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>2.0000040531158447E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.129150572941633E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>43.238107333623745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>67900.482157512175</v>
+      </c>
+      <c r="F26" s="19">
+        <v>48888.349096057143</v>
+      </c>
+      <c r="G26" s="19">
+        <v>56000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>48888.349096057143</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-7111.6509039428565</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>3.0999958515167236E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>36.087795260697291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="E27" s="19">
+        <v>70549.48879675912</v>
+      </c>
+      <c r="F27" s="19">
+        <v>53264.863705146956</v>
+      </c>
+      <c r="G27" s="19">
+        <v>58000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>53264.863705146956</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-4735.1362948530441</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3.4999966621398926E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>3.4999966621398926E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>47.786304387002254</v>
       </c>
     </row>
   </sheetData>
@@ -9727,7 +10313,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9998,11 +10584,11 @@
         <v>44925</v>
       </c>
       <c r="AA4" s="7">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="AB4" s="7">
         <f>-AA4</f>
-        <v>-39000</v>
+        <v>-25000</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
@@ -10082,13 +10668,13 @@
         <v>-0.13510619243814886</v>
       </c>
       <c r="X5" s="9">
-        <v>-0.30733609147477092</v>
+        <v>-0.1021754534154119</v>
       </c>
       <c r="Z5" s="21">
         <v>44925</v>
       </c>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="8">
+      <c r="AB5" s="26">
         <v>33730.858494912194</v>
       </c>
       <c r="AC5" s="7"/>
@@ -10153,7 +10739,7 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <v>-0.30733609147477092</v>
+        <v>-0.1021754534154119</v>
       </c>
       <c r="AH6" s="2"/>
     </row>
@@ -11120,6 +11706,165 @@
       </c>
       <c r="Q24" s="1">
         <v>59.008717736258845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="E25" s="19">
+        <v>57067.259248070739</v>
+      </c>
+      <c r="F25" s="19">
+        <v>42857.510960582804</v>
+      </c>
+      <c r="G25" s="19">
+        <v>47000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>42857.510960582804</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-4142.4890394171962</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N25" s="7">
+        <v>48.993281878673784</v>
+      </c>
+      <c r="O25" s="7">
+        <v>46.088542294299735</v>
+      </c>
+      <c r="P25" s="7">
+        <v>40.329447354792997</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>57.606732173313205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>59845.036915469551</v>
+      </c>
+      <c r="F26" s="19">
+        <v>43088.42829131832</v>
+      </c>
+      <c r="G26" s="19">
+        <v>49000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>43088.42829131832</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-5911.5717086816803</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N26" s="7">
+        <v>31.818216710700341</v>
+      </c>
+      <c r="O26" s="7">
+        <v>41.331767099766601</v>
+      </c>
+      <c r="P26" s="7">
+        <v>40.66355393645086</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>42.668193426398076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="E27" s="19">
+        <v>62494.043554716503</v>
+      </c>
+      <c r="F27" s="19">
+        <v>47183.002585816139</v>
+      </c>
+      <c r="G27" s="19">
+        <v>51000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>47183.002585816139</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-3816.9974141838611</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N27" s="7">
+        <v>58.333337096251995</v>
+      </c>
+      <c r="O27" s="7">
+        <v>46.998957098595064</v>
+      </c>
+      <c r="P27" s="7">
+        <v>42.775354990498926</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>55.446161314787332</v>
       </c>
     </row>
   </sheetData>
@@ -11133,7 +11878,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11344,11 +12089,11 @@
         <v>44925</v>
       </c>
       <c r="V4" s="7">
-        <v>38000</v>
+        <v>24000</v>
       </c>
       <c r="W4" s="7">
         <f>-V4</f>
-        <v>-38000</v>
+        <v>-24000</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
@@ -11408,13 +12153,13 @@
         <v>-0.13636895487551873</v>
       </c>
       <c r="S5" s="9">
-        <v>-0.31117654684131701</v>
+        <v>-0.10248183981043768</v>
       </c>
       <c r="U5" s="21">
         <v>44925</v>
       </c>
       <c r="V5" s="7"/>
-      <c r="W5" s="8">
+      <c r="W5" s="26">
         <v>32817.979714730289</v>
       </c>
       <c r="X5" s="7"/>
@@ -11459,7 +12204,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
-        <v>-0.31117654684131701</v>
+        <v>-0.10248183981043768</v>
       </c>
       <c r="AC6" s="2"/>
     </row>
@@ -12060,6 +12805,102 @@
       </c>
       <c r="J24" s="19">
         <v>-3027.8888558963736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="17">
+        <v>23.469999309999999</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="F25" s="19">
+        <v>55804.632978602807</v>
+      </c>
+      <c r="G25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="H25" s="19">
+        <v>46000</v>
+      </c>
+      <c r="I25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="J25" s="19">
+        <v>-4090.7213515317999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="17">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="F26" s="19">
+        <v>58582.410646001619</v>
+      </c>
+      <c r="G26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="H26" s="19">
+        <v>48000</v>
+      </c>
+      <c r="I26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="J26" s="19">
+        <v>-5820.6626588226209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="17">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="F27" s="19">
+        <v>61231.417285248572</v>
+      </c>
+      <c r="G27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="H27" s="19">
+        <v>50000</v>
+      </c>
+      <c r="I27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="J27" s="19">
+        <v>-3770.2802416114791</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2429,6 +2429,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,7 +2441,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2513,6 +2516,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2561,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2630,6 +2636,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2639,7 +2648,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2714,6 +2723,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>46229.719758388521</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48597.107181795654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,7 +2768,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2831,6 +2843,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2855,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2915,6 +2930,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-3770.2802416114791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3402.8928182043455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,11 +2954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450798720"/>
-        <c:axId val="450801024"/>
+        <c:axId val="383752832"/>
+        <c:axId val="405950848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450798720"/>
+        <c:axId val="383752832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,14 +3001,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450801024"/>
+        <c:crossAx val="405950848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450801024"/>
+        <c:axId val="405950848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3059,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450798720"/>
+        <c:crossAx val="383752832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,7 +3228,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3285,6 +3303,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3294,7 +3315,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3368,6 +3389,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3411,7 +3435,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3486,6 +3510,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,7 +3522,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3570,6 +3597,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>13581.596470995371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13689.529371287916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,7 +3642,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3687,6 +3717,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,7 +3729,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3771,6 +3804,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-418.40352900462858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-310.47062871208436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,11 +3828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507896192"/>
-        <c:axId val="507898112"/>
+        <c:axId val="513705472"/>
+        <c:axId val="513707008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507896192"/>
+        <c:axId val="513705472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3839,14 +3875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507898112"/>
+        <c:crossAx val="513707008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507898112"/>
+        <c:axId val="513707008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +3933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507896192"/>
+        <c:crossAx val="513705472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4066,7 +4102,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4141,6 +4177,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4150,7 +4189,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4225,6 +4264,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4267,7 +4309,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4342,6 +4384,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4351,7 +4396,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4426,6 +4471,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53264.863705146956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55688.159393224654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,7 +4516,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4543,6 +4591,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,7 +4603,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4627,6 +4678,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-4735.1362948530441</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4311.8406067753458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4648,11 +4702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551928576"/>
-        <c:axId val="551930112"/>
+        <c:axId val="395419008"/>
+        <c:axId val="395420800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551928576"/>
+        <c:axId val="395419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,14 +4749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551930112"/>
+        <c:crossAx val="395420800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551930112"/>
+        <c:axId val="395420800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4753,7 +4807,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551928576"/>
+        <c:crossAx val="395419008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4922,7 +4976,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4997,6 +5051,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,7 +5063,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5081,6 +5138,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,7 +5183,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5198,6 +5258,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5207,7 +5270,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5282,6 +5345,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>47183.002585816139</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49557.965744563597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5324,7 +5390,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5399,6 +5465,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5408,7 +5477,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5483,6 +5552,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-3816.9974141838611</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3442.0342554364033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5504,11 +5576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585249152"/>
-        <c:axId val="585250688"/>
+        <c:axId val="395444992"/>
+        <c:axId val="395446528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585249152"/>
+        <c:axId val="395444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5551,14 +5623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585250688"/>
+        <c:crossAx val="395446528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585250688"/>
+        <c:axId val="395446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,7 +5681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585249152"/>
+        <c:crossAx val="395444992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5778,7 +5850,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5853,6 +5925,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5862,7 +5937,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5937,6 +6012,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5979,7 +6057,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6054,6 +6132,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6063,7 +6144,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6138,6 +6219,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>46229.719758388521</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48597.107181795654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6180,7 +6264,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6255,6 +6339,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,7 +6351,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6339,6 +6426,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-3770.2802416114791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3402.8928182043455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6360,11 +6450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534024576"/>
-        <c:axId val="534026112"/>
+        <c:axId val="395499776"/>
+        <c:axId val="395501568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534024576"/>
+        <c:axId val="395499776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,14 +6497,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534026112"/>
+        <c:crossAx val="395501568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534026112"/>
+        <c:axId val="395501568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6465,7 +6555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534024576"/>
+        <c:crossAx val="395499776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7019,7 +7109,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7966,6 +8056,35 @@
         <v>-3770.2802416114791</v>
       </c>
     </row>
+    <row r="28" spans="1:10" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="E28" s="19">
+        <v>63859.538256207481</v>
+      </c>
+      <c r="F28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="G28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-3402.8928182043455</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7977,7 +8096,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8985,6 +9104,38 @@
         <v>24.912007435828137</v>
       </c>
     </row>
+    <row r="28" spans="1:10" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F28" s="19">
+        <v>13689.529371287916</v>
+      </c>
+      <c r="G28" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>13689.529371287916</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-310.47062871208436</v>
+      </c>
+      <c r="J28" s="7">
+        <v>132.15337272513426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8996,7 +9147,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10302,6 +10453,50 @@
         <v>47.786304387002254</v>
       </c>
     </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="E28" s="19">
+        <v>73177.609767718022</v>
+      </c>
+      <c r="F28" s="19">
+        <v>55688.159393224654</v>
+      </c>
+      <c r="G28" s="19">
+        <v>60000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>55688.159393224654</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-4311.8406067753458</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5.9999823570251465E-3</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>5.9999823570251465E-3</v>
+      </c>
+      <c r="M28" s="7">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>49.681012025314104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10313,7 +10508,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11867,6 +12062,59 @@
         <v>55.446161314787332</v>
       </c>
     </row>
+    <row r="28" spans="1:17" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="E28" s="19">
+        <v>65122.164525675413</v>
+      </c>
+      <c r="F28" s="19">
+        <v>49557.965744563597</v>
+      </c>
+      <c r="G28" s="19">
+        <v>53000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>49557.965744563597</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-3442.0342554364033</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="N28" s="7">
+        <v>61.111087458471879</v>
+      </c>
+      <c r="O28" s="7">
+        <v>51.703000551887335</v>
+      </c>
+      <c r="P28" s="7">
+        <v>45.751236844295057</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>63.606527967071898</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11878,7 +12126,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12815,7 +13063,7 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="17">
-        <v>23.469999309999999</v>
+        <v>23.579999919999999</v>
       </c>
       <c r="D25" s="18">
         <v>2000</v>
@@ -12847,7 +13095,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="17">
-        <v>23.579999919999999</v>
+        <v>21.329999919999999</v>
       </c>
       <c r="D26" s="18">
         <v>2000</v>
@@ -12901,6 +13149,38 @@
       </c>
       <c r="J27" s="19">
         <v>-3770.2802416114791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="17">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="F28" s="19">
+        <v>63859.538256207481</v>
+      </c>
+      <c r="G28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="H28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="I28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="J28" s="19">
+        <v>-3402.8928182043455</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2432,6 +2432,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,7 +2444,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2519,6 +2522,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2567,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2639,6 +2645,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,7 +2657,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2726,6 +2735,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>48597.107181795654</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47595.709462315317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,7 +2780,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2846,6 +2858,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,7 +2870,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2933,6 +2948,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-3402.8928182043455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6404.2905376846829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,11 +2972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383752832"/>
-        <c:axId val="405950848"/>
+        <c:axId val="101079296"/>
+        <c:axId val="466637184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383752832"/>
+        <c:axId val="101079296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,14 +3019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405950848"/>
+        <c:crossAx val="466637184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405950848"/>
+        <c:axId val="466637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383752832"/>
+        <c:crossAx val="101079296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3228,7 +3246,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3306,6 +3324,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,7 +3336,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3392,6 +3413,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3435,7 +3459,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3513,6 +3537,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3522,7 +3549,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3600,6 +3627,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13689.529371287916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12844.052662519251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,7 +3672,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3720,6 +3750,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,7 +3762,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3807,6 +3840,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-310.47062871208436</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1155.9473374807494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,11 +3864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513705472"/>
-        <c:axId val="513707008"/>
+        <c:axId val="501950720"/>
+        <c:axId val="508563456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513705472"/>
+        <c:axId val="501950720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,14 +3911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513707008"/>
+        <c:crossAx val="508563456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513707008"/>
+        <c:axId val="508563456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,7 +3969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513705472"/>
+        <c:crossAx val="501950720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4102,7 +4138,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4180,6 +4216,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,7 +4228,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4267,6 +4306,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,7 +4351,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4387,6 +4429,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,7 +4441,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4474,6 +4519,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>55688.159393224654</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54248.812397124166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,7 +4564,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4594,6 +4642,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4603,7 +4654,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4681,6 +4732,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-4311.8406067753458</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7751.1876028758343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4702,11 +4756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395419008"/>
-        <c:axId val="395420800"/>
+        <c:axId val="615519360"/>
+        <c:axId val="615520896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395419008"/>
+        <c:axId val="615519360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4749,14 +4803,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395420800"/>
+        <c:crossAx val="615520896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395420800"/>
+        <c:axId val="615520896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4807,7 +4861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395419008"/>
+        <c:crossAx val="615519360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4976,7 +5030,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5054,6 +5108,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5063,7 +5120,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5141,6 +5198,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,7 +5243,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5261,6 +5321,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5270,7 +5333,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5348,6 +5411,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>49557.965744563597</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48497.224601857546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5390,7 +5456,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5468,6 +5534,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5477,7 +5546,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5555,6 +5624,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-3442.0342554364033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6502.7753981424539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,11 +5648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395444992"/>
-        <c:axId val="395446528"/>
+        <c:axId val="615569664"/>
+        <c:axId val="615575552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395444992"/>
+        <c:axId val="615569664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5623,14 +5695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395446528"/>
+        <c:crossAx val="615575552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395446528"/>
+        <c:axId val="615575552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,7 +5753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395444992"/>
+        <c:crossAx val="615569664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5850,7 +5922,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5928,6 +6000,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5937,7 +6012,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6015,6 +6090,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,7 +6135,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6135,6 +6213,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6144,7 +6225,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6222,6 +6303,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>48597.107181795654</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47595.709462315317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,7 +6348,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6342,6 +6426,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,7 +6438,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6429,6 +6516,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-3402.8928182043455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6404.2905376846829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6450,11 +6540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395499776"/>
-        <c:axId val="395501568"/>
+        <c:axId val="615591936"/>
+        <c:axId val="615593472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395499776"/>
+        <c:axId val="615591936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,14 +6587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395501568"/>
+        <c:crossAx val="615593472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395501568"/>
+        <c:axId val="615593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6555,7 +6645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395499776"/>
+        <c:crossAx val="615591936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7109,7 +7199,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8085,6 +8175,35 @@
         <v>-3402.8928182043455</v>
       </c>
     </row>
+    <row r="29" spans="1:10" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="E29" s="19">
+        <v>66660.658756766294</v>
+      </c>
+      <c r="F29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="G29" s="19">
+        <v>54000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-6404.2905376846829</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8096,7 +8215,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9136,6 +9255,38 @@
         <v>132.15337272513426</v>
       </c>
     </row>
+    <row r="29" spans="1:10" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F29" s="19">
+        <v>12844.052662519251</v>
+      </c>
+      <c r="G29" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>12844.052662519251</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-1155.9473374807494</v>
+      </c>
+      <c r="J29" s="7">
+        <v>19.588439525500419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9147,7 +9298,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10497,6 +10648,50 @@
         <v>49.681012025314104</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="E29" s="19">
+        <v>75978.730268276835</v>
+      </c>
+      <c r="F29" s="19">
+        <v>54248.812397124166</v>
+      </c>
+      <c r="G29" s="19">
+        <v>62000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>54248.812397124166</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-7751.1876028758343</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>4.6999990940093994E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>37.04486140194178</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10508,7 +10703,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12115,6 +12310,59 @@
         <v>63.606527967071898</v>
       </c>
     </row>
+    <row r="29" spans="1:17" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="E29" s="19">
+        <v>67923.285026234225</v>
+      </c>
+      <c r="F29" s="19">
+        <v>48497.224601857546</v>
+      </c>
+      <c r="G29" s="19">
+        <v>55000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>48497.224601857546</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-6502.7753981424539</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="N29" s="7">
+        <v>21.951223057979316</v>
+      </c>
+      <c r="O29" s="7">
+        <v>41.785741387251328</v>
+      </c>
+      <c r="P29" s="7">
+        <v>44.429405025280481</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>36.498414111193014</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12126,7 +12374,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13183,6 +13431,38 @@
         <v>-3402.8928182043455</v>
       </c>
     </row>
+    <row r="29" spans="1:11" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="17">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="F29" s="19">
+        <v>66660.658756766294</v>
+      </c>
+      <c r="G29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="H29" s="19">
+        <v>54000</v>
+      </c>
+      <c r="I29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="J29" s="19">
+        <v>-6404.2905376846829</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2435,6 +2435,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,7 +2447,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2525,6 +2528,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,7 +2573,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2648,6 +2654,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,7 +2666,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2738,6 +2747,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47595.709462315317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47662.551407316307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,7 +2792,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2861,6 +2873,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2870,7 +2885,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2951,6 +2966,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-6404.2905376846829</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8337.4485926836933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,11 +2990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101079296"/>
-        <c:axId val="466637184"/>
+        <c:axId val="429766912"/>
+        <c:axId val="446277504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101079296"/>
+        <c:axId val="429766912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,14 +3037,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466637184"/>
+        <c:crossAx val="446277504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466637184"/>
+        <c:axId val="446277504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +3095,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101079296"/>
+        <c:crossAx val="429766912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3246,7 +3264,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3327,6 +3345,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,7 +3357,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3416,6 +3437,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3459,7 +3483,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3540,6 +3564,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,7 +3576,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3630,6 +3657,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>12844.052662519251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12322.375726848402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,7 +3702,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3753,6 +3783,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3762,7 +3795,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3843,6 +3876,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1155.9473374807494</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1677.6242731515977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3864,11 +3900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501950720"/>
-        <c:axId val="508563456"/>
+        <c:axId val="453795200"/>
+        <c:axId val="482571776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501950720"/>
+        <c:axId val="453795200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,14 +3947,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508563456"/>
+        <c:crossAx val="482571776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508563456"/>
+        <c:axId val="482571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,7 +4005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501950720"/>
+        <c:crossAx val="453795200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4138,7 +4174,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4219,6 +4255,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,7 +4267,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4309,6 +4348,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4351,7 +4393,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4432,6 +4474,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4441,7 +4486,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4522,6 +4567,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54248.812397124166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54045.430414917042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,7 +4612,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4645,6 +4693,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,7 +4705,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4735,6 +4786,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-7751.1876028758343</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9954.5695850829579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,11 +4810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615519360"/>
-        <c:axId val="615520896"/>
+        <c:axId val="79479552"/>
+        <c:axId val="79481088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615519360"/>
+        <c:axId val="79479552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,14 +4857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615520896"/>
+        <c:crossAx val="79481088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615520896"/>
+        <c:axId val="79481088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4861,7 +4915,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615519360"/>
+        <c:crossAx val="79479552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5030,7 +5084,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5111,6 +5165,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5120,7 +5177,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5201,6 +5258,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5243,7 +5303,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5324,6 +5384,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5333,7 +5396,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5414,6 +5477,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>48497.224601857546</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48527.450404912175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5456,7 +5522,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5537,6 +5603,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5546,7 +5615,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5627,6 +5696,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-6502.7753981424539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8472.5495950878249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5648,11 +5720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615569664"/>
-        <c:axId val="615575552"/>
+        <c:axId val="79525760"/>
+        <c:axId val="79527296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615569664"/>
+        <c:axId val="79525760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5695,14 +5767,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615575552"/>
+        <c:crossAx val="79527296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615575552"/>
+        <c:axId val="79527296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5753,7 +5825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615569664"/>
+        <c:crossAx val="79525760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5922,7 +5994,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6003,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6012,7 +6087,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6093,6 +6168,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6135,7 +6213,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6216,6 +6294,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6225,7 +6306,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6306,6 +6387,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47595.709462315317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47662.551407316307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6348,7 +6432,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6429,6 +6513,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6438,7 +6525,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6519,6 +6606,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-6404.2905376846829</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8337.4485926836933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6540,11 +6630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615591936"/>
-        <c:axId val="615593472"/>
+        <c:axId val="79543680"/>
+        <c:axId val="79545472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615591936"/>
+        <c:axId val="79543680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6587,14 +6677,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615593472"/>
+        <c:crossAx val="79545472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615593472"/>
+        <c:axId val="79545472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6645,7 +6735,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615591936"/>
+        <c:crossAx val="79543680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7199,7 +7289,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8204,6 +8294,35 @@
         <v>-6404.2905376846829</v>
       </c>
     </row>
+    <row r="30" spans="1:10" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="E30" s="19">
+        <v>69580.366775801143</v>
+      </c>
+      <c r="F30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="G30" s="19">
+        <v>56000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-8337.4485926836933</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8215,7 +8334,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9287,6 +9406,38 @@
         <v>19.588439525500419</v>
       </c>
     </row>
+    <row r="30" spans="1:10" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F30" s="19">
+        <v>12322.375726848402</v>
+      </c>
+      <c r="G30" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>12322.375726848402</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-1677.6242731515977</v>
+      </c>
+      <c r="J30" s="7">
+        <v>-38.600823638801678</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9298,7 +9449,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10692,6 +10843,50 @@
         <v>37.04486140194178</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="E30" s="19">
+        <v>78898.438287311685</v>
+      </c>
+      <c r="F30" s="19">
+        <v>54045.430414917042</v>
+      </c>
+      <c r="G30" s="19">
+        <v>64000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>54045.430414917042</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-9954.5695850829579</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2.8999984264373779E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>31.174042119814576</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10703,7 +10898,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12363,6 +12558,59 @@
         <v>36.498414111193014</v>
       </c>
     </row>
+    <row r="30" spans="1:17" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="E30" s="19">
+        <v>70842.993045269075</v>
+      </c>
+      <c r="F30" s="19">
+        <v>48527.450404912175</v>
+      </c>
+      <c r="G30" s="19">
+        <v>57000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>48527.450404912175</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-8472.5495950878249</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7.4074008664308382</v>
+      </c>
+      <c r="O30" s="7">
+        <v>30.326294546977831</v>
+      </c>
+      <c r="P30" s="7">
+        <v>39.728368199179599</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>11.522147242574292</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12374,7 +12622,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13463,6 +13711,38 @@
         <v>-6404.2905376846829</v>
       </c>
     </row>
+    <row r="30" spans="1:11" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="17">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="F30" s="19">
+        <v>69580.366775801143</v>
+      </c>
+      <c r="G30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="H30" s="19">
+        <v>56000</v>
+      </c>
+      <c r="I30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="J30" s="19">
+        <v>-8337.4485926836933</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2438,6 +2438,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,7 +2450,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2531,6 +2534,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,7 +2579,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2657,6 +2663,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2666,7 +2675,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2750,6 +2759,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>47662.551407316307</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48131.782309715047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,7 +2804,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2876,6 +2888,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,7 +2900,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2969,6 +2984,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-8337.4485926836933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9868.2176902849533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,11 +3008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429766912"/>
-        <c:axId val="446277504"/>
+        <c:axId val="41244928"/>
+        <c:axId val="99410688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429766912"/>
+        <c:axId val="41244928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,14 +3055,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446277504"/>
+        <c:crossAx val="99410688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446277504"/>
+        <c:axId val="99410688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +3113,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429766912"/>
+        <c:crossAx val="41244928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3264,7 +3282,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3348,6 +3366,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,7 +3378,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3440,6 +3461,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3483,7 +3507,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3567,6 +3591,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3576,7 +3603,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3660,6 +3687,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>12322.375726848402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11926.620329482161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3702,7 +3732,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3786,6 +3816,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,7 +3828,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3879,6 +3912,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1677.6242731515977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2073.3796705178393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3900,11 +3936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453795200"/>
-        <c:axId val="482571776"/>
+        <c:axId val="472339584"/>
+        <c:axId val="472351104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453795200"/>
+        <c:axId val="472339584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,14 +3983,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482571776"/>
+        <c:crossAx val="472351104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482571776"/>
+        <c:axId val="472351104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,7 +4041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453795200"/>
+        <c:crossAx val="472339584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4174,7 +4210,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4258,6 +4294,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4267,7 +4306,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4351,6 +4390,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4393,7 +4435,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4477,6 +4519,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4486,7 +4531,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4570,6 +4615,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>54045.430414917042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54309.663606323265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4612,7 +4660,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4696,6 +4744,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4705,7 +4756,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4789,6 +4840,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-9954.5695850829579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11690.336393676735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4810,11 +4864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79479552"/>
-        <c:axId val="79481088"/>
+        <c:axId val="504878976"/>
+        <c:axId val="504880512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79479552"/>
+        <c:axId val="504878976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4857,14 +4911,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79481088"/>
+        <c:crossAx val="504880512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79481088"/>
+        <c:axId val="504880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4915,7 +4969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79479552"/>
+        <c:crossAx val="504878976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5084,7 +5138,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5168,6 +5222,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,7 +5234,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5261,6 +5318,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5303,7 +5363,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5387,6 +5447,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5396,7 +5459,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5480,6 +5543,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48527.450404912175</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48968.903510718541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,7 +5588,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5606,6 +5672,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,7 +5684,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5699,6 +5768,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-8472.5495950878249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10031.096489281459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,11 +5792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79525760"/>
-        <c:axId val="79527296"/>
+        <c:axId val="606987392"/>
+        <c:axId val="606988928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79525760"/>
+        <c:axId val="606987392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5767,14 +5839,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79527296"/>
+        <c:crossAx val="606988928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79527296"/>
+        <c:axId val="606988928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5825,7 +5897,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79525760"/>
+        <c:crossAx val="606987392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5994,7 +6066,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6078,6 +6150,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6087,7 +6162,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6171,6 +6246,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6213,7 +6291,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6297,6 +6375,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6306,7 +6387,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6390,6 +6471,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>47662.551407316307</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48131.782309715047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,7 +6516,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6516,6 +6600,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,7 +6612,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6609,6 +6696,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-8337.4485926836933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9868.2176902849533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6630,11 +6720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79543680"/>
-        <c:axId val="79545472"/>
+        <c:axId val="607054464"/>
+        <c:axId val="607056256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79543680"/>
+        <c:axId val="607054464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,14 +6767,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79545472"/>
+        <c:crossAx val="607056256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79545472"/>
+        <c:axId val="607056256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6735,7 +6825,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79543680"/>
+        <c:crossAx val="607054464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7289,7 +7379,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8323,6 +8413,35 @@
         <v>-8337.4485926836933</v>
       </c>
     </row>
+    <row r="31" spans="1:10" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="E31" s="19">
+        <v>72596.958084095255</v>
+      </c>
+      <c r="F31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="G31" s="19">
+        <v>58000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-9868.2176902849533</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8334,7 +8453,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9438,6 +9557,38 @@
         <v>-38.600823638801678</v>
       </c>
     </row>
+    <row r="31" spans="1:10" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F31" s="19">
+        <v>11926.620329482161</v>
+      </c>
+      <c r="G31" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>11926.620329482161</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-2073.3796705178393</v>
+      </c>
+      <c r="J31" s="7">
+        <v>11.750560187063723</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9449,7 +9600,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10887,6 +11038,50 @@
         <v>31.174042119814576</v>
       </c>
     </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="E31" s="19">
+        <v>81915.029595605796</v>
+      </c>
+      <c r="F31" s="19">
+        <v>54309.663606323265</v>
+      </c>
+      <c r="G31" s="19">
+        <v>66000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>54309.663606323265</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-11690.336393676735</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>7.9229633318701771E-3</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2.2000014781951904E-2</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2.9081927444980161E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>27.24359775279531</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10898,7 +11093,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12611,6 +12806,59 @@
         <v>11.522147242574292</v>
       </c>
     </row>
+    <row r="31" spans="1:17" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="E31" s="19">
+        <v>73859.584353563187</v>
+      </c>
+      <c r="F31" s="19">
+        <v>48968.903510718541</v>
+      </c>
+      <c r="G31" s="19">
+        <v>59000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>48968.903510718541</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-10031.096489281459</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="N31" s="7">
+        <v>16.766465783542337</v>
+      </c>
+      <c r="O31" s="7">
+        <v>25.806351625832665</v>
+      </c>
+      <c r="P31" s="7">
+        <v>35.087696008063951</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>7.2436628613700975</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12622,7 +12870,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13743,6 +13991,38 @@
         <v>-8337.4485926836933</v>
       </c>
     </row>
+    <row r="31" spans="1:11" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="17">
+        <v>19.25</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="F31" s="19">
+        <v>72596.958084095255</v>
+      </c>
+      <c r="G31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="H31" s="19">
+        <v>58000</v>
+      </c>
+      <c r="I31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="J31" s="19">
+        <v>-9868.2176902849533</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2441,6 +2441,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,7 +2456,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2537,6 +2543,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,7 +2591,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2666,6 +2678,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,7 +2693,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2762,6 +2780,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48131.782309715047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49260.62137435851</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50806.60327157443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,7 +2828,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2891,6 +2915,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2900,7 +2930,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2987,6 +3017,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-9868.2176902849533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10739.37862564149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11193.39672842557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,11 +3044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41244928"/>
-        <c:axId val="99410688"/>
+        <c:axId val="516173824"/>
+        <c:axId val="516175360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41244928"/>
+        <c:axId val="516173824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,14 +3091,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99410688"/>
+        <c:crossAx val="516175360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99410688"/>
+        <c:axId val="516175360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,7 +3149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41244928"/>
+        <c:crossAx val="516173824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3282,7 +3318,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3369,6 +3405,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,7 +3420,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3465,6 +3507,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,7 +3555,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3594,6 +3642,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,7 +3657,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3690,6 +3744,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>11926.620329482161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13710.75452889707</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13584.387248394427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,7 +3792,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3819,6 +3879,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,7 +3894,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3915,6 +3981,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-2073.3796705178393</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2289.2454711029295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2415.6127516055731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3936,11 +4008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472339584"/>
-        <c:axId val="472351104"/>
+        <c:axId val="441721600"/>
+        <c:axId val="441723136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472339584"/>
+        <c:axId val="441721600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,14 +4055,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472351104"/>
+        <c:crossAx val="441723136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472351104"/>
+        <c:axId val="441723136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4041,7 +4113,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472339584"/>
+        <c:crossAx val="441721600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4210,7 +4282,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4297,6 +4369,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4306,7 +4384,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4393,6 +4471,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4435,7 +4519,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4522,6 +4606,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,7 +4621,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4618,6 +4708,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>54309.663606323265</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55326.686141625607</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56816.759218770618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4660,7 +4756,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4747,6 +4843,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,7 +4858,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4843,6 +4945,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-11690.336393676735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12673.313858374393</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13183.240781229382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4864,11 +4972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504878976"/>
-        <c:axId val="504880512"/>
+        <c:axId val="441739136"/>
+        <c:axId val="441740672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504878976"/>
+        <c:axId val="441739136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,14 +5019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504880512"/>
+        <c:crossAx val="441740672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504880512"/>
+        <c:axId val="441740672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,7 +5077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504878976"/>
+        <c:crossAx val="441739136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5138,7 +5246,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5225,6 +5333,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,7 +5348,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5321,6 +5435,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,7 +5483,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5450,6 +5570,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5459,7 +5585,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5546,6 +5672,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48968.903510718541</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50082.591104681356</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51620.997191298564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5588,7 +5720,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5675,6 +5807,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5684,7 +5822,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5771,6 +5909,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-10031.096489281459</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10917.408895318644</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11379.002808701436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5792,11 +5936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606987392"/>
-        <c:axId val="606988928"/>
+        <c:axId val="441797632"/>
+        <c:axId val="441799424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="606987392"/>
+        <c:axId val="441797632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,14 +5983,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606988928"/>
+        <c:crossAx val="441799424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606988928"/>
+        <c:axId val="441799424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5897,7 +6041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606987392"/>
+        <c:crossAx val="441797632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6066,7 +6210,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6153,6 +6297,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6162,7 +6312,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6249,6 +6399,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6291,7 +6447,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6378,6 +6534,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,7 +6549,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6474,6 +6636,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48131.782309715047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49260.62137435851</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50806.60327157443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6516,7 +6684,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6603,6 +6771,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6612,7 +6786,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6699,6 +6873,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-9868.2176902849533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10739.37862564149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11193.39672842557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6720,11 +6900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607054464"/>
-        <c:axId val="607056256"/>
+        <c:axId val="441823616"/>
+        <c:axId val="441825152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607054464"/>
+        <c:axId val="441823616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,14 +6947,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607056256"/>
+        <c:crossAx val="441825152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607056256"/>
+        <c:axId val="441825152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,7 +7005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607054464"/>
+        <c:crossAx val="441823616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7379,7 +7559,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8442,6 +8622,64 @@
         <v>-9868.2176902849533</v>
       </c>
     </row>
+    <row r="32" spans="1:10" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>75669.154596665147</v>
+      </c>
+      <c r="F32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="G32" s="19">
+        <v>60000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-10739.37862564149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="E33" s="19">
+        <v>78769.929882157536</v>
+      </c>
+      <c r="F33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="G33" s="19">
+        <v>62000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-11193.39672842557</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8453,7 +8691,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9589,6 +9827,70 @@
         <v>11.750560187063723</v>
       </c>
     </row>
+    <row r="32" spans="1:10" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>21061.066124189743</v>
+      </c>
+      <c r="F32" s="19">
+        <v>13710.75452889707</v>
+      </c>
+      <c r="G32" s="19">
+        <v>16000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>13710.75452889707</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-2289.2454711029295</v>
+      </c>
+      <c r="J32" s="7">
+        <v>-113.41457128255375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <v>21061.066124189743</v>
+      </c>
+      <c r="F33" s="19">
+        <v>13584.387248394427</v>
+      </c>
+      <c r="G33" s="19">
+        <v>16000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>13584.387248394427</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-2415.6127516055731</v>
+      </c>
+      <c r="J33" s="7">
+        <v>134.00503901876459</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9600,7 +9902,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11082,6 +11384,94 @@
         <v>27.24359775279531</v>
       </c>
     </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>84987.226108175688</v>
+      </c>
+      <c r="F32" s="19">
+        <v>55326.686141625607</v>
+      </c>
+      <c r="G32" s="19">
+        <v>68000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>55326.686141625607</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-12673.313858374393</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1.1999964714050293E-2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>25.166709127893537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="E33" s="19">
+        <v>88088.001393668077</v>
+      </c>
+      <c r="F33" s="19">
+        <v>56816.759218770618</v>
+      </c>
+      <c r="G33" s="19">
+        <v>70000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>56816.759218770618</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-13183.240781229382</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="L33" s="7">
+        <v>6.0000419616699219E-3</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>24.065913576470347</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11093,7 +11483,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12859,6 +13249,112 @@
         <v>7.2436628613700975</v>
       </c>
     </row>
+    <row r="32" spans="1:17" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>76931.780866133078</v>
+      </c>
+      <c r="F32" s="19">
+        <v>50082.591104681356</v>
+      </c>
+      <c r="G32" s="19">
+        <v>61000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>50082.591104681356</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-10917.408895318644</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="N32" s="7">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="O32" s="7">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="P32" s="7">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1.4932587589404349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="E33" s="19">
+        <v>80032.556151625467</v>
+      </c>
+      <c r="F33" s="19">
+        <v>51620.997191298564</v>
+      </c>
+      <c r="G33" s="19">
+        <v>63000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>51620.997191298564</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-11379.002808701436</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="N33" s="7">
+        <v>18.749994445931186</v>
+      </c>
+      <c r="O33" s="7">
+        <v>20.04338484474631</v>
+      </c>
+      <c r="P33" s="7">
+        <v>26.873455406089164</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>6.3832437220605982</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12870,7 +13366,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13999,7 +14495,7 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="17">
-        <v>19.25</v>
+        <v>18.770000459999999</v>
       </c>
       <c r="D31" s="18">
         <v>2000</v>
@@ -14021,6 +14517,70 @@
       </c>
       <c r="J31" s="19">
         <v>-9868.2176902849533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="17">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="F32" s="19">
+        <v>75669.154596665147</v>
+      </c>
+      <c r="G32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="H32" s="19">
+        <v>60000</v>
+      </c>
+      <c r="I32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="J32" s="19">
+        <v>-10739.37862564149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="17">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="F33" s="19">
+        <v>78769.929882157536</v>
+      </c>
+      <c r="G33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="H33" s="19">
+        <v>62000</v>
+      </c>
+      <c r="I33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="J33" s="19">
+        <v>-11193.39672842557</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2447,6 +2447,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,7 +2459,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2549,6 +2552,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2597,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2684,6 +2690,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,7 +2702,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2786,6 +2795,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>50806.60327157443</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46189.929837560929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,7 +2840,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2921,6 +2933,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2945,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3023,6 +3038,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-11193.39672842557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-17810.070162439071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,11 +3062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516173824"/>
-        <c:axId val="516175360"/>
+        <c:axId val="442320000"/>
+        <c:axId val="442321920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516173824"/>
+        <c:axId val="442320000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,14 +3109,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516175360"/>
+        <c:crossAx val="442321920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516175360"/>
+        <c:axId val="442321920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516173824"/>
+        <c:crossAx val="442320000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3318,7 +3336,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3411,6 +3429,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,7 +3441,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3513,6 +3534,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3555,7 +3579,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3648,6 +3672,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,7 +3684,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3750,6 +3777,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>13584.387248394427</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13815.257874731071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +3822,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3885,6 +3915,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3894,7 +3927,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3987,6 +4020,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-2415.6127516055731</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4184.7421252689292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4008,11 +4044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441721600"/>
-        <c:axId val="441723136"/>
+        <c:axId val="457934336"/>
+        <c:axId val="458294016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441721600"/>
+        <c:axId val="457934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,14 +4091,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441723136"/>
+        <c:crossAx val="458294016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441723136"/>
+        <c:axId val="458294016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441721600"/>
+        <c:crossAx val="457934336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4282,7 +4318,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4375,6 +4411,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4384,7 +4423,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4477,6 +4516,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4519,7 +4561,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4612,6 +4654,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4621,7 +4666,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4714,6 +4759,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56816.759218770618</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52417.36785776788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,7 +4804,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4849,6 +4897,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,7 +4909,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4951,6 +5002,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-13183.240781229382</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-20582.63214223212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4972,11 +5026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441739136"/>
-        <c:axId val="441740672"/>
+        <c:axId val="391849088"/>
+        <c:axId val="391850624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441739136"/>
+        <c:axId val="391849088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,14 +5073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441740672"/>
+        <c:crossAx val="391850624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441740672"/>
+        <c:axId val="391850624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,7 +5131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441739136"/>
+        <c:crossAx val="391849088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5246,7 +5300,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5339,6 +5393,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5348,7 +5405,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5441,6 +5498,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5483,7 +5543,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5576,6 +5636,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5585,7 +5648,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5678,6 +5741,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>51620.997191298564</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47898.263161486961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,7 +5786,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5813,6 +5879,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,7 +5891,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5915,6 +5984,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-11379.002808701436</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-18101.736838513039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,11 +6008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441797632"/>
-        <c:axId val="441799424"/>
+        <c:axId val="391903488"/>
+        <c:axId val="391643136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441797632"/>
+        <c:axId val="391903488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,14 +6055,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441799424"/>
+        <c:crossAx val="391643136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441799424"/>
+        <c:axId val="391643136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6041,7 +6113,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441797632"/>
+        <c:crossAx val="391903488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6210,7 +6282,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6303,6 +6375,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6312,7 +6387,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6405,6 +6480,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,7 +6525,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6540,6 +6618,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6549,7 +6630,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6642,6 +6723,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>50806.60327157443</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46189.929837560929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6684,7 +6768,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6777,6 +6861,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6786,7 +6873,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6879,6 +6966,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-11193.39672842557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-17810.070162439071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6900,11 +6990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441823616"/>
-        <c:axId val="441825152"/>
+        <c:axId val="391667072"/>
+        <c:axId val="391668864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441823616"/>
+        <c:axId val="391667072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6947,14 +7037,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441825152"/>
+        <c:crossAx val="391668864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441825152"/>
+        <c:axId val="391668864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,7 +7095,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441823616"/>
+        <c:crossAx val="391667072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7559,7 +7649,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8680,6 +8770,35 @@
         <v>-11193.39672842557</v>
       </c>
     </row>
+    <row r="34" spans="1:9" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>3565.0624552566728</v>
+      </c>
+      <c r="E34" s="19">
+        <v>82334.992337414209</v>
+      </c>
+      <c r="F34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="G34" s="19">
+        <v>64000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-17810.070162439071</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8691,7 +8810,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9891,6 +10010,38 @@
         <v>134.00503901876459</v>
       </c>
     </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>3565.0624552566728</v>
+      </c>
+      <c r="E34" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F34" s="19">
+        <v>13815.257874731071</v>
+      </c>
+      <c r="G34" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>13815.257874731071</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-4184.7421252689292</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-202.99979347003418</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9902,7 +10053,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11472,6 +11623,50 @@
         <v>24.065913576470347</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5347.593682885009</v>
+      </c>
+      <c r="E34" s="19">
+        <v>93435.595076553087</v>
+      </c>
+      <c r="F34" s="19">
+        <v>52417.36785776788</v>
+      </c>
+      <c r="G34" s="19">
+        <v>73000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>52417.36785776788</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-20582.63214223212</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="L34" s="7">
+        <v>8.3999991416931152E-2</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>13.872208778425705</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11483,7 +11678,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13355,6 +13550,59 @@
         <v>6.3832437220605982</v>
       </c>
     </row>
+    <row r="34" spans="1:17" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5347.593682885009</v>
+      </c>
+      <c r="E34" s="19">
+        <v>85380.149834510477</v>
+      </c>
+      <c r="F34" s="19">
+        <v>47898.263161486961</v>
+      </c>
+      <c r="G34" s="19">
+        <v>66000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>47898.263161486961</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-18101.736838513039</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0.93022069523420603</v>
+      </c>
+      <c r="O34" s="7">
+        <v>13.672330128242274</v>
+      </c>
+      <c r="P34" s="7">
+        <v>22.473080313473535</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>-3.9291702422202448</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13366,7 +13614,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14583,6 +14831,38 @@
         <v>-11193.39672842557</v>
       </c>
     </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="17">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="19">
+        <v>3565.0624552566728</v>
+      </c>
+      <c r="F34" s="19">
+        <v>82334.992337414209</v>
+      </c>
+      <c r="G34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="H34" s="19">
+        <v>64000</v>
+      </c>
+      <c r="I34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="J34" s="19">
+        <v>-17810.070162439071</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2450,6 +2450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,7 +2462,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2555,6 +2558,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,7 +2603,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2693,6 +2699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,7 +2711,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2798,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46189.929837560929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54529.726053519473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2852,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2936,6 +2948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,7 +2960,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3041,6 +3056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-17810.070162439071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11470.273946480527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3062,11 +3080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442320000"/>
-        <c:axId val="442321920"/>
+        <c:axId val="92250112"/>
+        <c:axId val="92252032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442320000"/>
+        <c:axId val="92250112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,14 +3127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442321920"/>
+        <c:crossAx val="92252032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442321920"/>
+        <c:axId val="92252032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442320000"/>
+        <c:crossAx val="92250112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,7 +3354,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3432,6 +3450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3441,7 +3462,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3536,6 +3557,9 @@
                   <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3579,7 +3603,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3675,6 +3699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,7 +3711,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3780,6 +3807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>13815.257874731071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15711.470315510489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3822,7 +3852,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3918,6 +3948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3927,7 +3960,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4023,6 +4056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-4184.7421252689292</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2288.5296844895111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4044,11 +4080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457934336"/>
-        <c:axId val="458294016"/>
+        <c:axId val="417691520"/>
+        <c:axId val="417693056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457934336"/>
+        <c:axId val="417691520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,14 +4127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458294016"/>
+        <c:crossAx val="417693056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458294016"/>
+        <c:axId val="417693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,7 +4185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457934336"/>
+        <c:crossAx val="417691520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4318,7 +4354,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4414,6 +4450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4423,7 +4462,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4519,6 +4558,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,7 +4603,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4657,6 +4699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,7 +4711,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4762,6 +4807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>52417.36785776788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61611.910728126393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4804,7 +4852,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4900,6 +4948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,7 +4960,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5005,6 +5056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-20582.63214223212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-13388.089271873607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5026,11 +5080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391849088"/>
-        <c:axId val="391850624"/>
+        <c:axId val="443561856"/>
+        <c:axId val="443563392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391849088"/>
+        <c:axId val="443561856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,14 +5127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391850624"/>
+        <c:crossAx val="443563392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391850624"/>
+        <c:axId val="443563392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,7 +5185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391849088"/>
+        <c:crossAx val="443561856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5300,7 +5354,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5396,6 +5450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5405,7 +5462,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5501,6 +5558,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5543,7 +5603,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5639,6 +5699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5648,7 +5711,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5744,6 +5807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47898.263161486961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56472.536571515957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5786,7 +5852,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5882,6 +5948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5891,7 +5960,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5987,6 +6056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-18101.736838513039</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11527.463428484043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6008,11 +6080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391903488"/>
-        <c:axId val="391643136"/>
+        <c:axId val="518850432"/>
+        <c:axId val="518851968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391903488"/>
+        <c:axId val="518850432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,14 +6127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391643136"/>
+        <c:crossAx val="518851968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391643136"/>
+        <c:axId val="518851968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6113,7 +6185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391903488"/>
+        <c:crossAx val="518850432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6282,7 +6354,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6378,6 +6450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,7 +6462,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6483,6 +6558,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,7 +6603,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6621,6 +6699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6630,7 +6711,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6726,6 +6807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46189.929837560929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54529.726053519473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6768,7 +6852,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6864,6 +6948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6873,7 +6960,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6969,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-17810.070162439071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11470.273946480527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6990,11 +7080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391667072"/>
-        <c:axId val="391668864"/>
+        <c:axId val="535139840"/>
+        <c:axId val="535141376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391667072"/>
+        <c:axId val="535139840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7037,14 +7127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391668864"/>
+        <c:crossAx val="535141376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391668864"/>
+        <c:axId val="535141376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7095,7 +7185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391667072"/>
+        <c:crossAx val="535139840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7649,7 +7739,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8799,6 +8889,35 @@
         <v>-17810.070162439071</v>
       </c>
     </row>
+    <row r="35" spans="1:9" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="E35" s="19">
+        <v>85469.788519428475</v>
+      </c>
+      <c r="F35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="G35" s="19">
+        <v>66000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-11470.273946480527</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8810,7 +8929,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10042,6 +10161,38 @@
         <v>-202.99979347003418</v>
       </c>
     </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F35" s="19">
+        <v>15711.470315510489</v>
+      </c>
+      <c r="G35" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>15711.470315510489</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-2288.5296844895111</v>
+      </c>
+      <c r="J35" s="7">
+        <v>102.81793481326457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10053,7 +10204,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11667,6 +11818,50 @@
         <v>13.872208778425705</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="E35" s="19">
+        <v>96570.391258567353</v>
+      </c>
+      <c r="F35" s="19">
+        <v>61611.910728126393</v>
+      </c>
+      <c r="G35" s="19">
+        <v>75000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>61611.910728126393</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-13388.089271873607</v>
+      </c>
+      <c r="J35" s="7">
+        <v>7.7000021934509277E-2</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="L35" s="7">
+        <v>7.7000021934509277E-2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>41.247076733252584</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11678,7 +11873,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13603,6 +13798,59 @@
         <v>-3.9291702422202448</v>
       </c>
     </row>
+    <row r="35" spans="1:17" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="E35" s="19">
+        <v>88514.946016524744</v>
+      </c>
+      <c r="F35" s="19">
+        <v>56472.536571515957</v>
+      </c>
+      <c r="G35" s="19">
+        <v>68000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>56472.536571515957</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-11527.463428484043</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N35" s="7">
+        <v>42.857146434852993</v>
+      </c>
+      <c r="O35" s="7">
+        <v>23.400602230445845</v>
+      </c>
+      <c r="P35" s="7">
+        <v>22.782254285797638</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>24.637298119742262</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13614,7 +13862,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14863,6 +15111,38 @@
         <v>-17810.070162439071</v>
       </c>
     </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="17">
+        <v>16.959999079999999</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="F35" s="19">
+        <v>85469.788519428475</v>
+      </c>
+      <c r="G35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="H35" s="19">
+        <v>66000</v>
+      </c>
+      <c r="I35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="J35" s="19">
+        <v>-11470.273946480527</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2453,6 +2453,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2465,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2561,6 +2564,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,7 +2609,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2702,6 +2708,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,7 +2720,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2810,6 +2819,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>54529.726053519473</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57213.485747350715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2864,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2951,6 +2963,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +2975,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3059,6 +3074,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-11470.273946480527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10786.514252649285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,11 +3098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92250112"/>
-        <c:axId val="92252032"/>
+        <c:axId val="567378688"/>
+        <c:axId val="567380608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92250112"/>
+        <c:axId val="567378688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,14 +3145,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92252032"/>
+        <c:crossAx val="567380608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92252032"/>
+        <c:axId val="567380608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,7 +3203,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92250112"/>
+        <c:crossAx val="567378688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3354,7 +3372,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3453,6 +3471,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3462,7 +3483,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3560,6 +3581,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3603,7 +3627,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3702,6 +3726,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3711,7 +3738,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3810,6 +3837,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>15711.470315510489</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15908.479743396269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,7 +3882,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3951,6 +3981,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,7 +3993,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4059,6 +4092,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-2288.5296844895111</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2091.5202566037315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,11 +4116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="417691520"/>
-        <c:axId val="417693056"/>
+        <c:axId val="617582592"/>
+        <c:axId val="617584512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="417691520"/>
+        <c:axId val="617582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4127,14 +4163,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417693056"/>
+        <c:crossAx val="617584512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="417693056"/>
+        <c:axId val="617584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,7 +4221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417691520"/>
+        <c:crossAx val="617582592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4354,7 +4390,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4453,6 +4489,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,7 +4501,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4561,6 +4600,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4603,7 +4645,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4702,6 +4744,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4711,7 +4756,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4810,6 +4855,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>61611.910728126393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64384.475423838863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,7 +4900,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4951,6 +4999,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4960,7 +5011,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5059,6 +5110,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-13388.089271873607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-12615.524576161137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5080,11 +5134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443561856"/>
-        <c:axId val="443563392"/>
+        <c:axId val="617616512"/>
+        <c:axId val="617623936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443561856"/>
+        <c:axId val="617616512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5127,14 +5181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443563392"/>
+        <c:crossAx val="617623936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443563392"/>
+        <c:axId val="617623936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,7 +5239,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443561856"/>
+        <c:crossAx val="617616512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5354,7 +5408,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5453,6 +5507,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5462,7 +5519,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5561,6 +5618,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5603,7 +5663,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5702,6 +5762,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5711,7 +5774,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5810,6 +5873,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>56472.536571515957</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59180.657574693469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5852,7 +5918,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5951,6 +6017,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5960,7 +6029,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6059,6 +6128,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-11527.463428484043</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10819.342425306531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6080,11 +6152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518850432"/>
-        <c:axId val="518851968"/>
+        <c:axId val="617690240"/>
+        <c:axId val="617692544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518850432"/>
+        <c:axId val="617690240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6127,14 +6199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518851968"/>
+        <c:crossAx val="617692544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518851968"/>
+        <c:axId val="617692544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518850432"/>
+        <c:crossAx val="617690240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6354,7 +6426,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6453,6 +6525,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6462,7 +6537,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6561,6 +6636,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6603,7 +6681,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6702,6 +6780,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6711,7 +6792,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6810,6 +6891,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>54529.726053519473</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57213.485747350715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6852,7 +6936,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6951,6 +7035,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,7 +7047,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7059,6 +7146,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-11470.273946480527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10786.514252649285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7080,11 +7170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535139840"/>
-        <c:axId val="535141376"/>
+        <c:axId val="617931136"/>
+        <c:axId val="617933056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535139840"/>
+        <c:axId val="617931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,14 +7217,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535141376"/>
+        <c:crossAx val="617933056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535141376"/>
+        <c:axId val="617933056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7185,7 +7275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535139840"/>
+        <c:crossAx val="617931136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7739,7 +7829,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8918,6 +9008,35 @@
         <v>-11470.273946480527</v>
       </c>
     </row>
+    <row r="36" spans="1:9" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="E36" s="19">
+        <v>88565.763619081714</v>
+      </c>
+      <c r="F36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="G36" s="19">
+        <v>68000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-10786.514252649285</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8929,7 +9048,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10193,6 +10312,38 @@
         <v>102.81793481326457</v>
       </c>
     </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F36" s="19">
+        <v>15908.479743396269</v>
+      </c>
+      <c r="G36" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>15908.479743396269</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-2091.5202566037315</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-98.887766665906639</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10204,7 +10355,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11862,6 +12013,50 @@
         <v>41.247076733252584</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="E36" s="19">
+        <v>99666.366358220592</v>
+      </c>
+      <c r="F36" s="19">
+        <v>64384.475423838863</v>
+      </c>
+      <c r="G36" s="19">
+        <v>77000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>64384.475423838863</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-12615.524576161137</v>
+      </c>
+      <c r="J36" s="7">
+        <v>8.0000162124633789E-3</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>8.0000162124633789E-3</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>43.48652979146042</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11873,7 +12068,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13851,6 +14046,59 @@
         <v>24.637298119742262</v>
       </c>
     </row>
+    <row r="36" spans="1:17" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="E36" s="19">
+        <v>91610.921116177982</v>
+      </c>
+      <c r="F36" s="19">
+        <v>59180.657574693469</v>
+      </c>
+      <c r="G36" s="19">
+        <v>70000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>59180.657574693469</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-10819.342425306531</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N36" s="7">
+        <v>46.808513876214093</v>
+      </c>
+      <c r="O36" s="7">
+        <v>31.203239445701929</v>
+      </c>
+      <c r="P36" s="7">
+        <v>25.589249339099069</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>42.431219658907651</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13862,7 +14110,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15143,6 +15391,38 @@
         <v>-11470.273946480527</v>
       </c>
     </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="17">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="F36" s="19">
+        <v>88565.763619081714</v>
+      </c>
+      <c r="G36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="H36" s="19">
+        <v>68000</v>
+      </c>
+      <c r="I36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="J36" s="19">
+        <v>-10786.514252649285</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2456,6 +2456,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,7 +2468,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2567,6 +2570,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,7 +2615,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2711,6 +2717,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,7 +2729,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2822,6 +2831,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>57213.485747350715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60807.664804803564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2876,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2966,6 +2978,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,7 +2990,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3077,6 +3092,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-10786.514252649285</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9192.335195196436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,11 +3116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567378688"/>
-        <c:axId val="567380608"/>
+        <c:axId val="407893504"/>
+        <c:axId val="407895424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567378688"/>
+        <c:axId val="407893504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,14 +3163,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567380608"/>
+        <c:crossAx val="407895424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567380608"/>
+        <c:axId val="407895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,7 +3221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567378688"/>
+        <c:crossAx val="407893504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3372,7 +3390,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3474,6 +3492,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,7 +3504,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3584,6 +3605,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3627,7 +3651,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3729,6 +3753,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,7 +3765,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3840,6 +3867,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>15908.479743396269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16351.748754391803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,7 +3912,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3984,6 +4014,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,7 +4026,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4095,6 +4128,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-2091.5202566037315</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1648.2512456081968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4116,11 +4152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617582592"/>
-        <c:axId val="617584512"/>
+        <c:axId val="458365952"/>
+        <c:axId val="475280512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617582592"/>
+        <c:axId val="458365952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,14 +4199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617584512"/>
+        <c:crossAx val="475280512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617584512"/>
+        <c:axId val="475280512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617582592"/>
+        <c:crossAx val="458365952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4390,7 +4426,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4492,6 +4528,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4501,7 +4540,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4603,6 +4642,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,7 +4687,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4747,6 +4789,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,7 +4801,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4858,6 +4903,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>64384.475423838863</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68178.46474305325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,7 +4948,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5002,6 +5050,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5011,7 +5062,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5113,6 +5164,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-12615.524576161137</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-10821.53525694675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,11 +5188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617616512"/>
-        <c:axId val="617623936"/>
+        <c:axId val="537684992"/>
+        <c:axId val="537789184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617616512"/>
+        <c:axId val="537684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5181,14 +5235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617623936"/>
+        <c:crossAx val="537789184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617623936"/>
+        <c:axId val="537789184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5239,7 +5293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617616512"/>
+        <c:crossAx val="537684992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5408,7 +5462,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5510,6 +5564,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5519,7 +5576,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5621,6 +5678,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,7 +5723,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5765,6 +5825,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5774,7 +5837,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5876,6 +5939,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>59180.657574693469</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62829.649305917141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5918,7 +5984,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6020,6 +6086,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6029,7 +6098,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6131,6 +6200,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-10819.342425306531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9170.3506940828593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6152,11 +6224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617690240"/>
-        <c:axId val="617692544"/>
+        <c:axId val="594200448"/>
+        <c:axId val="602493312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617690240"/>
+        <c:axId val="594200448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6199,14 +6271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617692544"/>
+        <c:crossAx val="602493312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617692544"/>
+        <c:axId val="602493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6257,7 +6329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617690240"/>
+        <c:crossAx val="594200448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6426,7 +6498,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6528,6 +6600,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6537,7 +6612,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6639,6 +6714,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,7 +6759,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6783,6 +6861,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6792,7 +6873,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6894,6 +6975,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>57213.485747350715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60807.664804803564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6936,7 +7020,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7038,6 +7122,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7047,7 +7134,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7149,6 +7236,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-10786.514252649285</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9192.335195196436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7170,11 +7260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617931136"/>
-        <c:axId val="617933056"/>
+        <c:axId val="602521600"/>
+        <c:axId val="602523136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617931136"/>
+        <c:axId val="602521600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7217,14 +7307,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617933056"/>
+        <c:crossAx val="602523136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617933056"/>
+        <c:axId val="602523136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7275,7 +7365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617931136"/>
+        <c:crossAx val="602521600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7829,7 +7919,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9037,6 +9127,35 @@
         <v>-10786.514252649285</v>
       </c>
     </row>
+    <row r="37" spans="1:9" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="E37" s="19">
+        <v>91577.811926493756</v>
+      </c>
+      <c r="F37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="G37" s="19">
+        <v>70000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-9192.335195196436</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9048,7 +9167,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10344,6 +10463,38 @@
         <v>-98.887766665906639</v>
       </c>
     </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F37" s="19">
+        <v>16351.748754391803</v>
+      </c>
+      <c r="G37" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>16351.748754391803</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-1648.2512456081968</v>
+      </c>
+      <c r="J37" s="7">
+        <v>191.90436156354073</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10355,7 +10506,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12057,6 +12208,50 @@
         <v>43.48652979146042</v>
       </c>
     </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="E37" s="19">
+        <v>102678.41466563263</v>
+      </c>
+      <c r="F37" s="19">
+        <v>68178.46474305325</v>
+      </c>
+      <c r="G37" s="19">
+        <v>79000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>68178.46474305325</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-10821.53525694675</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1.7999947071075439E-2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1.5676528506264293E-2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1.7999947071075439E-2</v>
+      </c>
+      <c r="M37" s="7">
+        <v>3.2150483040112095E-2</v>
+      </c>
+      <c r="N37" s="1">
+        <v>48.759853737518327</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12068,7 +12263,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14099,6 +14294,59 @@
         <v>42.431219658907651</v>
       </c>
     </row>
+    <row r="37" spans="1:17" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="E37" s="19">
+        <v>94622.969423590024</v>
+      </c>
+      <c r="F37" s="19">
+        <v>62829.649305917141</v>
+      </c>
+      <c r="G37" s="19">
+        <v>72000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>62829.649305917141</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-9170.3506940828593</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N37" s="7">
+        <v>54.700845774743321</v>
+      </c>
+      <c r="O37" s="7">
+        <v>39.035774888715729</v>
+      </c>
+      <c r="P37" s="7">
+        <v>30.071424522304625</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>56.964475621537929</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14110,7 +14358,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15423,6 +15671,38 @@
         <v>-10786.514252649285</v>
       </c>
     </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="17">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="F37" s="19">
+        <v>91577.811926493756</v>
+      </c>
+      <c r="G37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="H37" s="19">
+        <v>70000</v>
+      </c>
+      <c r="I37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="J37" s="19">
+        <v>-9192.335195196436</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -3116,11 +3116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407893504"/>
-        <c:axId val="407895424"/>
+        <c:axId val="506714368"/>
+        <c:axId val="513742336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407893504"/>
+        <c:axId val="506714368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,14 +3163,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407895424"/>
+        <c:crossAx val="513742336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407895424"/>
+        <c:axId val="513742336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407893504"/>
+        <c:crossAx val="506714368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4152,11 +4152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458365952"/>
-        <c:axId val="475280512"/>
+        <c:axId val="570154368"/>
+        <c:axId val="608937856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458365952"/>
+        <c:axId val="570154368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,14 +4199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475280512"/>
+        <c:crossAx val="608937856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475280512"/>
+        <c:axId val="608937856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,7 +4257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458365952"/>
+        <c:crossAx val="570154368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5188,11 +5188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537684992"/>
-        <c:axId val="537789184"/>
+        <c:axId val="617187584"/>
+        <c:axId val="617333120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537684992"/>
+        <c:axId val="617187584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5235,14 +5235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537789184"/>
+        <c:crossAx val="617333120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537789184"/>
+        <c:axId val="617333120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5293,7 +5293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537684992"/>
+        <c:crossAx val="617187584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6224,11 +6224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594200448"/>
-        <c:axId val="602493312"/>
+        <c:axId val="617625472"/>
+        <c:axId val="617627008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594200448"/>
+        <c:axId val="617625472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6271,14 +6271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602493312"/>
+        <c:crossAx val="617627008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602493312"/>
+        <c:axId val="617627008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6329,7 +6329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594200448"/>
+        <c:crossAx val="617625472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7260,11 +7260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602521600"/>
-        <c:axId val="602523136"/>
+        <c:axId val="617708160"/>
+        <c:axId val="617759104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602521600"/>
+        <c:axId val="617708160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7307,14 +7307,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602523136"/>
+        <c:crossAx val="617759104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602523136"/>
+        <c:axId val="617759104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,7 +7365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602521600"/>
+        <c:crossAx val="617708160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14696,7 +14696,7 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="17">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="18">
         <v>2000</v>
@@ -14729,7 +14729,7 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="17">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="18">
         <v>2000</v>
@@ -14765,7 +14765,7 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="17">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="18">
         <v>2000</v>
@@ -14801,7 +14801,7 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="17">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="18">
         <v>2000</v>
@@ -14837,7 +14837,7 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="17">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="18">
         <v>2000</v>
@@ -14871,7 +14871,7 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="17">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="18">
         <v>2000</v>
@@ -14905,7 +14905,7 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="17">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="18">
         <v>2000</v>
@@ -14938,7 +14938,7 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="17">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="18">
         <v>2000</v>
@@ -14971,7 +14971,7 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="17">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="18">
         <v>2000</v>
@@ -15004,7 +15004,7 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="17">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="18">
         <v>2000</v>
@@ -15037,7 +15037,7 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="17">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="18">
         <v>2000</v>
@@ -15070,7 +15070,7 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="17">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="18">
         <v>2000</v>
@@ -15103,7 +15103,7 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="17">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="18">
         <v>2000</v>
@@ -15135,7 +15135,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="17">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="18">
         <v>2000</v>
@@ -15167,7 +15167,7 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="17">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="18">
         <v>2000</v>
@@ -15231,7 +15231,7 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="17">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="18">
         <v>2000</v>
@@ -15263,7 +15263,7 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="17">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="18">
         <v>2000</v>
@@ -15295,7 +15295,7 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="17">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="18">
         <v>2000</v>
@@ -15327,7 +15327,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="17">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="18">
         <v>2000</v>
@@ -15359,7 +15359,7 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="17">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="18">
         <v>2000</v>
@@ -15391,7 +15391,7 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="17">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="18">
         <v>2000</v>
@@ -15423,7 +15423,7 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="17">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="18">
         <v>2000</v>
@@ -15487,7 +15487,7 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="17">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="18">
         <v>2000</v>
@@ -15519,7 +15519,7 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="17">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="18">
         <v>2000</v>
@@ -15551,7 +15551,7 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="17">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="18">
         <v>2000</v>
@@ -15583,7 +15583,7 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="17">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="18">
         <v>2000</v>
@@ -15615,7 +15615,7 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="17">
-        <v>16.959999079999999</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="18">
         <v>2000</v>
@@ -15647,7 +15647,7 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="17">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="18">
         <v>2000</v>
@@ -15679,7 +15679,7 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="17">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="18">
         <v>2000</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -3116,11 +3116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506714368"/>
-        <c:axId val="513742336"/>
+        <c:axId val="68588288"/>
+        <c:axId val="490013056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506714368"/>
+        <c:axId val="68588288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,14 +3163,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513742336"/>
+        <c:crossAx val="490013056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513742336"/>
+        <c:axId val="490013056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506714368"/>
+        <c:crossAx val="68588288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4152,11 +4152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570154368"/>
-        <c:axId val="608937856"/>
+        <c:axId val="507362688"/>
+        <c:axId val="507366016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570154368"/>
+        <c:axId val="507362688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,14 +4199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608937856"/>
+        <c:crossAx val="507366016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="608937856"/>
+        <c:axId val="507366016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,7 +4257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570154368"/>
+        <c:crossAx val="507362688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5188,11 +5188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617187584"/>
-        <c:axId val="617333120"/>
+        <c:axId val="617376384"/>
+        <c:axId val="617407616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617187584"/>
+        <c:axId val="617376384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5235,14 +5235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617333120"/>
+        <c:crossAx val="617407616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617333120"/>
+        <c:axId val="617407616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5293,7 +5293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617187584"/>
+        <c:crossAx val="617376384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6224,11 +6224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617625472"/>
-        <c:axId val="617627008"/>
+        <c:axId val="617440000"/>
+        <c:axId val="617441920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617625472"/>
+        <c:axId val="617440000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6271,14 +6271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617627008"/>
+        <c:crossAx val="617441920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617627008"/>
+        <c:axId val="617441920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6329,7 +6329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617625472"/>
+        <c:crossAx val="617440000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7260,11 +7260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617708160"/>
-        <c:axId val="617759104"/>
+        <c:axId val="693435008"/>
+        <c:axId val="693551872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617708160"/>
+        <c:axId val="693435008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7307,14 +7307,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617759104"/>
+        <c:crossAx val="693551872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617759104"/>
+        <c:axId val="693551872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,7 +7365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617708160"/>
+        <c:crossAx val="693435008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>szse innovation100</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +192,9 @@
   <si>
     <t>unit:yuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2022,6 +2021,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="231">
     <cellStyle name="20% - 着色 1" xfId="3"/>
@@ -2354,7 +2354,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2459,6 +2459,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,7 +2471,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2573,6 +2576,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2615,7 +2621,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2720,6 +2726,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,7 +2738,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2834,6 +2843,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>60807.664804803564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61525.57556883576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,7 +2888,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2981,6 +2993,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,7 +3005,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3095,6 +3110,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-9192.335195196436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10474.42443116424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,11 +3134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68588288"/>
-        <c:axId val="490013056"/>
+        <c:axId val="90709376"/>
+        <c:axId val="98957184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68588288"/>
+        <c:axId val="90709376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,14 +3181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490013056"/>
+        <c:crossAx val="98957184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490013056"/>
+        <c:axId val="98957184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3239,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68588288"/>
+        <c:crossAx val="90709376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3390,7 +3408,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3495,6 +3513,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3504,7 +3525,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3608,6 +3629,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3651,7 +3675,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3756,6 +3780,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3765,7 +3792,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3870,6 +3897,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>16351.748754391803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16006.982989507513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,7 +3942,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4017,6 +4047,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,7 +4059,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4131,6 +4164,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1648.2512456081968</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1993.0170104924873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,11 +4188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507362688"/>
-        <c:axId val="507366016"/>
+        <c:axId val="393180288"/>
+        <c:axId val="393182592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507362688"/>
+        <c:axId val="393180288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,14 +4235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507366016"/>
+        <c:crossAx val="393182592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507366016"/>
+        <c:axId val="393182592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,7 +4293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507362688"/>
+        <c:crossAx val="393180288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4426,7 +4462,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4531,6 +4567,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,7 +4579,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4645,6 +4684,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4687,7 +4729,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4792,6 +4834,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4801,7 +4846,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4906,6 +4951,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>68178.46474305325</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68740.967084617034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,7 +4996,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5053,6 +5101,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,7 +5113,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5167,6 +5218,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-10821.53525694675</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-12259.032915382966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5188,11 +5242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617376384"/>
-        <c:axId val="617407616"/>
+        <c:axId val="477203072"/>
+        <c:axId val="477623040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617376384"/>
+        <c:axId val="477203072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5235,14 +5289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617407616"/>
+        <c:crossAx val="477623040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617407616"/>
+        <c:axId val="477623040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5293,7 +5347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617376384"/>
+        <c:crossAx val="477203072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5462,7 +5516,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5567,6 +5621,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,7 +5633,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5681,6 +5738,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5723,7 +5783,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5828,6 +5888,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5837,7 +5900,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5942,6 +6005,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>62829.649305917141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63504.927869346124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,7 +6050,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6089,6 +6155,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6098,7 +6167,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6203,6 +6272,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-9170.3506940828593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10495.072130653876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6224,11 +6296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617440000"/>
-        <c:axId val="617441920"/>
+        <c:axId val="537163264"/>
+        <c:axId val="537165184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617440000"/>
+        <c:axId val="537163264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6271,14 +6343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617441920"/>
+        <c:crossAx val="537165184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617441920"/>
+        <c:axId val="537165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6329,7 +6401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617440000"/>
+        <c:crossAx val="537163264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6498,7 +6570,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6603,6 +6675,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6612,7 +6687,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6717,6 +6792,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6759,7 +6837,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6864,6 +6942,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6873,7 +6954,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6978,6 +7059,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>60807.664804803564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61525.57556883576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7020,7 +7104,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7125,6 +7209,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,7 +7221,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7239,6 +7326,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-9192.335195196436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10474.42443116424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7260,11 +7350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="693435008"/>
-        <c:axId val="693551872"/>
+        <c:axId val="759833728"/>
+        <c:axId val="759835264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="693435008"/>
+        <c:axId val="759833728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7307,14 +7397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693551872"/>
+        <c:crossAx val="759835264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="693551872"/>
+        <c:axId val="759835264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,7 +7455,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693435008"/>
+        <c:crossAx val="759833728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7919,7 +8009,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7959,28 +8049,28 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -7991,7 +8081,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8030,25 +8120,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="M3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -8060,9 +8150,16 @@
         <f>-V3</f>
         <v>-14000</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="X3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>-Y3</f>
+        <v>-14000</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -8127,9 +8224,16 @@
         <f>-V4</f>
         <v>-24000</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="X4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>-Y4</f>
+        <v>-24000</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -8191,9 +8295,16 @@
       <c r="W5" s="26">
         <v>32817.979714730289</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
+      <c r="X5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>-Y5</f>
+        <v>-24000</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -8227,11 +8338,38 @@
         <v>-235.60568221502308</v>
       </c>
       <c r="J6" s="7"/>
+      <c r="M6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="N6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>62000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-11193.39672842557</v>
+      </c>
+      <c r="R6" s="9">
+        <v>-0.18053865691008986</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-0.10435256236509272</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
         <v>-0.10248183981043768</v>
       </c>
+      <c r="X6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>50806.60327157443</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -8263,6 +8401,9 @@
         <v>22.937910215428928</v>
       </c>
       <c r="J7" s="7"/>
+      <c r="Z7" s="2">
+        <v>-0.10435256236509272</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -9155,6 +9296,38 @@
       <c r="I37" s="19">
         <v>-9192.335195196436</v>
       </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="E38" s="19">
+        <v>94654.735116277705</v>
+      </c>
+      <c r="F38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="G38" s="19">
+        <v>72000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-10474.42443116424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9167,7 +9340,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9206,28 +9379,28 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>7</v>
@@ -9241,7 +9414,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9282,25 +9455,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -9312,9 +9485,16 @@
         <f>-V3</f>
         <v>-2000</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="X3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>-Y3</f>
+        <v>-2000</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -9381,9 +9561,16 @@
         <f>-V4</f>
         <v>-10000</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="X4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>-Y4</f>
+        <v>-10000</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -9447,9 +9634,16 @@
       <c r="W5" s="26">
         <v>10997.619323354318</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
+      <c r="X5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>4000</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>-Y5</f>
+        <v>-4000</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -9484,12 +9678,39 @@
       </c>
       <c r="J6" s="7">
         <v>-30.243784697079619</v>
+      </c>
+      <c r="M6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>16000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>13584.387248394427</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-2415.6127516055731</v>
+      </c>
+      <c r="R6" s="9">
+        <v>-0.15097579697534833</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-8.4267762104583088E-2</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
         <v>-7.2346332886421894E-2</v>
       </c>
+      <c r="X6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>13584.387248394427</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -9523,6 +9744,9 @@
       <c r="J7" s="7">
         <v>67.867888185983432</v>
       </c>
+      <c r="Z7" s="2">
+        <v>-8.4267762104583088E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -10494,6 +10718,41 @@
       <c r="J37" s="7">
         <v>191.90436156354073</v>
       </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F38" s="19">
+        <v>16006.982989507513</v>
+      </c>
+      <c r="G38" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>16006.982989507513</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-1993.0170104924873</v>
+      </c>
+      <c r="J38" s="7">
+        <v>-76.574709137121957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -10506,7 +10765,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10546,40 +10805,40 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>27</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>6</v>
@@ -10592,7 +10851,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -10631,25 +10890,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="R3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -10661,9 +10920,16 @@
         <f>-AA3</f>
         <v>-17000</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="AC3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>17000</v>
+      </c>
+      <c r="AE3" s="7">
+        <f>-AD3</f>
+        <v>-17000</v>
+      </c>
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
@@ -10742,9 +11008,16 @@
         <f>-AA4</f>
         <v>-29000</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>29000</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-29000</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -10820,9 +11093,16 @@
       <c r="AB5" s="26">
         <v>39554.945324245164</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="8"/>
+      <c r="AC5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>-AD5</f>
+        <v>-24000</v>
+      </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -10869,12 +11149,39 @@
       </c>
       <c r="N6" s="1">
         <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="S6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="T6" s="4">
+        <v>70000</v>
+      </c>
+      <c r="U6" s="4">
+        <v>56816.759218770618</v>
+      </c>
+      <c r="V6" s="4">
+        <v>-13183.240781229382</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.18833201116041975</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-0.10569026332566067</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-0.10529414683888616</v>
       </c>
+      <c r="AC6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>56816.759218770618</v>
+      </c>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
@@ -10920,6 +11227,9 @@
       <c r="N7" s="1">
         <v>21.227182147461402</v>
       </c>
+      <c r="AE7" s="2">
+        <v>-0.10569026332566067</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -12251,6 +12561,53 @@
       <c r="N37" s="1">
         <v>48.759853737518327</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="E38" s="19">
+        <v>105755.33785541658</v>
+      </c>
+      <c r="F38" s="19">
+        <v>68740.967084617034</v>
+      </c>
+      <c r="G38" s="19">
+        <v>81000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>68740.967084617034</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-12259.032915382966</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>1.3999998569488525E-2</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>44.853539267539169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12263,7 +12620,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12303,34 +12660,34 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="L1" s="20" t="s">
         <v>0</v>
@@ -12358,7 +12715,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12420,25 +12777,25 @@
         <v>86.363636363635862</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -12450,9 +12807,16 @@
         <f>-AA3</f>
         <v>-14000</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="AC3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="AE3" s="7">
+        <f>-AD3</f>
+        <v>-14000</v>
+      </c>
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
@@ -12540,9 +12904,16 @@
         <f>-AA4</f>
         <v>-25000</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>25000</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-25000</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -12627,9 +12998,16 @@
       <c r="AB5" s="26">
         <v>33730.858494912194</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="8"/>
+      <c r="AC5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>-AD5</f>
+        <v>-24000</v>
+      </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -12685,12 +13063,39 @@
       </c>
       <c r="Q6" s="1">
         <v>7.3892319506355477</v>
+      </c>
+      <c r="R6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="S6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="T6" s="4">
+        <v>63000</v>
+      </c>
+      <c r="U6" s="4">
+        <v>51620.997191298564</v>
+      </c>
+      <c r="V6" s="4">
+        <v>-11379.002808701436</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.1806190922016101</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-0.1042334230244325</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-0.1021754534154119</v>
       </c>
+      <c r="AC6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>51620.997191298564</v>
+      </c>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
@@ -12745,6 +13150,9 @@
       <c r="Q7" s="1">
         <v>21.676636258652678</v>
       </c>
+      <c r="AE7" s="2">
+        <v>-0.1042334230244325</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -14346,6 +14754,62 @@
       <c r="Q37" s="1">
         <v>56.964475621537929</v>
       </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="E38" s="19">
+        <v>97699.892613373973</v>
+      </c>
+      <c r="F38" s="19">
+        <v>63504.927869346124</v>
+      </c>
+      <c r="G38" s="19">
+        <v>74000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>63504.927869346124</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-10495.072130653876</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N38" s="7">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="O38" s="7">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="P38" s="7">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>67.293735824080812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -14358,7 +14822,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14397,31 +14861,31 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="L1" s="13"/>
     </row>
@@ -14433,7 +14897,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -14475,25 +14939,25 @@
       </c>
       <c r="K3" s="7"/>
       <c r="M3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -14505,9 +14969,16 @@
         <f>-V3</f>
         <v>-14000</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="X3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>-Y3</f>
+        <v>-14000</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -14575,9 +15046,16 @@
         <f>-V4</f>
         <v>-24000</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="X4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>-Y4</f>
+        <v>-24000</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -14642,9 +15120,16 @@
       <c r="W5" s="26">
         <v>32817.979714730289</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
+      <c r="X5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>-Y5</f>
+        <v>-24000</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -14681,11 +15166,38 @@
         <v>-235.60568221502308</v>
       </c>
       <c r="K6" s="7"/>
+      <c r="M6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="N6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>62000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-11193.39672842557</v>
+      </c>
+      <c r="R6" s="9">
+        <v>-0.18053865691008986</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-0.10435256236509272</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
         <v>-0.10248183981043768</v>
       </c>
+      <c r="X6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>50806.60327157443</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -14720,6 +15232,9 @@
         <v>22.937910215428928</v>
       </c>
       <c r="K7" s="7"/>
+      <c r="Z7" s="2">
+        <v>-0.10435256236509272</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -15263,7 +15778,7 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="17">
-        <v>24.159999847412109</v>
+        <v>24.159999849999998</v>
       </c>
       <c r="D24" s="18">
         <v>2000</v>
@@ -15295,7 +15810,7 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="17">
-        <v>23.579999923706055</v>
+        <v>23.579999919999999</v>
       </c>
       <c r="D25" s="18">
         <v>2000</v>
@@ -15327,7 +15842,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="17">
-        <v>21.329999923706055</v>
+        <v>21.329999919999999</v>
       </c>
       <c r="D26" s="18">
         <v>2000</v>
@@ -15359,7 +15874,7 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="17">
-        <v>22.200000762939453</v>
+        <v>22.200000760000002</v>
       </c>
       <c r="D27" s="18">
         <v>2000</v>
@@ -15391,7 +15906,7 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="17">
-        <v>22.409999847412109</v>
+        <v>22.409999849999998</v>
       </c>
       <c r="D28" s="18">
         <v>2000</v>
@@ -15423,7 +15938,7 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="17">
-        <v>20.899999618530273</v>
+        <v>20.899999619999999</v>
       </c>
       <c r="D29" s="18">
         <v>2000</v>
@@ -15487,7 +16002,7 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="17">
-        <v>18.770000457763672</v>
+        <v>18.770000459999999</v>
       </c>
       <c r="D31" s="18">
         <v>2000</v>
@@ -15519,7 +16034,7 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="17">
-        <v>17.930000305175781</v>
+        <v>17.93000031</v>
       </c>
       <c r="D32" s="18">
         <v>2000</v>
@@ -15551,7 +16066,7 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="17">
-        <v>17.709999084472656</v>
+        <v>17.709999079999999</v>
       </c>
       <c r="D33" s="18">
         <v>2000</v>
@@ -15583,7 +16098,7 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="17">
-        <v>15.380000114440918</v>
+        <v>15.380000109999999</v>
       </c>
       <c r="D34" s="18">
         <v>2000</v>
@@ -15615,7 +16130,7 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="17">
-        <v>17.479999542236328</v>
+        <v>17.479999540000001</v>
       </c>
       <c r="D35" s="18">
         <v>2000</v>
@@ -15647,7 +16162,7 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="17">
-        <v>17.700000762939453</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="18">
         <v>2000</v>
@@ -15679,7 +16194,7 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="17">
-        <v>18.110000610351563</v>
+        <v>18.11000061</v>
       </c>
       <c r="D37" s="18">
         <v>2000</v>
@@ -15702,6 +16217,41 @@
       <c r="J37" s="19">
         <v>-9192.335195196436</v>
       </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="17">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="F38" s="19">
+        <v>94654.735116277705</v>
+      </c>
+      <c r="G38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="H38" s="19">
+        <v>72000</v>
+      </c>
+      <c r="I38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="J38" s="19">
+        <v>-10474.42443116424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -1967,7 +1967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2021,7 +2021,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="231">
     <cellStyle name="20% - 着色 1" xfId="3"/>
@@ -2354,7 +2353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2462,6 +2461,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,7 +2473,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2579,6 +2581,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,7 +2626,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2729,6 +2734,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2738,7 +2746,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2846,6 +2854,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>61525.57556883576</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62200.409412612564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2888,7 +2899,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2996,6 +3007,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3005,7 +3019,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3113,6 +3127,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-10474.42443116424</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-11799.590587387436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,11 +3151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90709376"/>
-        <c:axId val="98957184"/>
+        <c:axId val="462323072"/>
+        <c:axId val="462902400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90709376"/>
+        <c:axId val="462323072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,14 +3198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98957184"/>
+        <c:crossAx val="462902400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98957184"/>
+        <c:axId val="462902400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,7 +3256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90709376"/>
+        <c:crossAx val="462323072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3408,7 +3425,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3516,6 +3533,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3525,7 +3545,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3633,6 +3653,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,7 +3698,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3783,6 +3806,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +3818,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3900,6 +3926,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>16006.982989507513</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17662.217224623222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,7 +3971,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4050,6 +4079,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4059,7 +4091,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4167,6 +4199,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-1993.0170104924873</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2337.7827753767779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4188,11 +4223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393180288"/>
-        <c:axId val="393182592"/>
+        <c:axId val="515451904"/>
+        <c:axId val="540553984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393180288"/>
+        <c:axId val="515451904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,14 +4270,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393182592"/>
+        <c:crossAx val="540553984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393182592"/>
+        <c:axId val="540553984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4293,7 +4328,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393180288"/>
+        <c:crossAx val="515451904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4462,7 +4497,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4570,6 +4605,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4579,7 +4617,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4687,6 +4725,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,7 +4770,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4837,6 +4878,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,7 +4890,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4954,6 +4998,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>68740.967084617034</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69260.39250592544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,7 +5043,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5104,6 +5151,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5113,7 +5163,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5221,6 +5271,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-12259.032915382966</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-13739.60749407456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5242,11 +5295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477203072"/>
-        <c:axId val="477623040"/>
+        <c:axId val="614266368"/>
+        <c:axId val="614267904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477203072"/>
+        <c:axId val="614266368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,14 +5342,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477623040"/>
+        <c:crossAx val="614267904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477623040"/>
+        <c:axId val="614267904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,7 +5400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477203072"/>
+        <c:crossAx val="614266368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5516,7 +5569,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5624,6 +5677,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5633,7 +5689,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5741,6 +5797,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5783,7 +5842,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5891,6 +5950,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5900,7 +5962,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6008,6 +6070,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>63504.927869346124</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64137.129512519707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6050,7 +6115,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6158,6 +6223,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,7 +6235,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6275,6 +6343,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-10495.072130653876</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-11862.870487480293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6296,11 +6367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537163264"/>
-        <c:axId val="537165184"/>
+        <c:axId val="614525568"/>
+        <c:axId val="614527360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537163264"/>
+        <c:axId val="614525568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6343,14 +6414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537165184"/>
+        <c:crossAx val="614527360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537165184"/>
+        <c:axId val="614527360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6401,7 +6472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537163264"/>
+        <c:crossAx val="614525568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6570,7 +6641,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6678,6 +6749,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6687,7 +6761,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6795,6 +6869,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6837,7 +6914,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6945,6 +7022,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6954,7 +7034,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7062,6 +7142,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>61525.57556883576</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62200.409412612564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7104,7 +7187,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7212,6 +7295,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,7 +7307,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7329,6 +7415,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-10474.42443116424</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-11799.590587387436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7350,11 +7439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="759833728"/>
-        <c:axId val="759835264"/>
+        <c:axId val="615145472"/>
+        <c:axId val="615147008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="759833728"/>
+        <c:axId val="615145472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7397,14 +7486,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759835264"/>
+        <c:crossAx val="615147008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="759835264"/>
+        <c:axId val="615147008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7455,7 +7544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759833728"/>
+        <c:crossAx val="615145472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9326,8 +9415,34 @@
         <v>-10474.42443116424</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:9" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>97799.38931513924</v>
+      </c>
+      <c r="F39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="G39" s="19">
+        <v>74000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-11799.590587387436</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10751,8 +10866,37 @@
         <v>-76.574709137121957</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F39" s="19">
+        <v>17662.217224623222</v>
+      </c>
+      <c r="G39" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>17662.217224623222</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-2337.7827753767779</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-109.41232702522433</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -12606,8 +12750,49 @@
         <v>44.853539267539169</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>108899.99205427812</v>
+      </c>
+      <c r="F39" s="19">
+        <v>69260.39250592544</v>
+      </c>
+      <c r="G39" s="19">
+        <v>83000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>69260.39250592544</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-13739.60749407456</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1.0886478129350202E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1.3999998569488525E-2</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2.6604501674088222E-2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>40.919684430523347</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14808,8 +14993,58 @@
         <v>67.293735824080812</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:17" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>100844.54681223551</v>
+      </c>
+      <c r="F39" s="19">
+        <v>64137.129512519707</v>
+      </c>
+      <c r="G39" s="19">
+        <v>76000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>64137.129512519707</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-11862.870487480293</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N39" s="7">
+        <v>62.893067379123451</v>
+      </c>
+      <c r="O39" s="7">
+        <v>51.646918227465996</v>
+      </c>
+      <c r="P39" s="7">
+        <v>40.808237786098999</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>73.324279110199996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -16250,8 +16485,37 @@
         <v>-10474.42443116424</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="17">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="F39" s="19">
+        <v>97799.38931513924</v>
+      </c>
+      <c r="G39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="H39" s="19">
+        <v>74000</v>
+      </c>
+      <c r="I39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="J39" s="19">
+        <v>-11799.590587387436</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2353,7 +2353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2464,6 +2464,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,7 +2476,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2584,6 +2587,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,7 +2632,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2737,6 +2743,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,7 +2755,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2857,6 +2866,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>62200.409412612564</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63907.015022052161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,7 +2911,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3010,6 +3022,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,7 +3034,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3130,6 +3145,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-11799.590587387436</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12092.984977947839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,11 +3169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462323072"/>
-        <c:axId val="462902400"/>
+        <c:axId val="384457728"/>
+        <c:axId val="391189632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462323072"/>
+        <c:axId val="384457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,14 +3216,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462902400"/>
+        <c:crossAx val="391189632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462902400"/>
+        <c:axId val="391189632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3274,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462323072"/>
+        <c:crossAx val="384457728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3425,7 +3443,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3536,6 +3554,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,7 +3566,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3655,6 +3676,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3698,7 +3722,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3809,6 +3833,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,7 +3845,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3929,6 +3956,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>17662.217224623222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17578.905948901731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,7 +4001,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4082,6 +4112,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,7 +4124,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4202,6 +4235,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-2337.7827753767779</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2421.0940510982691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,11 +4259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515451904"/>
-        <c:axId val="540553984"/>
+        <c:axId val="448468096"/>
+        <c:axId val="448470016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515451904"/>
+        <c:axId val="448468096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4270,14 +4306,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540553984"/>
+        <c:crossAx val="448470016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540553984"/>
+        <c:axId val="448470016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4328,7 +4364,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515451904"/>
+        <c:crossAx val="448468096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4497,7 +4533,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4608,6 +4644,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4617,7 +4656,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4728,6 +4767,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4770,7 +4812,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4881,6 +4923,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,7 +4935,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5001,6 +5046,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>69260.39250592544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70933.696735895181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5043,7 +5091,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5154,6 +5202,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5163,7 +5214,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5274,6 +5325,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-13739.60749407456</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-14066.303264104819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5295,11 +5349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614266368"/>
-        <c:axId val="614267904"/>
+        <c:axId val="520708480"/>
+        <c:axId val="520710400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614266368"/>
+        <c:axId val="520708480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,14 +5396,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614267904"/>
+        <c:crossAx val="520710400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614267904"/>
+        <c:axId val="520710400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5400,7 +5454,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614266368"/>
+        <c:crossAx val="520708480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5569,7 +5623,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5680,6 +5734,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5689,7 +5746,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5800,6 +5857,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5842,7 +5902,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5953,6 +6013,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5962,7 +6025,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6073,6 +6136,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>64137.129512519707</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65834.599767083608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,7 +6181,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6226,6 +6292,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6235,7 +6304,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6346,6 +6415,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-11862.870487480293</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12165.400232916392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6367,11 +6439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614525568"/>
-        <c:axId val="614527360"/>
+        <c:axId val="563997312"/>
+        <c:axId val="491618688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614525568"/>
+        <c:axId val="563997312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6414,14 +6486,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614527360"/>
+        <c:crossAx val="491618688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614527360"/>
+        <c:axId val="491618688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6472,7 +6544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614525568"/>
+        <c:crossAx val="563997312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,7 +6713,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6752,6 +6824,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6761,7 +6836,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6872,6 +6947,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6914,7 +6992,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7025,6 +7103,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7034,7 +7115,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7145,6 +7226,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>62200.409412612564</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63907.015022052161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7187,7 +7271,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7298,6 +7382,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7307,7 +7394,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7418,6 +7505,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-11799.590587387436</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12092.984977947839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7439,11 +7529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615145472"/>
-        <c:axId val="615147008"/>
+        <c:axId val="492068864"/>
+        <c:axId val="492070400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615145472"/>
+        <c:axId val="492068864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7486,14 +7576,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615147008"/>
+        <c:crossAx val="492070400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615147008"/>
+        <c:axId val="492070400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7544,7 +7634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615145472"/>
+        <c:crossAx val="492068864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8098,7 +8188,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9444,6 +9534,35 @@
         <v>-11799.590587387436</v>
       </c>
     </row>
+    <row r="40" spans="1:9" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="E40" s="19">
+        <v>100958.94689614365</v>
+      </c>
+      <c r="F40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="G40" s="19">
+        <v>76000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-12092.984977947839</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9455,7 +9574,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10898,6 +11017,38 @@
         <v>-109.41232702522433</v>
       </c>
     </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F40" s="19">
+        <v>17578.905948901731</v>
+      </c>
+      <c r="G40" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>17578.905948901731</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-2421.0940510982691</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-35.422966834096719</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10909,7 +11060,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12794,6 +12945,50 @@
         <v>40.919684430523347</v>
       </c>
     </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="E40" s="19">
+        <v>112059.54963528253</v>
+      </c>
+      <c r="F40" s="19">
+        <v>70933.696735895181</v>
+      </c>
+      <c r="G40" s="19">
+        <v>85000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>70933.696735895181</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-14066.303264104819</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="L40" s="7">
+        <v>2.9999613761901855E-3</v>
+      </c>
+      <c r="M40" s="7">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>40.017205060415456</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12805,7 +13000,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15046,6 +15241,59 @@
         <v>73.324279110199996</v>
       </c>
     </row>
+    <row r="40" spans="1:17" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="E40" s="19">
+        <v>104004.10439323992</v>
+      </c>
+      <c r="F40" s="19">
+        <v>65834.599767083608</v>
+      </c>
+      <c r="G40" s="19">
+        <v>78000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>65834.599767083608</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-12165.400232916392</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N40" s="7">
+        <v>65.986389868671111</v>
+      </c>
+      <c r="O40" s="7">
+        <v>56.426742107867703</v>
+      </c>
+      <c r="P40" s="7">
+        <v>46.014405893355239</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>77.251414536892625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15057,7 +15305,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16517,6 +16765,38 @@
         <v>-11799.590587387436</v>
       </c>
     </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="17">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="F40" s="19">
+        <v>100958.94689614365</v>
+      </c>
+      <c r="G40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="H40" s="19">
+        <v>76000</v>
+      </c>
+      <c r="I40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="J40" s="19">
+        <v>-12092.984977947839</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2353,7 +2353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2467,6 +2467,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,7 +2479,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2590,6 +2593,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2632,7 +2638,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2746,6 +2752,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,7 +2764,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2869,6 +2878,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>63907.015022052161</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63584.959050876947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,7 +2923,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3025,6 +3037,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,7 +3049,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3148,6 +3163,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-12092.984977947839</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14415.040949123053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,11 +3187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="384457728"/>
-        <c:axId val="391189632"/>
+        <c:axId val="497783552"/>
+        <c:axId val="497785472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="384457728"/>
+        <c:axId val="497783552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,14 +3234,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391189632"/>
+        <c:crossAx val="497785472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391189632"/>
+        <c:axId val="497785472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,7 +3292,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384457728"/>
+        <c:crossAx val="497783552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3443,7 +3461,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3557,6 +3575,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,7 +3587,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3679,6 +3700,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3722,7 +3746,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3836,6 +3860,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3845,7 +3872,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3959,6 +3986,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>17578.905948901731</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16940.177892032083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,7 +4031,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4115,6 +4145,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,7 +4157,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4238,6 +4271,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2421.0940510982691</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3059.822107967917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,11 +4295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448468096"/>
-        <c:axId val="448470016"/>
+        <c:axId val="554132608"/>
+        <c:axId val="554134912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448468096"/>
+        <c:axId val="554132608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4306,14 +4342,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448470016"/>
+        <c:crossAx val="554134912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448470016"/>
+        <c:axId val="554134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +4400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448468096"/>
+        <c:crossAx val="554132608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,7 +4569,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4647,6 +4683,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4656,7 +4695,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4770,6 +4809,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4812,7 +4854,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4926,6 +4968,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4935,7 +4980,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5049,6 +5094,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>70933.696735895181</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70356.326880547058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5091,7 +5139,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5205,6 +5253,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5214,7 +5265,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5328,6 +5379,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-14066.303264104819</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-16643.673119452942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5349,11 +5403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520708480"/>
-        <c:axId val="520710400"/>
+        <c:axId val="486197120"/>
+        <c:axId val="486198656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520708480"/>
+        <c:axId val="486197120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,14 +5450,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520710400"/>
+        <c:crossAx val="486198656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520710400"/>
+        <c:axId val="486198656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5454,7 +5508,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520708480"/>
+        <c:crossAx val="486197120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5623,7 +5677,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5737,6 +5791,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5746,7 +5803,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5860,6 +5917,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5902,7 +5962,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6016,6 +6076,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6025,7 +6088,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6139,6 +6202,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>65834.599767083608</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65442.505167666997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6181,7 +6247,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6295,6 +6361,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6304,7 +6373,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6418,6 +6487,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-12165.400232916392</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14557.494832333003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6439,11 +6511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563997312"/>
-        <c:axId val="491618688"/>
+        <c:axId val="486231040"/>
+        <c:axId val="486232832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563997312"/>
+        <c:axId val="486231040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6486,14 +6558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491618688"/>
+        <c:crossAx val="486232832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491618688"/>
+        <c:axId val="486232832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,7 +6616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563997312"/>
+        <c:crossAx val="486231040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6713,7 +6785,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6827,6 +6899,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6836,7 +6911,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6950,6 +7025,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6992,7 +7070,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7106,6 +7184,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7115,7 +7196,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7229,6 +7310,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>63907.015022052161</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63584.959050876947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7271,7 +7355,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7385,6 +7469,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7394,7 +7481,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7508,6 +7595,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-12092.984977947839</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14415.040949123053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7529,11 +7619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492068864"/>
-        <c:axId val="492070400"/>
+        <c:axId val="486564608"/>
+        <c:axId val="486566144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492068864"/>
+        <c:axId val="486564608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7576,14 +7666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492070400"/>
+        <c:crossAx val="486566144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492070400"/>
+        <c:axId val="486566144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7634,7 +7724,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492068864"/>
+        <c:crossAx val="486564608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8188,7 +8278,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9563,6 +9653,35 @@
         <v>-12092.984977947839</v>
       </c>
     </row>
+    <row r="41" spans="1:9" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="E41" s="19">
+        <v>104237.63534384526</v>
+      </c>
+      <c r="F41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="G41" s="19">
+        <v>78000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-14415.040949123053</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9574,7 +9693,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11049,6 +11168,38 @@
         <v>-35.422966834096719</v>
       </c>
     </row>
+    <row r="41" spans="1:10" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F41" s="19">
+        <v>16940.177892032083</v>
+      </c>
+      <c r="G41" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>16940.177892032083</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-3059.822107967917</v>
+      </c>
+      <c r="J41" s="7">
+        <v>170.37062431435149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11060,7 +11211,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12989,6 +13140,50 @@
         <v>40.017205060415456</v>
       </c>
     </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="E41" s="19">
+        <v>115338.23808298414</v>
+      </c>
+      <c r="F41" s="19">
+        <v>70356.326880547058</v>
+      </c>
+      <c r="G41" s="19">
+        <v>87000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>70356.326880547058</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-16643.673119452942</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>7.5600542564931957E-3</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2.3000001907348633E-2</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2.2725343338256893E-2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>33.267062873220716</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13000,7 +13195,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15294,6 +15489,59 @@
         <v>77.251414536892625</v>
       </c>
     </row>
+    <row r="41" spans="1:17" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="E41" s="19">
+        <v>107282.79284094153</v>
+      </c>
+      <c r="F41" s="19">
+        <v>65442.505167666997</v>
+      </c>
+      <c r="G41" s="19">
+        <v>80000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>65442.505167666997</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-14557.494832333003</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N41" s="7">
+        <v>50.340131641102225</v>
+      </c>
+      <c r="O41" s="7">
+        <v>54.39787195227921</v>
+      </c>
+      <c r="P41" s="7">
+        <v>48.808894579663225</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>65.575826697511175</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15305,7 +15553,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16797,6 +17045,38 @@
         <v>-12092.984977947839</v>
       </c>
     </row>
+    <row r="41" spans="1:10" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="17">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="F41" s="19">
+        <v>104237.63534384526</v>
+      </c>
+      <c r="G41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="H41" s="19">
+        <v>78000</v>
+      </c>
+      <c r="I41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="J41" s="19">
+        <v>-14415.040949123053</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2353,7 +2353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2470,6 +2470,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,7 +2482,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2596,6 +2599,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,7 +2644,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2755,6 +2761,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,7 +2773,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2881,6 +2890,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>63584.959050876947</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81950.268346608806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,7 +2935,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3040,6 +3052,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,7 +3064,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3166,6 +3181,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-14415.040949123053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1950.2683466088056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,11 +3205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497783552"/>
-        <c:axId val="497785472"/>
+        <c:axId val="449770624"/>
+        <c:axId val="467767680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497783552"/>
+        <c:axId val="449770624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,14 +3252,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497785472"/>
+        <c:crossAx val="467767680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497785472"/>
+        <c:axId val="467767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,7 +3310,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497783552"/>
+        <c:crossAx val="449770624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3461,7 +3479,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3578,6 +3596,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3587,7 +3608,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3703,6 +3724,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3746,7 +3770,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3863,6 +3887,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3872,7 +3899,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3989,6 +4016,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>16940.177892032083</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21300.190933889982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,7 +4061,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4148,6 +4178,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4157,7 +4190,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4274,6 +4307,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-3059.822107967917</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1300.1909338899823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,11 +4331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554132608"/>
-        <c:axId val="554134912"/>
+        <c:axId val="615199104"/>
+        <c:axId val="615201024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554132608"/>
+        <c:axId val="615199104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,14 +4378,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554134912"/>
+        <c:crossAx val="615201024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554134912"/>
+        <c:axId val="615201024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4400,7 +4436,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554132608"/>
+        <c:crossAx val="615199104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4569,7 +4605,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4686,6 +4722,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4695,7 +4734,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4812,6 +4851,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,7 +4896,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4971,6 +5013,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,7 +5025,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5097,6 +5142,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>70356.326880547058</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90464.430864548704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5139,7 +5187,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5256,6 +5304,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5265,7 +5316,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5382,6 +5433,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-16643.673119452942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1464.4308645487035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5403,11 +5457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486197120"/>
-        <c:axId val="486198656"/>
+        <c:axId val="559172224"/>
+        <c:axId val="559190400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486197120"/>
+        <c:axId val="559172224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5450,14 +5504,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486198656"/>
+        <c:crossAx val="559190400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486198656"/>
+        <c:axId val="559190400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5508,7 +5562,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486197120"/>
+        <c:crossAx val="559172224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5677,7 +5731,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5794,6 +5848,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5803,7 +5860,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5920,6 +5977,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5962,7 +6022,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6079,6 +6139,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6088,7 +6151,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6205,6 +6268,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>65442.505167666997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84285.904206415464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6247,7 +6313,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6364,6 +6430,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6373,7 +6442,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6490,6 +6559,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-14557.494832333003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2285.9042064154637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,11 +6583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486231040"/>
-        <c:axId val="486232832"/>
+        <c:axId val="559206400"/>
+        <c:axId val="559207936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486231040"/>
+        <c:axId val="559206400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,14 +6630,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486232832"/>
+        <c:crossAx val="559207936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486232832"/>
+        <c:axId val="559207936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6616,7 +6688,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486231040"/>
+        <c:crossAx val="559206400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6785,7 +6857,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6902,6 +6974,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6911,7 +6986,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7028,6 +7103,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7070,7 +7148,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7187,6 +7265,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7196,7 +7277,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7313,6 +7394,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>63584.959050876947</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81950.268346608806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7355,7 +7439,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7472,6 +7556,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7481,7 +7568,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7598,6 +7685,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-14415.040949123053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1950.2683466088056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7619,11 +7709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486564608"/>
-        <c:axId val="486566144"/>
+        <c:axId val="559264896"/>
+        <c:axId val="559266432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486564608"/>
+        <c:axId val="559264896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7666,14 +7756,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486566144"/>
+        <c:crossAx val="559266432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486566144"/>
+        <c:axId val="559266432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7724,7 +7814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486564608"/>
+        <c:crossAx val="559264896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8278,7 +8368,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9682,6 +9772,35 @@
         <v>-14415.040949123053</v>
       </c>
     </row>
+    <row r="42" spans="1:9" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="E42" s="19">
+        <v>106845.19720697607</v>
+      </c>
+      <c r="F42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="G42" s="19">
+        <v>80000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1950.2683466088056</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9693,7 +9812,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11200,6 +11319,38 @@
         <v>170.37062431435149</v>
       </c>
     </row>
+    <row r="42" spans="1:10" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F42" s="19">
+        <v>21300.190933889982</v>
+      </c>
+      <c r="G42" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>21300.190933889982</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1300.1909338899823</v>
+      </c>
+      <c r="J42" s="7">
+        <v>265.35751850843906</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11211,7 +11362,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13184,6 +13335,50 @@
         <v>33.267062873220716</v>
       </c>
     </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="E42" s="19">
+        <v>117945.79994611494</v>
+      </c>
+      <c r="F42" s="19">
+        <v>90464.430864548704</v>
+      </c>
+      <c r="G42" s="19">
+        <v>89000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>90464.430864548704</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1464.4308645487035</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.15700000524520874</v>
+      </c>
+      <c r="K42" s="7">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.15700000524520874</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>71.981168427775472</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13195,7 +13390,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15542,6 +15737,59 @@
         <v>65.575826697511175</v>
       </c>
     </row>
+    <row r="42" spans="1:17" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="E42" s="19">
+        <v>109890.35470407234</v>
+      </c>
+      <c r="F42" s="19">
+        <v>84285.904206415464</v>
+      </c>
+      <c r="G42" s="19">
+        <v>82000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>84285.904206415464</v>
+      </c>
+      <c r="I42" s="19">
+        <v>2285.9042064154637</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N42" s="7">
+        <v>100</v>
+      </c>
+      <c r="O42" s="7">
+        <v>69.598581301519474</v>
+      </c>
+      <c r="P42" s="7">
+        <v>55.738790153615305</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>97.318163597327825</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15553,7 +15801,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17077,6 +17325,38 @@
         <v>-14415.040949123053</v>
       </c>
     </row>
+    <row r="42" spans="1:10" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="17">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="F42" s="19">
+        <v>106845.19720697607</v>
+      </c>
+      <c r="G42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="H42" s="19">
+        <v>80000</v>
+      </c>
+      <c r="I42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="J42" s="19">
+        <v>1950.2683466088056</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2353,7 +2353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2473,6 +2473,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,7 +2485,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2602,6 +2605,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2644,7 +2650,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2764,6 +2770,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2773,7 +2782,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2893,6 +2902,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81950.268346608806</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85018.719299723365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,7 +2947,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3055,6 +3067,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,7 +3079,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3184,6 +3199,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1950.2683466088056</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3018.7192997233651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,11 +3223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449770624"/>
-        <c:axId val="467767680"/>
+        <c:axId val="98326400"/>
+        <c:axId val="98327936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449770624"/>
+        <c:axId val="98326400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,14 +3270,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467767680"/>
+        <c:crossAx val="98327936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467767680"/>
+        <c:axId val="98327936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,7 +3328,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449770624"/>
+        <c:crossAx val="98326400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3479,7 +3497,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3599,6 +3617,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,7 +3629,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3727,6 +3748,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3770,7 +3794,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3890,6 +3914,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3899,7 +3926,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4019,6 +4046,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>21300.190933889982</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21577.898496830239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4091,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4181,6 +4211,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,7 +4223,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4310,6 +4343,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1300.1909338899823</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1577.8984968302393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4331,11 +4367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615199104"/>
-        <c:axId val="615201024"/>
+        <c:axId val="582182400"/>
+        <c:axId val="582183936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615199104"/>
+        <c:axId val="582182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,14 +4414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615201024"/>
+        <c:crossAx val="582183936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615201024"/>
+        <c:axId val="582183936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,7 +4472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615199104"/>
+        <c:crossAx val="582182400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4605,7 +4641,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4725,6 +4761,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,7 +4773,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4854,6 +4893,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4896,7 +4938,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5016,6 +5058,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5025,7 +5070,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5145,6 +5190,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>90464.430864548704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93643.88773919105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5187,7 +5235,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5307,6 +5355,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5316,7 +5367,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5436,6 +5487,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1464.4308645487035</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2643.8877391910501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5457,11 +5511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559172224"/>
-        <c:axId val="559190400"/>
+        <c:axId val="582214784"/>
+        <c:axId val="582216320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559172224"/>
+        <c:axId val="582214784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5504,14 +5558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559190400"/>
+        <c:crossAx val="582216320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559190400"/>
+        <c:axId val="582216320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5562,7 +5616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559172224"/>
+        <c:crossAx val="582214784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5731,7 +5785,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5851,6 +5905,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5860,7 +5917,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5980,6 +6037,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6022,7 +6082,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6142,6 +6202,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,7 +6214,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6271,6 +6334,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>84285.904206415464</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87384.806705460098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6313,7 +6379,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6433,6 +6499,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6442,7 +6511,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6562,6 +6631,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2285.9042064154637</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3384.8067054600979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6583,11 +6655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559206400"/>
-        <c:axId val="559207936"/>
+        <c:axId val="582415104"/>
+        <c:axId val="582416640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559206400"/>
+        <c:axId val="582415104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6630,14 +6702,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559207936"/>
+        <c:crossAx val="582416640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559207936"/>
+        <c:axId val="582416640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6688,7 +6760,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559206400"/>
+        <c:crossAx val="582415104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6857,7 +6929,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6977,6 +7049,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6986,7 +7061,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7106,6 +7181,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7148,7 +7226,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7268,6 +7346,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7277,7 +7358,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7397,6 +7478,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81950.268346608806</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85018.719299723365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7439,7 +7523,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7559,6 +7643,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7568,7 +7655,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7688,6 +7775,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1950.2683466088056</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3018.7192997233651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7709,11 +7799,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559264896"/>
-        <c:axId val="559266432"/>
+        <c:axId val="582771072"/>
+        <c:axId val="582772608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559264896"/>
+        <c:axId val="582771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7756,14 +7846,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559266432"/>
+        <c:crossAx val="582772608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559266432"/>
+        <c:axId val="582772608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7814,7 +7904,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559264896"/>
+        <c:crossAx val="582771072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8368,7 +8458,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9801,6 +9891,35 @@
         <v>1950.2683466088056</v>
       </c>
     </row>
+    <row r="43" spans="1:9" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="E43" s="19">
+        <v>109419.19974780621</v>
+      </c>
+      <c r="F43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="G43" s="19">
+        <v>82000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="I43" s="19">
+        <v>3018.7192997233651</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9812,7 +9931,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11351,6 +11470,38 @@
         <v>265.35751850843906</v>
       </c>
     </row>
+    <row r="43" spans="1:10" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F43" s="19">
+        <v>21577.898496830239</v>
+      </c>
+      <c r="G43" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>21577.898496830239</v>
+      </c>
+      <c r="I43" s="19">
+        <v>1577.8984968302393</v>
+      </c>
+      <c r="J43" s="7">
+        <v>15.433066648351565</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11362,7 +11513,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13379,6 +13530,50 @@
         <v>71.981168427775472</v>
       </c>
     </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="E43" s="19">
+        <v>120519.80248694509</v>
+      </c>
+      <c r="F43" s="19">
+        <v>93643.88773919105</v>
+      </c>
+      <c r="G43" s="19">
+        <v>91000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>93643.88773919105</v>
+      </c>
+      <c r="I43" s="19">
+        <v>2643.8877391910501</v>
+      </c>
+      <c r="J43" s="7">
+        <v>9.9999904632568359E-3</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2.8722259039386522E-2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>9.9999904632568359E-3</v>
+      </c>
+      <c r="M43" s="7">
+        <v>3.9253709790611303E-2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>73.17081415386707</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13390,7 +13585,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15790,6 +15985,59 @@
         <v>97.318163597327825</v>
       </c>
     </row>
+    <row r="43" spans="1:17" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="E43" s="19">
+        <v>112464.35724490248</v>
+      </c>
+      <c r="F43" s="19">
+        <v>87384.806705460098</v>
+      </c>
+      <c r="G43" s="19">
+        <v>84000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>87384.806705460098</v>
+      </c>
+      <c r="I43" s="19">
+        <v>3384.8067054600979</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N43" s="7">
+        <v>71.301774260986164</v>
+      </c>
+      <c r="O43" s="7">
+        <v>70.166312288008371</v>
+      </c>
+      <c r="P43" s="7">
+        <v>60.547964198412991</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>89.403008467199115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15801,7 +16049,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17357,6 +17605,38 @@
         <v>1950.2683466088056</v>
       </c>
     </row>
+    <row r="43" spans="1:10" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="17">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="F43" s="19">
+        <v>109419.19974780621</v>
+      </c>
+      <c r="G43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="H43" s="19">
+        <v>82000</v>
+      </c>
+      <c r="I43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="J43" s="19">
+        <v>3018.7192997233651</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2353,7 +2353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2476,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +2488,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2608,6 +2611,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,7 +2656,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2773,6 +2779,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,7 +2791,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2905,6 +2914,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>85018.719299723365</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87456.396985691987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2947,7 +2959,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3070,6 +3082,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,7 +3094,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3202,6 +3217,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3018.7192997233651</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3456.3969856919866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,11 +3241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98326400"/>
-        <c:axId val="98327936"/>
+        <c:axId val="472282624"/>
+        <c:axId val="472617344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98326400"/>
+        <c:axId val="472282624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,14 +3288,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98327936"/>
+        <c:crossAx val="472617344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98327936"/>
+        <c:axId val="472617344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3346,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98326400"/>
+        <c:crossAx val="472282624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3497,7 +3515,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3620,6 +3638,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,7 +3650,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3751,6 +3772,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3794,7 +3818,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3917,6 +3941,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3926,7 +3953,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4049,6 +4076,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>21577.898496830239</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21688.981853059871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,7 +4121,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4214,6 +4244,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4256,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4346,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1577.8984968302393</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1688.9818530598714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,11 +4403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582182400"/>
-        <c:axId val="582183936"/>
+        <c:axId val="603574272"/>
+        <c:axId val="603576192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582182400"/>
+        <c:axId val="603574272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,14 +4450,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582183936"/>
+        <c:crossAx val="603576192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582183936"/>
+        <c:axId val="603576192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4472,7 +4508,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582182400"/>
+        <c:crossAx val="603574272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4641,7 +4677,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4764,6 +4800,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4773,7 +4812,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4896,6 +4935,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>93000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4938,7 +4980,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5061,6 +5103,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5070,7 +5115,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5193,6 +5238,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>93643.88773919105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>96125.967926100289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5235,7 +5283,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5358,6 +5406,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5367,7 +5418,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5490,6 +5541,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2643.8877391910501</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3125.9679261002893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5511,11 +5565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582214784"/>
-        <c:axId val="582216320"/>
+        <c:axId val="602833664"/>
+        <c:axId val="602835200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582214784"/>
+        <c:axId val="602833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,14 +5612,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582216320"/>
+        <c:crossAx val="602835200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582216320"/>
+        <c:axId val="602835200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5616,7 +5670,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582214784"/>
+        <c:crossAx val="602833664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5785,7 +5839,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5908,6 +5962,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5917,7 +5974,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6040,6 +6097,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>86000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6082,7 +6142,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6205,6 +6265,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6214,7 +6277,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6337,6 +6400,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>87384.806705460098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89834.665046101858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6445,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6502,6 +6568,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,7 +6580,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6634,6 +6703,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3384.8067054600979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3834.665046101858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6655,11 +6727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582415104"/>
-        <c:axId val="582416640"/>
+        <c:axId val="602894720"/>
+        <c:axId val="602896256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582415104"/>
+        <c:axId val="602894720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,14 +6774,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582416640"/>
+        <c:crossAx val="602896256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582416640"/>
+        <c:axId val="602896256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6760,7 +6832,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582415104"/>
+        <c:crossAx val="602894720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6929,7 +7001,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7052,6 +7124,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7061,7 +7136,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7184,6 +7259,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7226,7 +7304,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7349,6 +7427,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7358,7 +7439,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7481,6 +7562,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>85018.719299723365</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87456.396985691987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7523,7 +7607,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7646,6 +7730,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7655,7 +7742,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7778,6 +7865,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3018.7192997233651</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3456.3969856919866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7799,11 +7889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582771072"/>
-        <c:axId val="582772608"/>
+        <c:axId val="602927488"/>
+        <c:axId val="602929024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582771072"/>
+        <c:axId val="602927488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7846,14 +7936,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582772608"/>
+        <c:crossAx val="602929024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582772608"/>
+        <c:axId val="602929024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7904,7 +7994,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582771072"/>
+        <c:crossAx val="602927488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8458,7 +8548,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9920,6 +10010,35 @@
         <v>3018.7192997233651</v>
       </c>
     </row>
+    <row r="44" spans="1:9" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E44" s="19">
+        <v>111980.01915062111</v>
+      </c>
+      <c r="F44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="G44" s="19">
+        <v>84000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="I44" s="19">
+        <v>3456.3969856919866</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9931,7 +10050,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11502,6 +11621,38 @@
         <v>15.433066648351565</v>
       </c>
     </row>
+    <row r="44" spans="1:10" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F44" s="19">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="G44" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="I44" s="19">
+        <v>1688.9818530598714</v>
+      </c>
+      <c r="J44" s="7">
+        <v>-59.010045260336092</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11513,7 +11664,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13574,6 +13725,50 @@
         <v>73.17081415386707</v>
       </c>
     </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E44" s="19">
+        <v>123080.62188975999</v>
+      </c>
+      <c r="F44" s="19">
+        <v>96125.967926100289</v>
+      </c>
+      <c r="G44" s="19">
+        <v>93000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>96125.967926100289</v>
+      </c>
+      <c r="I44" s="19">
+        <v>3125.9679261002893</v>
+      </c>
+      <c r="J44" s="7">
+        <v>4.0000081062316895E-3</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="L44" s="7">
+        <v>4.0000081062316895E-3</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>73.706679406225973</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13585,7 +13780,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16038,6 +16233,59 @@
         <v>89.403008467199115</v>
       </c>
     </row>
+    <row r="44" spans="1:17" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E44" s="19">
+        <v>115025.17664771738</v>
+      </c>
+      <c r="F44" s="19">
+        <v>89834.665046101858</v>
+      </c>
+      <c r="G44" s="19">
+        <v>86000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>89834.665046101858</v>
+      </c>
+      <c r="I44" s="19">
+        <v>3834.665046101858</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N44" s="7">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="O44" s="7">
+        <v>69.421221080104587</v>
+      </c>
+      <c r="P44" s="7">
+        <v>63.505716492310192</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>81.252230255693362</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16049,7 +16297,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17637,6 +17885,38 @@
         <v>3018.7192997233651</v>
       </c>
     </row>
+    <row r="44" spans="1:10" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="17">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="F44" s="19">
+        <v>111980.01915062111</v>
+      </c>
+      <c r="G44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="H44" s="19">
+        <v>84000</v>
+      </c>
+      <c r="I44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="J44" s="19">
+        <v>3456.3969856919866</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -1961,7 +1961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2012,7 +2012,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="231">
     <cellStyle name="20% - 着色 1" xfId="3"/>
@@ -3251,11 +3250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524109312"/>
-        <c:axId val="524110848"/>
+        <c:axId val="446327040"/>
+        <c:axId val="453157248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524109312"/>
+        <c:axId val="446327040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,14 +3297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524110848"/>
+        <c:crossAx val="453157248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524110848"/>
+        <c:axId val="453157248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3356,7 +3355,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524109312"/>
+        <c:crossAx val="446327040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4431,11 +4430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524141696"/>
-        <c:axId val="524143232"/>
+        <c:axId val="457359744"/>
+        <c:axId val="457361280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524141696"/>
+        <c:axId val="457359744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,14 +4477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524143232"/>
+        <c:crossAx val="457361280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524143232"/>
+        <c:axId val="457361280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524141696"/>
+        <c:crossAx val="457359744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5611,11 +5610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524403456"/>
-        <c:axId val="524404992"/>
+        <c:axId val="535211008"/>
+        <c:axId val="541710592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524403456"/>
+        <c:axId val="535211008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5658,14 +5657,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524404992"/>
+        <c:crossAx val="541710592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524404992"/>
+        <c:axId val="541710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5716,7 +5715,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524403456"/>
+        <c:crossAx val="535211008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6791,11 +6790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524431744"/>
-        <c:axId val="524433280"/>
+        <c:axId val="520966528"/>
+        <c:axId val="520968064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524431744"/>
+        <c:axId val="520966528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,14 +6837,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524433280"/>
+        <c:crossAx val="520968064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524433280"/>
+        <c:axId val="520968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6896,7 +6895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524431744"/>
+        <c:crossAx val="520966528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7971,11 +7970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524500992"/>
-        <c:axId val="524502528"/>
+        <c:axId val="521027584"/>
+        <c:axId val="521029120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524500992"/>
+        <c:axId val="521027584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8018,14 +8017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524502528"/>
+        <c:crossAx val="521029120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524502528"/>
+        <c:axId val="521029120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8076,7 +8075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524500992"/>
+        <c:crossAx val="521027584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8630,7 +8629,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10206,9 +10205,6 @@
         <v>4352.232279839649</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10220,7 +10216,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11911,9 +11907,6 @@
         <v>-30.986086283622882</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11925,7 +11918,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14130,9 +14123,6 @@
         <v>74.909406364253414</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14144,7 +14134,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16759,9 +16749,6 @@
         <v>78.295111835872916</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16773,7 +16760,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18481,9 +18468,6 @@
         <v>4352.232279839649</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2473,6 +2473,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,7 +2485,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2611,6 +2614,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2653,7 +2659,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2782,6 +2788,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,7 +2800,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2920,6 +2929,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>90352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2962,7 +2974,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3091,6 +3103,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3100,7 +3115,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3229,6 +3244,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,11 +3268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446327040"/>
-        <c:axId val="453157248"/>
+        <c:axId val="367347584"/>
+        <c:axId val="384789888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446327040"/>
+        <c:axId val="367347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,14 +3315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453157248"/>
+        <c:crossAx val="384789888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453157248"/>
+        <c:axId val="384789888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,7 +3373,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446327040"/>
+        <c:crossAx val="367347584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3524,7 +3542,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3653,6 +3671,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,7 +3683,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3790,6 +3811,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3833,7 +3857,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3962,6 +3986,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,7 +3998,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4100,6 +4127,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>21911.146910251489</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21688.981853059871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4142,7 +4172,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4271,6 +4301,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,7 +4313,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4409,6 +4442,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1911.1469102514893</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1688.9818530598714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4430,11 +4466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457359744"/>
-        <c:axId val="457361280"/>
+        <c:axId val="611698944"/>
+        <c:axId val="613269888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457359744"/>
+        <c:axId val="611698944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4477,14 +4513,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457361280"/>
+        <c:crossAx val="613269888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457361280"/>
+        <c:axId val="613269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,7 +4571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457359744"/>
+        <c:crossAx val="611698944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4704,7 +4740,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4833,6 +4869,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4842,7 +4881,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4971,6 +5010,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>97000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5013,7 +5055,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5142,6 +5184,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5151,7 +5196,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5280,6 +5325,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>99110.607560481702</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100105.68920147656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5322,7 +5370,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5451,6 +5499,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5460,7 +5511,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5589,6 +5640,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4110.6075604817015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3105.6892014765617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,11 +5664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535211008"/>
-        <c:axId val="541710592"/>
+        <c:axId val="613337344"/>
+        <c:axId val="613339136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535211008"/>
+        <c:axId val="613337344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5657,14 +5711,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541710592"/>
+        <c:crossAx val="613339136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541710592"/>
+        <c:axId val="613339136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5715,7 +5769,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535211008"/>
+        <c:crossAx val="613337344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5884,7 +5938,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6013,6 +6067,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6022,7 +6079,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6151,6 +6208,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6193,7 +6253,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6322,6 +6382,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6331,7 +6394,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6460,6 +6523,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>92754.861468090268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93814.38632147813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6502,7 +6568,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6631,6 +6697,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6640,7 +6709,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6769,6 +6838,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4754.8614680902683</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3814.3863214781304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6790,11 +6862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520966528"/>
-        <c:axId val="520968064"/>
+        <c:axId val="613689216"/>
+        <c:axId val="613690752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520966528"/>
+        <c:axId val="613689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6837,14 +6909,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520968064"/>
+        <c:crossAx val="613690752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520968064"/>
+        <c:axId val="613690752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6895,7 +6967,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520966528"/>
+        <c:crossAx val="613689216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7064,7 +7136,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7193,6 +7265,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,7 +7277,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7331,6 +7406,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7373,7 +7451,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7502,6 +7580,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7511,7 +7592,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7640,6 +7721,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>90352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7682,7 +7766,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7811,6 +7895,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7820,7 +7907,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7949,6 +8036,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7970,11 +8060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521027584"/>
-        <c:axId val="521029120"/>
+        <c:axId val="613824000"/>
+        <c:axId val="613825536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521027584"/>
+        <c:axId val="613824000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8017,14 +8107,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521029120"/>
+        <c:crossAx val="613825536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521029120"/>
+        <c:axId val="613825536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8075,7 +8165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521027584"/>
+        <c:crossAx val="613824000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8629,7 +8719,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10205,6 +10295,35 @@
         <v>4352.232279839649</v>
       </c>
     </row>
+    <row r="46" spans="1:9" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E46" s="18">
+        <v>117075.69288051051</v>
+      </c>
+      <c r="F46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="G46" s="18">
+        <v>88000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="I46" s="18">
+        <v>3436.118261068259</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10216,7 +10335,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11907,6 +12026,38 @@
         <v>-30.986086283622882</v>
       </c>
     </row>
+    <row r="46" spans="1:10" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F46" s="18">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="G46" s="18">
+        <v>20000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1688.9818530598714</v>
+      </c>
+      <c r="J46" s="6">
+        <v>63.311229058108523</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11918,7 +12069,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14123,6 +14274,50 @@
         <v>74.909406364253414</v>
       </c>
     </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E46" s="18">
+        <v>128176.29561964939</v>
+      </c>
+      <c r="F46" s="18">
+        <v>100105.68920147656</v>
+      </c>
+      <c r="G46" s="18">
+        <v>97000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>100105.68920147656</v>
+      </c>
+      <c r="I46" s="18">
+        <v>3105.6892014765617</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="L46" s="6">
+        <v>7.9999566078186035E-3</v>
+      </c>
+      <c r="M46" s="6">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>71.01149881830726</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14134,7 +14329,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16749,6 +16944,59 @@
         <v>78.295111835872916</v>
       </c>
     </row>
+    <row r="46" spans="1:17" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E46" s="18">
+        <v>120120.85037760678</v>
+      </c>
+      <c r="F46" s="18">
+        <v>93814.38632147813</v>
+      </c>
+      <c r="G46" s="18">
+        <v>90000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>93814.38632147813</v>
+      </c>
+      <c r="I46" s="18">
+        <v>3814.3863214781304</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N46" s="6">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="O46" s="6">
+        <v>69.206365409704674</v>
+      </c>
+      <c r="P46" s="6">
+        <v>66.814446640352415</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>73.990202948409177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16760,7 +17008,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18468,6 +18716,38 @@
         <v>4352.232279839649</v>
       </c>
     </row>
+    <row r="46" spans="1:10" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="F46" s="18">
+        <v>117075.69288051051</v>
+      </c>
+      <c r="G46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="H46" s="18">
+        <v>88000</v>
+      </c>
+      <c r="I46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="J46" s="18">
+        <v>3436.118261068259</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2476,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +2488,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2617,6 +2620,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,7 +2665,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2791,6 +2797,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2800,7 +2809,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2932,6 +2941,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>91436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98821.600580180064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,7 +2986,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3106,6 +3118,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3115,7 +3130,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3247,6 +3262,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8821.6005801800638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,11 +3286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367347584"/>
-        <c:axId val="384789888"/>
+        <c:axId val="442541568"/>
+        <c:axId val="442543488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367347584"/>
+        <c:axId val="442541568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3315,14 +3333,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384789888"/>
+        <c:crossAx val="442543488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="384789888"/>
+        <c:axId val="442543488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,7 +3391,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367347584"/>
+        <c:crossAx val="442541568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3542,7 +3560,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3674,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3704,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3814,6 +3835,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3857,7 +3881,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3989,6 +4013,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3998,7 +4025,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4130,6 +4157,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>21688.981853059871</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22966.437966799167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,7 +4202,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4304,6 +4334,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,7 +4346,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4445,6 +4478,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1688.9818530598714</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2966.437966799167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4466,11 +4502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="611698944"/>
-        <c:axId val="613269888"/>
+        <c:axId val="551084416"/>
+        <c:axId val="551086336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="611698944"/>
+        <c:axId val="551084416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4513,14 +4549,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613269888"/>
+        <c:crossAx val="551086336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613269888"/>
+        <c:axId val="551086336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,7 +4607,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611698944"/>
+        <c:crossAx val="551084416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4740,7 +4776,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4872,6 +4908,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4881,7 +4920,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5013,6 +5052,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5055,7 +5097,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5187,6 +5229,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5196,7 +5241,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5328,6 +5373,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>100105.68920147656</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108001.79928893418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5370,7 +5418,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5502,6 +5550,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5511,7 +5562,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5643,6 +5694,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3105.6892014765617</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9001.799288934184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5664,11 +5718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613337344"/>
-        <c:axId val="613339136"/>
+        <c:axId val="515535232"/>
+        <c:axId val="515536768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613337344"/>
+        <c:axId val="515535232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5711,14 +5765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613339136"/>
+        <c:crossAx val="515536768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613339136"/>
+        <c:axId val="515536768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5769,7 +5823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613337344"/>
+        <c:crossAx val="515535232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5938,7 +5992,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6070,6 +6124,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6079,7 +6136,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6211,6 +6268,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6253,7 +6313,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6385,6 +6445,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6394,7 +6457,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6526,6 +6589,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>93814.38632147813</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>101339.94589707271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6568,7 +6634,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6700,6 +6766,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6709,7 +6778,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6841,6 +6910,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3814.3863214781304</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9339.9458970727137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6862,11 +6934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613689216"/>
-        <c:axId val="613690752"/>
+        <c:axId val="515596288"/>
+        <c:axId val="515597824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613689216"/>
+        <c:axId val="515596288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6909,14 +6981,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613690752"/>
+        <c:crossAx val="515597824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613690752"/>
+        <c:axId val="515597824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6967,7 +7039,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613689216"/>
+        <c:crossAx val="515596288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7136,7 +7208,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7268,6 +7340,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7277,7 +7352,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7409,6 +7484,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7451,7 +7529,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7583,6 +7661,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7592,7 +7673,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7724,6 +7805,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>91436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98821.600580180064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7766,7 +7850,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7898,6 +7982,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7907,7 +7994,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8039,6 +8126,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8821.6005801800638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8060,11 +8150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613824000"/>
-        <c:axId val="613825536"/>
+        <c:axId val="515616128"/>
+        <c:axId val="515622016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613824000"/>
+        <c:axId val="515616128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8107,14 +8197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613825536"/>
+        <c:crossAx val="515622016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613825536"/>
+        <c:axId val="515622016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8165,7 +8255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613824000"/>
+        <c:crossAx val="515616128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8719,7 +8809,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10324,6 +10414,35 @@
         <v>3436.118261068259</v>
       </c>
     </row>
+    <row r="47" spans="1:9" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="E47" s="18">
+        <v>119494.0725019785</v>
+      </c>
+      <c r="F47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="G47" s="18">
+        <v>90000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="I47" s="18">
+        <v>8821.6005801800638</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10335,7 +10454,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12058,6 +12177,38 @@
         <v>63.311229058108523</v>
       </c>
     </row>
+    <row r="47" spans="1:10" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0</v>
+      </c>
+      <c r="E47" s="18">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F47" s="18">
+        <v>22966.437966799167</v>
+      </c>
+      <c r="G47" s="18">
+        <v>20000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>22966.437966799167</v>
+      </c>
+      <c r="I47" s="18">
+        <v>2966.437966799167</v>
+      </c>
+      <c r="J47" s="6">
+        <v>-39.803160451219114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12069,7 +12220,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14318,6 +14469,50 @@
         <v>71.01149881830726</v>
       </c>
     </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="E47" s="18">
+        <v>130594.67524111738</v>
+      </c>
+      <c r="F47" s="18">
+        <v>108001.79928893418</v>
+      </c>
+      <c r="G47" s="18">
+        <v>99000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>108001.79928893418</v>
+      </c>
+      <c r="I47" s="18">
+        <v>9001.799288934184</v>
+      </c>
+      <c r="J47" s="6">
+        <v>4.6000003814697266E-2</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="L47" s="6">
+        <v>4.6000003814697266E-2</v>
+      </c>
+      <c r="M47" s="6">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>78.66991867782771</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14329,7 +14524,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16997,6 +17192,59 @@
         <v>73.990202948409177</v>
       </c>
     </row>
+    <row r="47" spans="1:17" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="E47" s="18">
+        <v>122539.22999907477</v>
+      </c>
+      <c r="F47" s="18">
+        <v>101339.94589707271</v>
+      </c>
+      <c r="G47" s="18">
+        <v>92000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>101339.94589707271</v>
+      </c>
+      <c r="I47" s="18">
+        <v>9339.9458970727137</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N47" s="6">
+        <v>83.79310777156131</v>
+      </c>
+      <c r="O47" s="6">
+        <v>74.068612863656881</v>
+      </c>
+      <c r="P47" s="6">
+        <v>69.232502048120566</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>83.740834494729512</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17008,7 +17256,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18748,6 +18996,38 @@
         <v>3436.118261068259</v>
       </c>
     </row>
+    <row r="47" spans="1:10" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="F47" s="18">
+        <v>119494.0725019785</v>
+      </c>
+      <c r="G47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="H47" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="J47" s="18">
+        <v>8821.6005801800638</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2479,6 +2479,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,7 +2491,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2623,6 +2626,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,7 +2671,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2800,6 +2806,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,7 +2818,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2944,6 +2953,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>98821.600580180064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99268.176270153213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,7 +2998,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3121,6 +3133,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,7 +3145,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3265,6 +3280,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>8821.6005801800638</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7268.1762701532134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,11 +3304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442541568"/>
-        <c:axId val="442543488"/>
+        <c:axId val="161388800"/>
+        <c:axId val="386951808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442541568"/>
+        <c:axId val="161388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,14 +3351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442543488"/>
+        <c:crossAx val="386951808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442543488"/>
+        <c:axId val="386951808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,7 +3409,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442541568"/>
+        <c:crossAx val="161388800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3560,7 +3578,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3695,6 +3713,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,7 +3725,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3839,6 +3860,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,7 +3905,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4016,6 +4040,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4025,7 +4052,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4160,6 +4187,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>22966.437966799167</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24605.417472869776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,7 +4232,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4337,6 +4367,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,7 +4379,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4481,6 +4514,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2966.437966799167</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2605.4174728697762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4502,11 +4538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551084416"/>
-        <c:axId val="551086336"/>
+        <c:axId val="475603712"/>
+        <c:axId val="475605632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551084416"/>
+        <c:axId val="475603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4549,14 +4585,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551086336"/>
+        <c:crossAx val="475605632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551086336"/>
+        <c:axId val="475605632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4607,7 +4643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551084416"/>
+        <c:crossAx val="475603712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4776,7 +4812,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4911,6 +4947,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4920,7 +4959,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5055,6 +5094,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5097,7 +5139,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5232,6 +5274,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5241,7 +5286,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5376,6 +5421,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>108001.79928893418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>108304.06701626221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5418,7 +5466,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5553,6 +5601,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5562,7 +5613,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5697,6 +5748,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>9001.799288934184</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7304.0670162622118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5718,11 +5772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515535232"/>
-        <c:axId val="515536768"/>
+        <c:axId val="521282688"/>
+        <c:axId val="521284224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515535232"/>
+        <c:axId val="521282688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,14 +5819,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515536768"/>
+        <c:crossAx val="521284224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515536768"/>
+        <c:axId val="521284224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +5877,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515535232"/>
+        <c:crossAx val="521282688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5992,7 +6046,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6127,6 +6181,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,7 +6193,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6271,6 +6328,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6313,7 +6373,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6448,6 +6508,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6457,7 +6520,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6592,6 +6655,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>101339.94589707271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101746.93450473454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6634,7 +6700,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6769,6 +6835,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6778,7 +6847,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6913,6 +6982,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>9339.9458970727137</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7746.9345047345414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6934,11 +7006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515596288"/>
-        <c:axId val="515597824"/>
+        <c:axId val="523248384"/>
+        <c:axId val="523249920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515596288"/>
+        <c:axId val="523248384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6981,14 +7053,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515597824"/>
+        <c:crossAx val="523249920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515597824"/>
+        <c:axId val="523249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7039,7 +7111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515596288"/>
+        <c:crossAx val="523248384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7208,7 +7280,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7343,6 +7415,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7352,7 +7427,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7487,6 +7562,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7529,7 +7607,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7664,6 +7742,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7673,7 +7754,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7808,6 +7889,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>98821.600580180064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99268.176270153213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7850,7 +7934,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7985,6 +8069,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7994,7 +8081,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8129,6 +8216,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>8821.6005801800638</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7268.1762701532134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8150,11 +8240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515616128"/>
-        <c:axId val="515622016"/>
+        <c:axId val="523272576"/>
+        <c:axId val="523274112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515616128"/>
+        <c:axId val="523272576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8197,14 +8287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515622016"/>
+        <c:crossAx val="523274112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515622016"/>
+        <c:axId val="523274112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8255,7 +8345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515616128"/>
+        <c:crossAx val="523272576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8809,7 +8899,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10443,6 +10533,35 @@
         <v>8821.6005801800638</v>
       </c>
     </row>
+    <row r="48" spans="1:9" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>121951.07492731637</v>
+      </c>
+      <c r="F48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="G48" s="18">
+        <v>92000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="I48" s="18">
+        <v>7268.1762701532134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10454,7 +10573,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12209,6 +12328,38 @@
         <v>-39.803160451219114</v>
       </c>
     </row>
+    <row r="48" spans="1:10" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>30227.78520364581</v>
+      </c>
+      <c r="F48" s="18">
+        <v>24605.417472869776</v>
+      </c>
+      <c r="G48" s="18">
+        <v>22000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>24605.417472869776</v>
+      </c>
+      <c r="I48" s="18">
+        <v>2605.4174728697762</v>
+      </c>
+      <c r="J48" s="6">
+        <v>-119.64106934981089</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12220,7 +12371,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14513,6 +14664,50 @@
         <v>78.66991867782771</v>
       </c>
     </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>133051.67766645525</v>
+      </c>
+      <c r="F48" s="18">
+        <v>108304.06701626221</v>
+      </c>
+      <c r="G48" s="18">
+        <v>101000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>108304.06701626221</v>
+      </c>
+      <c r="I48" s="18">
+        <v>7304.0670162622118</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1.9024824606509089E-2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="M48" s="6">
+        <v>2.6349767941920243E-2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>72.201108747687343</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14524,7 +14719,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17245,6 +17440,59 @@
         <v>83.740834494729512</v>
       </c>
     </row>
+    <row r="48" spans="1:17" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>124996.23242441264</v>
+      </c>
+      <c r="F48" s="18">
+        <v>101746.93450473454</v>
+      </c>
+      <c r="G48" s="18">
+        <v>94000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>101746.93450473454</v>
+      </c>
+      <c r="I48" s="18">
+        <v>7746.9345047345414</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N48" s="6">
+        <v>79.31034553632152</v>
+      </c>
+      <c r="O48" s="6">
+        <v>75.815857087878427</v>
+      </c>
+      <c r="P48" s="6">
+        <v>71.426953728039848</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>84.593663807555572</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17256,7 +17504,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19028,6 +19276,38 @@
         <v>8821.6005801800638</v>
       </c>
     </row>
+    <row r="48" spans="1:10" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="F48" s="18">
+        <v>121951.07492731637</v>
+      </c>
+      <c r="G48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="H48" s="18">
+        <v>92000</v>
+      </c>
+      <c r="I48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="J48" s="18">
+        <v>7268.1762701532134</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2482,6 +2482,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,7 +2494,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2629,6 +2632,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,7 +2677,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2809,6 +2815,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,7 +2827,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2956,6 +2965,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>99268.176270153213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95780.375863145833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,7 +3010,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3136,6 +3148,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3145,7 +3160,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3283,6 +3298,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7268.1762701532134</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1780.3758631458331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,11 +3322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161388800"/>
-        <c:axId val="386951808"/>
+        <c:axId val="449369216"/>
+        <c:axId val="449371136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161388800"/>
+        <c:axId val="449369216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,14 +3369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386951808"/>
+        <c:crossAx val="449371136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="386951808"/>
+        <c:axId val="449371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,7 +3427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161388800"/>
+        <c:crossAx val="449369216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3578,7 +3596,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3716,6 +3734,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,7 +3746,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3862,6 +3883,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>22000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3905,7 +3929,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4043,6 +4067,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4052,7 +4079,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4190,6 +4217,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>24605.417472869776</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23245.166634225123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4232,7 +4262,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4370,6 +4400,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4379,7 +4412,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4517,6 +4550,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2605.4174728697762</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1245.1666342251228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,11 +4574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475603712"/>
-        <c:axId val="475605632"/>
+        <c:axId val="530975744"/>
+        <c:axId val="532898560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475603712"/>
+        <c:axId val="530975744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4585,14 +4621,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475605632"/>
+        <c:crossAx val="532898560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475605632"/>
+        <c:axId val="532898560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +4679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475603712"/>
+        <c:crossAx val="530975744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4812,7 +4848,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4950,6 +4986,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4959,7 +4998,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5097,6 +5136,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>101000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5139,7 +5181,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5277,6 +5319,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5286,7 +5331,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5424,6 +5469,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>108304.06701626221</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>104316.7393007323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,7 +5514,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5604,6 +5652,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5613,7 +5664,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5751,6 +5802,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7304.0670162622118</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1316.7393007322971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5772,11 +5826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521282688"/>
-        <c:axId val="521284224"/>
+        <c:axId val="522185728"/>
+        <c:axId val="522187520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521282688"/>
+        <c:axId val="522185728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5819,14 +5873,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521284224"/>
+        <c:crossAx val="522187520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521284224"/>
+        <c:axId val="522187520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5877,7 +5931,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521282688"/>
+        <c:crossAx val="522185728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6046,7 +6100,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6184,6 +6238,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6193,7 +6250,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6331,6 +6388,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6373,7 +6433,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6511,6 +6571,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6520,7 +6583,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6658,6 +6721,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>101746.93450473454</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98122.101959536289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6700,7 +6766,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6838,6 +6904,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6847,7 +6916,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6985,6 +7054,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7746.9345047345414</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2122.1019595362886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7006,11 +7078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523248384"/>
-        <c:axId val="523249920"/>
+        <c:axId val="528050816"/>
+        <c:axId val="528060800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523248384"/>
+        <c:axId val="528050816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7053,14 +7125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523249920"/>
+        <c:crossAx val="528060800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523249920"/>
+        <c:axId val="528060800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7111,7 +7183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523248384"/>
+        <c:crossAx val="528050816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7280,7 +7352,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7418,6 +7490,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7427,7 +7502,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7565,6 +7640,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7607,7 +7685,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7745,6 +7823,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7754,7 +7835,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7892,6 +7973,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>99268.176270153213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95780.375863145833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7934,7 +8018,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8072,6 +8156,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8081,7 +8168,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8219,6 +8306,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7268.1762701532134</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1780.3758631458331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8240,11 +8330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523272576"/>
-        <c:axId val="523274112"/>
+        <c:axId val="528832768"/>
+        <c:axId val="528834560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523272576"/>
+        <c:axId val="528832768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8287,14 +8377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523274112"/>
+        <c:crossAx val="528834560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523274112"/>
+        <c:axId val="528834560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8345,7 +8435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523272576"/>
+        <c:crossAx val="528832768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8899,7 +8989,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10562,6 +10652,35 @@
         <v>7268.1762701532134</v>
       </c>
     </row>
+    <row r="49" spans="1:9" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="E49" s="18">
+        <v>124551.85518235138</v>
+      </c>
+      <c r="F49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="G49" s="18">
+        <v>94000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1780.3758631458331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10573,7 +10692,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12360,6 +12479,38 @@
         <v>-119.64106934981089</v>
       </c>
     </row>
+    <row r="49" spans="1:10" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0</v>
+      </c>
+      <c r="D49" s="18">
+        <v>0</v>
+      </c>
+      <c r="E49" s="18">
+        <v>30227.78520364581</v>
+      </c>
+      <c r="F49" s="18">
+        <v>23245.166634225123</v>
+      </c>
+      <c r="G49" s="18">
+        <v>22000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>23245.166634225123</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1245.1666342251228</v>
+      </c>
+      <c r="J49" s="6">
+        <v>80.163519018203786</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12371,7 +12522,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14708,6 +14859,50 @@
         <v>72.201108747687343</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="E49" s="18">
+        <v>135652.45792149028</v>
+      </c>
+      <c r="F49" s="18">
+        <v>104316.7393007323</v>
+      </c>
+      <c r="G49" s="18">
+        <v>103000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>104316.7393007323</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1316.7393007322971</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1.5854020505424241E-2</v>
+      </c>
+      <c r="L49" s="6">
+        <v>4.5000016689300537E-2</v>
+      </c>
+      <c r="M49" s="6">
+        <v>2.9458142733150294E-2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>53.818805377649106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14719,7 +14914,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17493,6 +17688,59 @@
         <v>84.593663807555572</v>
       </c>
     </row>
+    <row r="49" spans="1:17" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="E49" s="18">
+        <v>127597.01267944765</v>
+      </c>
+      <c r="F49" s="18">
+        <v>98122.101959536289</v>
+      </c>
+      <c r="G49" s="18">
+        <v>96000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>98122.101959536289</v>
+      </c>
+      <c r="I49" s="18">
+        <v>2122.1019595362886</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N49" s="6">
+        <v>63.793099550231602</v>
+      </c>
+      <c r="O49" s="6">
+        <v>71.808271241996152</v>
+      </c>
+      <c r="P49" s="6">
+        <v>71.554059566025288</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>72.316694593937882</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17504,7 +17752,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19308,6 +19556,38 @@
         <v>7268.1762701532134</v>
       </c>
     </row>
+    <row r="49" spans="1:10" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="16">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="F49" s="18">
+        <v>124551.85518235138</v>
+      </c>
+      <c r="G49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="H49" s="18">
+        <v>94000</v>
+      </c>
+      <c r="I49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="J49" s="18">
+        <v>1780.3758631458331</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2485,6 +2485,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2494,7 +2497,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2635,6 +2638,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,7 +2683,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2818,6 +2824,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,7 +2836,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2968,6 +2977,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95780.375863145833</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99399.55140589927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +3022,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3151,6 +3163,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,7 +3175,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3301,6 +3316,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1780.3758631458331</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3399.5514058992703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,11 +3340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449369216"/>
-        <c:axId val="449371136"/>
+        <c:axId val="542405376"/>
+        <c:axId val="542407296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449369216"/>
+        <c:axId val="542405376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,14 +3387,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449371136"/>
+        <c:crossAx val="542407296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449371136"/>
+        <c:axId val="542407296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,7 +3445,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449369216"/>
+        <c:crossAx val="542405376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3596,7 +3614,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3737,6 +3755,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3746,7 +3767,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3887,6 +3908,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,7 +3953,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4070,6 +4094,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,7 +4106,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4220,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>23245.166634225123</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25638.128187802067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,7 +4292,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4403,6 +4433,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4445,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4553,6 +4586,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1245.1666342251228</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1638.1281878020673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4574,11 +4610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530975744"/>
-        <c:axId val="532898560"/>
+        <c:axId val="593726080"/>
+        <c:axId val="598475136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530975744"/>
+        <c:axId val="593726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4621,14 +4657,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532898560"/>
+        <c:crossAx val="598475136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532898560"/>
+        <c:axId val="598475136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,7 +4715,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530975744"/>
+        <c:crossAx val="593726080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4848,7 +4884,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4989,6 +5025,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4998,7 +5037,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5139,6 +5178,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>103000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,7 +5223,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5322,6 +5364,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5331,7 +5376,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5472,6 +5517,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>104316.7393007323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108080.22280613086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5514,7 +5562,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5655,6 +5703,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5664,7 +5715,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5805,6 +5856,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1316.7393007322971</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3080.222806130856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5826,11 +5880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522185728"/>
-        <c:axId val="522187520"/>
+        <c:axId val="704251008"/>
+        <c:axId val="667083136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522185728"/>
+        <c:axId val="704251008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5873,14 +5927,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522187520"/>
+        <c:crossAx val="667083136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522187520"/>
+        <c:axId val="667083136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5931,7 +5985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522185728"/>
+        <c:crossAx val="704251008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6100,7 +6154,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6241,6 +6295,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6250,7 +6307,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6391,6 +6448,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6433,7 +6493,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6574,6 +6634,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6583,7 +6646,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6724,6 +6787,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>98122.101959536289</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>101780.86458460103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6766,7 +6832,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6907,6 +6973,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6916,7 +6985,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7057,6 +7126,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2122.1019595362886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3780.8645846010331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7078,11 +7150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528050816"/>
-        <c:axId val="528060800"/>
+        <c:axId val="667121920"/>
+        <c:axId val="667127808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528050816"/>
+        <c:axId val="667121920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7125,14 +7197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528060800"/>
+        <c:crossAx val="667127808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528060800"/>
+        <c:axId val="667127808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528050816"/>
+        <c:crossAx val="667121920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7352,7 +7424,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7493,6 +7565,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7502,7 +7577,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7643,6 +7718,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7685,7 +7763,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7826,6 +7904,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7835,7 +7916,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7976,6 +8057,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95780.375863145833</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99399.55140589927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8018,7 +8102,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8159,6 +8243,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8168,7 +8255,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8309,6 +8396,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1780.3758631458331</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3399.5514058992703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8330,11 +8420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528832768"/>
-        <c:axId val="528834560"/>
+        <c:axId val="667187072"/>
+        <c:axId val="667188608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528832768"/>
+        <c:axId val="667187072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8377,14 +8467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528834560"/>
+        <c:crossAx val="667188608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528834560"/>
+        <c:axId val="667188608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8435,7 +8525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528832768"/>
+        <c:crossAx val="667187072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8989,7 +9079,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10681,6 +10771,35 @@
         <v>1780.3758631458331</v>
       </c>
     </row>
+    <row r="50" spans="1:9" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>127109.39992223009</v>
+      </c>
+      <c r="F50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="G50" s="18">
+        <v>96000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="I50" s="18">
+        <v>3399.5514058992703</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10692,7 +10811,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12511,6 +12630,38 @@
         <v>80.163519018203786</v>
       </c>
     </row>
+    <row r="50" spans="1:10" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F50" s="18">
+        <v>25638.128187802067</v>
+      </c>
+      <c r="G50" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>25638.128187802067</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1638.1281878020673</v>
+      </c>
+      <c r="J50" s="6">
+        <v>-112.23623009437114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12522,7 +12673,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14903,6 +15054,50 @@
         <v>53.818805377649106</v>
       </c>
     </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>138210.00266136898</v>
+      </c>
+      <c r="F50" s="18">
+        <v>108080.22280613086</v>
+      </c>
+      <c r="G50" s="18">
+        <v>105000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>108080.22280613086</v>
+      </c>
+      <c r="I50" s="18">
+        <v>3080.222806130856</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1.5378352328535501E-2</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="M50" s="6">
+        <v>2.6715120851640545E-2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>57.56422519642517</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14914,7 +15109,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17741,6 +17936,59 @@
         <v>72.316694593937882</v>
       </c>
     </row>
+    <row r="50" spans="1:17" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>130154.55741932636</v>
+      </c>
+      <c r="F50" s="18">
+        <v>101780.86458460103</v>
+      </c>
+      <c r="G50" s="18">
+        <v>98000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>101780.86458460103</v>
+      </c>
+      <c r="I50" s="18">
+        <v>3780.8645846010331</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="N50" s="6">
+        <v>67.719298539142571</v>
+      </c>
+      <c r="O50" s="6">
+        <v>70.445280341044963</v>
+      </c>
+      <c r="P50" s="6">
+        <v>71.184466491031841</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>68.966908041071207</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17752,7 +18000,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19588,6 +19836,38 @@
         <v>1780.3758631458331</v>
       </c>
     </row>
+    <row r="50" spans="1:10" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="16">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="F50" s="18">
+        <v>127109.39992223009</v>
+      </c>
+      <c r="G50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="H50" s="18">
+        <v>96000</v>
+      </c>
+      <c r="I50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="J50" s="18">
+        <v>3399.5514058992703</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2488,6 +2488,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2497,7 +2500,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2641,6 +2644,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2683,7 +2689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2827,6 +2833,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,7 +2845,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2980,6 +2989,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99399.55140589927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105212.82976693707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,7 +3034,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3166,6 +3178,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,7 +3190,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3319,6 +3334,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3399.5514058992703</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7212.8297669370659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,11 +3358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542405376"/>
-        <c:axId val="542407296"/>
+        <c:axId val="161232384"/>
+        <c:axId val="161234304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542405376"/>
+        <c:axId val="161232384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,14 +3405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542407296"/>
+        <c:crossAx val="161234304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542407296"/>
+        <c:axId val="161234304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,7 +3463,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542405376"/>
+        <c:crossAx val="161232384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3614,7 +3632,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3758,6 +3776,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,7 +3788,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3910,6 +3931,9 @@
                   <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3953,7 +3977,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4097,6 +4121,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4106,7 +4133,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4250,6 +4277,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>25638.128187802067</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26621.687148111989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4292,7 +4322,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4436,6 +4466,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,7 +4478,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4589,6 +4622,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1638.1281878020673</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2621.6871481119888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4610,11 +4646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593726080"/>
-        <c:axId val="598475136"/>
+        <c:axId val="161876608"/>
+        <c:axId val="297877888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593726080"/>
+        <c:axId val="161876608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,14 +4693,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598475136"/>
+        <c:crossAx val="297877888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598475136"/>
+        <c:axId val="297877888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,7 +4751,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593726080"/>
+        <c:crossAx val="161876608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4884,7 +4920,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5028,6 +5064,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5037,7 +5076,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5181,6 +5220,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5223,7 +5265,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5367,6 +5409,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5376,7 +5421,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5520,6 +5565,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>108080.22280613086</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>114226.51893175203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5562,7 +5610,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5706,6 +5754,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5715,7 +5766,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5859,6 +5910,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3080.222806130856</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7226.5189317520271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5880,11 +5934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704251008"/>
-        <c:axId val="667083136"/>
+        <c:axId val="443996032"/>
+        <c:axId val="444002688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704251008"/>
+        <c:axId val="443996032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5927,14 +5981,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667083136"/>
+        <c:crossAx val="444002688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="667083136"/>
+        <c:axId val="444002688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5985,7 +6039,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704251008"/>
+        <c:crossAx val="443996032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6154,7 +6208,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6298,6 +6352,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6307,7 +6364,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6451,6 +6508,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,7 +6553,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6637,6 +6697,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6646,7 +6709,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6790,6 +6853,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>101780.86458460103</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107685.49758342907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6832,7 +6898,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6976,6 +7042,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6985,7 +7054,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7129,6 +7198,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3780.8645846010331</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7685.4975834290672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7150,11 +7222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="667121920"/>
-        <c:axId val="667127808"/>
+        <c:axId val="551375616"/>
+        <c:axId val="551377152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="667121920"/>
+        <c:axId val="551375616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7197,14 +7269,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667127808"/>
+        <c:crossAx val="551377152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="667127808"/>
+        <c:axId val="551377152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,7 +7327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667121920"/>
+        <c:crossAx val="551375616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7424,7 +7496,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7568,6 +7640,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7577,7 +7652,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7721,6 +7796,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7763,7 +7841,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7907,6 +7985,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7916,7 +7997,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8060,6 +8141,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99399.55140589927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105212.82976693707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8102,7 +8186,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8246,6 +8330,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8255,7 +8342,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8399,6 +8486,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3399.5514058992703</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7212.8297669370659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8420,11 +8510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="667187072"/>
-        <c:axId val="667188608"/>
+        <c:axId val="576585088"/>
+        <c:axId val="577045632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="667187072"/>
+        <c:axId val="576585088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,14 +8557,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667188608"/>
+        <c:crossAx val="577045632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="667188608"/>
+        <c:axId val="577045632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8525,7 +8615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="667187072"/>
+        <c:crossAx val="576585088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9079,7 +9169,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10800,6 +10890,35 @@
         <v>3399.5514058992703</v>
       </c>
     </row>
+    <row r="51" spans="1:9" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="E51" s="18">
+        <v>129572.45418029575</v>
+      </c>
+      <c r="F51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="G51" s="18">
+        <v>98000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="I51" s="18">
+        <v>7212.8297669370659</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10811,7 +10930,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12662,6 +12781,38 @@
         <v>-112.23623009437114</v>
       </c>
     </row>
+    <row r="51" spans="1:10" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+      <c r="D51" s="18">
+        <v>0</v>
+      </c>
+      <c r="E51" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F51" s="18">
+        <v>26621.687148111989</v>
+      </c>
+      <c r="G51" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>26621.687148111989</v>
+      </c>
+      <c r="I51" s="18">
+        <v>2621.6871481119888</v>
+      </c>
+      <c r="J51" s="6">
+        <v>116.62513925726178</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12673,7 +12824,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15098,6 +15249,50 @@
         <v>57.56422519642517</v>
       </c>
     </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="E51" s="18">
+        <v>140673.05691943463</v>
+      </c>
+      <c r="F51" s="18">
+        <v>114226.51893175203</v>
+      </c>
+      <c r="G51" s="18">
+        <v>107000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>114226.51893175203</v>
+      </c>
+      <c r="I51" s="18">
+        <v>7226.5189317520271</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1.7815288838741335E-2</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="M51" s="6">
+        <v>2.7262595941328873E-2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>65.34700098655739</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15109,7 +15304,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17989,6 +18184,59 @@
         <v>68.966908041071207</v>
       </c>
     </row>
+    <row r="51" spans="1:17" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="E51" s="18">
+        <v>132617.61167739201</v>
+      </c>
+      <c r="F51" s="18">
+        <v>107685.49758342907</v>
+      </c>
+      <c r="G51" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>107685.49758342907</v>
+      </c>
+      <c r="I51" s="18">
+        <v>7685.4975834290672</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N51" s="6">
+        <v>71.162778318994029</v>
+      </c>
+      <c r="O51" s="6">
+        <v>70.684446333694652</v>
+      </c>
+      <c r="P51" s="6">
+        <v>71.017793105252778</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>70.017752790578385</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18000,7 +18248,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19868,6 +20116,38 @@
         <v>3399.5514058992703</v>
       </c>
     </row>
+    <row r="51" spans="1:10" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="16">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="F51" s="18">
+        <v>129572.45418029575</v>
+      </c>
+      <c r="G51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="H51" s="18">
+        <v>98000</v>
+      </c>
+      <c r="I51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="J51" s="18">
+        <v>7212.8297669370659</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2491,6 +2491,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2500,7 +2503,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2647,6 +2650,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,7 +2695,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2836,6 +2842,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,7 +2854,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2992,6 +3001,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>105212.82976693707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>111488.72748944756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,7 +3046,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3181,6 +3193,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,7 +3205,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3337,6 +3352,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7212.8297669370659</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11488.727489447556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3358,11 +3376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161232384"/>
-        <c:axId val="161234304"/>
+        <c:axId val="451310336"/>
+        <c:axId val="454955008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161232384"/>
+        <c:axId val="451310336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,14 +3423,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161234304"/>
+        <c:crossAx val="454955008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161234304"/>
+        <c:axId val="454955008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3481,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161232384"/>
+        <c:crossAx val="451310336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3632,7 +3650,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3779,6 +3797,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,7 +3809,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3934,6 +3955,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3977,7 +4001,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4124,6 +4148,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,7 +4160,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4280,6 +4307,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>26621.687148111989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27703.604740274026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,7 +4352,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4469,6 +4499,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4478,7 +4511,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4625,6 +4658,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2621.6871481119888</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3703.604740274026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4646,11 +4682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161876608"/>
-        <c:axId val="297877888"/>
+        <c:axId val="469324928"/>
+        <c:axId val="469326848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161876608"/>
+        <c:axId val="469324928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,14 +4729,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297877888"/>
+        <c:crossAx val="469326848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="297877888"/>
+        <c:axId val="469326848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,7 +4787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161876608"/>
+        <c:crossAx val="469324928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4920,7 +4956,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5067,6 +5103,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,7 +5115,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5223,6 +5262,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>107000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5265,7 +5307,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5412,6 +5454,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5421,7 +5466,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5568,6 +5613,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>114226.51893175203</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>120868.7371216107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,7 +5658,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5757,6 +5805,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5766,7 +5817,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5913,6 +5964,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7226.5189317520271</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11868.737121610699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5934,11 +5988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443996032"/>
-        <c:axId val="444002688"/>
+        <c:axId val="532103552"/>
+        <c:axId val="532105088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443996032"/>
+        <c:axId val="532103552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,14 +6035,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444002688"/>
+        <c:crossAx val="532105088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444002688"/>
+        <c:axId val="532105088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6039,7 +6093,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443996032"/>
+        <c:crossAx val="532103552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6208,7 +6262,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6355,6 +6409,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6364,7 +6421,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6511,6 +6568,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6553,7 +6613,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6700,6 +6760,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6709,7 +6772,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6856,6 +6919,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>107685.49758342907</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>114061.88566161656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6898,7 +6964,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7045,6 +7111,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7054,7 +7123,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7201,6 +7270,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7685.4975834290672</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12061.885661616558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7222,11 +7294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551375616"/>
-        <c:axId val="551377152"/>
+        <c:axId val="532133376"/>
+        <c:axId val="532134912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551375616"/>
+        <c:axId val="532133376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7269,14 +7341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551377152"/>
+        <c:crossAx val="532134912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551377152"/>
+        <c:axId val="532134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,7 +7399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551375616"/>
+        <c:crossAx val="532133376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7496,7 +7568,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7643,6 +7715,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7652,7 +7727,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7799,6 +7874,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7841,7 +7919,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7988,6 +8066,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7997,7 +8078,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8144,6 +8225,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>105212.82976693707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>111488.72748944756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8186,7 +8270,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8333,6 +8417,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8342,7 +8429,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8489,6 +8576,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7212.8297669370659</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11488.727489447556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8510,11 +8600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576585088"/>
-        <c:axId val="577045632"/>
+        <c:axId val="532265600"/>
+        <c:axId val="532271488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576585088"/>
+        <c:axId val="532265600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8557,14 +8647,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577045632"/>
+        <c:crossAx val="532271488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577045632"/>
+        <c:axId val="532271488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8615,7 +8705,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576585088"/>
+        <c:crossAx val="532265600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9169,7 +9259,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10919,6 +11009,35 @@
         <v>7212.8297669370659</v>
       </c>
     </row>
+    <row r="52" spans="1:9" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="E52" s="18">
+        <v>131939.31800548331</v>
+      </c>
+      <c r="F52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="G52" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="I52" s="18">
+        <v>11488.727489447556</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10930,7 +11049,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12813,6 +12932,38 @@
         <v>116.62513925726178</v>
       </c>
     </row>
+    <row r="52" spans="1:10" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0</v>
+      </c>
+      <c r="D52" s="18">
+        <v>0</v>
+      </c>
+      <c r="E52" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F52" s="18">
+        <v>27703.604740274026</v>
+      </c>
+      <c r="G52" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>27703.604740274026</v>
+      </c>
+      <c r="I52" s="18">
+        <v>3703.604740274026</v>
+      </c>
+      <c r="J52" s="6">
+        <v>21.060721400501365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12824,7 +12975,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15293,6 +15444,50 @@
         <v>65.34700098655739</v>
       </c>
     </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="E52" s="18">
+        <v>143039.92074462218</v>
+      </c>
+      <c r="F52" s="18">
+        <v>120868.7371216107</v>
+      </c>
+      <c r="G52" s="18">
+        <v>109000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>120868.7371216107</v>
+      </c>
+      <c r="I52" s="18">
+        <v>11868.737121610699</v>
+      </c>
+      <c r="J52" s="6">
+        <v>3.3000051975250244E-2</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2.0346082694826153E-2</v>
+      </c>
+      <c r="L52" s="6">
+        <v>3.3000051975250244E-2</v>
+      </c>
+      <c r="M52" s="6">
+        <v>2.82188386136491E-2</v>
+      </c>
+      <c r="N52" s="1">
+        <v>72.101063312311538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15304,7 +15499,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18237,6 +18432,59 @@
         <v>70.017752790578385</v>
       </c>
     </row>
+    <row r="52" spans="1:17" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="E52" s="18">
+        <v>134984.47550257956</v>
+      </c>
+      <c r="F52" s="18">
+        <v>114061.88566161656</v>
+      </c>
+      <c r="G52" s="18">
+        <v>102000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>114061.88566161656</v>
+      </c>
+      <c r="I52" s="18">
+        <v>12061.885661616558</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N52" s="6">
+        <v>86.915892015346799</v>
+      </c>
+      <c r="O52" s="6">
+        <v>76.094928227578706</v>
+      </c>
+      <c r="P52" s="6">
+        <v>72.710171479361421</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>82.86444172401329</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18248,7 +18496,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20148,6 +20396,38 @@
         <v>7212.8297669370659</v>
       </c>
     </row>
+    <row r="52" spans="1:10" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="16">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="F52" s="18">
+        <v>131939.31800548331</v>
+      </c>
+      <c r="G52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="H52" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="J52" s="18">
+        <v>11488.727489447556</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2494,6 +2494,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,7 +2506,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2653,6 +2656,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,7 +2701,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2845,6 +2851,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2854,7 +2863,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3004,6 +3013,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>111488.72748944756</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>135126.76444373146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,7 +3058,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3196,6 +3208,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,7 +3220,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3355,6 +3370,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11488.727489447556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33126.764443731459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,11 +3394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451310336"/>
-        <c:axId val="454955008"/>
+        <c:axId val="442661888"/>
+        <c:axId val="468607744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451310336"/>
+        <c:axId val="442661888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3423,14 +3441,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454955008"/>
+        <c:crossAx val="468607744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454955008"/>
+        <c:axId val="468607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,7 +3499,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451310336"/>
+        <c:crossAx val="442661888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3650,7 +3668,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3800,6 +3818,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3809,7 +3830,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3958,6 +3979,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4001,7 +4025,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4151,6 +4175,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4160,7 +4187,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4310,6 +4337,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>27703.604740274026</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33080.396068291135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,7 +4382,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4502,6 +4532,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,7 +4544,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4661,6 +4694,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3703.604740274026</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9080.3960682911347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4682,11 +4718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469324928"/>
-        <c:axId val="469326848"/>
+        <c:axId val="89363968"/>
+        <c:axId val="89365504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469324928"/>
+        <c:axId val="89363968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,14 +4765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469326848"/>
+        <c:crossAx val="89365504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469326848"/>
+        <c:axId val="89365504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +4823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469324928"/>
+        <c:crossAx val="89363968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4956,7 +4992,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5106,6 +5142,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5115,7 +5154,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5265,6 +5304,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>109000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>111000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5307,7 +5349,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5457,6 +5499,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,7 +5511,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5616,6 +5661,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>120868.7371216107</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146327.27198292734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5658,7 +5706,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5808,6 +5856,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,7 +5868,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5967,6 +6018,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11868.737121610699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35327.271982927341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5988,11 +6042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532103552"/>
-        <c:axId val="532105088"/>
+        <c:axId val="91515520"/>
+        <c:axId val="91521408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532103552"/>
+        <c:axId val="91515520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6035,14 +6089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532105088"/>
+        <c:crossAx val="91521408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532105088"/>
+        <c:axId val="91521408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6093,7 +6147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532103552"/>
+        <c:crossAx val="91515520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6262,7 +6316,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6412,6 +6466,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6421,7 +6478,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6571,6 +6628,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>102000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>104000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6613,7 +6673,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6763,6 +6823,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6772,7 +6835,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6922,6 +6985,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>114061.88566161656</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>138199.32818696034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6964,7 +7030,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7114,6 +7180,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7123,7 +7192,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7273,6 +7342,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12061.885661616558</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34199.328186960338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7294,11 +7366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532133376"/>
-        <c:axId val="532134912"/>
+        <c:axId val="91541504"/>
+        <c:axId val="91543040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532133376"/>
+        <c:axId val="91541504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7341,14 +7413,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532134912"/>
+        <c:crossAx val="91543040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532134912"/>
+        <c:axId val="91543040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7399,7 +7471,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532133376"/>
+        <c:crossAx val="91541504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7568,7 +7640,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7718,6 +7790,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7727,7 +7802,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7877,6 +7952,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7919,7 +7997,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8069,6 +8147,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,7 +8159,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8228,6 +8309,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>111488.72748944756</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>135126.76444373146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8270,7 +8354,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8420,6 +8504,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8429,7 +8516,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8579,6 +8666,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11488.727489447556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33126.764443731459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8600,11 +8690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532265600"/>
-        <c:axId val="532271488"/>
+        <c:axId val="89322624"/>
+        <c:axId val="89324160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532265600"/>
+        <c:axId val="89322624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8647,14 +8737,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532271488"/>
+        <c:crossAx val="89324160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532271488"/>
+        <c:axId val="89324160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8705,7 +8795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532265600"/>
+        <c:crossAx val="89322624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9259,7 +9349,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11038,6 +11128,35 @@
         <v>11488.727489447556</v>
       </c>
     </row>
+    <row r="53" spans="1:9" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="E53" s="18">
+        <v>133921.47867102324</v>
+      </c>
+      <c r="F53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="G53" s="18">
+        <v>102000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="I53" s="18">
+        <v>33126.764443731459</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11049,7 +11168,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12964,6 +13083,38 @@
         <v>21.060721400501365</v>
       </c>
     </row>
+    <row r="53" spans="1:10" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0</v>
+      </c>
+      <c r="D53" s="18">
+        <v>0</v>
+      </c>
+      <c r="E53" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F53" s="18">
+        <v>33080.396068291135</v>
+      </c>
+      <c r="G53" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>33080.396068291135</v>
+      </c>
+      <c r="I53" s="18">
+        <v>9080.3960682911347</v>
+      </c>
+      <c r="J53" s="6">
+        <v>143.9725445834176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12975,7 +13126,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15488,6 +15639,50 @@
         <v>72.101063312311538</v>
       </c>
     </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="E53" s="18">
+        <v>145022.08141016212</v>
+      </c>
+      <c r="F53" s="18">
+        <v>146327.27198292734</v>
+      </c>
+      <c r="G53" s="18">
+        <v>111000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>146327.27198292734</v>
+      </c>
+      <c r="I53" s="18">
+        <v>35327.271982927341</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.16399991512298584</v>
+      </c>
+      <c r="K53" s="6">
+        <v>4.4288388099519432E-2</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.16399991512298584</v>
+      </c>
+      <c r="M53" s="6">
+        <v>5.084901803187189E-2</v>
+      </c>
+      <c r="N53" s="1">
+        <v>87.097823741177677</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15499,7 +15694,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18485,6 +18680,59 @@
         <v>82.86444172401329</v>
       </c>
     </row>
+    <row r="53" spans="1:17" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="E53" s="18">
+        <v>136966.6361681195</v>
+      </c>
+      <c r="F53" s="18">
+        <v>138199.32818696034</v>
+      </c>
+      <c r="G53" s="18">
+        <v>104000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>138199.32818696034</v>
+      </c>
+      <c r="I53" s="18">
+        <v>34199.328186960338</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N53" s="6">
+        <v>96.952898296479447</v>
+      </c>
+      <c r="O53" s="6">
+        <v>83.047584917212291</v>
+      </c>
+      <c r="P53" s="6">
+        <v>76.155975958645044</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>96.83080283434677</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18496,7 +18744,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20428,6 +20676,38 @@
         <v>11488.727489447556</v>
       </c>
     </row>
+    <row r="53" spans="1:10" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="16">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="F53" s="18">
+        <v>133921.47867102324</v>
+      </c>
+      <c r="G53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="H53" s="18">
+        <v>102000</v>
+      </c>
+      <c r="I53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="J53" s="18">
+        <v>33126.764443731459</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2497,6 +2497,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,7 +2509,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2659,6 +2662,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>102000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2701,7 +2707,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2854,6 +2860,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,7 +2872,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3016,6 +3025,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>135126.76444373146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147706.57671255671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,7 +3070,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3211,6 +3223,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,7 +3235,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3373,6 +3388,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>33126.764443731459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43706.576712556707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3394,11 +3412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442661888"/>
-        <c:axId val="468607744"/>
+        <c:axId val="306950528"/>
+        <c:axId val="306952064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442661888"/>
+        <c:axId val="306950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3441,14 +3459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468607744"/>
+        <c:crossAx val="306952064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468607744"/>
+        <c:axId val="306952064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,7 +3517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442661888"/>
+        <c:crossAx val="306950528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3668,7 +3686,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3821,6 +3839,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3830,7 +3851,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3982,6 +4003,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4025,7 +4049,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4178,6 +4202,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,7 +4214,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4340,6 +4367,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>33080.396068291135</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35670.440917079351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,7 +4412,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4535,6 +4565,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,7 +4577,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4697,6 +4730,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>9080.3960682911347</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11670.440917079351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,11 +4754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89363968"/>
-        <c:axId val="89365504"/>
+        <c:axId val="537723648"/>
+        <c:axId val="537725568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89363968"/>
+        <c:axId val="537723648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4765,14 +4801,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89365504"/>
+        <c:crossAx val="537725568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89365504"/>
+        <c:axId val="537725568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,7 +4859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89363968"/>
+        <c:crossAx val="537723648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4992,7 +5028,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5145,6 +5181,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,7 +5193,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5307,6 +5346,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5349,7 +5391,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5502,6 +5544,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5511,7 +5556,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5664,6 +5709,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>146327.27198292734</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159784.03314909412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5706,7 +5754,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5859,6 +5907,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5868,7 +5919,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6021,6 +6072,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>35327.271982927341</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46784.033149094117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6042,11 +6096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91515520"/>
-        <c:axId val="91521408"/>
+        <c:axId val="654463360"/>
+        <c:axId val="654465664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91515520"/>
+        <c:axId val="654463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6089,14 +6143,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91521408"/>
+        <c:crossAx val="654465664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91521408"/>
+        <c:axId val="654465664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6147,7 +6201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91515520"/>
+        <c:crossAx val="654463360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6316,7 +6370,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6469,6 +6523,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6478,7 +6535,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6631,6 +6688,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>106000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6673,7 +6733,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6826,6 +6886,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6835,7 +6898,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6988,6 +7051,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>138199.32818696034</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>151019.70824945092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7030,7 +7096,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7183,6 +7249,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7192,7 +7261,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7345,6 +7414,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>34199.328186960338</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45019.708249450923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7366,11 +7438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91541504"/>
-        <c:axId val="91543040"/>
+        <c:axId val="754220032"/>
+        <c:axId val="823146752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91541504"/>
+        <c:axId val="754220032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7413,14 +7485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91543040"/>
+        <c:crossAx val="823146752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91543040"/>
+        <c:axId val="823146752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7471,7 +7543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91541504"/>
+        <c:crossAx val="754220032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7640,7 +7712,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7793,6 +7865,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7802,7 +7877,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7955,6 +8030,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>102000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7997,7 +8075,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8150,6 +8228,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8159,7 +8240,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8312,6 +8393,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>135126.76444373146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147706.57671255671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,7 +8438,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8507,6 +8591,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8516,7 +8603,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8669,6 +8756,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>33126.764443731459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43706.576712556707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8690,11 +8780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89322624"/>
-        <c:axId val="89324160"/>
+        <c:axId val="655656832"/>
+        <c:axId val="655658368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89322624"/>
+        <c:axId val="655656832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,14 +8827,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89324160"/>
+        <c:crossAx val="655658368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89324160"/>
+        <c:axId val="655658368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8795,7 +8885,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89322624"/>
+        <c:crossAx val="655656832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9349,7 +9439,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11157,6 +11247,35 @@
         <v>33126.764443731459</v>
       </c>
     </row>
+    <row r="54" spans="1:9" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="E54" s="18">
+        <v>135759.71386524124</v>
+      </c>
+      <c r="F54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="G54" s="18">
+        <v>104000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="I54" s="18">
+        <v>43706.576712556707</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11168,7 +11287,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13115,6 +13234,38 @@
         <v>143.9725445834176</v>
       </c>
     </row>
+    <row r="54" spans="1:10" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0</v>
+      </c>
+      <c r="D54" s="18">
+        <v>0</v>
+      </c>
+      <c r="E54" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F54" s="18">
+        <v>35670.440917079351</v>
+      </c>
+      <c r="G54" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>35670.440917079351</v>
+      </c>
+      <c r="I54" s="18">
+        <v>11670.440917079351</v>
+      </c>
+      <c r="J54" s="6">
+        <v>121.58175372392238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13126,7 +13277,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15683,6 +15834,50 @@
         <v>87.097823741177677</v>
       </c>
     </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="E54" s="18">
+        <v>146860.31660438012</v>
+      </c>
+      <c r="F54" s="18">
+        <v>159784.03314909412</v>
+      </c>
+      <c r="G54" s="18">
+        <v>113000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>159784.03314909412</v>
+      </c>
+      <c r="I54" s="18">
+        <v>46784.033149094117</v>
+      </c>
+      <c r="J54" s="6">
+        <v>7.9000115394592285E-2</v>
+      </c>
+      <c r="K54" s="6">
+        <v>5.0073675982031572E-2</v>
+      </c>
+      <c r="L54" s="6">
+        <v>7.9000115394592285E-2</v>
+      </c>
+      <c r="M54" s="6">
+        <v>5.5540867592325294E-2</v>
+      </c>
+      <c r="N54" s="1">
+        <v>90.156452631558849</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15694,7 +15889,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18733,6 +18928,59 @@
         <v>96.83080283434677</v>
       </c>
     </row>
+    <row r="54" spans="1:17" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="E54" s="18">
+        <v>138804.87136233749</v>
+      </c>
+      <c r="F54" s="18">
+        <v>151019.70824945092</v>
+      </c>
+      <c r="G54" s="18">
+        <v>106000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>151019.70824945092</v>
+      </c>
+      <c r="I54" s="18">
+        <v>45019.708249450923</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="L54" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N54" s="6">
+        <v>87.195130446328506</v>
+      </c>
+      <c r="O54" s="6">
+        <v>84.430100093584358</v>
+      </c>
+      <c r="P54" s="6">
+        <v>78.914017336958139</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>95.46226560683678</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18744,7 +18992,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20708,6 +20956,38 @@
         <v>33126.764443731459</v>
       </c>
     </row>
+    <row r="54" spans="1:10" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="16">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="F54" s="18">
+        <v>135759.71386524124</v>
+      </c>
+      <c r="G54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="H54" s="18">
+        <v>104000</v>
+      </c>
+      <c r="I54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="J54" s="18">
+        <v>43706.576712556707</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2500,6 +2500,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,7 +2512,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2665,6 +2668,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>106000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,7 +2713,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2863,6 +2869,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2881,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3028,6 +3037,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>147706.57671255671</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147670.16676281733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,7 +3082,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3226,6 +3238,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,7 +3250,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3391,6 +3406,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43706.576712556707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41670.166762817331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,11 +3430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="306950528"/>
-        <c:axId val="306952064"/>
+        <c:axId val="467070976"/>
+        <c:axId val="467072512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="306950528"/>
+        <c:axId val="467070976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,14 +3477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306952064"/>
+        <c:crossAx val="467072512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="306952064"/>
+        <c:axId val="467072512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306950528"/>
+        <c:crossAx val="467070976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3686,7 +3704,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3842,6 +3860,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3851,7 +3872,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4006,6 +4027,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4049,7 +4073,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4205,6 +4229,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4241,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4370,6 +4397,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>35670.440917079351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35178.657528608499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4442,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4568,6 +4598,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4577,7 +4610,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4733,6 +4766,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>11670.440917079351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11178.657528608499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4754,11 +4790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537723648"/>
-        <c:axId val="537725568"/>
+        <c:axId val="514493056"/>
+        <c:axId val="549794176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537723648"/>
+        <c:axId val="514493056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4801,14 +4837,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537725568"/>
+        <c:crossAx val="549794176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537725568"/>
+        <c:axId val="549794176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4859,7 +4895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537723648"/>
+        <c:crossAx val="514493056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5028,7 +5064,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5184,6 +5220,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5193,7 +5232,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5349,6 +5388,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>113000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>115000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5391,7 +5433,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5547,6 +5589,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5556,7 +5601,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5712,6 +5757,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>159784.03314909412</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159581.1129937681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,7 +5802,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5910,6 +5958,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5919,7 +5970,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6075,6 +6126,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>46784.033149094117</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44581.112993768096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6096,11 +6150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654463360"/>
-        <c:axId val="654465664"/>
+        <c:axId val="576446848"/>
+        <c:axId val="576448384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654463360"/>
+        <c:axId val="576446848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6143,14 +6197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654465664"/>
+        <c:crossAx val="576448384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="654465664"/>
+        <c:axId val="576448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6201,7 +6255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654463360"/>
+        <c:crossAx val="576446848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6370,7 +6424,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6526,6 +6580,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6535,7 +6592,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6691,6 +6748,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>108000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6733,7 +6793,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6889,6 +6949,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6898,7 +6961,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7054,6 +7117,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>151019.70824945092</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150937.62061780537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7096,7 +7162,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7252,6 +7318,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7261,7 +7330,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7417,6 +7486,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45019.708249450923</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42937.620617805369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7438,11 +7510,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="754220032"/>
-        <c:axId val="823146752"/>
+        <c:axId val="576472576"/>
+        <c:axId val="576474112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="754220032"/>
+        <c:axId val="576472576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7485,14 +7557,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="823146752"/>
+        <c:crossAx val="576474112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="823146752"/>
+        <c:axId val="576474112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7543,7 +7615,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="754220032"/>
+        <c:crossAx val="576472576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7712,7 +7784,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7868,6 +7940,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7877,7 +7952,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8033,6 +8108,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>106000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8075,7 +8153,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8231,6 +8309,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8240,7 +8321,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8396,6 +8477,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>147706.57671255671</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147670.16676281733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8438,7 +8522,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8594,6 +8678,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8603,7 +8690,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8759,6 +8846,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43706.576712556707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41670.166762817331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8780,11 +8870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="655656832"/>
-        <c:axId val="655658368"/>
+        <c:axId val="577002112"/>
+        <c:axId val="577003904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="655656832"/>
+        <c:axId val="577002112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8827,14 +8917,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655658368"/>
+        <c:crossAx val="577003904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="655658368"/>
+        <c:axId val="577003904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8885,7 +8975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655656832"/>
+        <c:crossAx val="577002112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9439,7 +9529,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11276,6 +11366,35 @@
         <v>43706.576712556707</v>
       </c>
     </row>
+    <row r="55" spans="1:9" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="E55" s="18">
+        <v>137623.64684317607</v>
+      </c>
+      <c r="F55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="G55" s="18">
+        <v>106000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="I55" s="18">
+        <v>41670.166762817331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11287,7 +11406,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13266,6 +13385,38 @@
         <v>121.58175372392238</v>
       </c>
     </row>
+    <row r="55" spans="1:10" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0</v>
+      </c>
+      <c r="D55" s="18">
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F55" s="18">
+        <v>35178.657528608499</v>
+      </c>
+      <c r="G55" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>35178.657528608499</v>
+      </c>
+      <c r="I55" s="18">
+        <v>11178.657528608499</v>
+      </c>
+      <c r="J55" s="6">
+        <v>57.419730839413582</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13277,7 +13428,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15878,6 +16029,50 @@
         <v>90.156452631558849</v>
       </c>
     </row>
+    <row r="55" spans="1:14" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="E55" s="18">
+        <v>148724.24958231495</v>
+      </c>
+      <c r="F55" s="18">
+        <v>159581.1129937681</v>
+      </c>
+      <c r="G55" s="18">
+        <v>115000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>159581.1129937681</v>
+      </c>
+      <c r="I55" s="18">
+        <v>44581.112993768096</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>4.1728063318359647E-2</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1.5000104904174805E-2</v>
+      </c>
+      <c r="M55" s="6">
+        <v>4.8784073810966881E-2</v>
+      </c>
+      <c r="N55" s="1">
+        <v>85.53624176621959</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15889,7 +16084,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18981,6 +19176,59 @@
         <v>95.46226560683678</v>
       </c>
     </row>
+    <row r="55" spans="1:17" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="E55" s="18">
+        <v>140668.80434027233</v>
+      </c>
+      <c r="F55" s="18">
+        <v>150937.62061780537</v>
+      </c>
+      <c r="G55" s="18">
+        <v>108000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>150937.62061780537</v>
+      </c>
+      <c r="I55" s="18">
+        <v>42937.620617805369</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1.128000020980835</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N55" s="6">
+        <v>84.146328905427424</v>
+      </c>
+      <c r="O55" s="6">
+        <v>84.335509697532046</v>
+      </c>
+      <c r="P55" s="6">
+        <v>80.721181457149441</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>91.564166178297256</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18992,7 +19240,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20988,6 +21236,38 @@
         <v>43706.576712556707</v>
       </c>
     </row>
+    <row r="55" spans="1:10" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="16">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="F55" s="18">
+        <v>137623.64684317607</v>
+      </c>
+      <c r="G55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="H55" s="18">
+        <v>106000</v>
+      </c>
+      <c r="I55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="J55" s="18">
+        <v>41670.166762817331</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1.xlsx
@@ -2344,7 +2344,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2503,6 +2503,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,7 +2515,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2671,6 +2674,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>108000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,7 +2719,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2872,6 +2878,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,7 +2890,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3040,6 +3049,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>147670.16676281733</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>145128.58746697762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,7 +3094,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3241,6 +3253,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3250,7 +3265,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3409,6 +3424,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41670.166762817331</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37128.587466977624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,11 +3448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467070976"/>
-        <c:axId val="467072512"/>
+        <c:axId val="469371136"/>
+        <c:axId val="469382656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467070976"/>
+        <c:axId val="469371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,14 +3495,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467072512"/>
+        <c:crossAx val="469382656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467072512"/>
+        <c:axId val="469382656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3553,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467070976"/>
+        <c:crossAx val="469371136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3704,7 +3722,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3863,6 +3881,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3872,7 +3893,7 @@
               <c:f>'model1&amp;CCI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4030,6 +4051,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4073,7 +4097,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4232,6 +4256,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4241,7 +4268,7 @@
               <c:f>'model1&amp;CCI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4400,6 +4427,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>35178.657528608499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34096.741890604411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4442,7 +4472,7 @@
               <c:f>'model1&amp;CCI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4601,6 +4631,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4610,7 +4643,7 @@
               <c:f>'model1&amp;CCI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4769,6 +4802,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>11178.657528608499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10096.741890604411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4790,11 +4826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514493056"/>
-        <c:axId val="549794176"/>
+        <c:axId val="475069824"/>
+        <c:axId val="475261952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514493056"/>
+        <c:axId val="475069824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,14 +4873,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549794176"/>
+        <c:crossAx val="475261952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549794176"/>
+        <c:axId val="475261952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,7 +4931,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514493056"/>
+        <c:crossAx val="475069824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5064,7 +5100,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5223,6 +5259,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5232,7 +5271,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5391,6 +5430,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>117000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5433,7 +5475,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5592,6 +5634,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5601,7 +5646,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5760,6 +5805,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>159581.1129937681</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>156673.21389222765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5802,7 +5850,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5961,6 +6009,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5970,7 +6021,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6129,6 +6180,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>44581.112993768096</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39673.21389222765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6150,11 +6204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576446848"/>
-        <c:axId val="576448384"/>
+        <c:axId val="535827968"/>
+        <c:axId val="535829504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576446848"/>
+        <c:axId val="535827968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6197,14 +6251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576448384"/>
+        <c:crossAx val="535829504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576448384"/>
+        <c:axId val="535829504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6255,7 +6309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576446848"/>
+        <c:crossAx val="535827968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6424,7 +6478,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6583,6 +6637,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6592,7 +6649,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6751,6 +6808,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>108000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>110000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6793,7 +6853,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6952,6 +7012,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6961,7 +7024,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7120,6 +7183,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>150937.62061780537</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>148295.55114779418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7162,7 +7228,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7321,6 +7387,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7330,7 +7399,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7489,6 +7558,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42937.620617805369</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38295.551147794176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7510,11 +7582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576472576"/>
-        <c:axId val="576474112"/>
+        <c:axId val="577704320"/>
+        <c:axId val="577705856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576472576"/>
+        <c:axId val="577704320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7557,14 +7629,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576474112"/>
+        <c:crossAx val="577705856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576474112"/>
+        <c:axId val="577705856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7615,7 +7687,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576472576"/>
+        <c:crossAx val="577704320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7784,7 +7856,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7943,6 +8015,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7952,7 +8027,7 @@
               <c:f>'model1&amp;pe'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8111,6 +8186,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>108000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8153,7 +8231,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8312,6 +8390,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8321,7 +8402,7 @@
               <c:f>'model1&amp;pe'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8480,6 +8561,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>147670.16676281733</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>145128.58746697762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8522,7 +8606,7 @@
               <c:f>'model1&amp;pe'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8681,6 +8765,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8690,7 +8777,7 @@
               <c:f>'model1&amp;pe'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8849,6 +8936,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41670.166762817331</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37128.587466977624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8870,11 +8960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="577002112"/>
-        <c:axId val="577003904"/>
+        <c:axId val="589760000"/>
+        <c:axId val="589761536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="577002112"/>
+        <c:axId val="589760000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8917,14 +9007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577003904"/>
+        <c:crossAx val="589761536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577003904"/>
+        <c:axId val="589761536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8975,7 +9065,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577002112"/>
+        <c:crossAx val="589760000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9529,7 +9619,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11395,6 +11485,35 @@
         <v>41670.166762817331</v>
       </c>
     </row>
+    <row r="56" spans="1:9" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="E56" s="18">
+        <v>139546.72383679103</v>
+      </c>
+      <c r="F56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="G56" s="18">
+        <v>108000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="I56" s="18">
+        <v>37128.587466977624</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11406,7 +11525,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13417,6 +13536,38 @@
         <v>57.419730839413582</v>
       </c>
     </row>
+    <row r="56" spans="1:10" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0</v>
+      </c>
+      <c r="D56" s="18">
+        <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F56" s="18">
+        <v>34096.741890604411</v>
+      </c>
+      <c r="G56" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>34096.741890604411</v>
+      </c>
+      <c r="I56" s="18">
+        <v>10096.741890604411</v>
+      </c>
+      <c r="J56" s="6">
+        <v>-25.623704638394841</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13428,7 +13579,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16073,6 +16224,50 @@
         <v>85.53624176621959</v>
       </c>
     </row>
+    <row r="56" spans="1:14" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="E56" s="18">
+        <v>150647.32657592991</v>
+      </c>
+      <c r="F56" s="18">
+        <v>156673.21389222765</v>
+      </c>
+      <c r="G56" s="18">
+        <v>117000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>156673.21389222765</v>
+      </c>
+      <c r="I56" s="18">
+        <v>39673.21389222765</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>3.4773386098633043E-2</v>
+      </c>
+      <c r="L56" s="6">
+        <v>3.2999992370605469E-2</v>
+      </c>
+      <c r="M56" s="6">
+        <v>4.6153393570906642E-2</v>
+      </c>
+      <c r="N56" s="1">
+        <v>75.343075358499476</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16084,7 +16279,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19229,6 +19424,59 @@
         <v>91.564166178297256</v>
       </c>
     </row>
+    <row r="56" spans="1:17" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="E56" s="18">
+        <v>142591.88133388729</v>
+      </c>
+      <c r="F56" s="18">
+        <v>148295.55114779418</v>
+      </c>
+      <c r="G56" s="18">
+        <v>110000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>148295.55114779418</v>
+      </c>
+      <c r="I56" s="18">
+        <v>38295.551147794176</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1.093000054359436</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N56" s="6">
+        <v>77.439013974501577</v>
+      </c>
+      <c r="O56" s="6">
+        <v>82.036677789855219</v>
+      </c>
+      <c r="P56" s="6">
+        <v>81.159680234718039</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>83.790672900129579</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19240,7 +19488,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21268,6 +21516,38 @@
         <v>41670.166762817331</v>
       </c>
     </row>
+    <row r="56" spans="1:10" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="16">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="F56" s="18">
+        <v>139546.72383679103</v>
+      </c>
+      <c r="G56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="H56" s="18">
+        <v>108000</v>
+      </c>
+      <c r="I56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="J56" s="18">
+        <v>37128.587466977624</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
